--- a/src/main/resources/script/db/init-data/hrds_code_repo/hzero_platform/hzero-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/hrds_code_repo/hzero_platform/hzero-menu-user-role-label.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="440">
   <si>
     <r>
       <rPr>
@@ -2083,6 +2083,9 @@
     <t>基础</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>organization</t>
   </si>
   <si>
@@ -2108,9 +2111,6 @@
   </si>
   <si>
     <t>文档库管理</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>menu</t>
@@ -4624,58 +4624,61 @@
       <c r="H8" t="s">
         <v>77</v>
       </c>
+      <c r="I8" t="s">
+        <v>78</v>
+      </c>
       <c r="J8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S8" t="s">
         <v>76</v>
       </c>
       <c r="T8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="X8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9">
       <c r="E9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I9" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="J9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K9">
         <f>菜单SAAS版!$E$8</f>
@@ -4687,7 +4690,7 @@
         <v>89</v>
       </c>
       <c r="N9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O9" t="s">
         <v>90</v>
@@ -4696,22 +4699,22 @@
         <v>91</v>
       </c>
       <c r="Q9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S9" t="s">
         <v>92</v>
       </c>
       <c r="T9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="X9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10">
@@ -4728,7 +4731,7 @@
         <v>95</v>
       </c>
       <c r="J10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K10">
         <f>菜单SAAS版!$E$9</f>
@@ -4740,28 +4743,28 @@
         <v>97</v>
       </c>
       <c r="N10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S10" t="s">
         <v>98</v>
       </c>
       <c r="T10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U10" t="s">
         <v>99</v>
       </c>
       <c r="V10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="X10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11">
@@ -4778,7 +4781,7 @@
         <v>102</v>
       </c>
       <c r="J11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K11">
         <f>菜单SAAS版!$E$9</f>
@@ -4790,31 +4793,31 @@
         <v>89</v>
       </c>
       <c r="N11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O11" t="s">
         <v>103</v>
       </c>
       <c r="Q11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S11" t="s">
         <v>104</v>
       </c>
       <c r="T11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U11" t="s">
         <v>99</v>
       </c>
       <c r="V11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="X11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12">
@@ -4830,38 +4833,41 @@
       <c r="H12" t="s">
         <v>107</v>
       </c>
+      <c r="I12" t="s">
+        <v>78</v>
+      </c>
       <c r="J12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S12" t="s">
         <v>106</v>
       </c>
       <c r="T12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V12" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="X12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13">
@@ -4878,10 +4884,10 @@
         <v>110</v>
       </c>
       <c r="I13" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="J13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K13">
         <f>菜单SAAS版!$E$12</f>
@@ -4893,7 +4899,7 @@
         <v>111</v>
       </c>
       <c r="N13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O13" t="s">
         <v>112</v>
@@ -4902,22 +4908,22 @@
         <v>113</v>
       </c>
       <c r="Q13" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R13" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S13" t="s">
         <v>114</v>
       </c>
       <c r="T13" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V13" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="X13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14">
@@ -4934,10 +4940,10 @@
         <v>95</v>
       </c>
       <c r="I14" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="J14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K14">
         <f>菜单SAAS版!$E$13</f>
@@ -4949,28 +4955,28 @@
         <v>97</v>
       </c>
       <c r="N14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q14" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R14" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S14" t="s">
         <v>117</v>
       </c>
       <c r="T14" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U14" t="s">
         <v>99</v>
       </c>
       <c r="V14" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="X14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15">
@@ -4986,38 +4992,41 @@
       <c r="H15" t="s">
         <v>77</v>
       </c>
+      <c r="I15" t="s">
+        <v>78</v>
+      </c>
       <c r="J15" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K15" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L15" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M15" t="s">
         <v>120</v>
       </c>
       <c r="N15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q15" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R15" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S15" t="s">
         <v>119</v>
       </c>
       <c r="T15" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V15" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="X15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16">
@@ -5028,16 +5037,16 @@
         <v>122</v>
       </c>
       <c r="G16" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H16" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I16" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="J16" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K16">
         <f>菜单SAAS版!$E$15</f>
@@ -5049,7 +5058,7 @@
         <v>89</v>
       </c>
       <c r="N16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O16" t="s">
         <v>90</v>
@@ -5058,22 +5067,22 @@
         <v>123</v>
       </c>
       <c r="Q16" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R16" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S16" t="s">
         <v>124</v>
       </c>
       <c r="T16" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V16" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="X16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17">
@@ -5090,7 +5099,7 @@
         <v>95</v>
       </c>
       <c r="J17" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K17">
         <f>菜单SAAS版!$E$16</f>
@@ -5102,28 +5111,28 @@
         <v>97</v>
       </c>
       <c r="N17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q17" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R17" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S17" t="s">
         <v>127</v>
       </c>
       <c r="T17" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U17" t="s">
         <v>99</v>
       </c>
       <c r="V17" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="X17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18">
@@ -5140,7 +5149,7 @@
         <v>130</v>
       </c>
       <c r="J18" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K18">
         <f>菜单SAAS版!$E$16</f>
@@ -5152,31 +5161,31 @@
         <v>89</v>
       </c>
       <c r="N18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O18" t="s">
         <v>103</v>
       </c>
       <c r="Q18" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R18" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S18" t="s">
         <v>131</v>
       </c>
       <c r="T18" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U18" t="s">
         <v>99</v>
       </c>
       <c r="V18" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="X18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19">
@@ -5193,7 +5202,7 @@
         <v>134</v>
       </c>
       <c r="J19" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K19">
         <f>菜单SAAS版!$E$16</f>
@@ -5205,31 +5214,31 @@
         <v>135</v>
       </c>
       <c r="N19" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O19" t="s">
         <v>103</v>
       </c>
       <c r="Q19" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R19" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S19" t="s">
         <v>136</v>
       </c>
       <c r="T19" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U19" t="s">
         <v>99</v>
       </c>
       <c r="V19" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="X19" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -5839,7 +5848,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:O55"/>
+  <dimension ref="A1:O58"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5928,7 +5937,7 @@
         <v>245</v>
       </c>
       <c r="H8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I8" t="s">
         <v>246</v>
@@ -5940,13 +5949,13 @@
         <v>244</v>
       </c>
       <c r="M8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9">
@@ -5960,7 +5969,7 @@
         <v>245</v>
       </c>
       <c r="H9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I9" t="s">
         <v>246</v>
@@ -5972,13 +5981,13 @@
         <v>249</v>
       </c>
       <c r="M9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10">
@@ -5992,19 +6001,19 @@
         <v>245</v>
       </c>
       <c r="H10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I10" t="s">
         <v>253</v>
       </c>
       <c r="M10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11">
@@ -6018,19 +6027,19 @@
         <v>245</v>
       </c>
       <c r="H11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I11" t="s">
         <v>246</v>
       </c>
       <c r="M11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12">
@@ -6044,7 +6053,7 @@
         <v>245</v>
       </c>
       <c r="H12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I12" t="s">
         <v>253</v>
@@ -6056,13 +6065,13 @@
         <v>258</v>
       </c>
       <c r="M12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13">
@@ -6076,7 +6085,7 @@
         <v>245</v>
       </c>
       <c r="H13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I13" t="s">
         <v>246</v>
@@ -6085,13 +6094,13 @@
         <v>261</v>
       </c>
       <c r="M13" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N13" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14">
@@ -6105,7 +6114,7 @@
         <v>245</v>
       </c>
       <c r="H14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I14" t="s">
         <v>246</v>
@@ -6114,13 +6123,13 @@
         <v>264</v>
       </c>
       <c r="M14" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N14" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15">
@@ -6134,7 +6143,7 @@
         <v>245</v>
       </c>
       <c r="H15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I15" t="s">
         <v>246</v>
@@ -6143,13 +6152,13 @@
         <v>267</v>
       </c>
       <c r="M15" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N15" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16">
@@ -6163,7 +6172,7 @@
         <v>245</v>
       </c>
       <c r="H16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I16" t="s">
         <v>246</v>
@@ -6172,13 +6181,13 @@
         <v>270</v>
       </c>
       <c r="M16" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N16" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17">
@@ -6192,7 +6201,7 @@
         <v>245</v>
       </c>
       <c r="H17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I17" t="s">
         <v>246</v>
@@ -6204,13 +6213,13 @@
         <v>273</v>
       </c>
       <c r="M17" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N17" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18">
@@ -6224,7 +6233,7 @@
         <v>245</v>
       </c>
       <c r="H18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I18" t="s">
         <v>246</v>
@@ -6236,13 +6245,13 @@
         <v>276</v>
       </c>
       <c r="M18" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N18" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19">
@@ -6256,7 +6265,7 @@
         <v>245</v>
       </c>
       <c r="H19" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I19" t="s">
         <v>246</v>
@@ -6268,13 +6277,13 @@
         <v>278</v>
       </c>
       <c r="M19" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N19" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O19" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20">
@@ -6288,19 +6297,19 @@
         <v>245</v>
       </c>
       <c r="H20" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I20" t="s">
         <v>253</v>
       </c>
       <c r="M20" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N20" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O20" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21">
@@ -6314,7 +6323,7 @@
         <v>245</v>
       </c>
       <c r="H21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I21" t="s">
         <v>253</v>
@@ -6326,13 +6335,13 @@
         <v>284</v>
       </c>
       <c r="M21" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N21" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22">
@@ -6346,7 +6355,7 @@
         <v>245</v>
       </c>
       <c r="H22" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I22" t="s">
         <v>253</v>
@@ -6358,13 +6367,13 @@
         <v>287</v>
       </c>
       <c r="M22" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N22" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O22" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23">
@@ -6378,7 +6387,7 @@
         <v>245</v>
       </c>
       <c r="H23" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I23" t="s">
         <v>253</v>
@@ -6390,13 +6399,13 @@
         <v>290</v>
       </c>
       <c r="M23" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N23" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O23" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24">
@@ -6410,19 +6419,19 @@
         <v>245</v>
       </c>
       <c r="H24" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I24" t="s">
         <v>253</v>
       </c>
       <c r="M24" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N24" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O24" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25">
@@ -6436,7 +6445,7 @@
         <v>245</v>
       </c>
       <c r="H25" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I25" t="s">
         <v>253</v>
@@ -6445,13 +6454,13 @@
         <v>295</v>
       </c>
       <c r="M25" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N25" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O25" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26">
@@ -6465,7 +6474,7 @@
         <v>245</v>
       </c>
       <c r="H26" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I26" t="s">
         <v>253</v>
@@ -6474,13 +6483,13 @@
         <v>298</v>
       </c>
       <c r="M26" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N26" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O26" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27">
@@ -6494,7 +6503,7 @@
         <v>245</v>
       </c>
       <c r="H27" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I27" t="s">
         <v>253</v>
@@ -6506,13 +6515,13 @@
         <v>301</v>
       </c>
       <c r="M27" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N27" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O27" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28">
@@ -6526,7 +6535,7 @@
         <v>245</v>
       </c>
       <c r="H28" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I28" t="s">
         <v>253</v>
@@ -6538,13 +6547,13 @@
         <v>304</v>
       </c>
       <c r="M28" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N28" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O28" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29">
@@ -6558,7 +6567,7 @@
         <v>245</v>
       </c>
       <c r="H29" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I29" t="s">
         <v>253</v>
@@ -6570,13 +6579,13 @@
         <v>307</v>
       </c>
       <c r="M29" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N29" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O29" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="31">
@@ -6684,10 +6693,10 @@
         <v>245</v>
       </c>
       <c r="G36">
-        <f>菜单SAAS版!$E$15</f>
+        <f>菜单SAAS版!$E$12</f>
       </c>
       <c r="H36">
-        <f>菜单标签数据!$E$14</f>
+        <f>菜单标签数据!$E$29</f>
       </c>
       <c r="I36" t="s">
         <v>316</v>
@@ -6704,7 +6713,7 @@
         <f>菜单SAAS版!$E$15</f>
       </c>
       <c r="H37">
-        <f>菜单标签数据!$E$15</f>
+        <f>菜单标签数据!$E$14</f>
       </c>
       <c r="I37" t="s">
         <v>316</v>
@@ -6721,7 +6730,7 @@
         <f>菜单SAAS版!$E$15</f>
       </c>
       <c r="H38">
-        <f>菜单标签数据!$E$16</f>
+        <f>菜单标签数据!$E$15</f>
       </c>
       <c r="I38" t="s">
         <v>316</v>
@@ -6738,7 +6747,7 @@
         <f>菜单SAAS版!$E$15</f>
       </c>
       <c r="H39">
-        <f>菜单标签数据!$E$27</f>
+        <f>菜单标签数据!$E$16</f>
       </c>
       <c r="I39" t="s">
         <v>316</v>
@@ -6755,7 +6764,7 @@
         <f>菜单SAAS版!$E$15</f>
       </c>
       <c r="H40">
-        <f>菜单标签数据!$E$28</f>
+        <f>菜单标签数据!$E$27</f>
       </c>
       <c r="I40" t="s">
         <v>316</v>
@@ -6769,10 +6778,10 @@
         <v>245</v>
       </c>
       <c r="G41">
-        <f>菜单SAAS版!$E$16</f>
+        <f>菜单SAAS版!$E$15</f>
       </c>
       <c r="H41">
-        <f>菜单标签数据!$E$14</f>
+        <f>菜单标签数据!$E$28</f>
       </c>
       <c r="I41" t="s">
         <v>316</v>
@@ -6786,10 +6795,10 @@
         <v>245</v>
       </c>
       <c r="G42">
-        <f>菜单SAAS版!$E$16</f>
+        <f>菜单SAAS版!$E$15</f>
       </c>
       <c r="H42">
-        <f>菜单标签数据!$E$27</f>
+        <f>菜单标签数据!$E$29</f>
       </c>
       <c r="I42" t="s">
         <v>316</v>
@@ -6803,10 +6812,10 @@
         <v>245</v>
       </c>
       <c r="G43">
-        <f>菜单SAAS版!$E$8</f>
+        <f>菜单SAAS版!$E$16</f>
       </c>
       <c r="H43">
-        <f>菜单标签数据!$E$8</f>
+        <f>菜单标签数据!$E$14</f>
       </c>
       <c r="I43" t="s">
         <v>316</v>
@@ -6820,7 +6829,7 @@
         <v>245</v>
       </c>
       <c r="G44">
-        <f>菜单SAAS版!$E$8</f>
+        <f>菜单SAAS版!$E$16</f>
       </c>
       <c r="H44">
         <f>菜单标签数据!$E$27</f>
@@ -6840,7 +6849,7 @@
         <f>菜单SAAS版!$E$8</f>
       </c>
       <c r="H45">
-        <f>菜单标签数据!$E$28</f>
+        <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I45" t="s">
         <v>316</v>
@@ -6854,13 +6863,13 @@
         <v>245</v>
       </c>
       <c r="G46">
-        <f>菜单SAAS版!$E$9</f>
+        <f>菜单SAAS版!$E$8</f>
       </c>
       <c r="H46">
-        <f>菜单标签数据!$E$8</f>
+        <f>菜单标签数据!$E$27</f>
       </c>
       <c r="I46" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="47">
@@ -6871,10 +6880,10 @@
         <v>245</v>
       </c>
       <c r="G47">
-        <f>菜单SAAS版!$E$9</f>
+        <f>菜单SAAS版!$E$8</f>
       </c>
       <c r="H47">
-        <f>菜单标签数据!$E$19</f>
+        <f>菜单标签数据!$E$28</f>
       </c>
       <c r="I47" t="s">
         <v>316</v>
@@ -6888,10 +6897,10 @@
         <v>245</v>
       </c>
       <c r="G48">
-        <f>菜单SAAS版!$E$9</f>
+        <f>菜单SAAS版!$E$8</f>
       </c>
       <c r="H48">
-        <f>菜单标签数据!$E$27</f>
+        <f>菜单标签数据!$E$29</f>
       </c>
       <c r="I48" t="s">
         <v>316</v>
@@ -6905,7 +6914,7 @@
         <v>245</v>
       </c>
       <c r="G49">
-        <f>菜单SAAS版!$E$10</f>
+        <f>菜单SAAS版!$E$9</f>
       </c>
       <c r="H49">
         <f>菜单标签数据!$E$8</f>
@@ -6922,13 +6931,13 @@
         <v>245</v>
       </c>
       <c r="G50">
-        <f>菜单SAAS版!$E$11</f>
+        <f>菜单SAAS版!$E$9</f>
       </c>
       <c r="H50">
-        <f>菜单标签数据!$E$8</f>
+        <f>菜单标签数据!$E$19</f>
       </c>
       <c r="I50" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="51">
@@ -6939,13 +6948,13 @@
         <v>245</v>
       </c>
       <c r="G51">
-        <f>菜单SAAS版!$E$11</f>
+        <f>菜单SAAS版!$E$9</f>
       </c>
       <c r="H51">
-        <f>菜单标签数据!$E$19</f>
+        <f>菜单标签数据!$E$27</f>
       </c>
       <c r="I51" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="52">
@@ -6956,13 +6965,13 @@
         <v>245</v>
       </c>
       <c r="G52">
-        <f>菜单SAAS版!$E$13</f>
+        <f>菜单SAAS版!$E$10</f>
       </c>
       <c r="H52">
-        <f>菜单标签数据!$E$11</f>
+        <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I52" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="53">
@@ -6973,13 +6982,13 @@
         <v>245</v>
       </c>
       <c r="G53">
-        <f>菜单SAAS版!$E$13</f>
+        <f>菜单SAAS版!$E$11</f>
       </c>
       <c r="H53">
-        <f>菜单标签数据!$E$27</f>
+        <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I53" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="54">
@@ -6990,13 +6999,13 @@
         <v>245</v>
       </c>
       <c r="G54">
-        <f>菜单SAAS版!$E$13</f>
+        <f>菜单SAAS版!$E$11</f>
       </c>
       <c r="H54">
-        <f>菜单标签数据!$E$28</f>
+        <f>菜单标签数据!$E$19</f>
       </c>
       <c r="I54" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="55">
@@ -7010,9 +7019,60 @@
         <f>菜单SAAS版!$E$13</f>
       </c>
       <c r="H55">
+        <f>菜单标签数据!$E$11</f>
+      </c>
+      <c r="I55" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="E56" t="s">
+        <v>315</v>
+      </c>
+      <c r="F56" t="s">
+        <v>245</v>
+      </c>
+      <c r="G56">
+        <f>菜单SAAS版!$E$13</f>
+      </c>
+      <c r="H56">
+        <f>菜单标签数据!$E$27</f>
+      </c>
+      <c r="I56" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="E57" t="s">
+        <v>315</v>
+      </c>
+      <c r="F57" t="s">
+        <v>245</v>
+      </c>
+      <c r="G57">
+        <f>菜单SAAS版!$E$13</f>
+      </c>
+      <c r="H57">
+        <f>菜单标签数据!$E$28</f>
+      </c>
+      <c r="I57" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="E58" t="s">
+        <v>315</v>
+      </c>
+      <c r="F58" t="s">
+        <v>245</v>
+      </c>
+      <c r="G58">
+        <f>菜单SAAS版!$E$13</f>
+      </c>
+      <c r="H58">
         <f>菜单标签数据!$E$29</f>
       </c>
-      <c r="I55" t="s">
+      <c r="I58" t="s">
         <v>316</v>
       </c>
     </row>
@@ -7151,34 +7211,34 @@
         <v>339</v>
       </c>
       <c r="K8" t="s">
+        <v>80</v>
+      </c>
+      <c r="L8" t="s">
+        <v>80</v>
+      </c>
+      <c r="M8" t="s">
+        <v>80</v>
+      </c>
+      <c r="N8" t="s">
         <v>79</v>
       </c>
-      <c r="L8" t="s">
-        <v>79</v>
-      </c>
-      <c r="M8" t="s">
-        <v>79</v>
-      </c>
-      <c r="N8" t="s">
-        <v>78</v>
-      </c>
       <c r="O8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="S8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="T8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U8" t="s">
         <v>337</v>
@@ -7187,7 +7247,7 @@
         <v>337</v>
       </c>
       <c r="W8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9">
@@ -7207,37 +7267,37 @@
         <v>344</v>
       </c>
       <c r="J9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K9" t="s">
+        <v>80</v>
+      </c>
+      <c r="L9" t="s">
+        <v>80</v>
+      </c>
+      <c r="M9" t="s">
+        <v>80</v>
+      </c>
+      <c r="N9" t="s">
         <v>79</v>
       </c>
-      <c r="L9" t="s">
-        <v>79</v>
-      </c>
-      <c r="M9" t="s">
-        <v>79</v>
-      </c>
-      <c r="N9" t="s">
-        <v>78</v>
-      </c>
       <c r="O9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="S9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="T9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U9" t="s">
         <v>343</v>
@@ -7246,7 +7306,7 @@
         <v>343</v>
       </c>
       <c r="W9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10">
@@ -7263,37 +7323,37 @@
         <v>348</v>
       </c>
       <c r="J10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M10">
         <f>角色!$E$9</f>
       </c>
       <c r="N10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="S10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="T10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U10" t="s">
         <v>349</v>
@@ -7302,7 +7362,7 @@
         <v>350</v>
       </c>
       <c r="W10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X10" t="s">
         <v>351</v>
@@ -7325,37 +7385,37 @@
         <v>356</v>
       </c>
       <c r="J11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M11">
         <f>角色!$E$9</f>
       </c>
       <c r="N11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="S11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="T11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U11" t="s">
         <v>357</v>
@@ -7364,7 +7424,7 @@
         <v>358</v>
       </c>
       <c r="W11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X11" t="s">
         <v>359</v>
@@ -7387,37 +7447,37 @@
         <v>364</v>
       </c>
       <c r="J12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M12">
         <f>角色!$E$9</f>
       </c>
       <c r="N12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="S12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="T12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U12" t="s">
         <v>365</v>
@@ -7426,7 +7486,7 @@
         <v>366</v>
       </c>
       <c r="W12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X12" t="s">
         <v>367</v>
@@ -7449,37 +7509,37 @@
         <v>372</v>
       </c>
       <c r="J13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K13" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L13" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M13">
         <f>角色!$E$9</f>
       </c>
       <c r="N13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O13" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q13" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="S13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="T13" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U13" t="s">
         <v>373</v>
@@ -7488,7 +7548,7 @@
         <v>374</v>
       </c>
       <c r="W13" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X13" t="s">
         <v>375</v>
@@ -7514,34 +7574,34 @@
         <v>339</v>
       </c>
       <c r="K14" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L14" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M14">
         <f>角色!$E$8</f>
       </c>
       <c r="N14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O14" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="R14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="S14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="T14" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U14" t="s">
         <v>380</v>
@@ -7550,7 +7610,7 @@
         <v>381</v>
       </c>
       <c r="W14" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15">
@@ -7570,34 +7630,34 @@
         <v>339</v>
       </c>
       <c r="K15" t="s">
+        <v>80</v>
+      </c>
+      <c r="L15" t="s">
+        <v>80</v>
+      </c>
+      <c r="M15" t="s">
+        <v>80</v>
+      </c>
+      <c r="N15" t="s">
         <v>79</v>
       </c>
-      <c r="L15" t="s">
-        <v>79</v>
-      </c>
-      <c r="M15" t="s">
-        <v>79</v>
-      </c>
-      <c r="N15" t="s">
-        <v>78</v>
-      </c>
       <c r="O15" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q15" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="S15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="T15" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U15" t="s">
         <v>379</v>
@@ -8014,7 +8074,7 @@
         <v>410</v>
       </c>
       <c r="H8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I8" t="s">
         <v>246</v>
@@ -8026,13 +8086,13 @@
         <v>412</v>
       </c>
       <c r="M8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9">
@@ -8046,7 +8106,7 @@
         <v>410</v>
       </c>
       <c r="H9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I9" t="s">
         <v>253</v>
@@ -8055,13 +8115,13 @@
         <v>414</v>
       </c>
       <c r="M9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10">
@@ -8075,7 +8135,7 @@
         <v>410</v>
       </c>
       <c r="H10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I10" t="s">
         <v>246</v>
@@ -8087,13 +8147,13 @@
         <v>416</v>
       </c>
       <c r="M10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11">
@@ -8107,7 +8167,7 @@
         <v>410</v>
       </c>
       <c r="H11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I11" t="s">
         <v>246</v>
@@ -8119,13 +8179,13 @@
         <v>419</v>
       </c>
       <c r="M11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12">
@@ -8139,7 +8199,7 @@
         <v>410</v>
       </c>
       <c r="H12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I12" t="s">
         <v>246</v>
@@ -8151,13 +8211,13 @@
         <v>421</v>
       </c>
       <c r="M12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13">
@@ -8171,7 +8231,7 @@
         <v>410</v>
       </c>
       <c r="H13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I13" t="s">
         <v>246</v>
@@ -8183,13 +8243,13 @@
         <v>424</v>
       </c>
       <c r="M13" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O13" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14">
@@ -8203,7 +8263,7 @@
         <v>410</v>
       </c>
       <c r="H14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I14" t="s">
         <v>246</v>
@@ -8215,13 +8275,13 @@
         <v>368</v>
       </c>
       <c r="M14" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O14" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15">
@@ -8235,7 +8295,7 @@
         <v>410</v>
       </c>
       <c r="H15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I15" t="s">
         <v>246</v>
@@ -8247,13 +8307,13 @@
         <v>429</v>
       </c>
       <c r="M15" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O15" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16">
@@ -8267,7 +8327,7 @@
         <v>410</v>
       </c>
       <c r="H16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I16" t="s">
         <v>246</v>
@@ -8279,13 +8339,13 @@
         <v>432</v>
       </c>
       <c r="M16" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O16" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17">
@@ -8299,7 +8359,7 @@
         <v>410</v>
       </c>
       <c r="H17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I17" t="s">
         <v>246</v>
@@ -8311,13 +8371,13 @@
         <v>435</v>
       </c>
       <c r="M17" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18">
@@ -8331,7 +8391,7 @@
         <v>410</v>
       </c>
       <c r="H18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I18" t="s">
         <v>246</v>
@@ -8343,13 +8403,13 @@
         <v>436</v>
       </c>
       <c r="M18" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19">
@@ -8363,7 +8423,7 @@
         <v>410</v>
       </c>
       <c r="H19" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I19" t="s">
         <v>246</v>
@@ -8375,13 +8435,13 @@
         <v>438</v>
       </c>
       <c r="M19" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N19" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O19" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/init-data/hrds_code_repo/hzero_platform/hzero-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/hrds_code_repo/hzero_platform/hzero-menu-user-role-label.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1069" uniqueCount="422">
   <si>
     <r>
       <rPr>
@@ -1999,7 +1999,7 @@
     <t>公式=外键引用</t>
   </si>
   <si>
-    <t>2020-06-17</t>
+    <t>2020-06-18</t>
   </si>
   <si>
     <t>hzero</t>
@@ -2107,31 +2107,31 @@
     <t>iam_menu-9</t>
   </si>
   <si>
-    <t>choerodon.code.organization.infra.doc-lib-management</t>
-  </si>
-  <si>
-    <t>文档库管理</t>
+    <t>choerodon.code.organization.infra.code-lib-management</t>
+  </si>
+  <si>
+    <t>代码库管理</t>
   </si>
   <si>
     <t>menu</t>
   </si>
   <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>folder</t>
-  </si>
-  <si>
-    <t>/rdudm/doc-lib-org</t>
-  </si>
-  <si>
-    <t>choerodon.code.organization.infra|choerodon.code.organization.infra.doc-lib-management</t>
+    <t>10</t>
+  </si>
+  <si>
+    <t>account_balance</t>
+  </si>
+  <si>
+    <t>/rducm/code-lib-org</t>
+  </si>
+  <si>
+    <t>choerodon.code.organization.infra|choerodon.code.organization.infra.code-lib-management</t>
   </si>
   <si>
     <t>iam_menu-10</t>
   </si>
   <si>
-    <t>choerodon.code.organization.infra.doc-lib-management.ps.default</t>
+    <t>choerodon.code.organization.infra.code-lib-management.ps.default</t>
   </si>
   <si>
     <t>默认权限集</t>
@@ -2140,10 +2140,7 @@
     <t>ps</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>choerodon.code.organization.infra|choerodon.code.organization.infra.doc-lib-management|choerodon.code.organization.infra.doc-lib-management.ps.default</t>
+    <t>choerodon.code.organization.infra|choerodon.code.organization.infra.code-lib-management|choerodon.code.organization.infra.code-lib-management.ps.default</t>
   </si>
   <si>
     <t>disabled</t>
@@ -2152,16 +2149,16 @@
     <t>iam_menu-11</t>
   </si>
   <si>
-    <t>choerodon.code.organization.infra.doc-lib-management.ps.organization-admin</t>
-  </si>
-  <si>
-    <t>租户管理员权限集</t>
+    <t>choerodon.code.organization.infra.code-lib-management.ps.project-owner</t>
+  </si>
+  <si>
+    <t>组织管理员</t>
   </si>
   <si>
     <t>link</t>
   </si>
   <si>
-    <t>choerodon.code.organization.infra|choerodon.code.organization.infra.doc-lib-management|choerodon.code.organization.infra.doc-lib-management.ps.organization-admin</t>
+    <t>choerodon.code.organization.infra|choerodon.code.organization.infra.code-lib-management|choerodon.code.organization.infra.code-lib-management.ps.project-owner</t>
   </si>
   <si>
     <t>iam_menu-12</t>
@@ -2215,49 +2212,46 @@
     <t>iam_menu-16</t>
   </si>
   <si>
-    <t>choerodon.code.project.infra.doc-lib-management</t>
-  </si>
-  <si>
-    <t>/rdudm/doc-lib-management</t>
-  </si>
-  <si>
-    <t>choerodon.code.project.infra|choerodon.code.project.infra.doc-lib-management</t>
+    <t>choerodon.code.project.infra.code-lib-management</t>
+  </si>
+  <si>
+    <t>/rducm/code-lib-management</t>
+  </si>
+  <si>
+    <t>choerodon.code.project.infra|choerodon.code.project.infra.code-lib-management</t>
   </si>
   <si>
     <t>iam_menu-17</t>
   </si>
   <si>
-    <t>choerodon.code.project.infra.doc-lib-management.ps.default</t>
-  </si>
-  <si>
-    <t>choerodon.code.project.infra|choerodon.code.project.infra.doc-lib-management|choerodon.code.project.infra.doc-lib-management.ps.default</t>
+    <t>choerodon.code.project.infra.code-lib-management.ps.default</t>
+  </si>
+  <si>
+    <t>choerodon.code.project.infra|choerodon.code.project.infra.code-lib-management|choerodon.code.project.infra.code-lib-management.ps.default</t>
   </si>
   <si>
     <t>iam_menu-18</t>
   </si>
   <si>
-    <t>choerodon.code.project.infra.doc-lib-management.ps.project-member</t>
-  </si>
-  <si>
-    <t>项目成员权限集</t>
-  </si>
-  <si>
-    <t>choerodon.code.project.infra|choerodon.code.project.infra.doc-lib-management|choerodon.code.project.infra.doc-lib-management.ps.project-member</t>
+    <t>choerodon.code.project.infra.code-lib-management.ps.project-member</t>
+  </si>
+  <si>
+    <t>项目成员</t>
+  </si>
+  <si>
+    <t>choerodon.code.project.infra|choerodon.code.project.infra.code-lib-management|choerodon.code.project.infra.code-lib-management.ps.project-member</t>
   </si>
   <si>
     <t>iam_menu-19</t>
   </si>
   <si>
-    <t>choerodon.code.project.infra.doc-lib-management.ps.project-owner</t>
-  </si>
-  <si>
-    <t>项目所有者权限集</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>choerodon.code.project.infra|choerodon.code.project.infra.doc-lib-management|choerodon.code.project.infra.doc-lib-management.ps.project-owner</t>
+    <t>choerodon.code.project.infra.code-lib-management.ps.project-owner</t>
+  </si>
+  <si>
+    <t>项目所有者</t>
+  </si>
+  <si>
+    <t>choerodon.code.project.infra|choerodon.code.project.infra.code-lib-management|choerodon.code.project.infra.code-lib-management.ps.project-owner</t>
   </si>
   <si>
     <t>菜单权限</t>
@@ -2275,271 +2269,232 @@
     <t>iam_menu_permission-8</t>
   </si>
   <si>
-    <t>hrds-doc-repo.docprojectcontroller.detail</t>
+    <t>hrds-code-repo.member-audit-log.detailLatest</t>
   </si>
   <si>
     <t>iam_menu_permission-9</t>
   </si>
   <si>
-    <t>hrds-doc-repo.docprojectcontroller.getProjectCatalog</t>
+    <t>hrds-code-repo.project.listDeveloperProjectMembers</t>
   </si>
   <si>
     <t>iam_menu_permission-10</t>
   </si>
   <si>
-    <t>hrds-doc-repo.docprojectcontroller.getProjectDetail</t>
+    <t>hrds-code-repo.rdm-branch.createProtectedBranch</t>
   </si>
   <si>
     <t>iam_menu_permission-11</t>
   </si>
   <si>
-    <t>hrds-doc-repo.docuserauthcontroller.listPro</t>
+    <t>hrds-code-repo.rdm-branch.getBranches</t>
   </si>
   <si>
     <t>iam_menu_permission-12</t>
   </si>
   <si>
-    <t>hrds-doc-repo.docauthauditcontroller.list</t>
+    <t>hrds-code-repo.rdm-branch.getProtectedBranches</t>
   </si>
   <si>
     <t>iam_menu_permission-13</t>
   </si>
   <si>
-    <t>hrds-doc-repo.docauthexportcontroller.projectExport</t>
+    <t>hrds-code-repo.rdm-branch.removeProtectedBranch</t>
   </si>
   <si>
     <t>iam_menu_permission-14</t>
   </si>
   <si>
-    <t>hrds-doc-repo.docauthlogcontroller.listPro</t>
+    <t>hrds-code-repo.rdm-branch.updateProtectedBranch</t>
   </si>
   <si>
     <t>iam_menu_permission-15</t>
   </si>
   <si>
-    <t>hrds-doc-repo.docprojectcontroller.addDir</t>
+    <t>hrds-code-repo.rdm-member-applicant-proj.create</t>
   </si>
   <si>
     <t>iam_menu_permission-16</t>
   </si>
   <si>
-    <t>hrds-doc-repo.docprojectcontroller.create</t>
+    <t>hrds-code-repo.rdm-member-applicant-proj.pageByOptions</t>
   </si>
   <si>
     <t>iam_menu_permission-17</t>
   </si>
   <si>
-    <t>hrds-doc-repo.docprojectcontroller.deleteDir</t>
+    <t>hrds-code-repo.rdm-member-applicant-proj.passAndHandleMember</t>
   </si>
   <si>
     <t>iam_menu_permission-18</t>
   </si>
   <si>
+    <t>hrds-code-repo.rdm-member-applicant-proj.refuse</t>
+  </si>
+  <si>
     <t>iam_menu_permission-19</t>
   </si>
   <si>
-    <t>hrds-doc-repo.docprojectcontroller.enableLdap</t>
+    <t>hrds-code-repo.rdm-member-audit-record-proj.pageByOptions</t>
   </si>
   <si>
     <t>iam_menu_permission-20</t>
   </si>
   <si>
+    <t>hrds-code-repo.rdm-member-audit-record-proj.sync</t>
+  </si>
+  <si>
     <t>iam_menu_permission-21</t>
   </si>
   <si>
+    <t>hrds-code-repo.rdm-member-proj.batchAddMembers</t>
+  </si>
+  <si>
     <t>iam_menu_permission-22</t>
   </si>
   <si>
-    <t>hrds-doc-repo.docprojectcontroller.getUserList</t>
+    <t>hrds-code-repo.rdm-member-proj.export</t>
   </si>
   <si>
     <t>iam_menu_permission-23</t>
   </si>
   <si>
-    <t>hrds-doc-repo.docprojectcontroller.renameDir</t>
+    <t>hrds-code-repo.rdm-member-proj.pageByOptions</t>
   </si>
   <si>
     <t>iam_menu_permission-24</t>
   </si>
   <si>
-    <t>hrds-doc-repo.docserverconfigcontroller.deleteFile</t>
+    <t>hrds-code-repo.rdm-member-proj.pageSecurityAudit</t>
   </si>
   <si>
     <t>iam_menu_permission-25</t>
   </si>
   <si>
-    <t>hrds-doc-repo.docserverconfigcontroller.detail</t>
+    <t>hrds-code-repo.rdm-member.removeMember</t>
   </si>
   <si>
     <t>iam_menu_permission-26</t>
   </si>
   <si>
-    <t>hrds-doc-repo.docserverconfigcontroller.getServerByProject</t>
+    <t>hrds-code-repo.rdm-member.syncMember</t>
   </si>
   <si>
     <t>iam_menu_permission-27</t>
   </si>
   <si>
-    <t>hrds-doc-repo.docserverconfigcontroller.update</t>
+    <t>hrds-code-repo.rdm-member.updateMember</t>
   </si>
   <si>
     <t>iam_menu_permission-28</t>
   </si>
   <si>
-    <t>hrds-doc-repo.docserverconfigcontroller.uploadPrivateKey</t>
+    <t>hrds-code-repo.rdm-operation-log-proj.pageByOptionsMemberLog</t>
   </si>
   <si>
     <t>iam_menu_permission-29</t>
   </si>
   <si>
-    <t>hrds-doc-repo.docuserauthcontroller.assignAuth</t>
+    <t>hrds-code-repo.rdm-project.pageMemberPermissions</t>
   </si>
   <si>
     <t>iam_menu_permission-30</t>
   </si>
   <si>
+    <t>hrds-code-repo.rdm-repository-proj.listByActive</t>
+  </si>
+  <si>
     <t>iam_menu_permission-31</t>
   </si>
   <si>
-    <t>hrds-doc-repo.docuserauthcontroller.revokeAuth</t>
+    <t>hrds-code-repo.rdm-repository-proj.pageOverviewByOptions</t>
   </si>
   <si>
     <t>iam_menu_permission-32</t>
   </si>
   <si>
-    <t>hrds-doc-repo.docuserauthcontroller.updateAuth</t>
+    <t>hrds-code-repo.rdm-tag.createProtectedTag</t>
   </si>
   <si>
     <t>iam_menu_permission-33</t>
   </si>
   <si>
-    <t>hrds-doc-repo.docauthexportcontroller.orgExport</t>
+    <t>hrds-code-repo.rdm-tag.deleteProtectedTag</t>
   </si>
   <si>
     <t>iam_menu_permission-34</t>
   </si>
   <si>
-    <t>hrds-doc-repo.docauthlogcontroller.getChart</t>
+    <t>hrds-code-repo.rdm-tag.getProtectedTags</t>
   </si>
   <si>
     <t>iam_menu_permission-35</t>
   </si>
   <si>
-    <t>hrds-doc-repo.docauthlogcontroller.listOrg</t>
+    <t>hrds-code-repo.rdm-tag.getTags</t>
   </si>
   <si>
     <t>iam_menu_permission-36</t>
   </si>
   <si>
-    <t>hrds-doc-repo.docpersonprocesscontroller.countByDate</t>
+    <t>hrds-code-repo.rdm-tag.updateProtectedTag</t>
   </si>
   <si>
     <t>iam_menu_permission-37</t>
   </si>
   <si>
-    <t>hrds-doc-repo.docpersonprocesscontroller.getHttpdLog</t>
-  </si>
-  <si>
     <t>iam_menu_permission-38</t>
   </si>
   <si>
-    <t>hrds-doc-repo.docpersonprocesscontroller.getSolution</t>
-  </si>
-  <si>
     <t>iam_menu_permission-39</t>
   </si>
   <si>
-    <t>hrds-doc-repo.docpersonprocesscontroller.list</t>
+    <t>hrds-code-repo.rdm-member-applicant-proj.detectApplicantType</t>
   </si>
   <si>
     <t>iam_menu_permission-40</t>
   </si>
   <si>
-    <t>hrds-doc-repo.docpersonprocesscontroller.update</t>
+    <t>hrds-code-repo.rdm-member-applicant-proj.pageByOptionsSelf</t>
   </si>
   <si>
     <t>iam_menu_permission-41</t>
   </si>
   <si>
-    <t>hrds-doc-repo.docprojectcontroller.listProjectsWithLimit</t>
-  </si>
-  <si>
     <t>iam_menu_permission-42</t>
   </si>
   <si>
-    <t>hrds-doc-repo.docprojectservercontroller.cancelAuth</t>
-  </si>
-  <si>
     <t>iam_menu_permission-43</t>
   </si>
   <si>
-    <t>hrds-doc-repo.docprojectservercontroller.grantAuth</t>
-  </si>
-  <si>
     <t>iam_menu_permission-44</t>
   </si>
   <si>
-    <t>hrds-doc-repo.docprojectservercontroller.list</t>
+    <t>hrds-code-repo.member-audit-log-org.detailLatest</t>
   </si>
   <si>
     <t>iam_menu_permission-45</t>
   </si>
   <si>
-    <t>hrds-doc-repo.docserverconfigcontroller.check</t>
+    <t>hrds-code-repo.org.listProjectsByUserId</t>
   </si>
   <si>
     <t>iam_menu_permission-46</t>
   </si>
   <si>
-    <t>hrds-doc-repo.docserverconfigcontroller.create</t>
+    <t>hrds-code-repo.rdm-member-audit-record-org.pageByOptions</t>
   </si>
   <si>
     <t>iam_menu_permission-47</t>
   </si>
   <si>
+    <t>hrds-code-repo.rdm-member-org.pageByOptions</t>
+  </si>
+  <si>
     <t>iam_menu_permission-48</t>
   </si>
   <si>
-    <t>iam_menu_permission-49</t>
-  </si>
-  <si>
-    <t>hrds-doc-repo.docserverconfigcontroller.list</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-50</t>
-  </si>
-  <si>
-    <t>hrds-doc-repo.docserverconfigcontroller.remove</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-51</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-52</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-53</t>
-  </si>
-  <si>
-    <t>hrds-doc-repo.docservicescancontroller.scan</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-54</t>
-  </si>
-  <si>
-    <t>hrds-doc-repo.docservicescancontroller.sumServiceScan</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-55</t>
-  </si>
-  <si>
-    <t>hrds-doc-repo.docuserauthcontroller.listOrg</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-56</t>
-  </si>
-  <si>
-    <t>hrds-doc-repo.docuserauthcontroller.revokeOrgAuth</t>
+    <t>hrds-code-repo.rdm-operation-log-org.pageByOptionsMemberLog</t>
   </si>
   <si>
     <t>标签表</t>
@@ -2902,9 +2857,6 @@
     <t>HZERO.T.role/organization/default/template/administrator</t>
   </si>
   <si>
-    <t>组织管理员</t>
-  </si>
-  <si>
     <t>Tenant Admin</t>
   </si>
   <si>
@@ -2950,9 +2902,6 @@
     <t>HZERO.T.role/project/default/template/project-admin</t>
   </si>
   <si>
-    <t>项目所有者</t>
-  </si>
-  <si>
     <t>Project Admin</t>
   </si>
   <si>
@@ -2974,9 +2923,6 @@
     <t>HZERO.T.role/project/default/template/project-member</t>
   </si>
   <si>
-    <t>项目成员</t>
-  </si>
-  <si>
     <t>Project member</t>
   </si>
   <si>
@@ -3067,10 +3013,10 @@
     <t>iam_role_permission-29</t>
   </si>
   <si>
+    <t>X</t>
+  </si>
+  <si>
     <t>iam_role_permission-30</t>
-  </si>
-  <si>
-    <t>X</t>
   </si>
   <si>
     <t>iam_role_permission-31</t>
@@ -4730,6 +4676,9 @@
       <c r="H10" t="s">
         <v>95</v>
       </c>
+      <c r="I10" t="s">
+        <v>78</v>
+      </c>
       <c r="J10" t="s">
         <v>79</v>
       </c>
@@ -4740,25 +4689,25 @@
         <v>96</v>
       </c>
       <c r="M10" t="s">
+        <v>89</v>
+      </c>
+      <c r="N10" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>80</v>
+      </c>
+      <c r="R10" t="s">
+        <v>80</v>
+      </c>
+      <c r="S10" t="s">
         <v>97</v>
       </c>
-      <c r="N10" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>80</v>
-      </c>
-      <c r="R10" t="s">
-        <v>80</v>
-      </c>
-      <c r="S10" t="s">
+      <c r="T10" t="s">
+        <v>80</v>
+      </c>
+      <c r="U10" t="s">
         <v>98</v>
-      </c>
-      <c r="T10" t="s">
-        <v>80</v>
-      </c>
-      <c r="U10" t="s">
-        <v>99</v>
       </c>
       <c r="V10" t="s">
         <v>84</v>
@@ -4769,16 +4718,19 @@
     </row>
     <row r="11">
       <c r="E11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F11" t="s">
         <v>100</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>101</v>
       </c>
-      <c r="G11" t="s">
-        <v>102</v>
-      </c>
       <c r="H11" t="s">
-        <v>102</v>
+        <v>101</v>
+      </c>
+      <c r="I11" t="s">
+        <v>78</v>
       </c>
       <c r="J11" t="s">
         <v>79</v>
@@ -4789,29 +4741,23 @@
       <c r="L11" t="s">
         <v>96</v>
       </c>
-      <c r="M11" t="s">
-        <v>89</v>
-      </c>
       <c r="N11" t="s">
         <v>83</v>
       </c>
       <c r="O11" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>80</v>
+      </c>
+      <c r="R11" t="s">
+        <v>80</v>
+      </c>
+      <c r="S11" t="s">
         <v>103</v>
       </c>
-      <c r="Q11" t="s">
-        <v>80</v>
-      </c>
-      <c r="R11" t="s">
-        <v>80</v>
-      </c>
-      <c r="S11" t="s">
-        <v>104</v>
-      </c>
       <c r="T11" t="s">
         <v>80</v>
-      </c>
-      <c r="U11" t="s">
-        <v>99</v>
       </c>
       <c r="V11" t="s">
         <v>84</v>
@@ -4822,16 +4768,16 @@
     </row>
     <row r="12">
       <c r="E12" t="s">
+        <v>104</v>
+      </c>
+      <c r="F12" t="s">
         <v>105</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>106</v>
       </c>
-      <c r="G12" t="s">
-        <v>107</v>
-      </c>
       <c r="H12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I12" t="s">
         <v>78</v>
@@ -4858,7 +4804,7 @@
         <v>80</v>
       </c>
       <c r="S12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="T12" t="s">
         <v>80</v>
@@ -4872,16 +4818,16 @@
     </row>
     <row r="13">
       <c r="E13" t="s">
+        <v>107</v>
+      </c>
+      <c r="F13" t="s">
         <v>108</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>109</v>
       </c>
-      <c r="G13" t="s">
-        <v>110</v>
-      </c>
       <c r="H13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I13" t="s">
         <v>78</v>
@@ -4896,25 +4842,25 @@
         <v>88</v>
       </c>
       <c r="M13" t="s">
+        <v>110</v>
+      </c>
+      <c r="N13" t="s">
+        <v>83</v>
+      </c>
+      <c r="O13" t="s">
         <v>111</v>
       </c>
-      <c r="N13" t="s">
-        <v>83</v>
-      </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>112</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
+        <v>80</v>
+      </c>
+      <c r="R13" t="s">
+        <v>80</v>
+      </c>
+      <c r="S13" t="s">
         <v>113</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>80</v>
-      </c>
-      <c r="R13" t="s">
-        <v>80</v>
-      </c>
-      <c r="S13" t="s">
-        <v>114</v>
       </c>
       <c r="T13" t="s">
         <v>80</v>
@@ -4928,10 +4874,10 @@
     </row>
     <row r="14">
       <c r="E14" t="s">
+        <v>114</v>
+      </c>
+      <c r="F14" t="s">
         <v>115</v>
-      </c>
-      <c r="F14" t="s">
-        <v>116</v>
       </c>
       <c r="G14" t="s">
         <v>95</v>
@@ -4952,7 +4898,7 @@
         <v>96</v>
       </c>
       <c r="M14" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="N14" t="s">
         <v>83</v>
@@ -4964,13 +4910,13 @@
         <v>80</v>
       </c>
       <c r="S14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="T14" t="s">
         <v>80</v>
       </c>
       <c r="U14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="V14" t="s">
         <v>84</v>
@@ -4981,10 +4927,10 @@
     </row>
     <row r="15">
       <c r="E15" t="s">
+        <v>117</v>
+      </c>
+      <c r="F15" t="s">
         <v>118</v>
-      </c>
-      <c r="F15" t="s">
-        <v>119</v>
       </c>
       <c r="G15" t="s">
         <v>77</v>
@@ -5005,7 +4951,7 @@
         <v>81</v>
       </c>
       <c r="M15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N15" t="s">
         <v>83</v>
@@ -5017,7 +4963,7 @@
         <v>80</v>
       </c>
       <c r="S15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="T15" t="s">
         <v>80</v>
@@ -5031,10 +4977,10 @@
     </row>
     <row r="16">
       <c r="E16" t="s">
+        <v>120</v>
+      </c>
+      <c r="F16" t="s">
         <v>121</v>
-      </c>
-      <c r="F16" t="s">
-        <v>122</v>
       </c>
       <c r="G16" t="s">
         <v>87</v>
@@ -5064,16 +5010,16 @@
         <v>90</v>
       </c>
       <c r="P16" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>80</v>
+      </c>
+      <c r="R16" t="s">
+        <v>80</v>
+      </c>
+      <c r="S16" t="s">
         <v>123</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>80</v>
-      </c>
-      <c r="R16" t="s">
-        <v>80</v>
-      </c>
-      <c r="S16" t="s">
-        <v>124</v>
       </c>
       <c r="T16" t="s">
         <v>80</v>
@@ -5087,10 +5033,10 @@
     </row>
     <row r="17">
       <c r="E17" t="s">
+        <v>124</v>
+      </c>
+      <c r="F17" t="s">
         <v>125</v>
-      </c>
-      <c r="F17" t="s">
-        <v>126</v>
       </c>
       <c r="G17" t="s">
         <v>95</v>
@@ -5098,6 +5044,9 @@
       <c r="H17" t="s">
         <v>95</v>
       </c>
+      <c r="I17" t="s">
+        <v>78</v>
+      </c>
       <c r="J17" t="s">
         <v>79</v>
       </c>
@@ -5108,7 +5057,7 @@
         <v>96</v>
       </c>
       <c r="M17" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="N17" t="s">
         <v>83</v>
@@ -5120,13 +5069,13 @@
         <v>80</v>
       </c>
       <c r="S17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="T17" t="s">
         <v>80</v>
       </c>
       <c r="U17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="V17" t="s">
         <v>84</v>
@@ -5137,16 +5086,19 @@
     </row>
     <row r="18">
       <c r="E18" t="s">
+        <v>127</v>
+      </c>
+      <c r="F18" t="s">
         <v>128</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>129</v>
       </c>
-      <c r="G18" t="s">
-        <v>130</v>
-      </c>
       <c r="H18" t="s">
-        <v>130</v>
+        <v>129</v>
+      </c>
+      <c r="I18" t="s">
+        <v>78</v>
       </c>
       <c r="J18" t="s">
         <v>79</v>
@@ -5157,14 +5109,11 @@
       <c r="L18" t="s">
         <v>96</v>
       </c>
-      <c r="M18" t="s">
-        <v>89</v>
-      </c>
       <c r="N18" t="s">
         <v>83</v>
       </c>
       <c r="O18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="Q18" t="s">
         <v>80</v>
@@ -5173,13 +5122,10 @@
         <v>80</v>
       </c>
       <c r="S18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="T18" t="s">
         <v>80</v>
-      </c>
-      <c r="U18" t="s">
-        <v>99</v>
       </c>
       <c r="V18" t="s">
         <v>84</v>
@@ -5190,16 +5136,19 @@
     </row>
     <row r="19">
       <c r="E19" t="s">
+        <v>131</v>
+      </c>
+      <c r="F19" t="s">
         <v>132</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>133</v>
       </c>
-      <c r="G19" t="s">
-        <v>134</v>
-      </c>
       <c r="H19" t="s">
-        <v>134</v>
+        <v>133</v>
+      </c>
+      <c r="I19" t="s">
+        <v>78</v>
       </c>
       <c r="J19" t="s">
         <v>79</v>
@@ -5210,14 +5159,11 @@
       <c r="L19" t="s">
         <v>96</v>
       </c>
-      <c r="M19" t="s">
-        <v>135</v>
-      </c>
       <c r="N19" t="s">
         <v>83</v>
       </c>
       <c r="O19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="Q19" t="s">
         <v>80</v>
@@ -5226,13 +5172,10 @@
         <v>80</v>
       </c>
       <c r="S19" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="T19" t="s">
         <v>80</v>
-      </c>
-      <c r="U19" t="s">
-        <v>99</v>
       </c>
       <c r="V19" t="s">
         <v>84</v>
@@ -5248,7 +5191,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G56"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5287,162 +5230,162 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D7" t="s" s="73">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E7" t="s" s="74">
         <v>54</v>
       </c>
       <c r="F7" t="s" s="75">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G7" t="s" s="76">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8">
       <c r="E8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F8">
-        <f>菜单SAAS版!$E$18</f>
+        <f>菜单SAAS版!$E$19</f>
       </c>
       <c r="G8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9">
       <c r="E9" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F9">
-        <f>菜单SAAS版!$E$18</f>
+        <f>菜单SAAS版!$E$19</f>
       </c>
       <c r="G9" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10">
       <c r="E10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F10">
-        <f>菜单SAAS版!$E$18</f>
+        <f>菜单SAAS版!$E$19</f>
       </c>
       <c r="G10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11">
       <c r="E11" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F11">
-        <f>菜单SAAS版!$E$18</f>
+        <f>菜单SAAS版!$E$19</f>
       </c>
       <c r="G11" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12">
       <c r="E12" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F12">
         <f>菜单SAAS版!$E$19</f>
       </c>
       <c r="G12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13">
       <c r="E13" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F13">
         <f>菜单SAAS版!$E$19</f>
       </c>
       <c r="G13" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14">
       <c r="E14" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F14">
         <f>菜单SAAS版!$E$19</f>
       </c>
       <c r="G14" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15">
       <c r="E15" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F15">
         <f>菜单SAAS版!$E$19</f>
       </c>
       <c r="G15" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="16">
       <c r="E16" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F16">
         <f>菜单SAAS版!$E$19</f>
       </c>
       <c r="G16" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17">
       <c r="E17" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F17">
         <f>菜单SAAS版!$E$19</f>
       </c>
       <c r="G17" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="18">
       <c r="E18" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F18">
         <f>菜单SAAS版!$E$19</f>
       </c>
       <c r="G18" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19">
       <c r="E19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F19">
         <f>菜单SAAS版!$E$19</f>
       </c>
       <c r="G19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="20">
       <c r="E20" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F20">
         <f>菜单SAAS版!$E$19</f>
       </c>
       <c r="G20" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21">
@@ -5453,194 +5396,194 @@
         <f>菜单SAAS版!$E$19</f>
       </c>
       <c r="G21" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
     </row>
     <row r="22">
       <c r="E22" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F22">
         <f>菜单SAAS版!$E$19</f>
       </c>
       <c r="G22" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="23">
       <c r="E23" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F23">
         <f>菜单SAAS版!$E$19</f>
       </c>
       <c r="G23" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="24">
       <c r="E24" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F24">
         <f>菜单SAAS版!$E$19</f>
       </c>
       <c r="G24" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="25">
       <c r="E25" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F25">
         <f>菜单SAAS版!$E$19</f>
       </c>
       <c r="G25" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="26">
       <c r="E26" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F26">
         <f>菜单SAAS版!$E$19</f>
       </c>
       <c r="G26" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="27">
       <c r="E27" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F27">
         <f>菜单SAAS版!$E$19</f>
       </c>
       <c r="G27" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="28">
       <c r="E28" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F28">
         <f>菜单SAAS版!$E$19</f>
       </c>
       <c r="G28" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="29">
       <c r="E29" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F29">
         <f>菜单SAAS版!$E$19</f>
       </c>
       <c r="G29" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="30">
       <c r="E30" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F30">
         <f>菜单SAAS版!$E$19</f>
       </c>
       <c r="G30" t="s">
-        <v>148</v>
+        <v>184</v>
       </c>
     </row>
     <row r="31">
       <c r="E31" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F31">
         <f>菜单SAAS版!$E$19</f>
       </c>
       <c r="G31" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="32">
       <c r="E32" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F32">
         <f>菜单SAAS版!$E$19</f>
       </c>
       <c r="G32" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="33">
       <c r="E33" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F33">
-        <f>菜单SAAS版!$E$11</f>
+        <f>菜单SAAS版!$E$19</f>
       </c>
       <c r="G33" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="34">
       <c r="E34" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F34">
-        <f>菜单SAAS版!$E$11</f>
+        <f>菜单SAAS版!$E$19</f>
       </c>
       <c r="G34" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="35">
       <c r="E35" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F35">
-        <f>菜单SAAS版!$E$11</f>
+        <f>菜单SAAS版!$E$19</f>
       </c>
       <c r="G35" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="36">
       <c r="E36" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F36">
-        <f>菜单SAAS版!$E$11</f>
+        <f>菜单SAAS版!$E$19</f>
       </c>
       <c r="G36" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="37">
       <c r="E37" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F37">
-        <f>菜单SAAS版!$E$11</f>
+        <f>菜单SAAS版!$E$18</f>
       </c>
       <c r="G37" t="s">
-        <v>196</v>
+        <v>142</v>
       </c>
     </row>
     <row r="38">
       <c r="E38" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F38">
-        <f>菜单SAAS版!$E$11</f>
+        <f>菜单SAAS版!$E$18</f>
       </c>
       <c r="G38" t="s">
-        <v>198</v>
+        <v>154</v>
       </c>
     </row>
     <row r="39">
@@ -5648,7 +5591,7 @@
         <v>199</v>
       </c>
       <c r="F39">
-        <f>菜单SAAS版!$E$11</f>
+        <f>菜单SAAS版!$E$18</f>
       </c>
       <c r="G39" t="s">
         <v>200</v>
@@ -5659,7 +5602,7 @@
         <v>201</v>
       </c>
       <c r="F40">
-        <f>菜单SAAS版!$E$11</f>
+        <f>菜单SAAS版!$E$18</f>
       </c>
       <c r="G40" t="s">
         <v>202</v>
@@ -5670,175 +5613,87 @@
         <v>203</v>
       </c>
       <c r="F41">
-        <f>菜单SAAS版!$E$11</f>
+        <f>菜单SAAS版!$E$18</f>
       </c>
       <c r="G41" t="s">
-        <v>204</v>
+        <v>168</v>
       </c>
     </row>
     <row r="42">
       <c r="E42" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F42">
-        <f>菜单SAAS版!$E$11</f>
+        <f>菜单SAAS版!$E$18</f>
       </c>
       <c r="G42" t="s">
-        <v>206</v>
+        <v>170</v>
       </c>
     </row>
     <row r="43">
       <c r="E43" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F43">
-        <f>菜单SAAS版!$E$11</f>
+        <f>菜单SAAS版!$E$18</f>
       </c>
       <c r="G43" t="s">
-        <v>208</v>
+        <v>184</v>
       </c>
     </row>
     <row r="44">
       <c r="E44" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F44">
         <f>菜单SAAS版!$E$11</f>
       </c>
       <c r="G44" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="45">
       <c r="E45" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F45">
         <f>菜单SAAS版!$E$11</f>
       </c>
       <c r="G45" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="46">
       <c r="E46" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F46">
         <f>菜单SAAS版!$E$11</f>
       </c>
       <c r="G46" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="47">
       <c r="E47" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F47">
         <f>菜单SAAS版!$E$11</f>
       </c>
       <c r="G47" t="s">
-        <v>171</v>
+        <v>213</v>
       </c>
     </row>
     <row r="48">
       <c r="E48" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F48">
         <f>菜单SAAS版!$E$11</f>
       </c>
       <c r="G48" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="E49" t="s">
-        <v>217</v>
-      </c>
-      <c r="F49">
-        <f>菜单SAAS版!$E$11</f>
-      </c>
-      <c r="G49" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="E50" t="s">
-        <v>219</v>
-      </c>
-      <c r="F50">
-        <f>菜单SAAS版!$E$11</f>
-      </c>
-      <c r="G50" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="E51" t="s">
-        <v>221</v>
-      </c>
-      <c r="F51">
-        <f>菜单SAAS版!$E$11</f>
-      </c>
-      <c r="G51" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="E52" t="s">
-        <v>222</v>
-      </c>
-      <c r="F52">
-        <f>菜单SAAS版!$E$11</f>
-      </c>
-      <c r="G52" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="E53" t="s">
-        <v>223</v>
-      </c>
-      <c r="F53">
-        <f>菜单SAAS版!$E$11</f>
-      </c>
-      <c r="G53" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="E54" t="s">
-        <v>225</v>
-      </c>
-      <c r="F54">
-        <f>菜单SAAS版!$E$11</f>
-      </c>
-      <c r="G54" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="E55" t="s">
-        <v>227</v>
-      </c>
-      <c r="F55">
-        <f>菜单SAAS版!$E$11</f>
-      </c>
-      <c r="G55" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="E56" t="s">
-        <v>229</v>
-      </c>
-      <c r="F56">
-        <f>菜单SAAS版!$E$11</f>
-      </c>
-      <c r="G56" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -5887,66 +5742,66 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="D7" t="s" s="77">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="E7" t="s" s="78">
         <v>54</v>
       </c>
       <c r="F7" t="s" s="79">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="G7" t="s" s="80">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="H7" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="I7" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="J7" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="K7" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="L7" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="M7" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="N7" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="O7" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
     </row>
     <row r="8">
       <c r="E8" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="F8" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="G8" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="H8" t="s">
         <v>83</v>
       </c>
       <c r="I8" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="J8" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="K8" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="M8" t="s">
         <v>83</v>
@@ -5960,25 +5815,25 @@
     </row>
     <row r="9">
       <c r="E9" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="F9" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="G9" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="H9" t="s">
         <v>83</v>
       </c>
       <c r="I9" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="J9" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="K9" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="M9" t="s">
         <v>83</v>
@@ -5992,19 +5847,19 @@
     </row>
     <row r="10">
       <c r="E10" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="F10" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="G10" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="H10" t="s">
         <v>83</v>
       </c>
       <c r="I10" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="M10" t="s">
         <v>83</v>
@@ -6018,19 +5873,19 @@
     </row>
     <row r="11">
       <c r="E11" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="F11" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="G11" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="H11" t="s">
         <v>83</v>
       </c>
       <c r="I11" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="M11" t="s">
         <v>80</v>
@@ -6044,25 +5899,25 @@
     </row>
     <row r="12">
       <c r="E12" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="F12" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="G12" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="H12" t="s">
         <v>83</v>
       </c>
       <c r="I12" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="J12" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="K12" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="M12" t="s">
         <v>83</v>
@@ -6076,22 +5931,22 @@
     </row>
     <row r="13">
       <c r="E13" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="F13" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="G13" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="H13" t="s">
         <v>83</v>
       </c>
       <c r="I13" t="s">
+        <v>231</v>
+      </c>
+      <c r="J13" t="s">
         <v>246</v>
-      </c>
-      <c r="J13" t="s">
-        <v>261</v>
       </c>
       <c r="M13" t="s">
         <v>80</v>
@@ -6105,22 +5960,22 @@
     </row>
     <row r="14">
       <c r="E14" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="F14" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="G14" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="H14" t="s">
         <v>83</v>
       </c>
       <c r="I14" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="J14" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="M14" t="s">
         <v>80</v>
@@ -6134,22 +5989,22 @@
     </row>
     <row r="15">
       <c r="E15" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="F15" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="G15" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="H15" t="s">
         <v>83</v>
       </c>
       <c r="I15" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="J15" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="M15" t="s">
         <v>80</v>
@@ -6163,22 +6018,22 @@
     </row>
     <row r="16">
       <c r="E16" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="F16" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="G16" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="H16" t="s">
         <v>83</v>
       </c>
       <c r="I16" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="J16" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="M16" t="s">
         <v>80</v>
@@ -6192,25 +6047,25 @@
     </row>
     <row r="17">
       <c r="E17" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="F17" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="G17" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="H17" t="s">
         <v>83</v>
       </c>
       <c r="I17" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="J17" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="K17" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="M17" t="s">
         <v>80</v>
@@ -6224,25 +6079,25 @@
     </row>
     <row r="18">
       <c r="E18" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="F18" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="G18" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="H18" t="s">
         <v>83</v>
       </c>
       <c r="I18" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="J18" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="K18" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="M18" t="s">
         <v>80</v>
@@ -6256,25 +6111,25 @@
     </row>
     <row r="19">
       <c r="E19" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="F19" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="G19" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="H19" t="s">
         <v>83</v>
       </c>
       <c r="I19" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="J19" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="K19" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="M19" t="s">
         <v>83</v>
@@ -6288,19 +6143,19 @@
     </row>
     <row r="20">
       <c r="E20" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="F20" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="G20" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="H20" t="s">
         <v>83</v>
       </c>
       <c r="I20" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="M20" t="s">
         <v>83</v>
@@ -6314,25 +6169,25 @@
     </row>
     <row r="21">
       <c r="E21" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="F21" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="G21" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="H21" t="s">
         <v>83</v>
       </c>
       <c r="I21" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="J21" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="K21" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="M21" t="s">
         <v>80</v>
@@ -6346,25 +6201,25 @@
     </row>
     <row r="22">
       <c r="E22" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="F22" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="G22" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="H22" t="s">
         <v>83</v>
       </c>
       <c r="I22" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="J22" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="K22" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="M22" t="s">
         <v>80</v>
@@ -6378,25 +6233,25 @@
     </row>
     <row r="23">
       <c r="E23" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="F23" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="G23" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="H23" t="s">
         <v>83</v>
       </c>
       <c r="I23" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="J23" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="K23" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="M23" t="s">
         <v>80</v>
@@ -6410,19 +6265,19 @@
     </row>
     <row r="24">
       <c r="E24" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="F24" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="G24" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="H24" t="s">
         <v>83</v>
       </c>
       <c r="I24" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="M24" t="s">
         <v>80</v>
@@ -6436,22 +6291,22 @@
     </row>
     <row r="25">
       <c r="E25" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="F25" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="G25" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="H25" t="s">
         <v>83</v>
       </c>
       <c r="I25" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="J25" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="M25" t="s">
         <v>80</v>
@@ -6465,22 +6320,22 @@
     </row>
     <row r="26">
       <c r="E26" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="F26" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="G26" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="H26" t="s">
         <v>83</v>
       </c>
       <c r="I26" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="J26" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="M26" t="s">
         <v>80</v>
@@ -6494,25 +6349,25 @@
     </row>
     <row r="27">
       <c r="E27" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="F27" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="G27" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="H27" t="s">
         <v>83</v>
       </c>
       <c r="I27" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="J27" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
       <c r="K27" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
       <c r="M27" t="s">
         <v>80</v>
@@ -6526,25 +6381,25 @@
     </row>
     <row r="28">
       <c r="E28" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
       <c r="F28" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="G28" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="H28" t="s">
         <v>83</v>
       </c>
       <c r="I28" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="J28" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="K28" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="M28" t="s">
         <v>80</v>
@@ -6558,25 +6413,25 @@
     </row>
     <row r="29">
       <c r="E29" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="F29" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="G29" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="H29" t="s">
         <v>83</v>
       </c>
       <c r="I29" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="J29" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="K29" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="M29" t="s">
         <v>80</v>
@@ -6596,33 +6451,33 @@
         <v>51</v>
       </c>
       <c r="C31" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="D31" t="s" s="81">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="E31" t="s" s="82">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="F31" t="s" s="83">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="G31" t="s" s="84">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="H31" t="s" s="85">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="I31" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
     </row>
     <row r="32">
       <c r="E32" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="F32" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="G32">
         <f>菜单SAAS版!$E$12</f>
@@ -6631,15 +6486,15 @@
         <f>菜单标签数据!$E$11</f>
       </c>
       <c r="I32" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
     </row>
     <row r="33">
       <c r="E33" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="F33" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="G33">
         <f>菜单SAAS版!$E$12</f>
@@ -6648,15 +6503,15 @@
         <f>菜单标签数据!$E$24</f>
       </c>
       <c r="I33" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
     </row>
     <row r="34">
       <c r="E34" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="F34" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="G34">
         <f>菜单SAAS版!$E$12</f>
@@ -6665,15 +6520,15 @@
         <f>菜单标签数据!$E$27</f>
       </c>
       <c r="I34" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
     </row>
     <row r="35">
       <c r="E35" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="F35" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="G35">
         <f>菜单SAAS版!$E$12</f>
@@ -6682,15 +6537,15 @@
         <f>菜单标签数据!$E$28</f>
       </c>
       <c r="I35" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
     </row>
     <row r="36">
       <c r="E36" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="F36" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="G36">
         <f>菜单SAAS版!$E$12</f>
@@ -6699,15 +6554,15 @@
         <f>菜单标签数据!$E$29</f>
       </c>
       <c r="I36" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
     </row>
     <row r="37">
       <c r="E37" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="F37" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="G37">
         <f>菜单SAAS版!$E$15</f>
@@ -6716,15 +6571,15 @@
         <f>菜单标签数据!$E$14</f>
       </c>
       <c r="I37" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
     </row>
     <row r="38">
       <c r="E38" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="F38" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="G38">
         <f>菜单SAAS版!$E$15</f>
@@ -6733,15 +6588,15 @@
         <f>菜单标签数据!$E$15</f>
       </c>
       <c r="I38" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
     </row>
     <row r="39">
       <c r="E39" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="F39" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="G39">
         <f>菜单SAAS版!$E$15</f>
@@ -6750,15 +6605,15 @@
         <f>菜单标签数据!$E$16</f>
       </c>
       <c r="I39" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
     </row>
     <row r="40">
       <c r="E40" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="F40" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="G40">
         <f>菜单SAAS版!$E$15</f>
@@ -6767,15 +6622,15 @@
         <f>菜单标签数据!$E$27</f>
       </c>
       <c r="I40" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
     </row>
     <row r="41">
       <c r="E41" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="F41" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="G41">
         <f>菜单SAAS版!$E$15</f>
@@ -6784,15 +6639,15 @@
         <f>菜单标签数据!$E$28</f>
       </c>
       <c r="I41" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
     </row>
     <row r="42">
       <c r="E42" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="F42" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="G42">
         <f>菜单SAAS版!$E$15</f>
@@ -6801,15 +6656,15 @@
         <f>菜单标签数据!$E$29</f>
       </c>
       <c r="I42" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
     </row>
     <row r="43">
       <c r="E43" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="F43" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="G43">
         <f>菜单SAAS版!$E$16</f>
@@ -6818,32 +6673,32 @@
         <f>菜单标签数据!$E$14</f>
       </c>
       <c r="I43" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
     </row>
     <row r="44">
       <c r="E44" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="F44" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="G44">
         <f>菜单SAAS版!$E$16</f>
       </c>
       <c r="H44">
-        <f>菜单标签数据!$E$27</f>
+        <f>菜单标签数据!$E$29</f>
       </c>
       <c r="I44" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
     </row>
     <row r="45">
       <c r="E45" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="F45" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="G45">
         <f>菜单SAAS版!$E$8</f>
@@ -6852,15 +6707,15 @@
         <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I45" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
     </row>
     <row r="46">
       <c r="E46" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="F46" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="G46">
         <f>菜单SAAS版!$E$8</f>
@@ -6869,15 +6724,15 @@
         <f>菜单标签数据!$E$27</f>
       </c>
       <c r="I46" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
     </row>
     <row r="47">
       <c r="E47" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="F47" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="G47">
         <f>菜单SAAS版!$E$8</f>
@@ -6886,15 +6741,15 @@
         <f>菜单标签数据!$E$28</f>
       </c>
       <c r="I47" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
     </row>
     <row r="48">
       <c r="E48" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="F48" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="G48">
         <f>菜单SAAS版!$E$8</f>
@@ -6903,15 +6758,15 @@
         <f>菜单标签数据!$E$29</f>
       </c>
       <c r="I48" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
     </row>
     <row r="49">
       <c r="E49" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="F49" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="G49">
         <f>菜单SAAS版!$E$9</f>
@@ -6920,15 +6775,15 @@
         <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I49" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
     </row>
     <row r="50">
       <c r="E50" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="F50" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="G50">
         <f>菜单SAAS版!$E$9</f>
@@ -6937,32 +6792,32 @@
         <f>菜单标签数据!$E$19</f>
       </c>
       <c r="I50" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
     </row>
     <row r="51">
       <c r="E51" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="F51" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="G51">
         <f>菜单SAAS版!$E$9</f>
       </c>
       <c r="H51">
-        <f>菜单标签数据!$E$27</f>
+        <f>菜单标签数据!$E$29</f>
       </c>
       <c r="I51" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
     </row>
     <row r="52">
       <c r="E52" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="F52" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="G52">
         <f>菜单SAAS版!$E$10</f>
@@ -6971,15 +6826,15 @@
         <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I52" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
     </row>
     <row r="53">
       <c r="E53" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="F53" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="G53">
         <f>菜单SAAS版!$E$11</f>
@@ -6988,15 +6843,15 @@
         <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I53" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
     </row>
     <row r="54">
       <c r="E54" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="F54" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="G54">
         <f>菜单SAAS版!$E$11</f>
@@ -7005,15 +6860,15 @@
         <f>菜单标签数据!$E$19</f>
       </c>
       <c r="I54" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
     </row>
     <row r="55">
       <c r="E55" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="F55" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="G55">
         <f>菜单SAAS版!$E$13</f>
@@ -7022,15 +6877,15 @@
         <f>菜单标签数据!$E$11</f>
       </c>
       <c r="I55" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
     </row>
     <row r="56">
       <c r="E56" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="F56" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="G56">
         <f>菜单SAAS版!$E$13</f>
@@ -7039,15 +6894,15 @@
         <f>菜单标签数据!$E$27</f>
       </c>
       <c r="I56" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
     </row>
     <row r="57">
       <c r="E57" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="F57" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="G57">
         <f>菜单SAAS版!$E$13</f>
@@ -7056,15 +6911,15 @@
         <f>菜单标签数据!$E$28</f>
       </c>
       <c r="I57" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
     </row>
     <row r="58">
       <c r="E58" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="F58" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="G58">
         <f>菜单SAAS版!$E$13</f>
@@ -7073,7 +6928,7 @@
         <f>菜单标签数据!$E$29</f>
       </c>
       <c r="I58" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
     </row>
   </sheetData>
@@ -7122,10 +6977,10 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
       <c r="D7" t="s" s="86">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="E7" t="s" s="87">
         <v>54</v>
@@ -7140,75 +6995,75 @@
         <v>55</v>
       </c>
       <c r="I7" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="J7" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="K7" t="s" s="89">
         <v>67</v>
       </c>
       <c r="L7" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
       <c r="M7" t="s" s="90">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="N7" t="s" s="91">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="O7" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="P7" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
       <c r="Q7" t="s">
-        <v>326</v>
+        <v>311</v>
       </c>
       <c r="R7" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="S7" t="s">
-        <v>328</v>
+        <v>313</v>
       </c>
       <c r="T7" t="s">
-        <v>329</v>
+        <v>314</v>
       </c>
       <c r="U7" t="s">
         <v>68</v>
       </c>
       <c r="V7" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="W7" t="s" s="92">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="X7" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
       <c r="Y7" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
     </row>
     <row r="8">
       <c r="E8" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
       <c r="F8" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
       <c r="G8" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
       <c r="H8" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="I8" t="s">
-        <v>338</v>
+        <v>323</v>
       </c>
       <c r="J8" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="K8" t="s">
         <v>80</v>
@@ -7241,10 +7096,10 @@
         <v>80</v>
       </c>
       <c r="U8" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="V8" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="W8" t="s">
         <v>80</v>
@@ -7252,19 +7107,19 @@
     </row>
     <row r="9">
       <c r="E9" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
       <c r="F9" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
       <c r="G9" t="s">
-        <v>342</v>
+        <v>327</v>
       </c>
       <c r="H9" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="I9" t="s">
-        <v>344</v>
+        <v>329</v>
       </c>
       <c r="J9" t="s">
         <v>79</v>
@@ -7300,10 +7155,10 @@
         <v>80</v>
       </c>
       <c r="U9" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="V9" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="W9" t="s">
         <v>80</v>
@@ -7311,16 +7166,16 @@
     </row>
     <row r="10">
       <c r="E10" t="s">
-        <v>345</v>
+        <v>330</v>
       </c>
       <c r="F10" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="G10" t="s">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="H10" t="s">
-        <v>348</v>
+        <v>333</v>
       </c>
       <c r="J10" t="s">
         <v>79</v>
@@ -7356,33 +7211,33 @@
         <v>80</v>
       </c>
       <c r="U10" t="s">
-        <v>349</v>
+        <v>334</v>
       </c>
       <c r="V10" t="s">
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="W10" t="s">
         <v>80</v>
       </c>
       <c r="X10" t="s">
-        <v>351</v>
+        <v>101</v>
       </c>
       <c r="Y10" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
     </row>
     <row r="11">
       <c r="E11" t="s">
-        <v>353</v>
+        <v>337</v>
       </c>
       <c r="F11" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="G11" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="H11" t="s">
-        <v>356</v>
+        <v>340</v>
       </c>
       <c r="J11" t="s">
         <v>79</v>
@@ -7418,33 +7273,33 @@
         <v>80</v>
       </c>
       <c r="U11" t="s">
-        <v>357</v>
+        <v>341</v>
       </c>
       <c r="V11" t="s">
-        <v>358</v>
+        <v>342</v>
       </c>
       <c r="W11" t="s">
         <v>80</v>
       </c>
       <c r="X11" t="s">
-        <v>359</v>
+        <v>343</v>
       </c>
       <c r="Y11" t="s">
-        <v>360</v>
+        <v>344</v>
       </c>
     </row>
     <row r="12">
       <c r="E12" t="s">
-        <v>361</v>
+        <v>345</v>
       </c>
       <c r="F12" t="s">
-        <v>362</v>
+        <v>346</v>
       </c>
       <c r="G12" t="s">
-        <v>363</v>
+        <v>347</v>
       </c>
       <c r="H12" t="s">
-        <v>364</v>
+        <v>348</v>
       </c>
       <c r="J12" t="s">
         <v>79</v>
@@ -7480,33 +7335,33 @@
         <v>80</v>
       </c>
       <c r="U12" t="s">
-        <v>365</v>
+        <v>349</v>
       </c>
       <c r="V12" t="s">
-        <v>366</v>
+        <v>350</v>
       </c>
       <c r="W12" t="s">
         <v>80</v>
       </c>
       <c r="X12" t="s">
-        <v>367</v>
+        <v>133</v>
       </c>
       <c r="Y12" t="s">
-        <v>368</v>
+        <v>351</v>
       </c>
     </row>
     <row r="13">
       <c r="E13" t="s">
-        <v>369</v>
+        <v>352</v>
       </c>
       <c r="F13" t="s">
-        <v>370</v>
+        <v>353</v>
       </c>
       <c r="G13" t="s">
-        <v>371</v>
+        <v>354</v>
       </c>
       <c r="H13" t="s">
-        <v>372</v>
+        <v>355</v>
       </c>
       <c r="J13" t="s">
         <v>79</v>
@@ -7542,36 +7397,36 @@
         <v>80</v>
       </c>
       <c r="U13" t="s">
-        <v>373</v>
+        <v>356</v>
       </c>
       <c r="V13" t="s">
-        <v>374</v>
+        <v>357</v>
       </c>
       <c r="W13" t="s">
         <v>80</v>
       </c>
       <c r="X13" t="s">
-        <v>375</v>
+        <v>129</v>
       </c>
       <c r="Y13" t="s">
-        <v>376</v>
+        <v>358</v>
       </c>
     </row>
     <row r="14">
       <c r="E14" t="s">
-        <v>377</v>
+        <v>359</v>
       </c>
       <c r="F14" t="s">
-        <v>378</v>
+        <v>360</v>
       </c>
       <c r="G14" t="s">
-        <v>378</v>
+        <v>360</v>
       </c>
       <c r="H14" t="s">
-        <v>379</v>
+        <v>361</v>
       </c>
       <c r="J14" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="K14" t="s">
         <v>80</v>
@@ -7604,10 +7459,10 @@
         <v>80</v>
       </c>
       <c r="U14" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="V14" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="W14" t="s">
         <v>80</v>
@@ -7615,19 +7470,19 @@
     </row>
     <row r="15">
       <c r="E15" t="s">
-        <v>382</v>
+        <v>364</v>
       </c>
       <c r="F15" t="s">
-        <v>378</v>
+        <v>360</v>
       </c>
       <c r="G15" t="s">
-        <v>383</v>
+        <v>365</v>
       </c>
       <c r="H15" t="s">
-        <v>379</v>
+        <v>361</v>
       </c>
       <c r="J15" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="K15" t="s">
         <v>80</v>
@@ -7660,10 +7515,10 @@
         <v>80</v>
       </c>
       <c r="U15" t="s">
-        <v>379</v>
+        <v>361</v>
       </c>
       <c r="V15" t="s">
-        <v>384</v>
+        <v>366</v>
       </c>
     </row>
     <row r="17">
@@ -7674,33 +7529,33 @@
         <v>51</v>
       </c>
       <c r="C17" t="s">
-        <v>385</v>
+        <v>367</v>
       </c>
       <c r="D17" t="s" s="93">
-        <v>386</v>
+        <v>368</v>
       </c>
       <c r="E17" t="s" s="94">
         <v>54</v>
       </c>
       <c r="F17" t="s" s="95">
-        <v>387</v>
+        <v>369</v>
       </c>
       <c r="G17" t="s" s="96">
-        <v>388</v>
+        <v>370</v>
       </c>
       <c r="H17" t="s">
-        <v>389</v>
+        <v>371</v>
       </c>
       <c r="I17" t="s">
-        <v>390</v>
+        <v>372</v>
       </c>
       <c r="J17" t="s" s="97">
-        <v>234</v>
+        <v>219</v>
       </c>
     </row>
     <row r="18">
       <c r="E18" t="s">
-        <v>391</v>
+        <v>373</v>
       </c>
       <c r="F18">
         <f>角色!$E$10</f>
@@ -7709,18 +7564,18 @@
         <f>菜单SAAS版!$E$17</f>
       </c>
       <c r="H18" t="s">
-        <v>392</v>
+        <v>374</v>
       </c>
       <c r="I18" t="s">
-        <v>393</v>
+        <v>375</v>
       </c>
       <c r="J18" t="s">
-        <v>394</v>
+        <v>376</v>
       </c>
     </row>
     <row r="19">
       <c r="E19" t="s">
-        <v>395</v>
+        <v>377</v>
       </c>
       <c r="F19">
         <f>角色!$E$10</f>
@@ -7729,58 +7584,58 @@
         <f>菜单SAAS版!$E$10</f>
       </c>
       <c r="H19" t="s">
-        <v>392</v>
+        <v>374</v>
       </c>
       <c r="I19" t="s">
-        <v>393</v>
+        <v>375</v>
       </c>
       <c r="J19" t="s">
-        <v>394</v>
+        <v>376</v>
       </c>
     </row>
     <row r="20">
       <c r="E20" t="s">
-        <v>396</v>
+        <v>378</v>
       </c>
       <c r="F20">
         <f>角色!$E$10</f>
       </c>
       <c r="G20">
-        <f>菜单SAAS版!$E$18</f>
+        <f>菜单SAAS版!$E$19</f>
       </c>
       <c r="H20" t="s">
-        <v>392</v>
+        <v>374</v>
       </c>
       <c r="I20" t="s">
-        <v>393</v>
+        <v>375</v>
       </c>
       <c r="J20" t="s">
-        <v>394</v>
+        <v>376</v>
       </c>
     </row>
     <row r="21">
       <c r="E21" t="s">
-        <v>397</v>
+        <v>379</v>
       </c>
       <c r="F21">
         <f>角色!$E$10</f>
       </c>
       <c r="G21">
-        <f>菜单SAAS版!$E$19</f>
+        <f>菜单SAAS版!$E$18</f>
       </c>
       <c r="H21" t="s">
-        <v>392</v>
+        <v>374</v>
       </c>
       <c r="I21" t="s">
-        <v>393</v>
+        <v>375</v>
       </c>
       <c r="J21" t="s">
-        <v>394</v>
+        <v>376</v>
       </c>
     </row>
     <row r="22">
       <c r="E22" t="s">
-        <v>398</v>
+        <v>380</v>
       </c>
       <c r="F22">
         <f>角色!$E$10</f>
@@ -7789,18 +7644,18 @@
         <f>菜单SAAS版!$E$11</f>
       </c>
       <c r="H22" t="s">
-        <v>392</v>
+        <v>374</v>
       </c>
       <c r="I22" t="s">
-        <v>393</v>
+        <v>375</v>
       </c>
       <c r="J22" t="s">
-        <v>394</v>
+        <v>376</v>
       </c>
     </row>
     <row r="23">
       <c r="E23" t="s">
-        <v>399</v>
+        <v>381</v>
       </c>
       <c r="F23">
         <f>角色!$E$10</f>
@@ -7809,18 +7664,18 @@
         <f>菜单SAAS版!$E$14</f>
       </c>
       <c r="H23" t="s">
-        <v>392</v>
+        <v>374</v>
       </c>
       <c r="I23" t="s">
-        <v>393</v>
+        <v>375</v>
       </c>
       <c r="J23" t="s">
-        <v>394</v>
+        <v>376</v>
       </c>
     </row>
     <row r="24">
       <c r="E24" t="s">
-        <v>400</v>
+        <v>382</v>
       </c>
       <c r="F24">
         <f>角色!$E$11</f>
@@ -7829,18 +7684,18 @@
         <f>菜单SAAS版!$E$14</f>
       </c>
       <c r="H24" t="s">
-        <v>392</v>
+        <v>374</v>
       </c>
       <c r="I24" t="s">
-        <v>393</v>
+        <v>375</v>
       </c>
       <c r="J24" t="s">
-        <v>394</v>
+        <v>376</v>
       </c>
     </row>
     <row r="25">
       <c r="E25" t="s">
-        <v>401</v>
+        <v>383</v>
       </c>
       <c r="F25">
         <f>角色!$E$12</f>
@@ -7849,18 +7704,18 @@
         <f>菜单SAAS版!$E$17</f>
       </c>
       <c r="H25" t="s">
-        <v>392</v>
+        <v>374</v>
       </c>
       <c r="I25" t="s">
-        <v>393</v>
+        <v>375</v>
       </c>
       <c r="J25" t="s">
-        <v>394</v>
+        <v>376</v>
       </c>
     </row>
     <row r="26">
       <c r="E26" t="s">
-        <v>402</v>
+        <v>384</v>
       </c>
       <c r="F26">
         <f>角色!$E$12</f>
@@ -7869,18 +7724,18 @@
         <f>菜单SAAS版!$E$19</f>
       </c>
       <c r="H26" t="s">
-        <v>392</v>
+        <v>374</v>
       </c>
       <c r="I26" t="s">
-        <v>393</v>
+        <v>375</v>
       </c>
       <c r="J26" t="s">
-        <v>394</v>
+        <v>376</v>
       </c>
     </row>
     <row r="27">
       <c r="E27" t="s">
-        <v>403</v>
+        <v>385</v>
       </c>
       <c r="F27">
         <f>角色!$E$12</f>
@@ -7889,18 +7744,18 @@
         <f>菜单SAAS版!$E$14</f>
       </c>
       <c r="H27" t="s">
-        <v>392</v>
+        <v>374</v>
       </c>
       <c r="I27" t="s">
-        <v>393</v>
+        <v>375</v>
       </c>
       <c r="J27" t="s">
-        <v>394</v>
+        <v>376</v>
       </c>
     </row>
     <row r="28">
       <c r="E28" t="s">
-        <v>404</v>
+        <v>386</v>
       </c>
       <c r="F28">
         <f>角色!$E$13</f>
@@ -7909,58 +7764,58 @@
         <f>菜单SAAS版!$E$17</f>
       </c>
       <c r="H28" t="s">
-        <v>392</v>
+        <v>374</v>
       </c>
       <c r="I28" t="s">
-        <v>393</v>
+        <v>375</v>
       </c>
       <c r="J28" t="s">
-        <v>394</v>
+        <v>376</v>
       </c>
     </row>
     <row r="29">
       <c r="E29" t="s">
-        <v>405</v>
+        <v>387</v>
       </c>
       <c r="F29">
         <f>角色!$E$13</f>
       </c>
       <c r="G29">
-        <f>菜单SAAS版!$E$18</f>
+        <f>菜单SAAS版!$E$19</f>
       </c>
       <c r="H29" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="I29" t="s">
-        <v>393</v>
+        <v>375</v>
       </c>
       <c r="J29" t="s">
-        <v>394</v>
+        <v>376</v>
       </c>
     </row>
     <row r="30">
       <c r="E30" t="s">
-        <v>406</v>
+        <v>389</v>
       </c>
       <c r="F30">
         <f>角色!$E$13</f>
       </c>
       <c r="G30">
-        <f>菜单SAAS版!$E$19</f>
+        <f>菜单SAAS版!$E$18</f>
       </c>
       <c r="H30" t="s">
-        <v>407</v>
+        <v>374</v>
       </c>
       <c r="I30" t="s">
-        <v>393</v>
+        <v>375</v>
       </c>
       <c r="J30" t="s">
-        <v>394</v>
+        <v>376</v>
       </c>
     </row>
     <row r="31">
       <c r="E31" t="s">
-        <v>408</v>
+        <v>390</v>
       </c>
       <c r="F31">
         <f>角色!$E$13</f>
@@ -7969,13 +7824,13 @@
         <f>菜单SAAS版!$E$14</f>
       </c>
       <c r="H31" t="s">
-        <v>392</v>
+        <v>374</v>
       </c>
       <c r="I31" t="s">
-        <v>393</v>
+        <v>375</v>
       </c>
       <c r="J31" t="s">
-        <v>394</v>
+        <v>376</v>
       </c>
     </row>
   </sheetData>
@@ -8024,66 +7879,66 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="D7" t="s" s="98">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="E7" t="s" s="99">
         <v>54</v>
       </c>
       <c r="F7" t="s" s="100">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="G7" t="s" s="101">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="H7" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="I7" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="J7" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="K7" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="L7" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="M7" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="N7" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="O7" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
     </row>
     <row r="8">
       <c r="E8" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="F8" t="s">
-        <v>409</v>
+        <v>391</v>
       </c>
       <c r="G8" t="s">
-        <v>410</v>
+        <v>392</v>
       </c>
       <c r="H8" t="s">
         <v>83</v>
       </c>
       <c r="I8" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="J8" t="s">
-        <v>411</v>
+        <v>393</v>
       </c>
       <c r="K8" t="s">
-        <v>412</v>
+        <v>394</v>
       </c>
       <c r="M8" t="s">
         <v>80</v>
@@ -8097,22 +7952,22 @@
     </row>
     <row r="9">
       <c r="E9" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="F9" t="s">
-        <v>413</v>
+        <v>395</v>
       </c>
       <c r="G9" t="s">
-        <v>410</v>
+        <v>392</v>
       </c>
       <c r="H9" t="s">
         <v>83</v>
       </c>
       <c r="I9" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="J9" t="s">
-        <v>414</v>
+        <v>396</v>
       </c>
       <c r="M9" t="s">
         <v>80</v>
@@ -8126,25 +7981,25 @@
     </row>
     <row r="10">
       <c r="E10" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="F10" t="s">
-        <v>415</v>
+        <v>397</v>
       </c>
       <c r="G10" t="s">
-        <v>410</v>
+        <v>392</v>
       </c>
       <c r="H10" t="s">
         <v>83</v>
       </c>
       <c r="I10" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="J10" t="s">
-        <v>416</v>
+        <v>398</v>
       </c>
       <c r="K10" t="s">
-        <v>416</v>
+        <v>398</v>
       </c>
       <c r="M10" t="s">
         <v>80</v>
@@ -8158,25 +8013,25 @@
     </row>
     <row r="11">
       <c r="E11" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="F11" t="s">
-        <v>417</v>
+        <v>399</v>
       </c>
       <c r="G11" t="s">
-        <v>410</v>
+        <v>392</v>
       </c>
       <c r="H11" t="s">
         <v>83</v>
       </c>
       <c r="I11" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="J11" t="s">
-        <v>418</v>
+        <v>400</v>
       </c>
       <c r="K11" t="s">
-        <v>419</v>
+        <v>401</v>
       </c>
       <c r="M11" t="s">
         <v>80</v>
@@ -8190,25 +8045,25 @@
     </row>
     <row r="12">
       <c r="E12" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="F12" t="s">
-        <v>420</v>
+        <v>402</v>
       </c>
       <c r="G12" t="s">
-        <v>410</v>
+        <v>392</v>
       </c>
       <c r="H12" t="s">
         <v>83</v>
       </c>
       <c r="I12" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="J12" t="s">
-        <v>421</v>
+        <v>403</v>
       </c>
       <c r="K12" t="s">
-        <v>421</v>
+        <v>403</v>
       </c>
       <c r="M12" t="s">
         <v>80</v>
@@ -8222,25 +8077,25 @@
     </row>
     <row r="13">
       <c r="E13" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="F13" t="s">
-        <v>422</v>
+        <v>404</v>
       </c>
       <c r="G13" t="s">
-        <v>410</v>
+        <v>392</v>
       </c>
       <c r="H13" t="s">
         <v>83</v>
       </c>
       <c r="I13" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="J13" t="s">
-        <v>423</v>
+        <v>405</v>
       </c>
       <c r="K13" t="s">
-        <v>424</v>
+        <v>406</v>
       </c>
       <c r="M13" t="s">
         <v>80</v>
@@ -8254,25 +8109,25 @@
     </row>
     <row r="14">
       <c r="E14" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="F14" t="s">
-        <v>425</v>
+        <v>407</v>
       </c>
       <c r="G14" t="s">
-        <v>410</v>
+        <v>392</v>
       </c>
       <c r="H14" t="s">
         <v>83</v>
       </c>
       <c r="I14" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="J14" t="s">
-        <v>426</v>
+        <v>408</v>
       </c>
       <c r="K14" t="s">
-        <v>368</v>
+        <v>351</v>
       </c>
       <c r="M14" t="s">
         <v>80</v>
@@ -8286,25 +8141,25 @@
     </row>
     <row r="15">
       <c r="E15" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="F15" t="s">
-        <v>427</v>
+        <v>409</v>
       </c>
       <c r="G15" t="s">
+        <v>392</v>
+      </c>
+      <c r="H15" t="s">
+        <v>83</v>
+      </c>
+      <c r="I15" t="s">
+        <v>231</v>
+      </c>
+      <c r="J15" t="s">
         <v>410</v>
       </c>
-      <c r="H15" t="s">
-        <v>83</v>
-      </c>
-      <c r="I15" t="s">
-        <v>246</v>
-      </c>
-      <c r="J15" t="s">
-        <v>428</v>
-      </c>
       <c r="K15" t="s">
-        <v>429</v>
+        <v>411</v>
       </c>
       <c r="M15" t="s">
         <v>80</v>
@@ -8318,25 +8173,25 @@
     </row>
     <row r="16">
       <c r="E16" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="F16" t="s">
-        <v>430</v>
+        <v>412</v>
       </c>
       <c r="G16" t="s">
-        <v>410</v>
+        <v>392</v>
       </c>
       <c r="H16" t="s">
         <v>83</v>
       </c>
       <c r="I16" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="J16" t="s">
-        <v>431</v>
+        <v>413</v>
       </c>
       <c r="K16" t="s">
-        <v>432</v>
+        <v>414</v>
       </c>
       <c r="M16" t="s">
         <v>80</v>
@@ -8350,25 +8205,25 @@
     </row>
     <row r="17">
       <c r="E17" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="F17" t="s">
-        <v>433</v>
+        <v>415</v>
       </c>
       <c r="G17" t="s">
-        <v>410</v>
+        <v>392</v>
       </c>
       <c r="H17" t="s">
         <v>83</v>
       </c>
       <c r="I17" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="J17" t="s">
-        <v>434</v>
+        <v>416</v>
       </c>
       <c r="K17" t="s">
-        <v>435</v>
+        <v>417</v>
       </c>
       <c r="M17" t="s">
         <v>80</v>
@@ -8382,25 +8237,25 @@
     </row>
     <row r="18">
       <c r="E18" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="F18" t="s">
-        <v>436</v>
+        <v>418</v>
       </c>
       <c r="G18" t="s">
-        <v>410</v>
+        <v>392</v>
       </c>
       <c r="H18" t="s">
         <v>83</v>
       </c>
       <c r="I18" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="J18" t="s">
-        <v>437</v>
+        <v>419</v>
       </c>
       <c r="K18" t="s">
-        <v>436</v>
+        <v>418</v>
       </c>
       <c r="M18" t="s">
         <v>80</v>
@@ -8414,25 +8269,25 @@
     </row>
     <row r="19">
       <c r="E19" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="F19" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="G19" t="s">
-        <v>410</v>
+        <v>392</v>
       </c>
       <c r="H19" t="s">
         <v>83</v>
       </c>
       <c r="I19" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="J19" t="s">
-        <v>439</v>
+        <v>421</v>
       </c>
       <c r="K19" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="M19" t="s">
         <v>80</v>

--- a/src/main/resources/script/db/init-data/hrds_code_repo/hzero_platform/hzero-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/hrds_code_repo/hzero_platform/hzero-menu-user-role-label.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\company\companyRD\project\code-repo-service\src\main\resources\script\db\init-data\hrds_code_repo\hzero_platform\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5872FA1D-73BC-43CC-AD12-11EA27358A4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13200" tabRatio="597" activeTab="2"/>
+    <workbookView xWindow="430" yWindow="0" windowWidth="21070" windowHeight="13330" tabRatio="597" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -20,18 +26,19 @@
     <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
     <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="425">
   <si>
     <r>
       <rPr>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">注意这个文档不能 </t>
@@ -50,6 +57,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>！！
@@ -62,6 +70,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">正式的数据从第二个 </t>
@@ -80,6 +89,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页开始</t>
@@ -98,6 +108,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">每页 从 </t>
@@ -116,6 +127,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格开始有效
@@ -147,6 +159,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>颜色示例</t>
@@ -165,6 +178,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非必须</t>
@@ -183,6 +197,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非强制</t>
@@ -204,6 +219,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>请给特殊单元格</t>
@@ -224,6 +240,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列名添加颜色</t>
@@ -244,6 +261,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>提高数据可读性</t>
@@ -264,6 +282,7 @@
         <sz val="12"/>
         <color rgb="FFC55A11"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动生成</t>
@@ -284,6 +303,7 @@
         <sz val="12"/>
         <color rgb="FF2E75B6"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>唯一性检查</t>
@@ -295,6 +315,7 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -313,6 +334,7 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -324,6 +346,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>理论上</t>
@@ -342,6 +365,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表的前后顺序</t>
@@ -360,6 +384,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页的顺序没有严格要求</t>
@@ -378,6 +403,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但请尽量按照先插 后引用的顺序排列</t>
@@ -396,6 +422,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>减少迭代次数</t>
@@ -443,6 +470,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -461,6 +489,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>该列的值自动生成</t>
@@ -479,6 +508,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当数据库存在等价记录时</t>
@@ -497,6 +527,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>这个值会被替换为数据库中已存在的值</t>
@@ -508,6 +539,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自增长</t>
@@ -526,6 +558,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>或序列</t>
@@ -544,6 +577,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>主键列</t>
@@ -563,6 +597,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当不作为外键引用时</t>
@@ -581,6 +616,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般写</t>
@@ -600,6 +636,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>作为外键时</t>
@@ -618,6 +655,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>写可读的值</t>
@@ -629,6 +667,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">目前 </t>
@@ -647,6 +686,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>是序列</t>
@@ -665,6 +705,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他自增涨</t>
@@ -688,6 +729,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -706,6 +748,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表中所有带有</t>
@@ -724,6 +767,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>的列组成一个唯一性校验</t>
@@ -742,6 +786,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>在执行插入之前</t>
@@ -760,6 +805,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会首先按照唯一键来检查数据库是否存在等价记录</t>
@@ -771,6 +817,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>可以有多列</t>
@@ -789,6 +836,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>仅支持</t>
@@ -799,6 +847,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>数字</t>
@@ -819,6 +868,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">字符串
@@ -829,6 +879,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当</t>
@@ -847,6 +898,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列涉及到公式时</t>
@@ -865,6 +917,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会先确定公式的值</t>
@@ -888,6 +941,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定这一列的类型</t>
@@ -906,6 +960,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>默认会自动检测</t>
@@ -925,6 +980,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为数字</t>
@@ -944,6 +1000,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为日期</t>
@@ -963,6 +1020,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他默认为</t>
@@ -983,6 +1041,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般不需要指定</t>
@@ -1002,6 +1061,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>日期格式仅支持</t>
@@ -1036,6 +1096,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定语言环境</t>
@@ -1056,6 +1117,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表数据不需要专门写</t>
@@ -1067,6 +1129,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -1085,6 +1148,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -1105,6 +1169,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>用于引用外键</t>
@@ -1123,6 +1188,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>也可用于普通值
@@ -1135,6 +1201,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动增长列</t>
@@ -1153,6 +1220,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>如果被公式引用</t>
@@ -1171,6 +1239,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>最好写一个人可以读懂的值</t>
@@ -1189,6 +1258,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>增强公式可读性</t>
@@ -1203,6 +1273,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般用于引用自动生成的外键</t>
@@ -1221,6 +1292,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">所有公式均为 </t>
@@ -1239,6 +1311,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>支持的标准公式</t>
@@ -1257,6 +1330,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但不支持特别复杂的计算公式</t>
@@ -1275,6 +1349,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>比如范围计算</t>
@@ -1290,6 +1365,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1299,6 +1375,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1317,6 +1394,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1332,6 +1410,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1341,6 +1420,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1359,6 +1439,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1373,6 +1454,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1391,6 +1473,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1409,6 +1492,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1428,6 +1512,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1451,6 +1536,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1469,6 +1555,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1487,6 +1574,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1506,6 +1594,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1526,6 +1615,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1536,6 +1626,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1545,6 +1636,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1556,6 +1648,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>举例</t>
@@ -1574,6 +1667,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">当 </t>
@@ -1592,6 +1686,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格引用 </t>
@@ -1610,6 +1705,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">时
@@ -1629,6 +1725,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1647,6 +1744,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格时</t>
@@ -1665,6 +1763,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用的是 </t>
@@ -1684,6 +1783,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">将 </t>
@@ -1702,6 +1802,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1720,6 +1821,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>时</t>
@@ -1738,6 +1840,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">实际引用的是 </t>
@@ -1757,6 +1860,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>以上情况适用于拖拽填充</t>
@@ -1768,6 +1872,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1778,6 +1883,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1787,6 +1893,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1798,6 +1905,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>复制公式单元格时</t>
@@ -1816,6 +1924,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>保持公式不变</t>
@@ -1827,6 +1936,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对引用</t>
@@ -1845,6 +1955,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对引用各有用途</t>
@@ -1864,6 +1975,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>直接拖拽填充就可以避免大量重复工作</t>
@@ -2155,114 +2267,60 @@
     <t>iam_menu_permission-8</t>
   </si>
   <si>
-    <t>hrds-code-repo.member-audit-log-org.detailLatest</t>
-  </si>
-  <si>
     <t>iam_menu_permission-9</t>
   </si>
   <si>
-    <t>hrds-code-repo.org.listProjectsByUserId</t>
-  </si>
-  <si>
     <t>iam_menu_permission-10</t>
   </si>
   <si>
-    <t>hrds-code-repo.rdm-member-audit-record-org.pageByOptions</t>
-  </si>
-  <si>
     <t>iam_menu_permission-11</t>
   </si>
   <si>
-    <t>hrds-code-repo.rdm-member-org.pageByOptions</t>
-  </si>
-  <si>
     <t>iam_menu_permission-12</t>
   </si>
   <si>
-    <t>hrds-code-repo.rdm-operation-log-org.pageByOptionsMemberLog</t>
-  </si>
-  <si>
     <t>iam_menu_permission-13</t>
   </si>
   <si>
-    <t>hrds-code-repo.project.listDeveloperProjectMembers</t>
-  </si>
-  <si>
     <t>iam_menu_permission-14</t>
   </si>
   <si>
-    <t>hrds-code-repo.rdm-member-applicant-proj.create</t>
-  </si>
-  <si>
     <t>iam_menu_permission-15</t>
   </si>
   <si>
-    <t>hrds-code-repo.rdm-member-applicant-proj.detectApplicantType</t>
-  </si>
-  <si>
     <t>iam_menu_permission-16</t>
   </si>
   <si>
-    <t>hrds-code-repo.rdm-member-applicant-proj.pageByOptionsSelf</t>
-  </si>
-  <si>
     <t>iam_menu_permission-17</t>
   </si>
   <si>
-    <t>hrds-code-repo.rdm-member-proj.export</t>
-  </si>
-  <si>
     <t>iam_menu_permission-18</t>
   </si>
   <si>
-    <t>hrds-code-repo.rdm-member-proj.pageByOptions</t>
-  </si>
-  <si>
     <t>iam_menu_permission-19</t>
   </si>
   <si>
-    <t>hrds-code-repo.rdm-repository-proj.listByActive</t>
-  </si>
-  <si>
     <t>iam_menu_permission-20</t>
   </si>
   <si>
-    <t>hrds-code-repo.member-audit-log.detailLatest</t>
-  </si>
-  <si>
     <t>iam_menu_permission-21</t>
   </si>
   <si>
     <t>iam_menu_permission-22</t>
   </si>
   <si>
-    <t>hrds-code-repo.rdm-branch.createProtectedBranch</t>
-  </si>
-  <si>
     <t>iam_menu_permission-23</t>
   </si>
   <si>
-    <t>hrds-code-repo.rdm-branch.getBranches</t>
-  </si>
-  <si>
     <t>iam_menu_permission-24</t>
   </si>
   <si>
-    <t>hrds-code-repo.rdm-branch.getProtectedBranches</t>
-  </si>
-  <si>
     <t>iam_menu_permission-25</t>
   </si>
   <si>
-    <t>hrds-code-repo.rdm-branch.removeProtectedBranch</t>
-  </si>
-  <si>
     <t>iam_menu_permission-26</t>
   </si>
   <si>
-    <t>hrds-code-repo.rdm-branch.updateProtectedBranch</t>
-  </si>
-  <si>
     <t>iam_menu_permission-27</t>
   </si>
   <si>
@@ -2272,45 +2330,24 @@
     <t>iam_menu_permission-29</t>
   </si>
   <si>
-    <t>hrds-code-repo.rdm-member-applicant-proj.pageByOptions</t>
-  </si>
-  <si>
     <t>iam_menu_permission-30</t>
   </si>
   <si>
-    <t>hrds-code-repo.rdm-member-applicant-proj.passAndHandleMember</t>
-  </si>
-  <si>
     <t>iam_menu_permission-31</t>
   </si>
   <si>
-    <t>hrds-code-repo.rdm-member-applicant-proj.refuse</t>
-  </si>
-  <si>
     <t>iam_menu_permission-32</t>
   </si>
   <si>
-    <t>hrds-code-repo.rdm-member-audit-record-proj.auditFix</t>
-  </si>
-  <si>
     <t>iam_menu_permission-33</t>
   </si>
   <si>
-    <t>hrds-code-repo.rdm-member-audit-record-proj.pageByOptions</t>
-  </si>
-  <si>
     <t>iam_menu_permission-34</t>
   </si>
   <si>
-    <t>hrds-code-repo.rdm-member-audit-record-proj.sync</t>
-  </si>
-  <si>
     <t>iam_menu_permission-35</t>
   </si>
   <si>
-    <t>hrds-code-repo.rdm-member-proj.batchAddMembers</t>
-  </si>
-  <si>
     <t>iam_menu_permission-36</t>
   </si>
   <si>
@@ -2320,90 +2357,48 @@
     <t>iam_menu_permission-38</t>
   </si>
   <si>
-    <t>hrds-code-repo.rdm-member-proj.pageSecurityAudit</t>
-  </si>
-  <si>
     <t>iam_menu_permission-39</t>
   </si>
   <si>
-    <t>hrds-code-repo.rdm-member.removeMember</t>
-  </si>
-  <si>
     <t>iam_menu_permission-40</t>
   </si>
   <si>
-    <t>hrds-code-repo.rdm-member.syncMember</t>
-  </si>
-  <si>
     <t>iam_menu_permission-41</t>
   </si>
   <si>
-    <t>hrds-code-repo.rdm-member.syncMembersFromGitlab</t>
-  </si>
-  <si>
     <t>iam_menu_permission-42</t>
   </si>
   <si>
-    <t>hrds-code-repo.rdm-member.updateMember</t>
-  </si>
-  <si>
     <t>iam_menu_permission-43</t>
   </si>
   <si>
-    <t>hrds-code-repo.rdm-operation-log-proj.pageByOptionsMemberLog</t>
-  </si>
-  <si>
     <t>iam_menu_permission-44</t>
   </si>
   <si>
-    <t>hrds-code-repo.rdm-project.pageMemberPermissions</t>
-  </si>
-  <si>
     <t>iam_menu_permission-45</t>
   </si>
   <si>
     <t>iam_menu_permission-46</t>
   </si>
   <si>
-    <t>hrds-code-repo.rdm-repository-proj.pageOverviewByOptions</t>
-  </si>
-  <si>
     <t>iam_menu_permission-47</t>
   </si>
   <si>
-    <t>hrds-code-repo.rdm-tag.createProtectedTag</t>
-  </si>
-  <si>
     <t>iam_menu_permission-48</t>
   </si>
   <si>
-    <t>hrds-code-repo.rdm-tag.deleteProtectedTag</t>
-  </si>
-  <si>
     <t>iam_menu_permission-49</t>
   </si>
   <si>
-    <t>hrds-code-repo.rdm-tag.getProtectedTags</t>
-  </si>
-  <si>
     <t>iam_menu_permission-50</t>
   </si>
   <si>
-    <t>hrds-code-repo.rdm-tag.getTags</t>
-  </si>
-  <si>
     <t>iam_menu_permission-51</t>
   </si>
   <si>
-    <t>hrds-code-repo.rdm-tag.updateProtectedTag</t>
-  </si>
-  <si>
     <t>iam_menu_permission-52</t>
   </si>
   <si>
-    <t>hrds-code-repo.rdm-member-org.export</t>
-  </si>
-  <si>
     <t>标签表</t>
   </si>
   <si>
@@ -3011,19 +3006,130 @@
   </si>
   <si>
     <t>标识gitlab_developer</t>
+  </si>
+  <si>
+    <t>code-repo-service.member-audit-log-org.detailLatest</t>
+  </si>
+  <si>
+    <t>code-repo-service.org.listProjectsByUserId</t>
+  </si>
+  <si>
+    <t>code-repo-service.rdm-member-audit-record-org.pageByOptions</t>
+  </si>
+  <si>
+    <t>code-repo-service.rdm-member-org.pageByOptions</t>
+  </si>
+  <si>
+    <t>code-repo-service.rdm-operation-log-org.pageByOptionsMemberLog</t>
+  </si>
+  <si>
+    <t>code-repo-service.project.listDeveloperProjectMembers</t>
+  </si>
+  <si>
+    <t>code-repo-service.rdm-member-applicant-proj.create</t>
+  </si>
+  <si>
+    <t>code-repo-service.rdm-member-applicant-proj.detectApplicantType</t>
+  </si>
+  <si>
+    <t>code-repo-service.rdm-member-applicant-proj.pageByOptionsSelf</t>
+  </si>
+  <si>
+    <t>code-repo-service.rdm-member-proj.export</t>
+  </si>
+  <si>
+    <t>code-repo-service.rdm-member-proj.pageByOptions</t>
+  </si>
+  <si>
+    <t>code-repo-service.rdm-repository-proj.listByActive</t>
+  </si>
+  <si>
+    <t>code-repo-service.member-audit-log.detailLatest</t>
+  </si>
+  <si>
+    <t>code-repo-service.rdm-branch.createProtectedBranch</t>
+  </si>
+  <si>
+    <t>code-repo-service.rdm-branch.getBranches</t>
+  </si>
+  <si>
+    <t>code-repo-service.rdm-branch.getProtectedBranches</t>
+  </si>
+  <si>
+    <t>code-repo-service.rdm-branch.removeProtectedBranch</t>
+  </si>
+  <si>
+    <t>code-repo-service.rdm-branch.updateProtectedBranch</t>
+  </si>
+  <si>
+    <t>code-repo-service.rdm-member-applicant-proj.pageByOptions</t>
+  </si>
+  <si>
+    <t>code-repo-service.rdm-member-applicant-proj.passAndHandleMember</t>
+  </si>
+  <si>
+    <t>code-repo-service.rdm-member-applicant-proj.refuse</t>
+  </si>
+  <si>
+    <t>code-repo-service.rdm-member-audit-record-proj.auditFix</t>
+  </si>
+  <si>
+    <t>code-repo-service.rdm-member-audit-record-proj.pageByOptions</t>
+  </si>
+  <si>
+    <t>code-repo-service.rdm-member-audit-record-proj.sync</t>
+  </si>
+  <si>
+    <t>code-repo-service.rdm-member-proj.batchAddMembers</t>
+  </si>
+  <si>
+    <t>code-repo-service.rdm-member-proj.pageSecurityAudit</t>
+  </si>
+  <si>
+    <t>code-repo-service.rdm-member.removeMember</t>
+  </si>
+  <si>
+    <t>code-repo-service.rdm-member.syncMember</t>
+  </si>
+  <si>
+    <t>code-repo-service.rdm-member.syncMembersFromGitlab</t>
+  </si>
+  <si>
+    <t>code-repo-service.rdm-member.updateMember</t>
+  </si>
+  <si>
+    <t>code-repo-service.rdm-operation-log-proj.pageByOptionsMemberLog</t>
+  </si>
+  <si>
+    <t>code-repo-service.rdm-project.pageMemberPermissions</t>
+  </si>
+  <si>
+    <t>code-repo-service.rdm-repository-proj.pageOverviewByOptions</t>
+  </si>
+  <si>
+    <t>code-repo-service.rdm-tag.createProtectedTag</t>
+  </si>
+  <si>
+    <t>code-repo-service.rdm-tag.deleteProtectedTag</t>
+  </si>
+  <si>
+    <t>code-repo-service.rdm-tag.getProtectedTags</t>
+  </si>
+  <si>
+    <t>code-repo-service.rdm-tag.getTags</t>
+  </si>
+  <si>
+    <t>code-repo-service.rdm-tag.updateProtectedTag</t>
+  </si>
+  <si>
+    <t>code-repo-service.rdm-member-org.export</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="41">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="24">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -3034,25 +3140,25 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="53"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="48"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="42"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -3092,161 +3198,10 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -3271,6 +3226,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3284,18 +3240,21 @@
       <sz val="12"/>
       <color rgb="FFC55A11"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF548235"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3304,8 +3263,28 @@
       <name val="DengXian"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="38">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3342,194 +3321,8 @@
         <bgColor rgb="FFE7E6E6"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="18">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -3630,254 +3423,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="37" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="13" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3892,15 +3443,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -3914,9 +3456,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3926,9 +3465,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3949,59 +3485,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="2" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="3" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="4" builtinId="41"/>
-    <cellStyle name="输入" xfId="5" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="7" builtinId="38"/>
-    <cellStyle name="货币" xfId="8" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="9" builtinId="37"/>
-    <cellStyle name="百分比" xfId="10" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="11" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="12" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="13" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="14" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="15" builtinId="44"/>
-    <cellStyle name="计算" xfId="16" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="17" builtinId="29"/>
-    <cellStyle name="适中" xfId="18" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="19" builtinId="46"/>
-    <cellStyle name="好" xfId="20" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="21" builtinId="30"/>
-    <cellStyle name="汇总" xfId="22" builtinId="25"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="24" builtinId="23"/>
-    <cellStyle name="输出" xfId="25" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="26" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="27" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="28" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="29" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="30" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="31" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="32" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="33" builtinId="9"/>
-    <cellStyle name="标题" xfId="34" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="35" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="36" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="37" builtinId="40"/>
-    <cellStyle name="注释" xfId="38" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="39" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="40" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="41" builtinId="51"/>
-    <cellStyle name="超链接" xfId="42" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="43" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="44" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="46" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="48" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="49" builtinId="24"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
@@ -4074,6 +3579,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -4331,265 +3839,265 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="15.5526315789474" style="6" customWidth="1"/>
-    <col min="2" max="2" width="10.3289473684211" style="7" customWidth="1"/>
-    <col min="3" max="3" width="28.1118421052632" customWidth="1"/>
-    <col min="4" max="4" width="35.3289473684211" style="8" customWidth="1"/>
-    <col min="5" max="5" width="38.5526315789474" customWidth="1"/>
-    <col min="6" max="6" width="23.4407894736842" customWidth="1"/>
-    <col min="7" max="7" width="21.5526315789474" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="10.35546875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="28.140625" customWidth="1"/>
+    <col min="4" max="4" width="35.35546875" style="8" customWidth="1"/>
+    <col min="5" max="5" width="38.5703125" customWidth="1"/>
+    <col min="6" max="6" width="23.42578125" customWidth="1"/>
+    <col min="7" max="7" width="21.5703125" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5526315789474" customWidth="1"/>
+    <col min="9" max="9" width="24.5703125" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.1118421052632" customWidth="1"/>
-    <col min="12" max="12" width="18.5526315789474" customWidth="1"/>
-    <col min="13" max="13" width="13.1118421052632" customWidth="1"/>
-    <col min="14" max="1025" width="10.3289473684211" customWidth="1"/>
+    <col min="11" max="11" width="19.140625" customWidth="1"/>
+    <col min="12" max="12" width="18.5703125" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" customWidth="1"/>
+    <col min="14" max="1025" width="10.35546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="64.5" customHeight="1" spans="1:8">
+    <row r="1" spans="1:8" ht="64.5" customHeight="1">
       <c r="A1" s="9"/>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-    </row>
-    <row r="2" spans="5:5">
-      <c r="E2" s="24"/>
-    </row>
-    <row r="3" ht="49.5" customHeight="1" spans="3:7">
-      <c r="C3" s="11" t="s">
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="E2" s="20"/>
+    </row>
+    <row r="3" spans="1:8" ht="49.5" customHeight="1">
+      <c r="C3" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="28" t="s">
+      <c r="D3" s="33"/>
+      <c r="E3" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-    </row>
-    <row r="4" ht="16" spans="3:7">
-      <c r="C4" s="12" t="s">
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="C4" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="29" t="s">
+      <c r="D4" s="35"/>
+      <c r="E4" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="30" t="s">
+      <c r="F4" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="31" t="s">
+      <c r="G4" s="26" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" ht="16" spans="1:3">
+    <row r="5" spans="1:8">
       <c r="A5" s="9"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="3:5">
-      <c r="C7" s="13" t="s">
+    <row r="7" spans="1:8">
+      <c r="C7" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="32" t="s">
+      <c r="E7" s="27" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="3:5">
-      <c r="C8" s="15" t="s">
+    <row r="8" spans="1:8">
+      <c r="C8" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="33"/>
-    </row>
-    <row r="9" ht="46" spans="3:6">
-      <c r="C9" s="17" t="s">
+      <c r="E8" s="28"/>
+    </row>
+    <row r="9" spans="1:8" ht="49.5">
+      <c r="C9" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="34" t="s">
+      <c r="E9" s="29" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" ht="46" spans="3:5">
-      <c r="C10" s="19" t="s">
+    <row r="10" spans="1:8" ht="49.5">
+      <c r="C10" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="34" t="s">
+      <c r="E10" s="29" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" ht="61" spans="3:5">
-      <c r="C11" s="15" t="s">
+    <row r="11" spans="1:8" ht="66">
+      <c r="C11" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="34" t="s">
+      <c r="E11" s="29" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" ht="16" spans="3:5">
-      <c r="C12" s="15" t="s">
+    <row r="12" spans="1:8">
+      <c r="C12" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="35" t="s">
+      <c r="E12" s="30" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="3:5">
-      <c r="C13" s="15"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="33"/>
-    </row>
-    <row r="14" spans="3:5">
-      <c r="C14" s="15"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="33"/>
-    </row>
-    <row r="15" ht="31" spans="3:5">
-      <c r="C15" s="20" t="s">
+    <row r="13" spans="1:8">
+      <c r="C13" s="12"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="28"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="C14" s="12"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="28"/>
+    </row>
+    <row r="15" spans="1:8" ht="33">
+      <c r="C15" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="21" t="s">
+      <c r="D15" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="36" t="s">
+      <c r="E15" s="31" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="3:3">
+    <row r="18" spans="3:5">
       <c r="C18" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="19" ht="16" spans="3:5">
-      <c r="C19" s="22" t="s">
+    <row r="19" spans="3:5">
+      <c r="C19" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-    </row>
-    <row r="20" ht="16" spans="3:4">
-      <c r="C20" s="23" t="s">
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+    </row>
+    <row r="20" spans="3:5">
+      <c r="C20" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="24" t="s">
+      <c r="D20" s="20" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" ht="16" spans="3:4">
-      <c r="C21" s="23" t="s">
+    <row r="21" spans="3:5">
+      <c r="C21" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="24" t="s">
+      <c r="D21" s="20" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" ht="16" spans="3:4">
-      <c r="C22" s="23" t="s">
+    <row r="22" spans="3:5">
+      <c r="C22" s="19" t="s">
         <v>35</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" ht="16" spans="3:4">
-      <c r="C23" s="23" t="s">
+    <row r="23" spans="3:5">
+      <c r="C23" s="19" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="25" t="s">
+    <row r="25" spans="3:5" ht="69" customHeight="1">
+      <c r="C25" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="11" t="s">
+      <c r="D25" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="11"/>
-    </row>
-    <row r="26" ht="14.25" customHeight="1" spans="3:5">
-      <c r="C26" s="16" t="s">
+      <c r="E25" s="33"/>
+    </row>
+    <row r="26" spans="3:5" ht="14.25" customHeight="1">
+      <c r="C26" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="D26" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="11"/>
-    </row>
-    <row r="27" ht="31" spans="3:3">
-      <c r="C27" s="26" t="s">
+      <c r="E26" s="33"/>
+    </row>
+    <row r="27" spans="3:5" ht="49.5">
+      <c r="C27" s="22" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C19:E19"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
   </mergeCells>
-  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
+  <phoneticPr fontId="23" type="noConversion"/>
+  <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.51041666666666696" footer="0.51041666666666696"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="J1" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <cols>
+    <col min="16" max="16" width="45.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -4603,7 +4111,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:25">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -4691,7 +4199,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="5:24">
+    <row r="8" spans="1:25">
       <c r="E8" t="s">
         <v>75</v>
       </c>
@@ -4738,7 +4246,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="5:24">
+    <row r="9" spans="1:25">
       <c r="E9" t="s">
         <v>84</v>
       </c>
@@ -4792,7 +4300,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="5:24">
+    <row r="10" spans="1:25">
       <c r="E10" t="s">
         <v>92</v>
       </c>
@@ -4843,7 +4351,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="5:24">
+    <row r="11" spans="1:25">
       <c r="E11" t="s">
         <v>98</v>
       </c>
@@ -4891,7 +4399,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="5:24">
+    <row r="12" spans="1:25">
       <c r="E12" t="s">
         <v>103</v>
       </c>
@@ -4938,7 +4446,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="5:24">
+    <row r="13" spans="1:25">
       <c r="E13" t="s">
         <v>106</v>
       </c>
@@ -4992,7 +4500,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="5:24">
+    <row r="14" spans="1:25">
       <c r="E14" t="s">
         <v>113</v>
       </c>
@@ -5043,7 +4551,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="5:24">
+    <row r="15" spans="1:25">
       <c r="E15" t="s">
         <v>116</v>
       </c>
@@ -5090,7 +4598,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="5:24">
+    <row r="16" spans="1:25">
       <c r="E16" t="s">
         <v>119</v>
       </c>
@@ -5292,28 +4800,27 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="23" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+    <sheetView topLeftCell="B37" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="5" max="5" width="21.2631578947368" customWidth="1"/>
-    <col min="6" max="6" width="17.5394736842105" customWidth="1"/>
-    <col min="7" max="7" width="30.3684210526316" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" customWidth="1"/>
+    <col min="7" max="7" width="30.35546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -5327,7 +4834,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:7">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -5361,7 +4868,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="8" spans="5:7">
+    <row r="8" spans="1:7">
       <c r="E8" t="s">
         <v>138</v>
       </c>
@@ -5369,556 +4876,553 @@
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="37" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="E9" t="s">
         <v>139</v>
-      </c>
-    </row>
-    <row r="9" spans="5:7">
-      <c r="E9" t="s">
-        <v>140</v>
       </c>
       <c r="F9" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G9" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="10" spans="5:7">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="E10" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F10" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G10" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="11" spans="5:7">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="E11" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F11" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G11" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="12" spans="5:7">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="E12" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F12" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G12" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="13" spans="5:7">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="E13" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="F13" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-18</v>
       </c>
       <c r="G13" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="14" spans="5:7">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="E14" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="F14" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-18</v>
       </c>
       <c r="G14" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="15" spans="5:7">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="E15" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="F15" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-18</v>
       </c>
       <c r="G15" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="16" spans="5:7">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="E16" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="F16" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-18</v>
       </c>
       <c r="G16" t="s">
-        <v>155</v>
+        <v>394</v>
       </c>
     </row>
     <row r="17" spans="5:7">
       <c r="E17" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="F17" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-18</v>
       </c>
       <c r="G17" t="s">
-        <v>157</v>
+        <v>395</v>
       </c>
     </row>
     <row r="18" spans="5:7">
       <c r="E18" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="F18" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-18</v>
       </c>
       <c r="G18" t="s">
-        <v>159</v>
+        <v>396</v>
       </c>
     </row>
     <row r="19" spans="5:7">
       <c r="E19" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="F19" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-18</v>
       </c>
       <c r="G19" t="s">
-        <v>161</v>
+        <v>397</v>
       </c>
     </row>
     <row r="20" spans="5:7">
       <c r="E20" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="F20" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G20" t="s">
-        <v>163</v>
+        <v>398</v>
       </c>
     </row>
     <row r="21" spans="5:7">
       <c r="E21" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="F21" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G21" t="s">
-        <v>149</v>
+        <v>391</v>
       </c>
     </row>
     <row r="22" spans="5:7">
       <c r="E22" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="F22" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G22" t="s">
-        <v>166</v>
+        <v>399</v>
       </c>
     </row>
     <row r="23" spans="5:7">
       <c r="E23" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="F23" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G23" t="s">
-        <v>168</v>
+        <v>400</v>
       </c>
     </row>
     <row r="24" spans="5:7">
       <c r="E24" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="F24" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G24" t="s">
-        <v>170</v>
+        <v>401</v>
       </c>
     </row>
     <row r="25" spans="5:7">
       <c r="E25" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="F25" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G25" t="s">
-        <v>172</v>
+        <v>402</v>
       </c>
     </row>
     <row r="26" spans="5:7">
       <c r="E26" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="F26" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G26" t="s">
-        <v>174</v>
+        <v>403</v>
       </c>
     </row>
     <row r="27" spans="5:7">
       <c r="E27" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="F27" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G27" t="s">
-        <v>151</v>
+        <v>392</v>
       </c>
     </row>
     <row r="28" spans="5:7">
       <c r="E28" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="F28" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G28" t="s">
-        <v>153</v>
+        <v>393</v>
       </c>
     </row>
     <row r="29" spans="5:7">
       <c r="E29" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="F29" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G29" t="s">
-        <v>178</v>
+        <v>404</v>
       </c>
     </row>
     <row r="30" spans="5:7">
       <c r="E30" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="F30" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G30" t="s">
-        <v>180</v>
+        <v>405</v>
       </c>
     </row>
     <row r="31" spans="5:7">
       <c r="E31" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="F31" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G31" t="s">
-        <v>182</v>
+        <v>406</v>
       </c>
     </row>
     <row r="32" spans="5:7">
       <c r="E32" t="s">
-        <v>183</v>
+        <v>162</v>
       </c>
       <c r="F32" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G32" t="s">
-        <v>184</v>
+        <v>407</v>
       </c>
     </row>
     <row r="33" spans="5:7">
       <c r="E33" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="F33" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G33" t="s">
-        <v>186</v>
+        <v>408</v>
       </c>
     </row>
     <row r="34" spans="5:7">
       <c r="E34" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
       <c r="F34" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G34" t="s">
-        <v>188</v>
+        <v>409</v>
       </c>
     </row>
     <row r="35" spans="5:7">
       <c r="E35" t="s">
-        <v>189</v>
+        <v>165</v>
       </c>
       <c r="F35" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G35" t="s">
-        <v>190</v>
+        <v>410</v>
       </c>
     </row>
     <row r="36" spans="5:7">
       <c r="E36" t="s">
-        <v>191</v>
+        <v>166</v>
       </c>
       <c r="F36" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G36" t="s">
-        <v>157</v>
+        <v>395</v>
       </c>
     </row>
     <row r="37" spans="5:7">
       <c r="E37" t="s">
-        <v>192</v>
+        <v>167</v>
       </c>
       <c r="F37" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G37" t="s">
-        <v>159</v>
+        <v>396</v>
       </c>
     </row>
     <row r="38" spans="5:7">
       <c r="E38" t="s">
-        <v>193</v>
+        <v>168</v>
       </c>
       <c r="F38" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G38" t="s">
-        <v>194</v>
+        <v>411</v>
       </c>
     </row>
     <row r="39" spans="5:7">
       <c r="E39" t="s">
-        <v>195</v>
+        <v>169</v>
       </c>
       <c r="F39" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G39" t="s">
-        <v>196</v>
+        <v>412</v>
       </c>
     </row>
     <row r="40" spans="5:7">
       <c r="E40" t="s">
-        <v>197</v>
+        <v>170</v>
       </c>
       <c r="F40" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G40" t="s">
-        <v>198</v>
+        <v>413</v>
       </c>
     </row>
     <row r="41" spans="5:7">
       <c r="E41" t="s">
-        <v>199</v>
+        <v>171</v>
       </c>
       <c r="F41" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G41" t="s">
-        <v>200</v>
+        <v>414</v>
       </c>
     </row>
     <row r="42" spans="5:7">
       <c r="E42" t="s">
-        <v>201</v>
+        <v>172</v>
       </c>
       <c r="F42" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G42" t="s">
-        <v>202</v>
+        <v>415</v>
       </c>
     </row>
     <row r="43" spans="5:7">
       <c r="E43" t="s">
-        <v>203</v>
+        <v>173</v>
       </c>
       <c r="F43" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G43" t="s">
-        <v>204</v>
+        <v>416</v>
       </c>
     </row>
     <row r="44" spans="5:7">
       <c r="E44" t="s">
-        <v>205</v>
+        <v>174</v>
       </c>
       <c r="F44" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G44" t="s">
-        <v>206</v>
+        <v>417</v>
       </c>
     </row>
     <row r="45" spans="5:7">
       <c r="E45" t="s">
-        <v>207</v>
+        <v>175</v>
       </c>
       <c r="F45" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G45" t="s">
-        <v>161</v>
+        <v>397</v>
       </c>
     </row>
     <row r="46" spans="5:7">
       <c r="E46" t="s">
-        <v>208</v>
+        <v>176</v>
       </c>
       <c r="F46" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G46" t="s">
-        <v>209</v>
+        <v>418</v>
       </c>
     </row>
     <row r="47" spans="5:7">
       <c r="E47" t="s">
-        <v>210</v>
+        <v>177</v>
       </c>
       <c r="F47" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G47" t="s">
-        <v>211</v>
+        <v>419</v>
       </c>
     </row>
     <row r="48" spans="5:7">
       <c r="E48" t="s">
-        <v>212</v>
+        <v>178</v>
       </c>
       <c r="F48" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G48" t="s">
-        <v>213</v>
+        <v>420</v>
       </c>
     </row>
     <row r="49" spans="5:7">
       <c r="E49" t="s">
-        <v>214</v>
+        <v>179</v>
       </c>
       <c r="F49" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G49" t="s">
-        <v>215</v>
+        <v>421</v>
       </c>
     </row>
     <row r="50" spans="5:7">
       <c r="E50" t="s">
-        <v>216</v>
+        <v>180</v>
       </c>
       <c r="F50" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G50" t="s">
-        <v>217</v>
+        <v>422</v>
       </c>
     </row>
     <row r="51" spans="5:7">
       <c r="E51" t="s">
-        <v>218</v>
+        <v>181</v>
       </c>
       <c r="F51" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G51" t="s">
-        <v>219</v>
+        <v>423</v>
       </c>
     </row>
     <row r="52" spans="5:7">
       <c r="E52" s="5" t="s">
-        <v>220</v>
+        <v>182</v>
       </c>
       <c r="F52" s="5" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>221</v>
+        <v>424</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="23" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:O61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -5932,7 +5436,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:15">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -5951,696 +5455,696 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>222</v>
+        <v>183</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>223</v>
+        <v>184</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="H7" t="s">
+        <v>187</v>
+      </c>
+      <c r="I7" t="s">
+        <v>188</v>
+      </c>
+      <c r="J7" t="s">
+        <v>189</v>
+      </c>
+      <c r="K7" t="s">
+        <v>190</v>
+      </c>
+      <c r="L7" t="s">
+        <v>191</v>
+      </c>
+      <c r="M7" t="s">
+        <v>192</v>
+      </c>
+      <c r="N7" t="s">
+        <v>193</v>
+      </c>
+      <c r="O7" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="E8" t="s">
+        <v>195</v>
+      </c>
+      <c r="F8" t="s">
+        <v>196</v>
+      </c>
+      <c r="G8" t="s">
+        <v>197</v>
+      </c>
+      <c r="H8" t="s">
+        <v>82</v>
+      </c>
+      <c r="I8" t="s">
+        <v>198</v>
+      </c>
+      <c r="J8" t="s">
+        <v>199</v>
+      </c>
+      <c r="K8" t="s">
+        <v>196</v>
+      </c>
+      <c r="M8" t="s">
+        <v>82</v>
+      </c>
+      <c r="N8" t="s">
+        <v>82</v>
+      </c>
+      <c r="O8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="E9" t="s">
+        <v>200</v>
+      </c>
+      <c r="F9" t="s">
+        <v>201</v>
+      </c>
+      <c r="G9" t="s">
+        <v>197</v>
+      </c>
+      <c r="H9" t="s">
+        <v>82</v>
+      </c>
+      <c r="I9" t="s">
+        <v>198</v>
+      </c>
+      <c r="J9" t="s">
+        <v>202</v>
+      </c>
+      <c r="K9" t="s">
+        <v>201</v>
+      </c>
+      <c r="M9" t="s">
+        <v>82</v>
+      </c>
+      <c r="N9" t="s">
+        <v>82</v>
+      </c>
+      <c r="O9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="E10" t="s">
+        <v>203</v>
+      </c>
+      <c r="F10" t="s">
+        <v>204</v>
+      </c>
+      <c r="G10" t="s">
+        <v>197</v>
+      </c>
+      <c r="H10" t="s">
+        <v>82</v>
+      </c>
+      <c r="I10" t="s">
+        <v>205</v>
+      </c>
+      <c r="M10" t="s">
+        <v>82</v>
+      </c>
+      <c r="N10" t="s">
+        <v>82</v>
+      </c>
+      <c r="O10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="E11" t="s">
+        <v>206</v>
+      </c>
+      <c r="F11" t="s">
+        <v>207</v>
+      </c>
+      <c r="G11" t="s">
+        <v>197</v>
+      </c>
+      <c r="H11" t="s">
+        <v>82</v>
+      </c>
+      <c r="I11" t="s">
+        <v>198</v>
+      </c>
+      <c r="M11" t="s">
+        <v>79</v>
+      </c>
+      <c r="N11" t="s">
+        <v>79</v>
+      </c>
+      <c r="O11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="E12" t="s">
+        <v>208</v>
+      </c>
+      <c r="F12" t="s">
+        <v>209</v>
+      </c>
+      <c r="G12" t="s">
+        <v>197</v>
+      </c>
+      <c r="H12" t="s">
+        <v>82</v>
+      </c>
+      <c r="I12" t="s">
+        <v>205</v>
+      </c>
+      <c r="J12" t="s">
+        <v>210</v>
+      </c>
+      <c r="K12" t="s">
+        <v>210</v>
+      </c>
+      <c r="M12" t="s">
+        <v>82</v>
+      </c>
+      <c r="N12" t="s">
+        <v>82</v>
+      </c>
+      <c r="O12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="E13" t="s">
+        <v>211</v>
+      </c>
+      <c r="F13" t="s">
+        <v>212</v>
+      </c>
+      <c r="G13" t="s">
+        <v>197</v>
+      </c>
+      <c r="H13" t="s">
+        <v>82</v>
+      </c>
+      <c r="I13" t="s">
+        <v>198</v>
+      </c>
+      <c r="J13" t="s">
+        <v>213</v>
+      </c>
+      <c r="M13" t="s">
+        <v>79</v>
+      </c>
+      <c r="N13" t="s">
+        <v>79</v>
+      </c>
+      <c r="O13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="E14" t="s">
+        <v>214</v>
+      </c>
+      <c r="F14" t="s">
+        <v>215</v>
+      </c>
+      <c r="G14" t="s">
+        <v>197</v>
+      </c>
+      <c r="H14" t="s">
+        <v>82</v>
+      </c>
+      <c r="I14" t="s">
+        <v>198</v>
+      </c>
+      <c r="J14" t="s">
+        <v>216</v>
+      </c>
+      <c r="M14" t="s">
+        <v>79</v>
+      </c>
+      <c r="N14" t="s">
+        <v>79</v>
+      </c>
+      <c r="O14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="E15" t="s">
+        <v>217</v>
+      </c>
+      <c r="F15" t="s">
+        <v>218</v>
+      </c>
+      <c r="G15" t="s">
+        <v>197</v>
+      </c>
+      <c r="H15" t="s">
+        <v>82</v>
+      </c>
+      <c r="I15" t="s">
+        <v>198</v>
+      </c>
+      <c r="J15" t="s">
+        <v>219</v>
+      </c>
+      <c r="M15" t="s">
+        <v>79</v>
+      </c>
+      <c r="N15" t="s">
+        <v>79</v>
+      </c>
+      <c r="O15" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="E16" t="s">
+        <v>220</v>
+      </c>
+      <c r="F16" t="s">
+        <v>221</v>
+      </c>
+      <c r="G16" t="s">
+        <v>197</v>
+      </c>
+      <c r="H16" t="s">
+        <v>82</v>
+      </c>
+      <c r="I16" t="s">
+        <v>198</v>
+      </c>
+      <c r="J16" t="s">
+        <v>222</v>
+      </c>
+      <c r="M16" t="s">
+        <v>79</v>
+      </c>
+      <c r="N16" t="s">
+        <v>79</v>
+      </c>
+      <c r="O16" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="E17" t="s">
+        <v>223</v>
+      </c>
+      <c r="F17" t="s">
         <v>224</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G17" t="s">
+        <v>197</v>
+      </c>
+      <c r="H17" t="s">
+        <v>82</v>
+      </c>
+      <c r="I17" t="s">
+        <v>198</v>
+      </c>
+      <c r="J17" t="s">
         <v>225</v>
       </c>
-      <c r="H7" t="s">
+      <c r="K17" t="s">
+        <v>225</v>
+      </c>
+      <c r="M17" t="s">
+        <v>79</v>
+      </c>
+      <c r="N17" t="s">
+        <v>79</v>
+      </c>
+      <c r="O17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="E18" t="s">
         <v>226</v>
       </c>
-      <c r="I7" t="s">
+      <c r="F18" t="s">
         <v>227</v>
       </c>
-      <c r="J7" t="s">
+      <c r="G18" t="s">
+        <v>197</v>
+      </c>
+      <c r="H18" t="s">
+        <v>82</v>
+      </c>
+      <c r="I18" t="s">
+        <v>198</v>
+      </c>
+      <c r="J18" t="s">
         <v>228</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K18" t="s">
+        <v>228</v>
+      </c>
+      <c r="M18" t="s">
+        <v>79</v>
+      </c>
+      <c r="N18" t="s">
+        <v>79</v>
+      </c>
+      <c r="O18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="E19" t="s">
         <v>229</v>
       </c>
-      <c r="L7" t="s">
+      <c r="F19" t="s">
         <v>230</v>
       </c>
-      <c r="M7" t="s">
+      <c r="G19" t="s">
+        <v>197</v>
+      </c>
+      <c r="H19" t="s">
+        <v>82</v>
+      </c>
+      <c r="I19" t="s">
+        <v>198</v>
+      </c>
+      <c r="J19" t="s">
         <v>231</v>
       </c>
-      <c r="N7" t="s">
+      <c r="K19" t="s">
+        <v>230</v>
+      </c>
+      <c r="M19" t="s">
+        <v>82</v>
+      </c>
+      <c r="N19" t="s">
+        <v>82</v>
+      </c>
+      <c r="O19" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="E20" t="s">
         <v>232</v>
       </c>
-      <c r="O7" t="s">
+      <c r="F20" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="8" spans="5:15">
-      <c r="E8" t="s">
+      <c r="G20" t="s">
+        <v>197</v>
+      </c>
+      <c r="H20" t="s">
+        <v>82</v>
+      </c>
+      <c r="I20" t="s">
+        <v>205</v>
+      </c>
+      <c r="M20" t="s">
+        <v>82</v>
+      </c>
+      <c r="N20" t="s">
+        <v>79</v>
+      </c>
+      <c r="O20" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="E21" t="s">
         <v>234</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F21" t="s">
         <v>235</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G21" t="s">
+        <v>197</v>
+      </c>
+      <c r="H21" t="s">
+        <v>82</v>
+      </c>
+      <c r="I21" t="s">
+        <v>205</v>
+      </c>
+      <c r="J21" t="s">
         <v>236</v>
       </c>
-      <c r="H8" t="s">
-        <v>82</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="K21" t="s">
+        <v>236</v>
+      </c>
+      <c r="M21" t="s">
+        <v>79</v>
+      </c>
+      <c r="N21" t="s">
+        <v>79</v>
+      </c>
+      <c r="O21" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="E22" t="s">
         <v>237</v>
       </c>
-      <c r="J8" t="s">
+      <c r="F22" t="s">
         <v>238</v>
       </c>
-      <c r="K8" t="s">
-        <v>235</v>
-      </c>
-      <c r="M8" t="s">
-        <v>82</v>
-      </c>
-      <c r="N8" t="s">
-        <v>82</v>
-      </c>
-      <c r="O8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="9" spans="5:15">
-      <c r="E9" t="s">
+      <c r="G22" t="s">
+        <v>197</v>
+      </c>
+      <c r="H22" t="s">
+        <v>82</v>
+      </c>
+      <c r="I22" t="s">
+        <v>205</v>
+      </c>
+      <c r="J22" t="s">
         <v>239</v>
       </c>
-      <c r="F9" t="s">
+      <c r="K22" t="s">
+        <v>239</v>
+      </c>
+      <c r="M22" t="s">
+        <v>79</v>
+      </c>
+      <c r="N22" t="s">
+        <v>79</v>
+      </c>
+      <c r="O22" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="E23" t="s">
         <v>240</v>
       </c>
-      <c r="G9" t="s">
-        <v>236</v>
-      </c>
-      <c r="H9" t="s">
-        <v>82</v>
-      </c>
-      <c r="I9" t="s">
-        <v>237</v>
-      </c>
-      <c r="J9" t="s">
+      <c r="F23" t="s">
         <v>241</v>
       </c>
-      <c r="K9" t="s">
-        <v>240</v>
-      </c>
-      <c r="M9" t="s">
-        <v>82</v>
-      </c>
-      <c r="N9" t="s">
-        <v>82</v>
-      </c>
-      <c r="O9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="10" spans="5:15">
-      <c r="E10" t="s">
+      <c r="G23" t="s">
+        <v>197</v>
+      </c>
+      <c r="H23" t="s">
+        <v>82</v>
+      </c>
+      <c r="I23" t="s">
+        <v>205</v>
+      </c>
+      <c r="J23" t="s">
         <v>242</v>
       </c>
-      <c r="F10" t="s">
+      <c r="K23" t="s">
+        <v>242</v>
+      </c>
+      <c r="M23" t="s">
+        <v>79</v>
+      </c>
+      <c r="N23" t="s">
+        <v>79</v>
+      </c>
+      <c r="O23" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="E24" t="s">
         <v>243</v>
       </c>
-      <c r="G10" t="s">
-        <v>236</v>
-      </c>
-      <c r="H10" t="s">
-        <v>82</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="F24" t="s">
         <v>244</v>
       </c>
-      <c r="M10" t="s">
-        <v>82</v>
-      </c>
-      <c r="N10" t="s">
-        <v>82</v>
-      </c>
-      <c r="O10" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="11" spans="5:15">
-      <c r="E11" t="s">
+      <c r="G24" t="s">
+        <v>197</v>
+      </c>
+      <c r="H24" t="s">
+        <v>82</v>
+      </c>
+      <c r="I24" t="s">
+        <v>205</v>
+      </c>
+      <c r="M24" t="s">
+        <v>79</v>
+      </c>
+      <c r="N24" t="s">
+        <v>79</v>
+      </c>
+      <c r="O24" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="E25" t="s">
         <v>245</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F25" t="s">
         <v>246</v>
       </c>
-      <c r="G11" t="s">
-        <v>236</v>
-      </c>
-      <c r="H11" t="s">
-        <v>82</v>
-      </c>
-      <c r="I11" t="s">
-        <v>237</v>
-      </c>
-      <c r="M11" t="s">
-        <v>79</v>
-      </c>
-      <c r="N11" t="s">
-        <v>79</v>
-      </c>
-      <c r="O11" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="12" spans="5:15">
-      <c r="E12" t="s">
+      <c r="G25" t="s">
+        <v>197</v>
+      </c>
+      <c r="H25" t="s">
+        <v>82</v>
+      </c>
+      <c r="I25" t="s">
+        <v>205</v>
+      </c>
+      <c r="J25" t="s">
         <v>247</v>
       </c>
-      <c r="F12" t="s">
+      <c r="M25" t="s">
+        <v>79</v>
+      </c>
+      <c r="N25" t="s">
+        <v>79</v>
+      </c>
+      <c r="O25" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="E26" t="s">
         <v>248</v>
       </c>
-      <c r="G12" t="s">
-        <v>236</v>
-      </c>
-      <c r="H12" t="s">
-        <v>82</v>
-      </c>
-      <c r="I12" t="s">
-        <v>244</v>
-      </c>
-      <c r="J12" t="s">
+      <c r="F26" t="s">
         <v>249</v>
       </c>
-      <c r="K12" t="s">
-        <v>249</v>
-      </c>
-      <c r="M12" t="s">
-        <v>82</v>
-      </c>
-      <c r="N12" t="s">
-        <v>82</v>
-      </c>
-      <c r="O12" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="13" spans="5:15">
-      <c r="E13" t="s">
+      <c r="G26" t="s">
+        <v>197</v>
+      </c>
+      <c r="H26" t="s">
+        <v>82</v>
+      </c>
+      <c r="I26" t="s">
+        <v>205</v>
+      </c>
+      <c r="J26" t="s">
         <v>250</v>
       </c>
-      <c r="F13" t="s">
+      <c r="M26" t="s">
+        <v>79</v>
+      </c>
+      <c r="N26" t="s">
+        <v>79</v>
+      </c>
+      <c r="O26" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="E27" t="s">
         <v>251</v>
       </c>
-      <c r="G13" t="s">
-        <v>236</v>
-      </c>
-      <c r="H13" t="s">
-        <v>82</v>
-      </c>
-      <c r="I13" t="s">
-        <v>237</v>
-      </c>
-      <c r="J13" t="s">
+      <c r="F27" t="s">
         <v>252</v>
       </c>
-      <c r="M13" t="s">
-        <v>79</v>
-      </c>
-      <c r="N13" t="s">
-        <v>79</v>
-      </c>
-      <c r="O13" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="14" spans="5:15">
-      <c r="E14" t="s">
+      <c r="G27" t="s">
+        <v>197</v>
+      </c>
+      <c r="H27" t="s">
+        <v>82</v>
+      </c>
+      <c r="I27" t="s">
+        <v>205</v>
+      </c>
+      <c r="J27" t="s">
         <v>253</v>
       </c>
-      <c r="F14" t="s">
+      <c r="K27" t="s">
+        <v>253</v>
+      </c>
+      <c r="M27" t="s">
+        <v>79</v>
+      </c>
+      <c r="N27" t="s">
+        <v>79</v>
+      </c>
+      <c r="O27" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="E28" t="s">
         <v>254</v>
       </c>
-      <c r="G14" t="s">
-        <v>236</v>
-      </c>
-      <c r="H14" t="s">
-        <v>82</v>
-      </c>
-      <c r="I14" t="s">
-        <v>237</v>
-      </c>
-      <c r="J14" t="s">
+      <c r="F28" t="s">
         <v>255</v>
       </c>
-      <c r="M14" t="s">
-        <v>79</v>
-      </c>
-      <c r="N14" t="s">
-        <v>79</v>
-      </c>
-      <c r="O14" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="15" spans="5:15">
-      <c r="E15" t="s">
+      <c r="G28" t="s">
+        <v>197</v>
+      </c>
+      <c r="H28" t="s">
+        <v>82</v>
+      </c>
+      <c r="I28" t="s">
+        <v>205</v>
+      </c>
+      <c r="J28" t="s">
         <v>256</v>
       </c>
-      <c r="F15" t="s">
+      <c r="K28" t="s">
+        <v>256</v>
+      </c>
+      <c r="M28" t="s">
+        <v>79</v>
+      </c>
+      <c r="N28" t="s">
+        <v>79</v>
+      </c>
+      <c r="O28" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="E29" t="s">
         <v>257</v>
       </c>
-      <c r="G15" t="s">
-        <v>236</v>
-      </c>
-      <c r="H15" t="s">
-        <v>82</v>
-      </c>
-      <c r="I15" t="s">
-        <v>237</v>
-      </c>
-      <c r="J15" t="s">
+      <c r="F29" t="s">
         <v>258</v>
       </c>
-      <c r="M15" t="s">
-        <v>79</v>
-      </c>
-      <c r="N15" t="s">
-        <v>79</v>
-      </c>
-      <c r="O15" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="16" spans="5:15">
-      <c r="E16" t="s">
+      <c r="G29" t="s">
+        <v>197</v>
+      </c>
+      <c r="H29" t="s">
+        <v>82</v>
+      </c>
+      <c r="I29" t="s">
+        <v>205</v>
+      </c>
+      <c r="J29" t="s">
         <v>259</v>
       </c>
-      <c r="F16" t="s">
-        <v>260</v>
-      </c>
-      <c r="G16" t="s">
-        <v>236</v>
-      </c>
-      <c r="H16" t="s">
-        <v>82</v>
-      </c>
-      <c r="I16" t="s">
-        <v>237</v>
-      </c>
-      <c r="J16" t="s">
-        <v>261</v>
-      </c>
-      <c r="M16" t="s">
-        <v>79</v>
-      </c>
-      <c r="N16" t="s">
-        <v>79</v>
-      </c>
-      <c r="O16" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="17" spans="5:15">
-      <c r="E17" t="s">
-        <v>262</v>
-      </c>
-      <c r="F17" t="s">
-        <v>263</v>
-      </c>
-      <c r="G17" t="s">
-        <v>236</v>
-      </c>
-      <c r="H17" t="s">
-        <v>82</v>
-      </c>
-      <c r="I17" t="s">
-        <v>237</v>
-      </c>
-      <c r="J17" t="s">
-        <v>264</v>
-      </c>
-      <c r="K17" t="s">
-        <v>264</v>
-      </c>
-      <c r="M17" t="s">
-        <v>79</v>
-      </c>
-      <c r="N17" t="s">
-        <v>79</v>
-      </c>
-      <c r="O17" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="18" spans="5:15">
-      <c r="E18" t="s">
-        <v>265</v>
-      </c>
-      <c r="F18" t="s">
-        <v>266</v>
-      </c>
-      <c r="G18" t="s">
-        <v>236</v>
-      </c>
-      <c r="H18" t="s">
-        <v>82</v>
-      </c>
-      <c r="I18" t="s">
-        <v>237</v>
-      </c>
-      <c r="J18" t="s">
-        <v>267</v>
-      </c>
-      <c r="K18" t="s">
-        <v>267</v>
-      </c>
-      <c r="M18" t="s">
-        <v>79</v>
-      </c>
-      <c r="N18" t="s">
-        <v>79</v>
-      </c>
-      <c r="O18" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="19" spans="5:15">
-      <c r="E19" t="s">
-        <v>268</v>
-      </c>
-      <c r="F19" t="s">
-        <v>269</v>
-      </c>
-      <c r="G19" t="s">
-        <v>236</v>
-      </c>
-      <c r="H19" t="s">
-        <v>82</v>
-      </c>
-      <c r="I19" t="s">
-        <v>237</v>
-      </c>
-      <c r="J19" t="s">
-        <v>270</v>
-      </c>
-      <c r="K19" t="s">
-        <v>269</v>
-      </c>
-      <c r="M19" t="s">
-        <v>82</v>
-      </c>
-      <c r="N19" t="s">
-        <v>82</v>
-      </c>
-      <c r="O19" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="20" spans="5:15">
-      <c r="E20" t="s">
-        <v>271</v>
-      </c>
-      <c r="F20" t="s">
-        <v>272</v>
-      </c>
-      <c r="G20" t="s">
-        <v>236</v>
-      </c>
-      <c r="H20" t="s">
-        <v>82</v>
-      </c>
-      <c r="I20" t="s">
-        <v>244</v>
-      </c>
-      <c r="M20" t="s">
-        <v>82</v>
-      </c>
-      <c r="N20" t="s">
-        <v>79</v>
-      </c>
-      <c r="O20" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="21" spans="5:15">
-      <c r="E21" t="s">
-        <v>273</v>
-      </c>
-      <c r="F21" t="s">
-        <v>274</v>
-      </c>
-      <c r="G21" t="s">
-        <v>236</v>
-      </c>
-      <c r="H21" t="s">
-        <v>82</v>
-      </c>
-      <c r="I21" t="s">
-        <v>244</v>
-      </c>
-      <c r="J21" t="s">
-        <v>275</v>
-      </c>
-      <c r="K21" t="s">
-        <v>275</v>
-      </c>
-      <c r="M21" t="s">
-        <v>79</v>
-      </c>
-      <c r="N21" t="s">
-        <v>79</v>
-      </c>
-      <c r="O21" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="22" spans="5:15">
-      <c r="E22" t="s">
-        <v>276</v>
-      </c>
-      <c r="F22" t="s">
-        <v>277</v>
-      </c>
-      <c r="G22" t="s">
-        <v>236</v>
-      </c>
-      <c r="H22" t="s">
-        <v>82</v>
-      </c>
-      <c r="I22" t="s">
-        <v>244</v>
-      </c>
-      <c r="J22" t="s">
-        <v>278</v>
-      </c>
-      <c r="K22" t="s">
-        <v>278</v>
-      </c>
-      <c r="M22" t="s">
-        <v>79</v>
-      </c>
-      <c r="N22" t="s">
-        <v>79</v>
-      </c>
-      <c r="O22" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="23" spans="5:15">
-      <c r="E23" t="s">
-        <v>279</v>
-      </c>
-      <c r="F23" t="s">
-        <v>280</v>
-      </c>
-      <c r="G23" t="s">
-        <v>236</v>
-      </c>
-      <c r="H23" t="s">
-        <v>82</v>
-      </c>
-      <c r="I23" t="s">
-        <v>244</v>
-      </c>
-      <c r="J23" t="s">
-        <v>281</v>
-      </c>
-      <c r="K23" t="s">
-        <v>281</v>
-      </c>
-      <c r="M23" t="s">
-        <v>79</v>
-      </c>
-      <c r="N23" t="s">
-        <v>79</v>
-      </c>
-      <c r="O23" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="24" spans="5:15">
-      <c r="E24" t="s">
-        <v>282</v>
-      </c>
-      <c r="F24" t="s">
-        <v>283</v>
-      </c>
-      <c r="G24" t="s">
-        <v>236</v>
-      </c>
-      <c r="H24" t="s">
-        <v>82</v>
-      </c>
-      <c r="I24" t="s">
-        <v>244</v>
-      </c>
-      <c r="M24" t="s">
-        <v>79</v>
-      </c>
-      <c r="N24" t="s">
-        <v>79</v>
-      </c>
-      <c r="O24" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="25" spans="5:15">
-      <c r="E25" t="s">
-        <v>284</v>
-      </c>
-      <c r="F25" t="s">
-        <v>285</v>
-      </c>
-      <c r="G25" t="s">
-        <v>236</v>
-      </c>
-      <c r="H25" t="s">
-        <v>82</v>
-      </c>
-      <c r="I25" t="s">
-        <v>244</v>
-      </c>
-      <c r="J25" t="s">
-        <v>286</v>
-      </c>
-      <c r="M25" t="s">
-        <v>79</v>
-      </c>
-      <c r="N25" t="s">
-        <v>79</v>
-      </c>
-      <c r="O25" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="26" spans="5:15">
-      <c r="E26" t="s">
-        <v>287</v>
-      </c>
-      <c r="F26" t="s">
-        <v>288</v>
-      </c>
-      <c r="G26" t="s">
-        <v>236</v>
-      </c>
-      <c r="H26" t="s">
-        <v>82</v>
-      </c>
-      <c r="I26" t="s">
-        <v>244</v>
-      </c>
-      <c r="J26" t="s">
-        <v>289</v>
-      </c>
-      <c r="M26" t="s">
-        <v>79</v>
-      </c>
-      <c r="N26" t="s">
-        <v>79</v>
-      </c>
-      <c r="O26" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="27" spans="5:15">
-      <c r="E27" t="s">
-        <v>290</v>
-      </c>
-      <c r="F27" t="s">
-        <v>291</v>
-      </c>
-      <c r="G27" t="s">
-        <v>236</v>
-      </c>
-      <c r="H27" t="s">
-        <v>82</v>
-      </c>
-      <c r="I27" t="s">
-        <v>244</v>
-      </c>
-      <c r="J27" t="s">
-        <v>292</v>
-      </c>
-      <c r="K27" t="s">
-        <v>292</v>
-      </c>
-      <c r="M27" t="s">
-        <v>79</v>
-      </c>
-      <c r="N27" t="s">
-        <v>79</v>
-      </c>
-      <c r="O27" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="28" spans="5:15">
-      <c r="E28" t="s">
-        <v>293</v>
-      </c>
-      <c r="F28" t="s">
-        <v>294</v>
-      </c>
-      <c r="G28" t="s">
-        <v>236</v>
-      </c>
-      <c r="H28" t="s">
-        <v>82</v>
-      </c>
-      <c r="I28" t="s">
-        <v>244</v>
-      </c>
-      <c r="J28" t="s">
-        <v>295</v>
-      </c>
-      <c r="K28" t="s">
-        <v>295</v>
-      </c>
-      <c r="M28" t="s">
-        <v>79</v>
-      </c>
-      <c r="N28" t="s">
-        <v>79</v>
-      </c>
-      <c r="O28" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="29" spans="5:15">
-      <c r="E29" t="s">
-        <v>296</v>
-      </c>
-      <c r="F29" t="s">
-        <v>297</v>
-      </c>
-      <c r="G29" t="s">
-        <v>236</v>
-      </c>
-      <c r="H29" t="s">
-        <v>82</v>
-      </c>
-      <c r="I29" t="s">
-        <v>244</v>
-      </c>
-      <c r="J29" t="s">
-        <v>298</v>
-      </c>
       <c r="K29" t="s">
-        <v>298</v>
+        <v>259</v>
       </c>
       <c r="M29" t="s">
         <v>79</v>
@@ -6652,7 +6156,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:15">
       <c r="A31" t="s">
         <v>50</v>
       </c>
@@ -6660,33 +6164,33 @@
         <v>51</v>
       </c>
       <c r="C31" t="s">
-        <v>299</v>
+        <v>260</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>300</v>
+        <v>261</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>301</v>
+        <v>262</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>302</v>
+        <v>263</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>303</v>
+        <v>264</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>304</v>
+        <v>265</v>
       </c>
       <c r="I31" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="32" spans="5:9">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
       <c r="E32" t="s">
-        <v>306</v>
+        <v>267</v>
       </c>
       <c r="F32" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="G32" t="str">
         <f>菜单SAAS版!$E$12</f>
@@ -6697,15 +6201,15 @@
         <v>iam_label-11</v>
       </c>
       <c r="I32" t="s">
-        <v>307</v>
+        <v>268</v>
       </c>
     </row>
     <row r="33" spans="5:9">
       <c r="E33" t="s">
-        <v>306</v>
+        <v>267</v>
       </c>
       <c r="F33" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="G33" t="str">
         <f>菜单SAAS版!$E$12</f>
@@ -6716,15 +6220,15 @@
         <v>iam_label-24</v>
       </c>
       <c r="I33" t="s">
-        <v>307</v>
+        <v>268</v>
       </c>
     </row>
     <row r="34" spans="5:9">
       <c r="E34" t="s">
-        <v>306</v>
+        <v>267</v>
       </c>
       <c r="F34" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="G34" t="str">
         <f>菜单SAAS版!$E$12</f>
@@ -6735,15 +6239,15 @@
         <v>iam_label-27</v>
       </c>
       <c r="I34" t="s">
-        <v>307</v>
+        <v>268</v>
       </c>
     </row>
     <row r="35" spans="5:9">
       <c r="E35" t="s">
-        <v>306</v>
+        <v>267</v>
       </c>
       <c r="F35" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="G35" t="str">
         <f>菜单SAAS版!$E$12</f>
@@ -6754,15 +6258,15 @@
         <v>iam_label-28</v>
       </c>
       <c r="I35" t="s">
-        <v>307</v>
+        <v>268</v>
       </c>
     </row>
     <row r="36" spans="5:9">
       <c r="E36" t="s">
-        <v>306</v>
+        <v>267</v>
       </c>
       <c r="F36" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="G36" t="str">
         <f>菜单SAAS版!$E$12</f>
@@ -6773,15 +6277,15 @@
         <v>iam_label-29</v>
       </c>
       <c r="I36" t="s">
-        <v>307</v>
+        <v>268</v>
       </c>
     </row>
     <row r="37" spans="5:9">
       <c r="E37" t="s">
-        <v>306</v>
+        <v>267</v>
       </c>
       <c r="F37" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="G37" t="str">
         <f>菜单SAAS版!$E$8</f>
@@ -6792,15 +6296,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I37" t="s">
-        <v>307</v>
+        <v>268</v>
       </c>
     </row>
     <row r="38" spans="5:9">
       <c r="E38" t="s">
-        <v>306</v>
+        <v>267</v>
       </c>
       <c r="F38" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="G38" t="str">
         <f>菜单SAAS版!$E$8</f>
@@ -6811,15 +6315,15 @@
         <v>iam_label-27</v>
       </c>
       <c r="I38" t="s">
-        <v>307</v>
+        <v>268</v>
       </c>
     </row>
     <row r="39" spans="5:9">
       <c r="E39" t="s">
-        <v>306</v>
+        <v>267</v>
       </c>
       <c r="F39" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="G39" t="str">
         <f>菜单SAAS版!$E$8</f>
@@ -6830,15 +6334,15 @@
         <v>iam_label-28</v>
       </c>
       <c r="I39" t="s">
-        <v>307</v>
+        <v>268</v>
       </c>
     </row>
     <row r="40" spans="5:9">
       <c r="E40" t="s">
-        <v>306</v>
+        <v>267</v>
       </c>
       <c r="F40" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="G40" t="str">
         <f>菜单SAAS版!$E$8</f>
@@ -6849,15 +6353,15 @@
         <v>iam_label-29</v>
       </c>
       <c r="I40" t="s">
-        <v>307</v>
+        <v>268</v>
       </c>
     </row>
     <row r="41" spans="5:9">
       <c r="E41" t="s">
-        <v>306</v>
+        <v>267</v>
       </c>
       <c r="F41" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="G41" t="str">
         <f>菜单SAAS版!$E$9</f>
@@ -6868,15 +6372,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I41" t="s">
-        <v>308</v>
+        <v>269</v>
       </c>
     </row>
     <row r="42" spans="5:9">
       <c r="E42" t="s">
-        <v>306</v>
+        <v>267</v>
       </c>
       <c r="F42" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="G42" t="str">
         <f>菜单SAAS版!$E$9</f>
@@ -6887,15 +6391,15 @@
         <v>iam_label-19</v>
       </c>
       <c r="I42" t="s">
-        <v>307</v>
+        <v>268</v>
       </c>
     </row>
     <row r="43" spans="5:9">
       <c r="E43" t="s">
-        <v>306</v>
+        <v>267</v>
       </c>
       <c r="F43" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="G43" t="str">
         <f>菜单SAAS版!$E$9</f>
@@ -6906,15 +6410,15 @@
         <v>iam_label-29</v>
       </c>
       <c r="I43" t="s">
-        <v>307</v>
+        <v>268</v>
       </c>
     </row>
     <row r="44" spans="5:9">
       <c r="E44" t="s">
-        <v>306</v>
+        <v>267</v>
       </c>
       <c r="F44" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="G44" t="str">
         <f>菜单SAAS版!$E$10</f>
@@ -6925,15 +6429,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I44" t="s">
-        <v>308</v>
+        <v>269</v>
       </c>
     </row>
     <row r="45" spans="5:9">
       <c r="E45" t="s">
-        <v>306</v>
+        <v>267</v>
       </c>
       <c r="F45" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="G45" t="str">
         <f>菜单SAAS版!$E$11</f>
@@ -6944,15 +6448,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I45" t="s">
-        <v>308</v>
+        <v>269</v>
       </c>
     </row>
     <row r="46" spans="5:9">
       <c r="E46" t="s">
-        <v>306</v>
+        <v>267</v>
       </c>
       <c r="F46" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="G46" t="str">
         <f>菜单SAAS版!$E$11</f>
@@ -6963,15 +6467,15 @@
         <v>iam_label-19</v>
       </c>
       <c r="I46" t="s">
-        <v>308</v>
+        <v>269</v>
       </c>
     </row>
     <row r="47" spans="5:9">
       <c r="E47" t="s">
-        <v>306</v>
+        <v>267</v>
       </c>
       <c r="F47" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="G47" t="str">
         <f>菜单SAAS版!$E$13</f>
@@ -6982,15 +6486,15 @@
         <v>iam_label-11</v>
       </c>
       <c r="I47" t="s">
-        <v>307</v>
+        <v>268</v>
       </c>
     </row>
     <row r="48" spans="5:9">
       <c r="E48" t="s">
-        <v>306</v>
+        <v>267</v>
       </c>
       <c r="F48" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="G48" t="str">
         <f>菜单SAAS版!$E$13</f>
@@ -7001,15 +6505,15 @@
         <v>iam_label-27</v>
       </c>
       <c r="I48" t="s">
-        <v>307</v>
+        <v>268</v>
       </c>
     </row>
     <row r="49" spans="5:9">
       <c r="E49" t="s">
-        <v>306</v>
+        <v>267</v>
       </c>
       <c r="F49" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="G49" t="str">
         <f>菜单SAAS版!$E$13</f>
@@ -7020,15 +6524,15 @@
         <v>iam_label-28</v>
       </c>
       <c r="I49" t="s">
-        <v>307</v>
+        <v>268</v>
       </c>
     </row>
     <row r="50" spans="5:9">
       <c r="E50" t="s">
-        <v>306</v>
+        <v>267</v>
       </c>
       <c r="F50" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="G50" t="str">
         <f>菜单SAAS版!$E$13</f>
@@ -7039,15 +6543,15 @@
         <v>iam_label-29</v>
       </c>
       <c r="I50" t="s">
-        <v>307</v>
+        <v>268</v>
       </c>
     </row>
     <row r="51" spans="5:9">
       <c r="E51" t="s">
-        <v>306</v>
+        <v>267</v>
       </c>
       <c r="F51" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="G51" t="str">
         <f>菜单SAAS版!$E$15</f>
@@ -7058,15 +6562,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I51" t="s">
-        <v>307</v>
+        <v>268</v>
       </c>
     </row>
     <row r="52" spans="5:9">
       <c r="E52" t="s">
-        <v>306</v>
+        <v>267</v>
       </c>
       <c r="F52" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="G52" t="str">
         <f>菜单SAAS版!$E$15</f>
@@ -7077,15 +6581,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I52" t="s">
-        <v>307</v>
+        <v>268</v>
       </c>
     </row>
     <row r="53" spans="5:9">
       <c r="E53" t="s">
-        <v>306</v>
+        <v>267</v>
       </c>
       <c r="F53" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="G53" t="str">
         <f>菜单SAAS版!$E$15</f>
@@ -7096,15 +6600,15 @@
         <v>iam_label-15</v>
       </c>
       <c r="I53" t="s">
-        <v>307</v>
+        <v>268</v>
       </c>
     </row>
     <row r="54" spans="5:9">
       <c r="E54" t="s">
-        <v>306</v>
+        <v>267</v>
       </c>
       <c r="F54" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="G54" t="str">
         <f>菜单SAAS版!$E$15</f>
@@ -7115,15 +6619,15 @@
         <v>iam_label-16</v>
       </c>
       <c r="I54" t="s">
-        <v>307</v>
+        <v>268</v>
       </c>
     </row>
     <row r="55" spans="5:9">
       <c r="E55" t="s">
-        <v>306</v>
+        <v>267</v>
       </c>
       <c r="F55" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="G55" t="str">
         <f>菜单SAAS版!$E$15</f>
@@ -7134,15 +6638,15 @@
         <v>iam_label-17</v>
       </c>
       <c r="I55" t="s">
-        <v>307</v>
+        <v>268</v>
       </c>
     </row>
     <row r="56" spans="5:9">
       <c r="E56" t="s">
-        <v>306</v>
+        <v>267</v>
       </c>
       <c r="F56" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="G56" t="str">
         <f>菜单SAAS版!$E$15</f>
@@ -7153,15 +6657,15 @@
         <v>iam_label-27</v>
       </c>
       <c r="I56" t="s">
-        <v>307</v>
+        <v>268</v>
       </c>
     </row>
     <row r="57" spans="5:9">
       <c r="E57" t="s">
-        <v>306</v>
+        <v>267</v>
       </c>
       <c r="F57" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="G57" t="str">
         <f>菜单SAAS版!$E$15</f>
@@ -7172,15 +6676,15 @@
         <v>iam_label-28</v>
       </c>
       <c r="I57" t="s">
-        <v>307</v>
+        <v>268</v>
       </c>
     </row>
     <row r="58" spans="5:9">
       <c r="E58" t="s">
-        <v>306</v>
+        <v>267</v>
       </c>
       <c r="F58" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="G58" t="str">
         <f>菜单SAAS版!$E$15</f>
@@ -7191,15 +6695,15 @@
         <v>iam_label-29</v>
       </c>
       <c r="I58" t="s">
-        <v>307</v>
+        <v>268</v>
       </c>
     </row>
     <row r="59" spans="5:9">
       <c r="E59" t="s">
-        <v>306</v>
+        <v>267</v>
       </c>
       <c r="F59" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="G59" t="str">
         <f>菜单SAAS版!$E$16</f>
@@ -7210,15 +6714,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I59" t="s">
-        <v>307</v>
+        <v>268</v>
       </c>
     </row>
     <row r="60" spans="5:9">
       <c r="E60" t="s">
-        <v>306</v>
+        <v>267</v>
       </c>
       <c r="F60" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="G60" t="str">
         <f>菜单SAAS版!$E$16</f>
@@ -7229,15 +6733,15 @@
         <v>iam_label-17</v>
       </c>
       <c r="I60" t="s">
-        <v>307</v>
+        <v>268</v>
       </c>
     </row>
     <row r="61" spans="5:9">
       <c r="E61" t="s">
-        <v>306</v>
+        <v>267</v>
       </c>
       <c r="F61" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="G61" t="str">
         <f>菜单SAAS版!$E$16</f>
@@ -7248,27 +6752,28 @@
         <v>iam_label-29</v>
       </c>
       <c r="I61" t="s">
-        <v>307</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="23" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Y30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView topLeftCell="A10" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <cols>
+    <col min="6" max="6" width="22.5" customWidth="1"/>
+    <col min="7" max="7" width="39.35546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -7282,7 +6787,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:25">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -7301,10 +6806,10 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>309</v>
+        <v>270</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>310</v>
+        <v>271</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
@@ -7319,75 +6824,75 @@
         <v>55</v>
       </c>
       <c r="I7" t="s">
-        <v>311</v>
+        <v>272</v>
       </c>
       <c r="J7" t="s">
-        <v>227</v>
+        <v>188</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>67</v>
       </c>
       <c r="L7" t="s">
-        <v>312</v>
+        <v>273</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>313</v>
+        <v>274</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>314</v>
+        <v>275</v>
       </c>
       <c r="O7" t="s">
-        <v>315</v>
+        <v>276</v>
       </c>
       <c r="P7" t="s">
-        <v>316</v>
+        <v>277</v>
       </c>
       <c r="Q7" t="s">
-        <v>317</v>
+        <v>278</v>
       </c>
       <c r="R7" t="s">
-        <v>318</v>
+        <v>279</v>
       </c>
       <c r="S7" t="s">
-        <v>319</v>
+        <v>280</v>
       </c>
       <c r="T7" t="s">
-        <v>320</v>
+        <v>281</v>
       </c>
       <c r="U7" t="s">
         <v>68</v>
       </c>
       <c r="V7" t="s">
-        <v>321</v>
+        <v>282</v>
       </c>
       <c r="W7" s="3" t="s">
-        <v>322</v>
+        <v>283</v>
       </c>
       <c r="X7" t="s">
-        <v>323</v>
+        <v>284</v>
       </c>
       <c r="Y7" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="8" spans="5:23">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25">
       <c r="E8" t="s">
-        <v>325</v>
+        <v>286</v>
       </c>
       <c r="F8" t="s">
-        <v>326</v>
+        <v>287</v>
       </c>
       <c r="G8" t="s">
-        <v>327</v>
+        <v>288</v>
       </c>
       <c r="H8" t="s">
-        <v>328</v>
+        <v>289</v>
       </c>
       <c r="I8" t="s">
-        <v>329</v>
+        <v>290</v>
       </c>
       <c r="J8" t="s">
-        <v>330</v>
+        <v>291</v>
       </c>
       <c r="K8" t="s">
         <v>79</v>
@@ -7420,30 +6925,30 @@
         <v>79</v>
       </c>
       <c r="U8" t="s">
-        <v>328</v>
+        <v>289</v>
       </c>
       <c r="V8" t="s">
-        <v>328</v>
+        <v>289</v>
       </c>
       <c r="W8" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="5:23">
+    <row r="9" spans="1:25">
       <c r="E9" t="s">
-        <v>331</v>
+        <v>292</v>
       </c>
       <c r="F9" t="s">
-        <v>332</v>
+        <v>293</v>
       </c>
       <c r="G9" t="s">
-        <v>333</v>
+        <v>294</v>
       </c>
       <c r="H9" t="s">
-        <v>334</v>
+        <v>295</v>
       </c>
       <c r="I9" t="s">
-        <v>335</v>
+        <v>296</v>
       </c>
       <c r="J9" t="s">
         <v>78</v>
@@ -7479,27 +6984,27 @@
         <v>79</v>
       </c>
       <c r="U9" t="s">
-        <v>334</v>
+        <v>295</v>
       </c>
       <c r="V9" t="s">
-        <v>334</v>
+        <v>295</v>
       </c>
       <c r="W9" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="5:25">
+    <row r="10" spans="1:25">
       <c r="E10" t="s">
-        <v>336</v>
+        <v>297</v>
       </c>
       <c r="F10" t="s">
-        <v>337</v>
+        <v>298</v>
       </c>
       <c r="G10" t="s">
-        <v>338</v>
+        <v>299</v>
       </c>
       <c r="H10" t="s">
-        <v>339</v>
+        <v>300</v>
       </c>
       <c r="J10" t="s">
         <v>78</v>
@@ -7536,10 +7041,10 @@
         <v>79</v>
       </c>
       <c r="U10" t="s">
-        <v>340</v>
+        <v>301</v>
       </c>
       <c r="V10" t="s">
-        <v>341</v>
+        <v>302</v>
       </c>
       <c r="W10" t="s">
         <v>79</v>
@@ -7548,21 +7053,21 @@
         <v>100</v>
       </c>
       <c r="Y10" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="11" spans="5:25">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25">
       <c r="E11" t="s">
-        <v>343</v>
+        <v>304</v>
       </c>
       <c r="F11" t="s">
-        <v>344</v>
+        <v>305</v>
       </c>
       <c r="G11" t="s">
-        <v>345</v>
+        <v>306</v>
       </c>
       <c r="H11" t="s">
-        <v>346</v>
+        <v>307</v>
       </c>
       <c r="J11" t="s">
         <v>78</v>
@@ -7599,33 +7104,33 @@
         <v>79</v>
       </c>
       <c r="U11" t="s">
-        <v>347</v>
+        <v>308</v>
       </c>
       <c r="V11" t="s">
-        <v>348</v>
+        <v>309</v>
       </c>
       <c r="W11" t="s">
         <v>79</v>
       </c>
       <c r="X11" t="s">
-        <v>349</v>
+        <v>310</v>
       </c>
       <c r="Y11" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="12" spans="5:25">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25">
       <c r="E12" t="s">
-        <v>351</v>
+        <v>312</v>
       </c>
       <c r="F12" t="s">
-        <v>352</v>
+        <v>313</v>
       </c>
       <c r="G12" t="s">
-        <v>353</v>
+        <v>314</v>
       </c>
       <c r="H12" t="s">
-        <v>354</v>
+        <v>315</v>
       </c>
       <c r="J12" t="s">
         <v>78</v>
@@ -7662,10 +7167,10 @@
         <v>79</v>
       </c>
       <c r="U12" t="s">
-        <v>355</v>
+        <v>316</v>
       </c>
       <c r="V12" t="s">
-        <v>356</v>
+        <v>317</v>
       </c>
       <c r="W12" t="s">
         <v>79</v>
@@ -7674,21 +7179,21 @@
         <v>132</v>
       </c>
       <c r="Y12" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="13" spans="5:25">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25">
       <c r="E13" t="s">
-        <v>358</v>
+        <v>319</v>
       </c>
       <c r="F13" t="s">
-        <v>359</v>
+        <v>320</v>
       </c>
       <c r="G13" t="s">
-        <v>360</v>
+        <v>321</v>
       </c>
       <c r="H13" t="s">
-        <v>361</v>
+        <v>322</v>
       </c>
       <c r="J13" t="s">
         <v>78</v>
@@ -7725,10 +7230,10 @@
         <v>79</v>
       </c>
       <c r="U13" t="s">
-        <v>362</v>
+        <v>323</v>
       </c>
       <c r="V13" t="s">
-        <v>363</v>
+        <v>324</v>
       </c>
       <c r="W13" t="s">
         <v>79</v>
@@ -7737,24 +7242,24 @@
         <v>128</v>
       </c>
       <c r="Y13" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="14" spans="5:23">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25">
       <c r="E14" t="s">
-        <v>365</v>
+        <v>326</v>
       </c>
       <c r="F14" t="s">
-        <v>366</v>
+        <v>327</v>
       </c>
       <c r="G14" t="s">
-        <v>366</v>
+        <v>327</v>
       </c>
       <c r="H14" t="s">
-        <v>367</v>
+        <v>328</v>
       </c>
       <c r="J14" t="s">
-        <v>330</v>
+        <v>291</v>
       </c>
       <c r="K14" t="s">
         <v>79</v>
@@ -7788,16 +7293,16 @@
         <v>79</v>
       </c>
       <c r="U14" t="s">
-        <v>368</v>
+        <v>329</v>
       </c>
       <c r="V14" t="s">
-        <v>369</v>
+        <v>330</v>
       </c>
       <c r="W14" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:25">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -7805,33 +7310,33 @@
         <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>370</v>
+        <v>331</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>371</v>
+        <v>332</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>372</v>
+        <v>333</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>373</v>
+        <v>334</v>
       </c>
       <c r="H16" t="s">
-        <v>374</v>
+        <v>335</v>
       </c>
       <c r="I16" t="s">
-        <v>375</v>
+        <v>336</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>225</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" spans="5:10">
       <c r="E17" t="s">
-        <v>376</v>
+        <v>337</v>
       </c>
       <c r="F17" t="str">
         <f>角色!$E$10</f>
@@ -7842,18 +7347,18 @@
         <v>iam_menu-10</v>
       </c>
       <c r="H17" t="s">
-        <v>377</v>
+        <v>338</v>
       </c>
       <c r="I17" t="s">
-        <v>378</v>
+        <v>339</v>
       </c>
       <c r="J17" t="s">
-        <v>379</v>
+        <v>340</v>
       </c>
     </row>
     <row r="18" spans="5:10">
       <c r="E18" t="s">
-        <v>380</v>
+        <v>341</v>
       </c>
       <c r="F18" t="str">
         <f>角色!$E$10</f>
@@ -7864,18 +7369,18 @@
         <v>iam_menu-11</v>
       </c>
       <c r="H18" t="s">
-        <v>377</v>
+        <v>338</v>
       </c>
       <c r="I18" t="s">
-        <v>378</v>
+        <v>339</v>
       </c>
       <c r="J18" t="s">
-        <v>379</v>
+        <v>340</v>
       </c>
     </row>
     <row r="19" spans="5:10">
       <c r="E19" t="s">
-        <v>381</v>
+        <v>342</v>
       </c>
       <c r="F19" t="str">
         <f>角色!$E$10</f>
@@ -7886,18 +7391,18 @@
         <v>iam_menu-17</v>
       </c>
       <c r="H19" t="s">
-        <v>377</v>
+        <v>338</v>
       </c>
       <c r="I19" t="s">
-        <v>378</v>
+        <v>339</v>
       </c>
       <c r="J19" t="s">
-        <v>379</v>
+        <v>340</v>
       </c>
     </row>
     <row r="20" spans="5:10">
       <c r="E20" t="s">
-        <v>382</v>
+        <v>343</v>
       </c>
       <c r="F20" t="str">
         <f>角色!$E$10</f>
@@ -7908,18 +7413,18 @@
         <v>iam_menu-18</v>
       </c>
       <c r="H20" t="s">
-        <v>377</v>
+        <v>338</v>
       </c>
       <c r="I20" t="s">
-        <v>378</v>
+        <v>339</v>
       </c>
       <c r="J20" t="s">
-        <v>379</v>
+        <v>340</v>
       </c>
     </row>
     <row r="21" spans="5:10">
       <c r="E21" t="s">
-        <v>383</v>
+        <v>344</v>
       </c>
       <c r="F21" t="str">
         <f>角色!$E$10</f>
@@ -7930,18 +7435,18 @@
         <v>iam_menu-19</v>
       </c>
       <c r="H21" t="s">
-        <v>377</v>
+        <v>338</v>
       </c>
       <c r="I21" t="s">
-        <v>378</v>
+        <v>339</v>
       </c>
       <c r="J21" t="s">
-        <v>379</v>
+        <v>340</v>
       </c>
     </row>
     <row r="22" spans="5:10">
       <c r="E22" t="s">
-        <v>384</v>
+        <v>345</v>
       </c>
       <c r="F22" t="str">
         <f>角色!$E$10</f>
@@ -7952,18 +7457,18 @@
         <v>iam_menu-14</v>
       </c>
       <c r="H22" t="s">
-        <v>377</v>
+        <v>338</v>
       </c>
       <c r="I22" t="s">
-        <v>378</v>
+        <v>339</v>
       </c>
       <c r="J22" t="s">
-        <v>379</v>
+        <v>340</v>
       </c>
     </row>
     <row r="23" spans="5:10">
       <c r="E23" t="s">
-        <v>385</v>
+        <v>346</v>
       </c>
       <c r="F23" t="str">
         <f>角色!$E$11</f>
@@ -7974,18 +7479,18 @@
         <v>iam_menu-14</v>
       </c>
       <c r="H23" t="s">
-        <v>377</v>
+        <v>338</v>
       </c>
       <c r="I23" t="s">
-        <v>378</v>
+        <v>339</v>
       </c>
       <c r="J23" t="s">
-        <v>379</v>
+        <v>340</v>
       </c>
     </row>
     <row r="24" spans="5:10">
       <c r="E24" t="s">
-        <v>386</v>
+        <v>347</v>
       </c>
       <c r="F24" t="str">
         <f>角色!$E$12</f>
@@ -7996,18 +7501,18 @@
         <v>iam_menu-17</v>
       </c>
       <c r="H24" t="s">
-        <v>377</v>
+        <v>338</v>
       </c>
       <c r="I24" t="s">
-        <v>378</v>
+        <v>339</v>
       </c>
       <c r="J24" t="s">
-        <v>379</v>
+        <v>340</v>
       </c>
     </row>
     <row r="25" spans="5:10">
       <c r="E25" t="s">
-        <v>387</v>
+        <v>348</v>
       </c>
       <c r="F25" t="str">
         <f>角色!$E$12</f>
@@ -8018,18 +7523,18 @@
         <v>iam_menu-19</v>
       </c>
       <c r="H25" t="s">
-        <v>377</v>
+        <v>338</v>
       </c>
       <c r="I25" t="s">
-        <v>378</v>
+        <v>339</v>
       </c>
       <c r="J25" t="s">
-        <v>379</v>
+        <v>340</v>
       </c>
     </row>
     <row r="26" spans="5:10">
       <c r="E26" t="s">
-        <v>388</v>
+        <v>349</v>
       </c>
       <c r="F26" t="str">
         <f>角色!$E$12</f>
@@ -8040,18 +7545,18 @@
         <v>iam_menu-14</v>
       </c>
       <c r="H26" t="s">
-        <v>377</v>
+        <v>338</v>
       </c>
       <c r="I26" t="s">
-        <v>378</v>
+        <v>339</v>
       </c>
       <c r="J26" t="s">
-        <v>379</v>
+        <v>340</v>
       </c>
     </row>
     <row r="27" spans="5:10">
       <c r="E27" t="s">
-        <v>389</v>
+        <v>350</v>
       </c>
       <c r="F27" t="str">
         <f>角色!$E$13</f>
@@ -8062,18 +7567,18 @@
         <v>iam_menu-17</v>
       </c>
       <c r="H27" t="s">
-        <v>377</v>
+        <v>338</v>
       </c>
       <c r="I27" t="s">
-        <v>378</v>
+        <v>339</v>
       </c>
       <c r="J27" t="s">
-        <v>379</v>
+        <v>340</v>
       </c>
     </row>
     <row r="28" spans="5:10">
       <c r="E28" t="s">
-        <v>390</v>
+        <v>351</v>
       </c>
       <c r="F28" t="str">
         <f>角色!$E$13</f>
@@ -8084,18 +7589,18 @@
         <v>iam_menu-18</v>
       </c>
       <c r="H28" t="s">
-        <v>377</v>
+        <v>338</v>
       </c>
       <c r="I28" t="s">
-        <v>378</v>
+        <v>339</v>
       </c>
       <c r="J28" t="s">
-        <v>379</v>
+        <v>340</v>
       </c>
     </row>
     <row r="29" spans="5:10">
       <c r="E29" t="s">
-        <v>391</v>
+        <v>352</v>
       </c>
       <c r="F29" t="str">
         <f>角色!$E$13</f>
@@ -8106,18 +7611,18 @@
         <v>iam_menu-19</v>
       </c>
       <c r="H29" t="s">
-        <v>392</v>
+        <v>353</v>
       </c>
       <c r="I29" t="s">
-        <v>378</v>
+        <v>339</v>
       </c>
       <c r="J29" t="s">
-        <v>379</v>
+        <v>340</v>
       </c>
     </row>
     <row r="30" spans="5:10">
       <c r="E30" t="s">
-        <v>393</v>
+        <v>354</v>
       </c>
       <c r="F30" t="str">
         <f>角色!$E$13</f>
@@ -8128,33 +7633,30 @@
         <v>iam_menu-14</v>
       </c>
       <c r="H30" t="s">
-        <v>377</v>
+        <v>338</v>
       </c>
       <c r="I30" t="s">
-        <v>378</v>
+        <v>339</v>
       </c>
       <c r="J30" t="s">
-        <v>379</v>
+        <v>340</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="23" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -8168,7 +7670,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:15">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -8187,66 +7689,66 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>222</v>
+        <v>183</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>223</v>
+        <v>184</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>224</v>
+        <v>185</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>225</v>
+        <v>186</v>
       </c>
       <c r="H7" t="s">
-        <v>226</v>
+        <v>187</v>
       </c>
       <c r="I7" t="s">
-        <v>227</v>
+        <v>188</v>
       </c>
       <c r="J7" t="s">
-        <v>228</v>
+        <v>189</v>
       </c>
       <c r="K7" t="s">
-        <v>229</v>
+        <v>190</v>
       </c>
       <c r="L7" t="s">
-        <v>230</v>
+        <v>191</v>
       </c>
       <c r="M7" t="s">
-        <v>231</v>
+        <v>192</v>
       </c>
       <c r="N7" t="s">
-        <v>232</v>
+        <v>193</v>
       </c>
       <c r="O7" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="8" spans="5:15">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="E8" t="s">
-        <v>234</v>
+        <v>195</v>
       </c>
       <c r="F8" t="s">
-        <v>394</v>
+        <v>355</v>
       </c>
       <c r="G8" t="s">
-        <v>395</v>
+        <v>356</v>
       </c>
       <c r="H8" t="s">
         <v>82</v>
       </c>
       <c r="I8" t="s">
-        <v>237</v>
+        <v>198</v>
       </c>
       <c r="J8" t="s">
-        <v>396</v>
+        <v>357</v>
       </c>
       <c r="K8" t="s">
-        <v>397</v>
+        <v>358</v>
       </c>
       <c r="M8" t="s">
         <v>79</v>
@@ -8258,24 +7760,24 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="5:15">
+    <row r="9" spans="1:15">
       <c r="E9" t="s">
-        <v>239</v>
+        <v>200</v>
       </c>
       <c r="F9" t="s">
-        <v>398</v>
+        <v>359</v>
       </c>
       <c r="G9" t="s">
-        <v>395</v>
+        <v>356</v>
       </c>
       <c r="H9" t="s">
         <v>82</v>
       </c>
       <c r="I9" t="s">
-        <v>244</v>
+        <v>205</v>
       </c>
       <c r="J9" t="s">
-        <v>399</v>
+        <v>360</v>
       </c>
       <c r="M9" t="s">
         <v>79</v>
@@ -8287,27 +7789,27 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="5:15">
+    <row r="10" spans="1:15">
       <c r="E10" t="s">
-        <v>242</v>
+        <v>203</v>
       </c>
       <c r="F10" t="s">
-        <v>400</v>
+        <v>361</v>
       </c>
       <c r="G10" t="s">
-        <v>395</v>
+        <v>356</v>
       </c>
       <c r="H10" t="s">
         <v>82</v>
       </c>
       <c r="I10" t="s">
-        <v>237</v>
+        <v>198</v>
       </c>
       <c r="J10" t="s">
-        <v>401</v>
+        <v>362</v>
       </c>
       <c r="K10" t="s">
-        <v>401</v>
+        <v>362</v>
       </c>
       <c r="M10" t="s">
         <v>79</v>
@@ -8319,27 +7821,27 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="5:15">
+    <row r="11" spans="1:15">
       <c r="E11" t="s">
-        <v>245</v>
+        <v>206</v>
       </c>
       <c r="F11" t="s">
-        <v>402</v>
+        <v>363</v>
       </c>
       <c r="G11" t="s">
-        <v>395</v>
+        <v>356</v>
       </c>
       <c r="H11" t="s">
         <v>82</v>
       </c>
       <c r="I11" t="s">
-        <v>237</v>
+        <v>198</v>
       </c>
       <c r="J11" t="s">
-        <v>403</v>
+        <v>364</v>
       </c>
       <c r="K11" t="s">
-        <v>404</v>
+        <v>365</v>
       </c>
       <c r="M11" t="s">
         <v>79</v>
@@ -8351,27 +7853,27 @@
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="5:15">
+    <row r="12" spans="1:15">
       <c r="E12" t="s">
-        <v>247</v>
+        <v>208</v>
       </c>
       <c r="F12" t="s">
-        <v>405</v>
+        <v>366</v>
       </c>
       <c r="G12" t="s">
-        <v>395</v>
+        <v>356</v>
       </c>
       <c r="H12" t="s">
         <v>82</v>
       </c>
       <c r="I12" t="s">
-        <v>237</v>
+        <v>198</v>
       </c>
       <c r="J12" t="s">
-        <v>406</v>
+        <v>367</v>
       </c>
       <c r="K12" t="s">
-        <v>406</v>
+        <v>367</v>
       </c>
       <c r="M12" t="s">
         <v>79</v>
@@ -8383,27 +7885,27 @@
         <v>79</v>
       </c>
     </row>
-    <row r="13" spans="5:15">
+    <row r="13" spans="1:15">
       <c r="E13" t="s">
-        <v>250</v>
+        <v>211</v>
       </c>
       <c r="F13" t="s">
-        <v>407</v>
+        <v>368</v>
       </c>
       <c r="G13" t="s">
-        <v>395</v>
+        <v>356</v>
       </c>
       <c r="H13" t="s">
         <v>82</v>
       </c>
       <c r="I13" t="s">
-        <v>237</v>
+        <v>198</v>
       </c>
       <c r="J13" t="s">
-        <v>408</v>
+        <v>369</v>
       </c>
       <c r="K13" t="s">
-        <v>409</v>
+        <v>370</v>
       </c>
       <c r="M13" t="s">
         <v>79</v>
@@ -8415,27 +7917,27 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="5:15">
+    <row r="14" spans="1:15">
       <c r="E14" t="s">
-        <v>253</v>
+        <v>214</v>
       </c>
       <c r="F14" t="s">
-        <v>410</v>
+        <v>371</v>
       </c>
       <c r="G14" t="s">
-        <v>395</v>
+        <v>356</v>
       </c>
       <c r="H14" t="s">
         <v>82</v>
       </c>
       <c r="I14" t="s">
-        <v>237</v>
+        <v>198</v>
       </c>
       <c r="J14" t="s">
-        <v>411</v>
+        <v>372</v>
       </c>
       <c r="K14" t="s">
-        <v>357</v>
+        <v>318</v>
       </c>
       <c r="M14" t="s">
         <v>79</v>
@@ -8447,27 +7949,27 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="5:15">
+    <row r="15" spans="1:15">
       <c r="E15" t="s">
-        <v>256</v>
+        <v>217</v>
       </c>
       <c r="F15" t="s">
-        <v>412</v>
+        <v>373</v>
       </c>
       <c r="G15" t="s">
-        <v>395</v>
+        <v>356</v>
       </c>
       <c r="H15" t="s">
         <v>82</v>
       </c>
       <c r="I15" t="s">
-        <v>237</v>
+        <v>198</v>
       </c>
       <c r="J15" t="s">
-        <v>413</v>
+        <v>374</v>
       </c>
       <c r="K15" t="s">
-        <v>414</v>
+        <v>375</v>
       </c>
       <c r="M15" t="s">
         <v>79</v>
@@ -8479,27 +7981,27 @@
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="5:15">
+    <row r="16" spans="1:15">
       <c r="E16" t="s">
-        <v>259</v>
+        <v>220</v>
       </c>
       <c r="F16" t="s">
-        <v>415</v>
+        <v>376</v>
       </c>
       <c r="G16" t="s">
-        <v>395</v>
+        <v>356</v>
       </c>
       <c r="H16" t="s">
         <v>82</v>
       </c>
       <c r="I16" t="s">
-        <v>237</v>
+        <v>198</v>
       </c>
       <c r="J16" t="s">
-        <v>416</v>
+        <v>377</v>
       </c>
       <c r="K16" t="s">
-        <v>417</v>
+        <v>378</v>
       </c>
       <c r="M16" t="s">
         <v>79</v>
@@ -8513,25 +8015,25 @@
     </row>
     <row r="17" spans="5:15">
       <c r="E17" t="s">
-        <v>262</v>
+        <v>223</v>
       </c>
       <c r="F17" t="s">
-        <v>418</v>
+        <v>379</v>
       </c>
       <c r="G17" t="s">
-        <v>395</v>
+        <v>356</v>
       </c>
       <c r="H17" t="s">
         <v>82</v>
       </c>
       <c r="I17" t="s">
-        <v>237</v>
+        <v>198</v>
       </c>
       <c r="J17" t="s">
-        <v>419</v>
+        <v>380</v>
       </c>
       <c r="K17" t="s">
-        <v>420</v>
+        <v>381</v>
       </c>
       <c r="M17" t="s">
         <v>79</v>
@@ -8545,25 +8047,25 @@
     </row>
     <row r="18" spans="5:15">
       <c r="E18" t="s">
-        <v>265</v>
+        <v>226</v>
       </c>
       <c r="F18" t="s">
-        <v>421</v>
+        <v>382</v>
       </c>
       <c r="G18" t="s">
-        <v>395</v>
+        <v>356</v>
       </c>
       <c r="H18" t="s">
         <v>82</v>
       </c>
       <c r="I18" t="s">
-        <v>237</v>
+        <v>198</v>
       </c>
       <c r="J18" t="s">
-        <v>422</v>
+        <v>383</v>
       </c>
       <c r="K18" t="s">
-        <v>421</v>
+        <v>382</v>
       </c>
       <c r="M18" t="s">
         <v>79</v>
@@ -8577,25 +8079,25 @@
     </row>
     <row r="19" spans="5:15">
       <c r="E19" t="s">
-        <v>268</v>
+        <v>229</v>
       </c>
       <c r="F19" t="s">
-        <v>423</v>
+        <v>384</v>
       </c>
       <c r="G19" t="s">
-        <v>395</v>
+        <v>356</v>
       </c>
       <c r="H19" t="s">
         <v>82</v>
       </c>
       <c r="I19" t="s">
-        <v>237</v>
+        <v>198</v>
       </c>
       <c r="J19" t="s">
-        <v>424</v>
+        <v>385</v>
       </c>
       <c r="K19" t="s">
-        <v>423</v>
+        <v>384</v>
       </c>
       <c r="M19" t="s">
         <v>79</v>
@@ -8608,7 +8110,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="23" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/script/db/init-data/hrds_code_repo/hzero_platform/hzero-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/hrds_code_repo/hzero_platform/hzero-menu-user-role-label.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\company\companyRD\project\code-repo-service\src\main\resources\script\db\init-data\hrds_code_repo\hzero_platform\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5872FA1D-73BC-43CC-AD12-11EA27358A4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="430" yWindow="0" windowWidth="21070" windowHeight="13330" tabRatio="597" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="597" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -26,19 +20,18 @@
     <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
     <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="385">
   <si>
     <r>
       <rPr>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">注意这个文档不能 </t>
@@ -57,7 +50,6 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>！！
@@ -70,7 +62,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">正式的数据从第二个 </t>
@@ -89,7 +80,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页开始</t>
@@ -108,7 +98,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">每页 从 </t>
@@ -127,7 +116,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格开始有效
@@ -159,7 +147,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>颜色示例</t>
@@ -178,7 +165,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非必须</t>
@@ -197,7 +183,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非强制</t>
@@ -219,7 +204,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>请给特殊单元格</t>
@@ -240,7 +224,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列名添加颜色</t>
@@ -261,7 +244,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>提高数据可读性</t>
@@ -282,7 +264,6 @@
         <sz val="12"/>
         <color rgb="FFC55A11"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动生成</t>
@@ -303,7 +284,6 @@
         <sz val="12"/>
         <color rgb="FF2E75B6"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>唯一性检查</t>
@@ -315,7 +295,6 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -334,7 +313,6 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -346,7 +324,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>理论上</t>
@@ -365,7 +342,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表的前后顺序</t>
@@ -384,7 +360,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页的顺序没有严格要求</t>
@@ -403,7 +378,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但请尽量按照先插 后引用的顺序排列</t>
@@ -422,7 +396,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>减少迭代次数</t>
@@ -470,7 +443,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -489,7 +461,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>该列的值自动生成</t>
@@ -508,7 +479,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当数据库存在等价记录时</t>
@@ -527,7 +497,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>这个值会被替换为数据库中已存在的值</t>
@@ -539,7 +508,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自增长</t>
@@ -558,7 +526,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>或序列</t>
@@ -577,7 +544,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>主键列</t>
@@ -597,7 +563,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当不作为外键引用时</t>
@@ -616,7 +581,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般写</t>
@@ -636,7 +600,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>作为外键时</t>
@@ -655,7 +618,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>写可读的值</t>
@@ -667,7 +629,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">目前 </t>
@@ -686,7 +647,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>是序列</t>
@@ -705,7 +665,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他自增涨</t>
@@ -729,7 +688,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -748,7 +706,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表中所有带有</t>
@@ -767,7 +724,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>的列组成一个唯一性校验</t>
@@ -786,7 +742,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>在执行插入之前</t>
@@ -805,7 +760,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会首先按照唯一键来检查数据库是否存在等价记录</t>
@@ -817,7 +771,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>可以有多列</t>
@@ -836,7 +789,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>仅支持</t>
@@ -847,7 +799,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>数字</t>
@@ -868,7 +819,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">字符串
@@ -879,7 +829,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当</t>
@@ -898,7 +847,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列涉及到公式时</t>
@@ -917,7 +865,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会先确定公式的值</t>
@@ -941,7 +888,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定这一列的类型</t>
@@ -960,7 +906,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>默认会自动检测</t>
@@ -980,7 +925,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为数字</t>
@@ -1000,7 +944,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为日期</t>
@@ -1020,7 +963,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他默认为</t>
@@ -1041,7 +983,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般不需要指定</t>
@@ -1061,7 +1002,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>日期格式仅支持</t>
@@ -1096,7 +1036,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定语言环境</t>
@@ -1117,7 +1056,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表数据不需要专门写</t>
@@ -1129,7 +1067,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -1148,7 +1085,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -1169,7 +1105,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>用于引用外键</t>
@@ -1188,7 +1123,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>也可用于普通值
@@ -1201,7 +1135,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动增长列</t>
@@ -1220,7 +1153,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>如果被公式引用</t>
@@ -1239,7 +1171,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>最好写一个人可以读懂的值</t>
@@ -1258,7 +1189,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>增强公式可读性</t>
@@ -1273,7 +1203,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般用于引用自动生成的外键</t>
@@ -1292,7 +1221,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">所有公式均为 </t>
@@ -1311,7 +1239,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>支持的标准公式</t>
@@ -1330,7 +1257,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但不支持特别复杂的计算公式</t>
@@ -1349,7 +1275,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>比如范围计算</t>
@@ -1365,7 +1290,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1375,7 +1299,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1394,7 +1317,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1410,7 +1332,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1420,7 +1341,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1439,7 +1359,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1454,7 +1373,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1473,7 +1391,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1492,7 +1409,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1512,7 +1428,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1536,7 +1451,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1555,7 +1469,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1574,7 +1487,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1594,7 +1506,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1615,7 +1526,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1626,7 +1536,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1636,7 +1545,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1648,7 +1556,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>举例</t>
@@ -1667,7 +1574,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">当 </t>
@@ -1686,7 +1592,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格引用 </t>
@@ -1705,7 +1610,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">时
@@ -1725,7 +1629,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1744,7 +1647,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格时</t>
@@ -1763,7 +1665,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用的是 </t>
@@ -1783,7 +1684,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">将 </t>
@@ -1802,7 +1702,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1821,7 +1720,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>时</t>
@@ -1840,7 +1738,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">实际引用的是 </t>
@@ -1860,7 +1757,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>以上情况适用于拖拽填充</t>
@@ -1872,7 +1768,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1883,7 +1778,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1893,7 +1787,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1905,7 +1798,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>复制公式单元格时</t>
@@ -1924,7 +1816,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>保持公式不变</t>
@@ -1936,7 +1827,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对引用</t>
@@ -1955,7 +1845,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对引用各有用途</t>
@@ -1975,7 +1864,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>直接拖拽填充就可以避免大量重复工作</t>
@@ -2267,60 +2155,114 @@
     <t>iam_menu_permission-8</t>
   </si>
   <si>
+    <t>code-repo-service.member-audit-log-org.detailLatest</t>
+  </si>
+  <si>
     <t>iam_menu_permission-9</t>
   </si>
   <si>
+    <t>code-repo-service.org.listProjectsByUserId</t>
+  </si>
+  <si>
     <t>iam_menu_permission-10</t>
   </si>
   <si>
+    <t>code-repo-service.rdm-member-audit-record-org.pageByOptions</t>
+  </si>
+  <si>
     <t>iam_menu_permission-11</t>
   </si>
   <si>
+    <t>code-repo-service.rdm-member-org.pageByOptions</t>
+  </si>
+  <si>
     <t>iam_menu_permission-12</t>
   </si>
   <si>
+    <t>code-repo-service.rdm-operation-log-org.pageByOptionsMemberLog</t>
+  </si>
+  <si>
     <t>iam_menu_permission-13</t>
   </si>
   <si>
+    <t>code-repo-service.project.listDeveloperProjectMembers</t>
+  </si>
+  <si>
     <t>iam_menu_permission-14</t>
   </si>
   <si>
+    <t>code-repo-service.rdm-member-applicant-proj.create</t>
+  </si>
+  <si>
     <t>iam_menu_permission-15</t>
   </si>
   <si>
+    <t>code-repo-service.rdm-member-applicant-proj.detectApplicantType</t>
+  </si>
+  <si>
     <t>iam_menu_permission-16</t>
   </si>
   <si>
+    <t>code-repo-service.rdm-member-applicant-proj.pageByOptionsSelf</t>
+  </si>
+  <si>
     <t>iam_menu_permission-17</t>
   </si>
   <si>
+    <t>code-repo-service.rdm-member-proj.export</t>
+  </si>
+  <si>
     <t>iam_menu_permission-18</t>
   </si>
   <si>
+    <t>code-repo-service.rdm-member-proj.pageByOptions</t>
+  </si>
+  <si>
     <t>iam_menu_permission-19</t>
   </si>
   <si>
+    <t>code-repo-service.rdm-repository-proj.listByActive</t>
+  </si>
+  <si>
     <t>iam_menu_permission-20</t>
   </si>
   <si>
+    <t>code-repo-service.member-audit-log.detailLatest</t>
+  </si>
+  <si>
     <t>iam_menu_permission-21</t>
   </si>
   <si>
     <t>iam_menu_permission-22</t>
   </si>
   <si>
+    <t>code-repo-service.rdm-branch.createProtectedBranch</t>
+  </si>
+  <si>
     <t>iam_menu_permission-23</t>
   </si>
   <si>
+    <t>code-repo-service.rdm-branch.getBranches</t>
+  </si>
+  <si>
     <t>iam_menu_permission-24</t>
   </si>
   <si>
+    <t>code-repo-service.rdm-branch.getProtectedBranches</t>
+  </si>
+  <si>
     <t>iam_menu_permission-25</t>
   </si>
   <si>
+    <t>code-repo-service.rdm-branch.removeProtectedBranch</t>
+  </si>
+  <si>
     <t>iam_menu_permission-26</t>
   </si>
   <si>
+    <t>code-repo-service.rdm-branch.updateProtectedBranch</t>
+  </si>
+  <si>
     <t>iam_menu_permission-27</t>
   </si>
   <si>
@@ -2330,24 +2272,45 @@
     <t>iam_menu_permission-29</t>
   </si>
   <si>
+    <t>code-repo-service.rdm-member-applicant-proj.pageByOptions</t>
+  </si>
+  <si>
     <t>iam_menu_permission-30</t>
   </si>
   <si>
+    <t>code-repo-service.rdm-member-applicant-proj.passAndHandleMember</t>
+  </si>
+  <si>
     <t>iam_menu_permission-31</t>
   </si>
   <si>
+    <t>code-repo-service.rdm-member-applicant-proj.refuse</t>
+  </si>
+  <si>
     <t>iam_menu_permission-32</t>
   </si>
   <si>
+    <t>code-repo-service.rdm-member-audit-record-proj.auditFix</t>
+  </si>
+  <si>
     <t>iam_menu_permission-33</t>
   </si>
   <si>
+    <t>code-repo-service.rdm-member-audit-record-proj.pageByOptions</t>
+  </si>
+  <si>
     <t>iam_menu_permission-34</t>
   </si>
   <si>
+    <t>code-repo-service.rdm-member-audit-record-proj.sync</t>
+  </si>
+  <si>
     <t>iam_menu_permission-35</t>
   </si>
   <si>
+    <t>code-repo-service.rdm-member-proj.batchAddMembers</t>
+  </si>
+  <si>
     <t>iam_menu_permission-36</t>
   </si>
   <si>
@@ -2357,48 +2320,90 @@
     <t>iam_menu_permission-38</t>
   </si>
   <si>
+    <t>code-repo-service.rdm-member-proj.pageSecurityAudit</t>
+  </si>
+  <si>
     <t>iam_menu_permission-39</t>
   </si>
   <si>
+    <t>code-repo-service.rdm-member.removeMember</t>
+  </si>
+  <si>
     <t>iam_menu_permission-40</t>
   </si>
   <si>
+    <t>code-repo-service.rdm-member.syncMember</t>
+  </si>
+  <si>
     <t>iam_menu_permission-41</t>
   </si>
   <si>
+    <t>code-repo-service.rdm-member.syncMembersFromGitlab</t>
+  </si>
+  <si>
     <t>iam_menu_permission-42</t>
   </si>
   <si>
+    <t>code-repo-service.rdm-member.updateMember</t>
+  </si>
+  <si>
     <t>iam_menu_permission-43</t>
   </si>
   <si>
+    <t>code-repo-service.rdm-operation-log-proj.pageByOptionsMemberLog</t>
+  </si>
+  <si>
     <t>iam_menu_permission-44</t>
   </si>
   <si>
+    <t>code-repo-service.rdm-project.pageMemberPermissions</t>
+  </si>
+  <si>
     <t>iam_menu_permission-45</t>
   </si>
   <si>
     <t>iam_menu_permission-46</t>
   </si>
   <si>
+    <t>code-repo-service.rdm-repository-proj.pageOverviewByOptions</t>
+  </si>
+  <si>
     <t>iam_menu_permission-47</t>
   </si>
   <si>
+    <t>code-repo-service.rdm-tag.createProtectedTag</t>
+  </si>
+  <si>
     <t>iam_menu_permission-48</t>
   </si>
   <si>
+    <t>code-repo-service.rdm-tag.deleteProtectedTag</t>
+  </si>
+  <si>
     <t>iam_menu_permission-49</t>
   </si>
   <si>
+    <t>code-repo-service.rdm-tag.getProtectedTags</t>
+  </si>
+  <si>
     <t>iam_menu_permission-50</t>
   </si>
   <si>
+    <t>code-repo-service.rdm-tag.getTags</t>
+  </si>
+  <si>
     <t>iam_menu_permission-51</t>
   </si>
   <si>
+    <t>code-repo-service.rdm-tag.updateProtectedTag</t>
+  </si>
+  <si>
     <t>iam_menu_permission-52</t>
   </si>
   <si>
+    <t>code-repo-service.rdm-member-org.export</t>
+  </si>
+  <si>
     <t>标签表</t>
   </si>
   <si>
@@ -2450,686 +2455,455 @@
     <t>标识组织层菜单</t>
   </si>
   <si>
+    <t>iam_label-11</t>
+  </si>
+  <si>
+    <t>USER_MENU</t>
+  </si>
+  <si>
+    <t>iam_label-12</t>
+  </si>
+  <si>
+    <t>SITE_MENU</t>
+  </si>
+  <si>
+    <t>SITE</t>
+  </si>
+  <si>
+    <t>标识平台层菜单</t>
+  </si>
+  <si>
+    <t>iam_label-20</t>
+  </si>
+  <si>
+    <t>TENANT_GENERAL</t>
+  </si>
+  <si>
+    <t>iam_label-21</t>
+  </si>
+  <si>
+    <t>N_DEVOPS_MENU</t>
+  </si>
+  <si>
+    <t>Devops流程</t>
+  </si>
+  <si>
+    <t>标签关系表</t>
+  </si>
+  <si>
+    <t>hiam_label_rel</t>
+  </si>
+  <si>
+    <t>*label_rel_id</t>
+  </si>
+  <si>
+    <t>#data_type</t>
+  </si>
+  <si>
+    <t>#data_id</t>
+  </si>
+  <si>
+    <t>#label_id</t>
+  </si>
+  <si>
+    <t>assign_type</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>角色</t>
+  </si>
+  <si>
+    <t>iam_role</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>h_inherit_role_id</t>
+  </si>
+  <si>
+    <t>#h_parent_role_id</t>
+  </si>
+  <si>
+    <t>#h_parent_role_assign_level</t>
+  </si>
+  <si>
+    <t>h_parent_role_assign_level_val</t>
+  </si>
+  <si>
+    <t>is_enabled</t>
+  </si>
+  <si>
+    <t>is_modified</t>
+  </si>
+  <si>
+    <t>is_enable_forbidden</t>
+  </si>
+  <si>
+    <t>is_built_in</t>
+  </si>
+  <si>
+    <t>is_assignable</t>
+  </si>
+  <si>
+    <t>h_inherit_level_path</t>
+  </si>
+  <si>
+    <t>#created_by_tenant_id</t>
+  </si>
+  <si>
+    <t>tpl_role_name:zh_CN</t>
+  </si>
+  <si>
+    <t>tpl_role_name:en_US</t>
+  </si>
+  <si>
+    <t>iam_role-8</t>
+  </si>
+  <si>
+    <t>平台管理员</t>
+  </si>
+  <si>
+    <t>Site Administrator</t>
+  </si>
+  <si>
+    <t>role/site/default/administrator</t>
+  </si>
+  <si>
+    <t>abcf</t>
+  </si>
+  <si>
+    <t>site</t>
+  </si>
+  <si>
+    <t>iam_role-9</t>
+  </si>
+  <si>
+    <t>租户管理员</t>
+  </si>
+  <si>
+    <t>Organization Administrator</t>
+  </si>
+  <si>
+    <t>role/organization/default/administrator</t>
+  </si>
+  <si>
+    <t>abce</t>
+  </si>
+  <si>
+    <t>iam_role-10</t>
+  </si>
+  <si>
+    <t>租户管理员模板</t>
+  </si>
+  <si>
+    <t>Tenant admin template</t>
+  </si>
+  <si>
+    <t>role/organization/default/template/administrator</t>
+  </si>
+  <si>
+    <t>role/organization/default/administrator|HZERO.T.role/organization/default/template/administrator</t>
+  </si>
+  <si>
+    <t>HZERO.T.role/organization/default/template/administrator</t>
+  </si>
+  <si>
+    <t>Tenant Admin</t>
+  </si>
+  <si>
+    <t>iam_role-11</t>
+  </si>
+  <si>
+    <t>租户成员模板</t>
+  </si>
+  <si>
+    <t>Organization Member template</t>
+  </si>
+  <si>
+    <t>role/organization/default/template/member</t>
+  </si>
+  <si>
+    <t>role/organization/default/administrator|HZERO.T.role/organization/default/template/organization-member</t>
+  </si>
+  <si>
+    <t>HZERO.T.role/organization/default/template/organization-member</t>
+  </si>
+  <si>
+    <t>组织成员</t>
+  </si>
+  <si>
+    <t>Organization Member</t>
+  </si>
+  <si>
+    <t>iam_role-12</t>
+  </si>
+  <si>
+    <t>项目管理员模板</t>
+  </si>
+  <si>
+    <t>Project Admin template</t>
+  </si>
+  <si>
+    <t>role/project/default/template/project-admin</t>
+  </si>
+  <si>
+    <t>role/organization/default/administrator|HZERO.T.role/project/default/template/project-admin</t>
+  </si>
+  <si>
+    <t>HZERO.T.role/project/default/template/project-admin</t>
+  </si>
+  <si>
+    <t>Project Admin</t>
+  </si>
+  <si>
+    <t>iam_role-13</t>
+  </si>
+  <si>
+    <t>项目成员模板</t>
+  </si>
+  <si>
+    <t>Project member template</t>
+  </si>
+  <si>
+    <t>role/project/default/template/project-member</t>
+  </si>
+  <si>
+    <t>role/organization/default/administrator|HZERO.T.role/project/default/template/project-member</t>
+  </si>
+  <si>
+    <t>HZERO.T.role/project/default/template/project-member</t>
+  </si>
+  <si>
+    <t>Project member</t>
+  </si>
+  <si>
+    <t>iam_role-14</t>
+  </si>
+  <si>
+    <t>平台开发者</t>
+  </si>
+  <si>
+    <t>role/site/default/developer</t>
+  </si>
+  <si>
+    <t>role/site/default/administrator|HZERO-PLATFORM.T.role/site/default/developer</t>
+  </si>
+  <si>
+    <t>HZERO-PLATFORM.T.role/site/default/developer</t>
+  </si>
+  <si>
+    <t>角色权限</t>
+  </si>
+  <si>
+    <t>iam_role_permission</t>
+  </si>
+  <si>
+    <t>#role_id</t>
+  </si>
+  <si>
+    <t>#permission_id</t>
+  </si>
+  <si>
+    <t>h_create_flag</t>
+  </si>
+  <si>
+    <t>h_inherit_flag</t>
+  </si>
+  <si>
+    <t>iam_role_permission-17</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>PS</t>
+  </si>
+  <si>
+    <t>iam_role_permission-18</t>
+  </si>
+  <si>
+    <t>iam_role_permission-19</t>
+  </si>
+  <si>
+    <t>iam_role_permission-20</t>
+  </si>
+  <si>
+    <t>iam_role_permission-21</t>
+  </si>
+  <si>
+    <t>iam_role_permission-22</t>
+  </si>
+  <si>
+    <t>iam_role_permission-23</t>
+  </si>
+  <si>
+    <t>iam_role_permission-24</t>
+  </si>
+  <si>
+    <t>iam_role_permission-25</t>
+  </si>
+  <si>
+    <t>iam_role_permission-26</t>
+  </si>
+  <si>
+    <t>iam_role_permission-27</t>
+  </si>
+  <si>
+    <t>iam_role_permission-28</t>
+  </si>
+  <si>
+    <t>iam_role_permission-29</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>iam_role_permission-30</t>
+  </si>
+  <si>
+    <t>TENANT_MGR</t>
+  </si>
+  <si>
+    <t>ROLE</t>
+  </si>
+  <si>
+    <t>租户管理员标签</t>
+  </si>
+  <si>
+    <t>Tenant Manager Label</t>
+  </si>
+  <si>
     <t>iam_label-9</t>
   </si>
   <si>
-    <t>PROJECT_MENU</t>
-  </si>
-  <si>
-    <t>标识项目层菜单</t>
+    <t>SITE_MGR</t>
+  </si>
+  <si>
+    <t>平台管理员标签</t>
   </si>
   <si>
     <t>iam_label-10</t>
   </si>
   <si>
-    <t>HZERO_MENU</t>
-  </si>
-  <si>
-    <t>SITE</t>
-  </si>
-  <si>
-    <t>iam_label-11</t>
-  </si>
-  <si>
-    <t>USER_MENU</t>
-  </si>
-  <si>
-    <t>iam_label-12</t>
-  </si>
-  <si>
-    <t>SITE_MENU</t>
-  </si>
-  <si>
-    <t>标识平台层菜单</t>
+    <t>TENANT_ROLE_TPL</t>
+  </si>
+  <si>
+    <t>标识内置模板角色</t>
+  </si>
+  <si>
+    <t>TENANT_ROLE</t>
+  </si>
+  <si>
+    <t>标识租户层角色</t>
+  </si>
+  <si>
+    <t>Tenant Role</t>
+  </si>
+  <si>
+    <t>TENANT_ADMIN</t>
+  </si>
+  <si>
+    <t>标识租户管理员角色</t>
   </si>
   <si>
     <t>iam_label-13</t>
   </si>
   <si>
-    <t>AGILE_MENU</t>
-  </si>
-  <si>
-    <t>标识敏捷类型菜单</t>
+    <t>PROJECT_ROLE</t>
+  </si>
+  <si>
+    <t>标识项目层角色</t>
+  </si>
+  <si>
+    <t>Project Role</t>
   </si>
   <si>
     <t>iam_label-14</t>
   </si>
   <si>
-    <t>GENERAL_MENU</t>
-  </si>
-  <si>
-    <t>标识devops全流程项目菜单</t>
+    <t>PROJECT_ADMIN</t>
+  </si>
+  <si>
+    <t>标识项目管理员角色</t>
   </si>
   <si>
     <t>iam_label-15</t>
   </si>
   <si>
-    <t>PROGRAM_MENU</t>
-  </si>
-  <si>
-    <t>标识项目群项目菜单</t>
+    <t>TENANT_MEMBER</t>
+  </si>
+  <si>
+    <t>标识租户成员角色</t>
+  </si>
+  <si>
+    <t>Tenant Member</t>
   </si>
   <si>
     <t>iam_label-16</t>
   </si>
   <si>
-    <t>PROGRAM_PROJECT_MENU</t>
-  </si>
-  <si>
-    <t>标识项目群子项目菜单</t>
+    <t>PROJECT_MEMBER</t>
+  </si>
+  <si>
+    <t>标识项目成员角色</t>
+  </si>
+  <si>
+    <t>Project Member</t>
   </si>
   <si>
     <t>iam_label-17</t>
   </si>
   <si>
-    <t>OPERATIONS_MENU</t>
-  </si>
-  <si>
-    <t>标识运维项目菜单</t>
+    <t>TENANT_TPL</t>
+  </si>
+  <si>
+    <t>租户管理员模板标签</t>
+  </si>
+  <si>
+    <t>Tenant Template Label</t>
   </si>
   <si>
     <t>iam_label-18</t>
   </si>
   <si>
-    <t>KNOWLEDGE_MENU</t>
-  </si>
-  <si>
-    <t>标识组织层知识库菜单</t>
+    <t>GITLAB_OWNER</t>
+  </si>
+  <si>
+    <t>标识gitlab_owner</t>
   </si>
   <si>
     <t>iam_label-19</t>
   </si>
   <si>
-    <t>CHOERODON_MENU</t>
-  </si>
-  <si>
-    <t>标识猪齿鱼菜单</t>
-  </si>
-  <si>
-    <t>iam_label-20</t>
-  </si>
-  <si>
-    <t>TENANT_GENERAL</t>
-  </si>
-  <si>
-    <t>iam_label-21</t>
-  </si>
-  <si>
-    <t>AGILE_SERVICE</t>
-  </si>
-  <si>
-    <t>敏捷服务菜单</t>
-  </si>
-  <si>
-    <t>iam_label-22</t>
-  </si>
-  <si>
-    <t>DEVOPS_SERVICE</t>
-  </si>
-  <si>
-    <t>devops服务菜单</t>
-  </si>
-  <si>
-    <t>iam_label-23</t>
-  </si>
-  <si>
-    <t>PLATFORM_SERVICE</t>
-  </si>
-  <si>
-    <t>平台服务标签</t>
-  </si>
-  <si>
-    <t>iam_label-24</t>
-  </si>
-  <si>
-    <t>IAM_SERVICE</t>
-  </si>
-  <si>
-    <t>iam_label-25</t>
-  </si>
-  <si>
-    <t>KNOWLEDGEBASE_SERVICE</t>
-  </si>
-  <si>
-    <t>知识服务菜单</t>
-  </si>
-  <si>
-    <t>iam_label-26</t>
-  </si>
-  <si>
-    <t>TEST_MANAGER_SERVICE</t>
-  </si>
-  <si>
-    <t>测试服务菜单</t>
-  </si>
-  <si>
-    <t>iam_label-27</t>
-  </si>
-  <si>
-    <t>HRDS_DOC_REPO</t>
-  </si>
-  <si>
-    <t>文档库服务标签</t>
-  </si>
-  <si>
-    <t>iam_label-28</t>
-  </si>
-  <si>
-    <t>HRDS_PROD_REPO</t>
-  </si>
-  <si>
-    <t>制品库服务标签</t>
-  </si>
-  <si>
-    <t>iam_label-29</t>
-  </si>
-  <si>
-    <t>HRDS_CODE_REPO</t>
-  </si>
-  <si>
-    <t>代码库标签</t>
-  </si>
-  <si>
-    <t>标签关系表</t>
-  </si>
-  <si>
-    <t>hiam_label_rel</t>
-  </si>
-  <si>
-    <t>*label_rel_id</t>
-  </si>
-  <si>
-    <t>#data_type</t>
-  </si>
-  <si>
-    <t>#data_id</t>
-  </si>
-  <si>
-    <t>#label_id</t>
-  </si>
-  <si>
-    <t>assign_type</t>
-  </si>
-  <si>
-    <t>*</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>角色</t>
-  </si>
-  <si>
-    <t>iam_role</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>h_inherit_role_id</t>
-  </si>
-  <si>
-    <t>#h_parent_role_id</t>
-  </si>
-  <si>
-    <t>#h_parent_role_assign_level</t>
-  </si>
-  <si>
-    <t>h_parent_role_assign_level_val</t>
-  </si>
-  <si>
-    <t>is_enabled</t>
-  </si>
-  <si>
-    <t>is_modified</t>
-  </si>
-  <si>
-    <t>is_enable_forbidden</t>
-  </si>
-  <si>
-    <t>is_built_in</t>
-  </si>
-  <si>
-    <t>is_assignable</t>
-  </si>
-  <si>
-    <t>h_inherit_level_path</t>
-  </si>
-  <si>
-    <t>#created_by_tenant_id</t>
-  </si>
-  <si>
-    <t>tpl_role_name:zh_CN</t>
-  </si>
-  <si>
-    <t>tpl_role_name:en_US</t>
-  </si>
-  <si>
-    <t>iam_role-8</t>
-  </si>
-  <si>
-    <t>平台管理员</t>
-  </si>
-  <si>
-    <t>Site Administrator</t>
-  </si>
-  <si>
-    <t>role/site/default/administrator</t>
-  </si>
-  <si>
-    <t>abcf</t>
-  </si>
-  <si>
-    <t>site</t>
-  </si>
-  <si>
-    <t>iam_role-9</t>
-  </si>
-  <si>
-    <t>租户管理员</t>
-  </si>
-  <si>
-    <t>Organization Administrator</t>
-  </si>
-  <si>
-    <t>role/organization/default/administrator</t>
-  </si>
-  <si>
-    <t>abce</t>
-  </si>
-  <si>
-    <t>iam_role-10</t>
-  </si>
-  <si>
-    <t>租户管理员模板</t>
-  </si>
-  <si>
-    <t>Tenant admin template</t>
-  </si>
-  <si>
-    <t>role/organization/default/template/administrator</t>
-  </si>
-  <si>
-    <t>role/organization/default/administrator|HZERO.T.role/organization/default/template/administrator</t>
-  </si>
-  <si>
-    <t>HZERO.T.role/organization/default/template/administrator</t>
-  </si>
-  <si>
-    <t>Tenant Admin</t>
-  </si>
-  <si>
-    <t>iam_role-11</t>
-  </si>
-  <si>
-    <t>租户成员模板</t>
-  </si>
-  <si>
-    <t>Organization Member template</t>
-  </si>
-  <si>
-    <t>role/organization/default/template/member</t>
-  </si>
-  <si>
-    <t>role/organization/default/administrator|HZERO.T.role/organization/default/template/organization-member</t>
-  </si>
-  <si>
-    <t>HZERO.T.role/organization/default/template/organization-member</t>
-  </si>
-  <si>
-    <t>组织成员</t>
-  </si>
-  <si>
-    <t>Organization Member</t>
-  </si>
-  <si>
-    <t>iam_role-12</t>
-  </si>
-  <si>
-    <t>项目管理员模板</t>
-  </si>
-  <si>
-    <t>Project Admin template</t>
-  </si>
-  <si>
-    <t>role/project/default/template/project-admin</t>
-  </si>
-  <si>
-    <t>role/organization/default/administrator|HZERO.T.role/project/default/template/project-admin</t>
-  </si>
-  <si>
-    <t>HZERO.T.role/project/default/template/project-admin</t>
-  </si>
-  <si>
-    <t>Project Admin</t>
-  </si>
-  <si>
-    <t>iam_role-13</t>
-  </si>
-  <si>
-    <t>项目成员模板</t>
-  </si>
-  <si>
-    <t>Project member template</t>
-  </si>
-  <si>
-    <t>role/project/default/template/project-member</t>
-  </si>
-  <si>
-    <t>role/organization/default/administrator|HZERO.T.role/project/default/template/project-member</t>
-  </si>
-  <si>
-    <t>HZERO.T.role/project/default/template/project-member</t>
-  </si>
-  <si>
-    <t>Project member</t>
-  </si>
-  <si>
-    <t>iam_role-14</t>
-  </si>
-  <si>
-    <t>平台开发者</t>
-  </si>
-  <si>
-    <t>role/site/default/developer</t>
-  </si>
-  <si>
-    <t>role/site/default/administrator|HZERO-PLATFORM.T.role/site/default/developer</t>
-  </si>
-  <si>
-    <t>HZERO-PLATFORM.T.role/site/default/developer</t>
-  </si>
-  <si>
-    <t>角色权限</t>
-  </si>
-  <si>
-    <t>iam_role_permission</t>
-  </si>
-  <si>
-    <t>#role_id</t>
-  </si>
-  <si>
-    <t>#permission_id</t>
-  </si>
-  <si>
-    <t>h_create_flag</t>
-  </si>
-  <si>
-    <t>h_inherit_flag</t>
-  </si>
-  <si>
-    <t>iam_role_permission-17</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>PS</t>
-  </si>
-  <si>
-    <t>iam_role_permission-18</t>
-  </si>
-  <si>
-    <t>iam_role_permission-19</t>
-  </si>
-  <si>
-    <t>iam_role_permission-20</t>
-  </si>
-  <si>
-    <t>iam_role_permission-21</t>
-  </si>
-  <si>
-    <t>iam_role_permission-22</t>
-  </si>
-  <si>
-    <t>iam_role_permission-23</t>
-  </si>
-  <si>
-    <t>iam_role_permission-24</t>
-  </si>
-  <si>
-    <t>iam_role_permission-25</t>
-  </si>
-  <si>
-    <t>iam_role_permission-26</t>
-  </si>
-  <si>
-    <t>iam_role_permission-27</t>
-  </si>
-  <si>
-    <t>iam_role_permission-28</t>
-  </si>
-  <si>
-    <t>iam_role_permission-29</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>iam_role_permission-30</t>
-  </si>
-  <si>
-    <t>TENANT_MGR</t>
-  </si>
-  <si>
-    <t>ROLE</t>
-  </si>
-  <si>
-    <t>租户管理员标签</t>
-  </si>
-  <si>
-    <t>Tenant Manager Label</t>
-  </si>
-  <si>
-    <t>SITE_MGR</t>
-  </si>
-  <si>
-    <t>平台管理员标签</t>
-  </si>
-  <si>
-    <t>TENANT_ROLE_TPL</t>
-  </si>
-  <si>
-    <t>标识内置模板角色</t>
-  </si>
-  <si>
-    <t>TENANT_ROLE</t>
-  </si>
-  <si>
-    <t>标识租户层角色</t>
-  </si>
-  <si>
-    <t>Tenant Role</t>
-  </si>
-  <si>
-    <t>TENANT_ADMIN</t>
-  </si>
-  <si>
-    <t>标识租户管理员角色</t>
-  </si>
-  <si>
-    <t>PROJECT_ROLE</t>
-  </si>
-  <si>
-    <t>标识项目层角色</t>
-  </si>
-  <si>
-    <t>Project Role</t>
-  </si>
-  <si>
-    <t>PROJECT_ADMIN</t>
-  </si>
-  <si>
-    <t>标识项目管理员角色</t>
-  </si>
-  <si>
-    <t>TENANT_MEMBER</t>
-  </si>
-  <si>
-    <t>标识租户成员角色</t>
-  </si>
-  <si>
-    <t>Tenant Member</t>
-  </si>
-  <si>
-    <t>PROJECT_MEMBER</t>
-  </si>
-  <si>
-    <t>标识项目成员角色</t>
-  </si>
-  <si>
-    <t>Project Member</t>
-  </si>
-  <si>
-    <t>TENANT_TPL</t>
-  </si>
-  <si>
-    <t>租户管理员模板标签</t>
-  </si>
-  <si>
-    <t>Tenant Template Label</t>
-  </si>
-  <si>
-    <t>GITLAB_OWNER</t>
-  </si>
-  <si>
-    <t>标识gitlab_owner</t>
-  </si>
-  <si>
     <t>GITLAB_DEVELOPER</t>
   </si>
   <si>
     <t>标识gitlab_developer</t>
-  </si>
-  <si>
-    <t>code-repo-service.member-audit-log-org.detailLatest</t>
-  </si>
-  <si>
-    <t>code-repo-service.org.listProjectsByUserId</t>
-  </si>
-  <si>
-    <t>code-repo-service.rdm-member-audit-record-org.pageByOptions</t>
-  </si>
-  <si>
-    <t>code-repo-service.rdm-member-org.pageByOptions</t>
-  </si>
-  <si>
-    <t>code-repo-service.rdm-operation-log-org.pageByOptionsMemberLog</t>
-  </si>
-  <si>
-    <t>code-repo-service.project.listDeveloperProjectMembers</t>
-  </si>
-  <si>
-    <t>code-repo-service.rdm-member-applicant-proj.create</t>
-  </si>
-  <si>
-    <t>code-repo-service.rdm-member-applicant-proj.detectApplicantType</t>
-  </si>
-  <si>
-    <t>code-repo-service.rdm-member-applicant-proj.pageByOptionsSelf</t>
-  </si>
-  <si>
-    <t>code-repo-service.rdm-member-proj.export</t>
-  </si>
-  <si>
-    <t>code-repo-service.rdm-member-proj.pageByOptions</t>
-  </si>
-  <si>
-    <t>code-repo-service.rdm-repository-proj.listByActive</t>
-  </si>
-  <si>
-    <t>code-repo-service.member-audit-log.detailLatest</t>
-  </si>
-  <si>
-    <t>code-repo-service.rdm-branch.createProtectedBranch</t>
-  </si>
-  <si>
-    <t>code-repo-service.rdm-branch.getBranches</t>
-  </si>
-  <si>
-    <t>code-repo-service.rdm-branch.getProtectedBranches</t>
-  </si>
-  <si>
-    <t>code-repo-service.rdm-branch.removeProtectedBranch</t>
-  </si>
-  <si>
-    <t>code-repo-service.rdm-branch.updateProtectedBranch</t>
-  </si>
-  <si>
-    <t>code-repo-service.rdm-member-applicant-proj.pageByOptions</t>
-  </si>
-  <si>
-    <t>code-repo-service.rdm-member-applicant-proj.passAndHandleMember</t>
-  </si>
-  <si>
-    <t>code-repo-service.rdm-member-applicant-proj.refuse</t>
-  </si>
-  <si>
-    <t>code-repo-service.rdm-member-audit-record-proj.auditFix</t>
-  </si>
-  <si>
-    <t>code-repo-service.rdm-member-audit-record-proj.pageByOptions</t>
-  </si>
-  <si>
-    <t>code-repo-service.rdm-member-audit-record-proj.sync</t>
-  </si>
-  <si>
-    <t>code-repo-service.rdm-member-proj.batchAddMembers</t>
-  </si>
-  <si>
-    <t>code-repo-service.rdm-member-proj.pageSecurityAudit</t>
-  </si>
-  <si>
-    <t>code-repo-service.rdm-member.removeMember</t>
-  </si>
-  <si>
-    <t>code-repo-service.rdm-member.syncMember</t>
-  </si>
-  <si>
-    <t>code-repo-service.rdm-member.syncMembersFromGitlab</t>
-  </si>
-  <si>
-    <t>code-repo-service.rdm-member.updateMember</t>
-  </si>
-  <si>
-    <t>code-repo-service.rdm-operation-log-proj.pageByOptionsMemberLog</t>
-  </si>
-  <si>
-    <t>code-repo-service.rdm-project.pageMemberPermissions</t>
-  </si>
-  <si>
-    <t>code-repo-service.rdm-repository-proj.pageOverviewByOptions</t>
-  </si>
-  <si>
-    <t>code-repo-service.rdm-tag.createProtectedTag</t>
-  </si>
-  <si>
-    <t>code-repo-service.rdm-tag.deleteProtectedTag</t>
-  </si>
-  <si>
-    <t>code-repo-service.rdm-tag.getProtectedTags</t>
-  </si>
-  <si>
-    <t>code-repo-service.rdm-tag.getTags</t>
-  </si>
-  <si>
-    <t>code-repo-service.rdm-tag.updateProtectedTag</t>
-  </si>
-  <si>
-    <t>code-repo-service.rdm-member-org.export</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="42">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -3140,25 +2914,31 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="53"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="48"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="42"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -3171,12 +2951,6 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="DengXian"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3200,6 +2974,163 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -3226,7 +3157,6 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3240,21 +3170,18 @@
       <sz val="12"/>
       <color rgb="FFC55A11"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF548235"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3263,28 +3190,8 @@
       <name val="DengXian"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="7">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3321,8 +3228,194 @@
         <bgColor rgb="FFE7E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -3334,28 +3427,12 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -3380,12 +3457,21 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -3394,13 +3480,11 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
+      <right/>
+      <top style="thin">
         <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -3415,6 +3499,15 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color auto="1"/>
@@ -3423,10 +3516,252 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="28" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3434,6 +3769,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3443,70 +3779,116 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
@@ -3579,9 +3961,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3839,265 +4218,270 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="10.35546875" style="7" customWidth="1"/>
-    <col min="3" max="3" width="28.140625" customWidth="1"/>
-    <col min="4" max="4" width="35.35546875" style="8" customWidth="1"/>
-    <col min="5" max="5" width="38.5703125" customWidth="1"/>
-    <col min="6" max="6" width="23.42578125" customWidth="1"/>
-    <col min="7" max="7" width="21.5703125" customWidth="1"/>
+    <col min="1" max="1" width="15.5694444444444" style="7" customWidth="1"/>
+    <col min="2" max="2" width="10.3541666666667" style="8" customWidth="1"/>
+    <col min="3" max="3" width="28.1388888888889" customWidth="1"/>
+    <col min="4" max="4" width="35.3541666666667" style="9" customWidth="1"/>
+    <col min="5" max="5" width="38.5694444444444" customWidth="1"/>
+    <col min="6" max="6" width="23.4236111111111" customWidth="1"/>
+    <col min="7" max="7" width="21.5694444444444" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5703125" customWidth="1"/>
+    <col min="9" max="9" width="24.5694444444444" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.140625" customWidth="1"/>
-    <col min="12" max="12" width="18.5703125" customWidth="1"/>
-    <col min="13" max="13" width="13.140625" customWidth="1"/>
-    <col min="14" max="1025" width="10.35546875" customWidth="1"/>
+    <col min="11" max="11" width="19.1388888888889" customWidth="1"/>
+    <col min="12" max="12" width="18.5694444444444" customWidth="1"/>
+    <col min="13" max="13" width="13.1388888888889" customWidth="1"/>
+    <col min="14" max="1025" width="10.3541666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="64.5" customHeight="1">
-      <c r="A1" s="9"/>
-      <c r="C1" s="32" t="s">
+    <row r="1" ht="64.5" customHeight="1" spans="1:8">
+      <c r="A1" s="10"/>
+      <c r="C1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="E2" s="20"/>
-    </row>
-    <row r="3" spans="1:8" ht="49.5" customHeight="1">
-      <c r="C3" s="33" t="s">
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+    </row>
+    <row r="2" spans="5:5">
+      <c r="E2" s="13"/>
+    </row>
+    <row r="3" ht="49.5" customHeight="1" spans="3:7">
+      <c r="C3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="33"/>
-      <c r="E3" s="34" t="s">
+      <c r="D3" s="14"/>
+      <c r="E3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="C4" s="35" t="s">
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+    </row>
+    <row r="4" spans="3:7">
+      <c r="C4" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="35"/>
-      <c r="E4" s="24" t="s">
+      <c r="D4" s="16"/>
+      <c r="E4" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="25" t="s">
+      <c r="F4" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="26" t="s">
+      <c r="G4" s="19" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="9"/>
+    <row r="5" spans="1:3">
+      <c r="A5" s="10"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
-      <c r="C7" s="10" t="s">
+    <row r="7" spans="3:5">
+      <c r="C7" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="27" t="s">
+      <c r="E7" s="22" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
-      <c r="C8" s="12" t="s">
+    <row r="8" spans="3:5">
+      <c r="C8" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="28"/>
-    </row>
-    <row r="9" spans="1:8" ht="49.5">
-      <c r="C9" s="14" t="s">
+      <c r="E8" s="25"/>
+    </row>
+    <row r="9" ht="52.2" spans="3:6">
+      <c r="C9" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="29" t="s">
+      <c r="E9" s="28" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="49.5">
-      <c r="C10" s="16" t="s">
+    <row r="10" ht="52.2" spans="3:5">
+      <c r="C10" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="29" t="s">
+      <c r="E10" s="28" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="66">
-      <c r="C11" s="12" t="s">
+    <row r="11" ht="69.6" spans="3:5">
+      <c r="C11" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="29" t="s">
+      <c r="E11" s="28" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
-      <c r="C12" s="12" t="s">
+    <row r="12" spans="3:5">
+      <c r="C12" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="27" t="s">
         <v>24</v>
       </c>
       <c r="E12" s="30" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
-      <c r="C13" s="12"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="28"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="C14" s="12"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="28"/>
-    </row>
-    <row r="15" spans="1:8" ht="33">
-      <c r="C15" s="17" t="s">
+    <row r="13" spans="3:5">
+      <c r="C13" s="23"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="25"/>
+    </row>
+    <row r="14" spans="3:5">
+      <c r="C14" s="23"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="25"/>
+    </row>
+    <row r="15" ht="34.8" spans="3:5">
+      <c r="C15" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="31" t="s">
+      <c r="E15" s="33" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="3:5">
+    <row r="18" spans="3:3">
       <c r="C18" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="36" t="s">
+      <c r="C19" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-    </row>
-    <row r="20" spans="3:5">
-      <c r="C20" s="19" t="s">
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+    </row>
+    <row r="20" spans="3:4">
+      <c r="C20" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="20" t="s">
+      <c r="D20" s="13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="3:5">
-      <c r="C21" s="19" t="s">
+    <row r="21" spans="3:4">
+      <c r="C21" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="20" t="s">
+      <c r="D21" s="13" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="3:5">
-      <c r="C22" s="19" t="s">
+    <row r="22" spans="3:4">
+      <c r="C22" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="3:5">
-      <c r="C23" s="19" t="s">
+    <row r="23" spans="3:4">
+      <c r="C23" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="3:5" ht="69" customHeight="1">
-      <c r="C25" s="21" t="s">
+    <row r="25" ht="69" customHeight="1" spans="3:5">
+      <c r="C25" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="33" t="s">
+      <c r="D25" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="33"/>
-    </row>
-    <row r="26" spans="3:5" ht="14.25" customHeight="1">
-      <c r="C26" s="13" t="s">
+      <c r="E25" s="14"/>
+    </row>
+    <row r="26" ht="14.25" customHeight="1" spans="3:5">
+      <c r="C26" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="33" t="s">
+      <c r="D26" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="33"/>
-    </row>
-    <row r="27" spans="3:5" ht="49.5">
-      <c r="C27" s="22" t="s">
+      <c r="E26" s="14"/>
+    </row>
+    <row r="27" ht="52.2" spans="3:3">
+      <c r="C27" s="37" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C19:E19"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
   </mergeCells>
-  <phoneticPr fontId="23" type="noConversion"/>
-  <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.51041666666666696" footer="0.51041666666666696"/>
+  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:Y19"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="$A16:$XFD16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
   <cols>
-    <col min="16" max="16" width="45.85546875" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
+    <col min="7" max="7" width="15.25" customWidth="1"/>
+    <col min="16" max="16" width="45.8541666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -4111,7 +4495,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="5:7">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -4199,7 +4583,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="5:24">
       <c r="E8" t="s">
         <v>75</v>
       </c>
@@ -4246,7 +4630,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="5:24">
       <c r="E9" t="s">
         <v>84</v>
       </c>
@@ -4300,7 +4684,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="5:24">
       <c r="E10" t="s">
         <v>92</v>
       </c>
@@ -4351,7 +4735,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11" spans="5:24">
       <c r="E11" t="s">
         <v>98</v>
       </c>
@@ -4399,7 +4783,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="1:25">
+    <row r="12" spans="5:24">
       <c r="E12" t="s">
         <v>103</v>
       </c>
@@ -4446,7 +4830,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:25">
+    <row r="13" spans="5:24">
       <c r="E13" t="s">
         <v>106</v>
       </c>
@@ -4500,7 +4884,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="1:25">
+    <row r="14" spans="5:24">
       <c r="E14" t="s">
         <v>113</v>
       </c>
@@ -4551,7 +4935,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="5:24">
       <c r="E15" t="s">
         <v>116</v>
       </c>
@@ -4598,7 +4982,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="1:25">
+    <row r="16" spans="5:24">
       <c r="E16" t="s">
         <v>119</v>
       </c>
@@ -4800,27 +5184,28 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="23" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView topLeftCell="B37" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="6"/>
   <cols>
-    <col min="5" max="5" width="21.28515625" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" customWidth="1"/>
-    <col min="7" max="7" width="30.35546875" customWidth="1"/>
+    <col min="5" max="5" width="21.2847222222222" customWidth="1"/>
+    <col min="6" max="6" width="17.5694444444444" customWidth="1"/>
+    <col min="7" max="7" width="30.3541666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -4834,7 +5219,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="5:7">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -4868,7 +5253,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="5:7">
       <c r="E8" t="s">
         <v>138</v>
       </c>
@@ -4876,553 +5261,565 @@
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
-      <c r="G8" s="37" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="G8" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="9" spans="5:7">
       <c r="E9" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F9" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G9" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="10" spans="5:7">
       <c r="E10" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F10" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G10" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="11" spans="5:7">
       <c r="E11" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="F11" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G11" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="12" spans="5:7">
       <c r="E12" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="F12" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G12" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="13" spans="5:7">
       <c r="E13" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="F13" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-18</v>
       </c>
       <c r="G13" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="14" spans="5:7">
       <c r="E14" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="F14" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-18</v>
       </c>
       <c r="G14" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="15" spans="5:7">
       <c r="E15" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="F15" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-18</v>
       </c>
       <c r="G15" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="16" spans="5:7">
       <c r="E16" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="F16" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-18</v>
       </c>
       <c r="G16" t="s">
-        <v>394</v>
+        <v>155</v>
       </c>
     </row>
     <row r="17" spans="5:7">
       <c r="E17" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="F17" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-18</v>
       </c>
       <c r="G17" t="s">
-        <v>395</v>
+        <v>157</v>
       </c>
     </row>
     <row r="18" spans="5:7">
       <c r="E18" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="F18" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-18</v>
       </c>
       <c r="G18" t="s">
-        <v>396</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19" spans="5:7">
       <c r="E19" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="F19" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-18</v>
       </c>
       <c r="G19" t="s">
-        <v>397</v>
+        <v>161</v>
       </c>
     </row>
     <row r="20" spans="5:7">
       <c r="E20" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="F20" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G20" t="s">
-        <v>398</v>
+        <v>163</v>
       </c>
     </row>
     <row r="21" spans="5:7">
       <c r="E21" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="F21" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G21" t="s">
-        <v>391</v>
+        <v>149</v>
       </c>
     </row>
     <row r="22" spans="5:7">
       <c r="E22" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="F22" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G22" t="s">
-        <v>399</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23" spans="5:7">
       <c r="E23" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="F23" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G23" t="s">
-        <v>400</v>
+        <v>168</v>
       </c>
     </row>
     <row r="24" spans="5:7">
       <c r="E24" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="F24" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G24" t="s">
-        <v>401</v>
+        <v>170</v>
       </c>
     </row>
     <row r="25" spans="5:7">
       <c r="E25" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="F25" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G25" t="s">
-        <v>402</v>
+        <v>172</v>
       </c>
     </row>
     <row r="26" spans="5:7">
       <c r="E26" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="F26" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G26" t="s">
-        <v>403</v>
+        <v>174</v>
       </c>
     </row>
     <row r="27" spans="5:7">
       <c r="E27" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="F27" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G27" t="s">
-        <v>392</v>
+        <v>151</v>
       </c>
     </row>
     <row r="28" spans="5:7">
       <c r="E28" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="F28" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G28" t="s">
-        <v>393</v>
+        <v>153</v>
       </c>
     </row>
     <row r="29" spans="5:7">
       <c r="E29" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="F29" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G29" t="s">
-        <v>404</v>
+        <v>178</v>
       </c>
     </row>
     <row r="30" spans="5:7">
       <c r="E30" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="F30" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G30" t="s">
-        <v>405</v>
+        <v>180</v>
       </c>
     </row>
     <row r="31" spans="5:7">
       <c r="E31" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="F31" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G31" t="s">
-        <v>406</v>
+        <v>182</v>
       </c>
     </row>
     <row r="32" spans="5:7">
       <c r="E32" t="s">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c r="F32" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G32" t="s">
-        <v>407</v>
+        <v>184</v>
       </c>
     </row>
     <row r="33" spans="5:7">
       <c r="E33" t="s">
-        <v>163</v>
+        <v>185</v>
       </c>
       <c r="F33" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G33" t="s">
-        <v>408</v>
+        <v>186</v>
       </c>
     </row>
     <row r="34" spans="5:7">
       <c r="E34" t="s">
-        <v>164</v>
+        <v>187</v>
       </c>
       <c r="F34" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G34" t="s">
-        <v>409</v>
+        <v>188</v>
       </c>
     </row>
     <row r="35" spans="5:7">
       <c r="E35" t="s">
-        <v>165</v>
+        <v>189</v>
       </c>
       <c r="F35" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G35" t="s">
-        <v>410</v>
+        <v>190</v>
       </c>
     </row>
     <row r="36" spans="5:7">
       <c r="E36" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="F36" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G36" t="s">
-        <v>395</v>
+        <v>157</v>
       </c>
     </row>
     <row r="37" spans="5:7">
       <c r="E37" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="F37" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G37" t="s">
-        <v>396</v>
+        <v>159</v>
       </c>
     </row>
     <row r="38" spans="5:7">
       <c r="E38" t="s">
-        <v>168</v>
+        <v>193</v>
       </c>
       <c r="F38" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G38" t="s">
-        <v>411</v>
+        <v>194</v>
       </c>
     </row>
     <row r="39" spans="5:7">
       <c r="E39" t="s">
-        <v>169</v>
+        <v>195</v>
       </c>
       <c r="F39" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G39" t="s">
-        <v>412</v>
+        <v>196</v>
       </c>
     </row>
     <row r="40" spans="5:7">
       <c r="E40" t="s">
-        <v>170</v>
+        <v>197</v>
       </c>
       <c r="F40" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G40" t="s">
-        <v>413</v>
+        <v>198</v>
       </c>
     </row>
     <row r="41" spans="5:7">
       <c r="E41" t="s">
-        <v>171</v>
+        <v>199</v>
       </c>
       <c r="F41" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G41" t="s">
-        <v>414</v>
+        <v>200</v>
       </c>
     </row>
     <row r="42" spans="5:7">
       <c r="E42" t="s">
-        <v>172</v>
+        <v>201</v>
       </c>
       <c r="F42" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G42" t="s">
-        <v>415</v>
+        <v>202</v>
       </c>
     </row>
     <row r="43" spans="5:7">
       <c r="E43" t="s">
-        <v>173</v>
+        <v>203</v>
       </c>
       <c r="F43" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G43" t="s">
-        <v>416</v>
+        <v>204</v>
       </c>
     </row>
     <row r="44" spans="5:7">
       <c r="E44" t="s">
-        <v>174</v>
+        <v>205</v>
       </c>
       <c r="F44" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G44" t="s">
-        <v>417</v>
+        <v>206</v>
       </c>
     </row>
     <row r="45" spans="5:7">
       <c r="E45" t="s">
-        <v>175</v>
+        <v>207</v>
       </c>
       <c r="F45" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G45" t="s">
-        <v>397</v>
+        <v>161</v>
       </c>
     </row>
     <row r="46" spans="5:7">
       <c r="E46" t="s">
-        <v>176</v>
+        <v>208</v>
       </c>
       <c r="F46" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G46" t="s">
-        <v>418</v>
+        <v>209</v>
       </c>
     </row>
     <row r="47" spans="5:7">
       <c r="E47" t="s">
-        <v>177</v>
+        <v>210</v>
       </c>
       <c r="F47" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G47" t="s">
-        <v>419</v>
+        <v>211</v>
       </c>
     </row>
     <row r="48" spans="5:7">
       <c r="E48" t="s">
-        <v>178</v>
+        <v>212</v>
       </c>
       <c r="F48" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G48" t="s">
-        <v>420</v>
+        <v>213</v>
       </c>
     </row>
     <row r="49" spans="5:7">
       <c r="E49" t="s">
-        <v>179</v>
+        <v>214</v>
       </c>
       <c r="F49" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G49" t="s">
-        <v>421</v>
+        <v>215</v>
       </c>
     </row>
     <row r="50" spans="5:7">
       <c r="E50" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="F50" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G50" t="s">
-        <v>422</v>
+        <v>217</v>
       </c>
     </row>
     <row r="51" spans="5:7">
       <c r="E51" t="s">
-        <v>181</v>
+        <v>218</v>
       </c>
       <c r="F51" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G51" t="s">
-        <v>423</v>
+        <v>219</v>
       </c>
     </row>
     <row r="52" spans="5:7">
-      <c r="E52" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="F52" s="5" t="str">
+      <c r="E52" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="F52" s="6" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
-      <c r="G52" s="5" t="s">
-        <v>424</v>
+      <c r="G52" s="6" t="s">
+        <v>221</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="23" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:O61"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="F4" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
+  <cols>
+    <col min="5" max="5" width="26.5833333333333" customWidth="1"/>
+    <col min="6" max="6" width="25.5" customWidth="1"/>
+    <col min="7" max="7" width="17.4166666666667" customWidth="1"/>
+    <col min="8" max="8" width="21.9166666666667" customWidth="1"/>
+    <col min="11" max="11" width="19.0833333333333" customWidth="1"/>
+    <col min="13" max="13" width="12.75" customWidth="1"/>
+    <col min="14" max="14" width="15.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -5436,7 +5833,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="5:7">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -5455,66 +5852,66 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>183</v>
+        <v>222</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>184</v>
+        <v>223</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>185</v>
+        <v>224</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>186</v>
+        <v>225</v>
       </c>
       <c r="H7" t="s">
-        <v>187</v>
+        <v>226</v>
       </c>
       <c r="I7" t="s">
-        <v>188</v>
+        <v>227</v>
       </c>
       <c r="J7" t="s">
-        <v>189</v>
+        <v>228</v>
       </c>
       <c r="K7" t="s">
-        <v>190</v>
+        <v>229</v>
       </c>
       <c r="L7" t="s">
-        <v>191</v>
+        <v>230</v>
       </c>
       <c r="M7" t="s">
-        <v>192</v>
+        <v>231</v>
       </c>
       <c r="N7" t="s">
-        <v>193</v>
+        <v>232</v>
       </c>
       <c r="O7" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="8" spans="5:15">
       <c r="E8" t="s">
-        <v>195</v>
+        <v>234</v>
       </c>
       <c r="F8" t="s">
-        <v>196</v>
+        <v>235</v>
       </c>
       <c r="G8" t="s">
-        <v>197</v>
+        <v>236</v>
       </c>
       <c r="H8" t="s">
         <v>82</v>
       </c>
       <c r="I8" t="s">
-        <v>198</v>
+        <v>237</v>
       </c>
       <c r="J8" t="s">
-        <v>199</v>
+        <v>238</v>
       </c>
       <c r="K8" t="s">
-        <v>196</v>
+        <v>235</v>
       </c>
       <c r="M8" t="s">
         <v>82</v>
@@ -5526,53 +5923,53 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="5:15">
       <c r="E9" t="s">
-        <v>200</v>
+        <v>239</v>
       </c>
       <c r="F9" t="s">
-        <v>201</v>
+        <v>240</v>
       </c>
       <c r="G9" t="s">
-        <v>197</v>
+        <v>236</v>
       </c>
       <c r="H9" t="s">
         <v>82</v>
       </c>
       <c r="I9" t="s">
-        <v>198</v>
-      </c>
-      <c r="J9" t="s">
-        <v>202</v>
-      </c>
-      <c r="K9" t="s">
-        <v>201</v>
+        <v>237</v>
       </c>
       <c r="M9" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="N9" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="O9" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="5:15">
       <c r="E10" t="s">
-        <v>203</v>
+        <v>241</v>
       </c>
       <c r="F10" t="s">
-        <v>204</v>
+        <v>242</v>
       </c>
       <c r="G10" t="s">
-        <v>197</v>
+        <v>236</v>
       </c>
       <c r="H10" t="s">
         <v>82</v>
       </c>
       <c r="I10" t="s">
-        <v>205</v>
+        <v>243</v>
+      </c>
+      <c r="J10" t="s">
+        <v>244</v>
+      </c>
+      <c r="K10" t="s">
+        <v>244</v>
       </c>
       <c r="M10" t="s">
         <v>82</v>
@@ -5584,24 +5981,24 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="5:15">
       <c r="E11" t="s">
-        <v>206</v>
+        <v>245</v>
       </c>
       <c r="F11" t="s">
-        <v>207</v>
+        <v>246</v>
       </c>
       <c r="G11" t="s">
-        <v>197</v>
+        <v>236</v>
       </c>
       <c r="H11" t="s">
         <v>82</v>
       </c>
       <c r="I11" t="s">
-        <v>198</v>
+        <v>243</v>
       </c>
       <c r="M11" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="N11" t="s">
         <v>79</v>
@@ -5610,1170 +6007,204 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="5:15">
       <c r="E12" t="s">
-        <v>208</v>
+        <v>247</v>
       </c>
       <c r="F12" t="s">
-        <v>209</v>
+        <v>248</v>
       </c>
       <c r="G12" t="s">
-        <v>197</v>
-      </c>
-      <c r="H12" t="s">
-        <v>82</v>
+        <v>236</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="J12" t="s">
-        <v>210</v>
+        <v>249</v>
       </c>
       <c r="K12" t="s">
-        <v>210</v>
-      </c>
-      <c r="M12" t="s">
-        <v>82</v>
-      </c>
-      <c r="N12" t="s">
-        <v>82</v>
-      </c>
-      <c r="O12" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="E13" t="s">
-        <v>211</v>
-      </c>
-      <c r="F13" t="s">
-        <v>212</v>
-      </c>
-      <c r="G13" t="s">
-        <v>197</v>
-      </c>
-      <c r="H13" t="s">
-        <v>82</v>
-      </c>
-      <c r="I13" t="s">
-        <v>198</v>
-      </c>
-      <c r="J13" t="s">
-        <v>213</v>
-      </c>
-      <c r="M13" t="s">
-        <v>79</v>
-      </c>
-      <c r="N13" t="s">
-        <v>79</v>
-      </c>
-      <c r="O13" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="E14" t="s">
-        <v>214</v>
-      </c>
-      <c r="F14" t="s">
-        <v>215</v>
-      </c>
-      <c r="G14" t="s">
-        <v>197</v>
-      </c>
-      <c r="H14" t="s">
-        <v>82</v>
+        <v>249</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" t="s">
+        <v>250</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>255</v>
       </c>
       <c r="I14" t="s">
-        <v>198</v>
-      </c>
-      <c r="J14" t="s">
-        <v>216</v>
-      </c>
-      <c r="M14" t="s">
-        <v>79</v>
-      </c>
-      <c r="N14" t="s">
-        <v>79</v>
-      </c>
-      <c r="O14" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="15" spans="5:9">
       <c r="E15" t="s">
-        <v>217</v>
+        <v>257</v>
       </c>
       <c r="F15" t="s">
-        <v>218</v>
-      </c>
-      <c r="G15" t="s">
-        <v>197</v>
-      </c>
-      <c r="H15" t="s">
-        <v>82</v>
-      </c>
-      <c r="I15" t="s">
-        <v>198</v>
-      </c>
-      <c r="J15" t="s">
-        <v>219</v>
-      </c>
-      <c r="M15" t="s">
-        <v>79</v>
-      </c>
-      <c r="N15" t="s">
-        <v>79</v>
-      </c>
-      <c r="O15" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
-      <c r="E16" t="s">
-        <v>220</v>
-      </c>
-      <c r="F16" t="s">
-        <v>221</v>
-      </c>
-      <c r="G16" t="s">
-        <v>197</v>
-      </c>
-      <c r="H16" t="s">
-        <v>82</v>
-      </c>
-      <c r="I16" t="s">
-        <v>198</v>
-      </c>
-      <c r="J16" t="s">
-        <v>222</v>
-      </c>
-      <c r="M16" t="s">
-        <v>79</v>
-      </c>
-      <c r="N16" t="s">
-        <v>79</v>
-      </c>
-      <c r="O16" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
-      <c r="E17" t="s">
-        <v>223</v>
-      </c>
-      <c r="F17" t="s">
-        <v>224</v>
-      </c>
-      <c r="G17" t="s">
-        <v>197</v>
-      </c>
-      <c r="H17" t="s">
-        <v>82</v>
-      </c>
-      <c r="I17" t="s">
-        <v>198</v>
-      </c>
-      <c r="J17" t="s">
-        <v>225</v>
-      </c>
-      <c r="K17" t="s">
-        <v>225</v>
-      </c>
-      <c r="M17" t="s">
-        <v>79</v>
-      </c>
-      <c r="N17" t="s">
-        <v>79</v>
-      </c>
-      <c r="O17" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
-      <c r="E18" t="s">
-        <v>226</v>
-      </c>
-      <c r="F18" t="s">
-        <v>227</v>
-      </c>
-      <c r="G18" t="s">
-        <v>197</v>
-      </c>
-      <c r="H18" t="s">
-        <v>82</v>
-      </c>
-      <c r="I18" t="s">
-        <v>198</v>
-      </c>
-      <c r="J18" t="s">
-        <v>228</v>
-      </c>
-      <c r="K18" t="s">
-        <v>228</v>
-      </c>
-      <c r="M18" t="s">
-        <v>79</v>
-      </c>
-      <c r="N18" t="s">
-        <v>79</v>
-      </c>
-      <c r="O18" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
-      <c r="E19" t="s">
-        <v>229</v>
-      </c>
-      <c r="F19" t="s">
-        <v>230</v>
-      </c>
-      <c r="G19" t="s">
-        <v>197</v>
-      </c>
-      <c r="H19" t="s">
-        <v>82</v>
-      </c>
-      <c r="I19" t="s">
-        <v>198</v>
-      </c>
-      <c r="J19" t="s">
-        <v>231</v>
-      </c>
-      <c r="K19" t="s">
-        <v>230</v>
-      </c>
-      <c r="M19" t="s">
-        <v>82</v>
-      </c>
-      <c r="N19" t="s">
-        <v>82</v>
-      </c>
-      <c r="O19" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
-      <c r="E20" t="s">
-        <v>232</v>
-      </c>
-      <c r="F20" t="s">
-        <v>233</v>
-      </c>
-      <c r="G20" t="s">
-        <v>197</v>
-      </c>
-      <c r="H20" t="s">
-        <v>82</v>
-      </c>
-      <c r="I20" t="s">
-        <v>205</v>
-      </c>
-      <c r="M20" t="s">
-        <v>82</v>
-      </c>
-      <c r="N20" t="s">
-        <v>79</v>
-      </c>
-      <c r="O20" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
-      <c r="E21" t="s">
-        <v>234</v>
-      </c>
-      <c r="F21" t="s">
-        <v>235</v>
-      </c>
-      <c r="G21" t="s">
-        <v>197</v>
-      </c>
-      <c r="H21" t="s">
-        <v>82</v>
-      </c>
-      <c r="I21" t="s">
-        <v>205</v>
-      </c>
-      <c r="J21" t="s">
         <v>236</v>
       </c>
-      <c r="K21" t="s">
-        <v>236</v>
-      </c>
-      <c r="M21" t="s">
-        <v>79</v>
-      </c>
-      <c r="N21" t="s">
-        <v>79</v>
-      </c>
-      <c r="O21" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
-      <c r="E22" t="s">
-        <v>237</v>
-      </c>
-      <c r="F22" t="s">
-        <v>238</v>
-      </c>
-      <c r="G22" t="s">
-        <v>197</v>
-      </c>
-      <c r="H22" t="s">
-        <v>82</v>
-      </c>
-      <c r="I22" t="s">
-        <v>205</v>
-      </c>
-      <c r="J22" t="s">
-        <v>239</v>
-      </c>
-      <c r="K22" t="s">
-        <v>239</v>
-      </c>
-      <c r="M22" t="s">
-        <v>79</v>
-      </c>
-      <c r="N22" t="s">
-        <v>79</v>
-      </c>
-      <c r="O22" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
-      <c r="E23" t="s">
-        <v>240</v>
-      </c>
-      <c r="F23" t="s">
-        <v>241</v>
-      </c>
-      <c r="G23" t="s">
-        <v>197</v>
-      </c>
-      <c r="H23" t="s">
-        <v>82</v>
-      </c>
-      <c r="I23" t="s">
-        <v>205</v>
-      </c>
-      <c r="J23" t="s">
-        <v>242</v>
-      </c>
-      <c r="K23" t="s">
-        <v>242</v>
-      </c>
-      <c r="M23" t="s">
-        <v>79</v>
-      </c>
-      <c r="N23" t="s">
-        <v>79</v>
-      </c>
-      <c r="O23" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
-      <c r="E24" t="s">
-        <v>243</v>
-      </c>
-      <c r="F24" t="s">
-        <v>244</v>
-      </c>
-      <c r="G24" t="s">
-        <v>197</v>
-      </c>
-      <c r="H24" t="s">
-        <v>82</v>
-      </c>
-      <c r="I24" t="s">
-        <v>205</v>
-      </c>
-      <c r="M24" t="s">
-        <v>79</v>
-      </c>
-      <c r="N24" t="s">
-        <v>79</v>
-      </c>
-      <c r="O24" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
-      <c r="E25" t="s">
-        <v>245</v>
-      </c>
-      <c r="F25" t="s">
-        <v>246</v>
-      </c>
-      <c r="G25" t="s">
-        <v>197</v>
-      </c>
-      <c r="H25" t="s">
-        <v>82</v>
-      </c>
-      <c r="I25" t="s">
-        <v>205</v>
-      </c>
-      <c r="J25" t="s">
-        <v>247</v>
-      </c>
-      <c r="M25" t="s">
-        <v>79</v>
-      </c>
-      <c r="N25" t="s">
-        <v>79</v>
-      </c>
-      <c r="O25" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15">
-      <c r="E26" t="s">
-        <v>248</v>
-      </c>
-      <c r="F26" t="s">
-        <v>249</v>
-      </c>
-      <c r="G26" t="s">
-        <v>197</v>
-      </c>
-      <c r="H26" t="s">
-        <v>82</v>
-      </c>
-      <c r="I26" t="s">
-        <v>205</v>
-      </c>
-      <c r="J26" t="s">
-        <v>250</v>
-      </c>
-      <c r="M26" t="s">
-        <v>79</v>
-      </c>
-      <c r="N26" t="s">
-        <v>79</v>
-      </c>
-      <c r="O26" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15">
-      <c r="E27" t="s">
-        <v>251</v>
-      </c>
-      <c r="F27" t="s">
-        <v>252</v>
-      </c>
-      <c r="G27" t="s">
-        <v>197</v>
-      </c>
-      <c r="H27" t="s">
-        <v>82</v>
-      </c>
-      <c r="I27" t="s">
-        <v>205</v>
-      </c>
-      <c r="J27" t="s">
-        <v>253</v>
-      </c>
-      <c r="K27" t="s">
-        <v>253</v>
-      </c>
-      <c r="M27" t="s">
-        <v>79</v>
-      </c>
-      <c r="N27" t="s">
-        <v>79</v>
-      </c>
-      <c r="O27" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15">
-      <c r="E28" t="s">
-        <v>254</v>
-      </c>
-      <c r="F28" t="s">
-        <v>255</v>
-      </c>
-      <c r="G28" t="s">
-        <v>197</v>
-      </c>
-      <c r="H28" t="s">
-        <v>82</v>
-      </c>
-      <c r="I28" t="s">
-        <v>205</v>
-      </c>
-      <c r="J28" t="s">
-        <v>256</v>
-      </c>
-      <c r="K28" t="s">
-        <v>256</v>
-      </c>
-      <c r="M28" t="s">
-        <v>79</v>
-      </c>
-      <c r="N28" t="s">
-        <v>79</v>
-      </c>
-      <c r="O28" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15">
-      <c r="E29" t="s">
-        <v>257</v>
-      </c>
-      <c r="F29" t="s">
-        <v>258</v>
-      </c>
-      <c r="G29" t="s">
-        <v>197</v>
-      </c>
-      <c r="H29" t="s">
-        <v>82</v>
-      </c>
-      <c r="I29" t="s">
-        <v>205</v>
-      </c>
-      <c r="J29" t="s">
-        <v>259</v>
-      </c>
-      <c r="K29" t="s">
-        <v>259</v>
-      </c>
-      <c r="M29" t="s">
-        <v>79</v>
-      </c>
-      <c r="N29" t="s">
-        <v>79</v>
-      </c>
-      <c r="O29" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15">
-      <c r="A31" t="s">
-        <v>50</v>
-      </c>
-      <c r="B31" t="s">
-        <v>51</v>
-      </c>
-      <c r="C31" t="s">
-        <v>260</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="I31" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15">
-      <c r="E32" t="s">
-        <v>267</v>
-      </c>
-      <c r="F32" t="s">
-        <v>197</v>
-      </c>
-      <c r="G32" t="str">
+      <c r="G15" t="str">
         <f>菜单SAAS版!$E$12</f>
         <v>iam_menu-12</v>
       </c>
-      <c r="H32" t="str">
-        <f>菜单标签数据!$E$11</f>
+      <c r="H15" t="str">
+        <f>菜单标签数据!$E$9</f>
         <v>iam_label-11</v>
       </c>
-      <c r="I32" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="33" spans="5:9">
-      <c r="E33" t="s">
-        <v>267</v>
-      </c>
-      <c r="F33" t="s">
-        <v>197</v>
-      </c>
-      <c r="G33" t="str">
-        <f>菜单SAAS版!$E$12</f>
-        <v>iam_menu-12</v>
-      </c>
-      <c r="H33" t="str">
-        <f>菜单标签数据!$E$24</f>
-        <v>iam_label-24</v>
-      </c>
-      <c r="I33" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="34" spans="5:9">
-      <c r="E34" t="s">
-        <v>267</v>
-      </c>
-      <c r="F34" t="s">
-        <v>197</v>
-      </c>
-      <c r="G34" t="str">
-        <f>菜单SAAS版!$E$12</f>
-        <v>iam_menu-12</v>
-      </c>
-      <c r="H34" t="str">
-        <f>菜单标签数据!$E$27</f>
-        <v>iam_label-27</v>
-      </c>
-      <c r="I34" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="35" spans="5:9">
-      <c r="E35" t="s">
-        <v>267</v>
-      </c>
-      <c r="F35" t="s">
-        <v>197</v>
-      </c>
-      <c r="G35" t="str">
-        <f>菜单SAAS版!$E$12</f>
-        <v>iam_menu-12</v>
-      </c>
-      <c r="H35" t="str">
-        <f>菜单标签数据!$E$28</f>
-        <v>iam_label-28</v>
-      </c>
-      <c r="I35" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="36" spans="5:9">
-      <c r="E36" t="s">
-        <v>267</v>
-      </c>
-      <c r="F36" t="s">
-        <v>197</v>
-      </c>
-      <c r="G36" t="str">
-        <f>菜单SAAS版!$E$12</f>
-        <v>iam_menu-12</v>
-      </c>
-      <c r="H36" t="str">
-        <f>菜单标签数据!$E$29</f>
-        <v>iam_label-29</v>
-      </c>
-      <c r="I36" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="37" spans="5:9">
-      <c r="E37" t="s">
-        <v>267</v>
-      </c>
-      <c r="F37" t="s">
-        <v>197</v>
-      </c>
-      <c r="G37" t="str">
+      <c r="I15" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="16" spans="5:9">
+      <c r="E16" t="s">
+        <v>257</v>
+      </c>
+      <c r="F16" t="s">
+        <v>236</v>
+      </c>
+      <c r="G16" t="str">
         <f>菜单SAAS版!$E$8</f>
         <v>iam_menu-8</v>
       </c>
-      <c r="H37" t="str">
+      <c r="H16" t="str">
         <f>菜单标签数据!$E$8</f>
         <v>iam_label-8</v>
       </c>
-      <c r="I37" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="38" spans="5:9">
-      <c r="E38" t="s">
-        <v>267</v>
-      </c>
-      <c r="F38" t="s">
-        <v>197</v>
-      </c>
-      <c r="G38" t="str">
-        <f>菜单SAAS版!$E$8</f>
-        <v>iam_menu-8</v>
-      </c>
-      <c r="H38" t="str">
-        <f>菜单标签数据!$E$27</f>
-        <v>iam_label-27</v>
-      </c>
-      <c r="I38" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="39" spans="5:9">
-      <c r="E39" t="s">
-        <v>267</v>
-      </c>
-      <c r="F39" t="s">
-        <v>197</v>
-      </c>
-      <c r="G39" t="str">
-        <f>菜单SAAS版!$E$8</f>
-        <v>iam_menu-8</v>
-      </c>
-      <c r="H39" t="str">
-        <f>菜单标签数据!$E$28</f>
-        <v>iam_label-28</v>
-      </c>
-      <c r="I39" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="40" spans="5:9">
-      <c r="E40" t="s">
-        <v>267</v>
-      </c>
-      <c r="F40" t="s">
-        <v>197</v>
-      </c>
-      <c r="G40" t="str">
-        <f>菜单SAAS版!$E$8</f>
-        <v>iam_menu-8</v>
-      </c>
-      <c r="H40" t="str">
-        <f>菜单标签数据!$E$29</f>
-        <v>iam_label-29</v>
-      </c>
-      <c r="I40" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="41" spans="5:9">
-      <c r="E41" t="s">
-        <v>267</v>
-      </c>
-      <c r="F41" t="s">
-        <v>197</v>
-      </c>
-      <c r="G41" t="str">
+      <c r="I16" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="17" spans="5:9">
+      <c r="E17" t="s">
+        <v>257</v>
+      </c>
+      <c r="F17" t="s">
+        <v>236</v>
+      </c>
+      <c r="G17" t="str">
         <f>菜单SAAS版!$E$9</f>
         <v>iam_menu-9</v>
       </c>
-      <c r="H41" t="str">
+      <c r="H17" t="str">
         <f>菜单标签数据!$E$8</f>
         <v>iam_label-8</v>
       </c>
-      <c r="I41" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="42" spans="5:9">
-      <c r="E42" t="s">
-        <v>267</v>
-      </c>
-      <c r="F42" t="s">
-        <v>197</v>
-      </c>
-      <c r="G42" t="str">
-        <f>菜单SAAS版!$E$9</f>
-        <v>iam_menu-9</v>
-      </c>
-      <c r="H42" t="str">
-        <f>菜单标签数据!$E$19</f>
-        <v>iam_label-19</v>
-      </c>
-      <c r="I42" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="43" spans="5:9">
-      <c r="E43" t="s">
-        <v>267</v>
-      </c>
-      <c r="F43" t="s">
-        <v>197</v>
-      </c>
-      <c r="G43" t="str">
-        <f>菜单SAAS版!$E$9</f>
-        <v>iam_menu-9</v>
-      </c>
-      <c r="H43" t="str">
-        <f>菜单标签数据!$E$29</f>
-        <v>iam_label-29</v>
-      </c>
-      <c r="I43" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="44" spans="5:9">
-      <c r="E44" t="s">
-        <v>267</v>
-      </c>
-      <c r="F44" t="s">
-        <v>197</v>
-      </c>
-      <c r="G44" t="str">
+      <c r="I17" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="18" spans="5:9">
+      <c r="E18" t="s">
+        <v>257</v>
+      </c>
+      <c r="F18" t="s">
+        <v>236</v>
+      </c>
+      <c r="G18" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-10</v>
       </c>
-      <c r="H44" t="str">
+      <c r="H18" t="str">
         <f>菜单标签数据!$E$8</f>
         <v>iam_label-8</v>
       </c>
-      <c r="I44" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="45" spans="5:9">
-      <c r="E45" t="s">
-        <v>267</v>
-      </c>
-      <c r="F45" t="s">
-        <v>197</v>
-      </c>
-      <c r="G45" t="str">
+      <c r="I18" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="19" spans="5:9">
+      <c r="E19" t="s">
+        <v>257</v>
+      </c>
+      <c r="F19" t="s">
+        <v>236</v>
+      </c>
+      <c r="G19" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
-      <c r="H45" t="str">
+      <c r="H19" t="str">
         <f>菜单标签数据!$E$8</f>
         <v>iam_label-8</v>
       </c>
-      <c r="I45" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="46" spans="5:9">
-      <c r="E46" t="s">
-        <v>267</v>
-      </c>
-      <c r="F46" t="s">
-        <v>197</v>
-      </c>
-      <c r="G46" t="str">
-        <f>菜单SAAS版!$E$11</f>
-        <v>iam_menu-11</v>
-      </c>
-      <c r="H46" t="str">
-        <f>菜单标签数据!$E$19</f>
-        <v>iam_label-19</v>
-      </c>
-      <c r="I46" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="47" spans="5:9">
-      <c r="E47" t="s">
-        <v>267</v>
-      </c>
-      <c r="F47" t="s">
-        <v>197</v>
-      </c>
-      <c r="G47" t="str">
+      <c r="I19" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="20" spans="5:9">
+      <c r="E20" t="s">
+        <v>257</v>
+      </c>
+      <c r="F20" t="s">
+        <v>236</v>
+      </c>
+      <c r="G20" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-13</v>
       </c>
-      <c r="H47" t="str">
-        <f>菜单标签数据!$E$11</f>
+      <c r="H20" t="str">
+        <f>菜单标签数据!$E$9</f>
         <v>iam_label-11</v>
       </c>
-      <c r="I47" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="48" spans="5:9">
-      <c r="E48" t="s">
-        <v>267</v>
-      </c>
-      <c r="F48" t="s">
-        <v>197</v>
-      </c>
-      <c r="G48" t="str">
-        <f>菜单SAAS版!$E$13</f>
-        <v>iam_menu-13</v>
-      </c>
-      <c r="H48" t="str">
-        <f>菜单标签数据!$E$27</f>
-        <v>iam_label-27</v>
-      </c>
-      <c r="I48" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="49" spans="5:9">
-      <c r="E49" t="s">
-        <v>267</v>
-      </c>
-      <c r="F49" t="s">
-        <v>197</v>
-      </c>
-      <c r="G49" t="str">
-        <f>菜单SAAS版!$E$13</f>
-        <v>iam_menu-13</v>
-      </c>
-      <c r="H49" t="str">
-        <f>菜单标签数据!$E$28</f>
-        <v>iam_label-28</v>
-      </c>
-      <c r="I49" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="50" spans="5:9">
-      <c r="E50" t="s">
-        <v>267</v>
-      </c>
-      <c r="F50" t="s">
-        <v>197</v>
-      </c>
-      <c r="G50" t="str">
-        <f>菜单SAAS版!$E$13</f>
-        <v>iam_menu-13</v>
-      </c>
-      <c r="H50" t="str">
-        <f>菜单标签数据!$E$29</f>
-        <v>iam_label-29</v>
-      </c>
-      <c r="I50" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="51" spans="5:9">
-      <c r="E51" t="s">
-        <v>267</v>
-      </c>
-      <c r="F51" t="s">
-        <v>197</v>
-      </c>
-      <c r="G51" t="str">
-        <f>菜单SAAS版!$E$15</f>
-        <v>iam_menu-15</v>
-      </c>
-      <c r="H51" t="str">
-        <f>菜单标签数据!$E$13</f>
-        <v>iam_label-13</v>
-      </c>
-      <c r="I51" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="52" spans="5:9">
-      <c r="E52" t="s">
-        <v>267</v>
-      </c>
-      <c r="F52" t="s">
-        <v>197</v>
-      </c>
-      <c r="G52" t="str">
-        <f>菜单SAAS版!$E$15</f>
-        <v>iam_menu-15</v>
-      </c>
-      <c r="H52" t="str">
-        <f>菜单标签数据!$E$14</f>
-        <v>iam_label-14</v>
-      </c>
-      <c r="I52" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="53" spans="5:9">
-      <c r="E53" t="s">
-        <v>267</v>
-      </c>
-      <c r="F53" t="s">
-        <v>197</v>
-      </c>
-      <c r="G53" t="str">
-        <f>菜单SAAS版!$E$15</f>
-        <v>iam_menu-15</v>
-      </c>
-      <c r="H53" t="str">
-        <f>菜单标签数据!$E$15</f>
-        <v>iam_label-15</v>
-      </c>
-      <c r="I53" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="54" spans="5:9">
-      <c r="E54" t="s">
-        <v>267</v>
-      </c>
-      <c r="F54" t="s">
-        <v>197</v>
-      </c>
-      <c r="G54" t="str">
-        <f>菜单SAAS版!$E$15</f>
-        <v>iam_menu-15</v>
-      </c>
-      <c r="H54" t="str">
-        <f>菜单标签数据!$E$16</f>
-        <v>iam_label-16</v>
-      </c>
-      <c r="I54" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="55" spans="5:9">
-      <c r="E55" t="s">
-        <v>267</v>
-      </c>
-      <c r="F55" t="s">
-        <v>197</v>
-      </c>
-      <c r="G55" t="str">
-        <f>菜单SAAS版!$E$15</f>
-        <v>iam_menu-15</v>
-      </c>
-      <c r="H55" t="str">
-        <f>菜单标签数据!$E$17</f>
-        <v>iam_label-17</v>
-      </c>
-      <c r="I55" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="56" spans="5:9">
-      <c r="E56" t="s">
-        <v>267</v>
-      </c>
-      <c r="F56" t="s">
-        <v>197</v>
-      </c>
-      <c r="G56" t="str">
-        <f>菜单SAAS版!$E$15</f>
-        <v>iam_menu-15</v>
-      </c>
-      <c r="H56" t="str">
-        <f>菜单标签数据!$E$27</f>
-        <v>iam_label-27</v>
-      </c>
-      <c r="I56" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="57" spans="5:9">
-      <c r="E57" t="s">
-        <v>267</v>
-      </c>
-      <c r="F57" t="s">
-        <v>197</v>
-      </c>
-      <c r="G57" t="str">
-        <f>菜单SAAS版!$E$15</f>
-        <v>iam_menu-15</v>
-      </c>
-      <c r="H57" t="str">
-        <f>菜单标签数据!$E$28</f>
-        <v>iam_label-28</v>
-      </c>
-      <c r="I57" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="58" spans="5:9">
-      <c r="E58" t="s">
-        <v>267</v>
-      </c>
-      <c r="F58" t="s">
-        <v>197</v>
-      </c>
-      <c r="G58" t="str">
-        <f>菜单SAAS版!$E$15</f>
-        <v>iam_menu-15</v>
-      </c>
-      <c r="H58" t="str">
-        <f>菜单标签数据!$E$29</f>
-        <v>iam_label-29</v>
-      </c>
-      <c r="I58" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="59" spans="5:9">
-      <c r="E59" t="s">
-        <v>267</v>
-      </c>
-      <c r="F59" t="s">
-        <v>197</v>
-      </c>
-      <c r="G59" t="str">
-        <f>菜单SAAS版!$E$16</f>
-        <v>iam_menu-16</v>
-      </c>
-      <c r="H59" t="str">
-        <f>菜单标签数据!$E$14</f>
-        <v>iam_label-14</v>
-      </c>
-      <c r="I59" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="60" spans="5:9">
-      <c r="E60" t="s">
-        <v>267</v>
-      </c>
-      <c r="F60" t="s">
-        <v>197</v>
-      </c>
-      <c r="G60" t="str">
-        <f>菜单SAAS版!$E$16</f>
-        <v>iam_menu-16</v>
-      </c>
-      <c r="H60" t="str">
-        <f>菜单标签数据!$E$17</f>
-        <v>iam_label-17</v>
-      </c>
-      <c r="I60" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="61" spans="5:9">
-      <c r="E61" t="s">
-        <v>267</v>
-      </c>
-      <c r="F61" t="s">
-        <v>197</v>
-      </c>
-      <c r="G61" t="str">
-        <f>菜单SAAS版!$E$16</f>
-        <v>iam_menu-16</v>
-      </c>
-      <c r="H61" t="str">
-        <f>菜单标签数据!$E$29</f>
-        <v>iam_label-29</v>
-      </c>
-      <c r="I61" t="s">
-        <v>268</v>
+      <c r="I20" t="s">
+        <v>258</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="23" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:Y30"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
   <cols>
+    <col min="5" max="5" width="17.8333333333333" customWidth="1"/>
     <col min="6" max="6" width="22.5" customWidth="1"/>
-    <col min="7" max="7" width="39.35546875" customWidth="1"/>
+    <col min="7" max="7" width="39.3541666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -6787,7 +6218,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="5:7">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -6806,10 +6237,10 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
@@ -6824,75 +6255,75 @@
         <v>55</v>
       </c>
       <c r="I7" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="J7" t="s">
-        <v>188</v>
+        <v>227</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>67</v>
       </c>
       <c r="L7" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="O7" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="P7" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="Q7" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="R7" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="S7" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="T7" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="U7" t="s">
         <v>68</v>
       </c>
       <c r="V7" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="W7" s="3" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="X7" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="Y7" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="8" spans="5:23">
       <c r="E8" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="F8" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="G8" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="H8" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="I8" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="J8" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="K8" t="s">
         <v>79</v>
@@ -6925,30 +6356,30 @@
         <v>79</v>
       </c>
       <c r="U8" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="V8" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="W8" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="5:23">
       <c r="E9" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="F9" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="G9" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="H9" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="I9" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="J9" t="s">
         <v>78</v>
@@ -6984,27 +6415,27 @@
         <v>79</v>
       </c>
       <c r="U9" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="V9" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="W9" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="5:25">
       <c r="E10" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="F10" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="G10" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="H10" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="J10" t="s">
         <v>78</v>
@@ -7041,10 +6472,10 @@
         <v>79</v>
       </c>
       <c r="U10" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="V10" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="W10" t="s">
         <v>79</v>
@@ -7053,21 +6484,21 @@
         <v>100</v>
       </c>
       <c r="Y10" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="11" spans="5:25">
       <c r="E11" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="F11" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="G11" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="H11" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="J11" t="s">
         <v>78</v>
@@ -7104,33 +6535,33 @@
         <v>79</v>
       </c>
       <c r="U11" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="V11" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="W11" t="s">
         <v>79</v>
       </c>
       <c r="X11" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="Y11" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="12" spans="5:25">
       <c r="E12" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="F12" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="G12" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="H12" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="J12" t="s">
         <v>78</v>
@@ -7167,10 +6598,10 @@
         <v>79</v>
       </c>
       <c r="U12" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="V12" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="W12" t="s">
         <v>79</v>
@@ -7179,21 +6610,21 @@
         <v>132</v>
       </c>
       <c r="Y12" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="13" spans="5:25">
       <c r="E13" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="F13" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="G13" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="H13" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="J13" t="s">
         <v>78</v>
@@ -7230,10 +6661,10 @@
         <v>79</v>
       </c>
       <c r="U13" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="V13" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="W13" t="s">
         <v>79</v>
@@ -7242,24 +6673,24 @@
         <v>128</v>
       </c>
       <c r="Y13" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="14" spans="5:23">
       <c r="E14" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="F14" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="G14" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="H14" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="J14" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="K14" t="s">
         <v>79</v>
@@ -7293,16 +6724,16 @@
         <v>79</v>
       </c>
       <c r="U14" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="V14" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="W14" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:25">
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -7310,33 +6741,33 @@
         <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="H16" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="I16" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>186</v>
+        <v>225</v>
       </c>
     </row>
     <row r="17" spans="5:10">
       <c r="E17" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="F17" t="str">
         <f>角色!$E$10</f>
@@ -7347,18 +6778,18 @@
         <v>iam_menu-10</v>
       </c>
       <c r="H17" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="I17" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="J17" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
     </row>
     <row r="18" spans="5:10">
       <c r="E18" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="F18" t="str">
         <f>角色!$E$10</f>
@@ -7369,18 +6800,18 @@
         <v>iam_menu-11</v>
       </c>
       <c r="H18" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="I18" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="J18" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
     </row>
     <row r="19" spans="5:10">
       <c r="E19" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="F19" t="str">
         <f>角色!$E$10</f>
@@ -7391,18 +6822,18 @@
         <v>iam_menu-17</v>
       </c>
       <c r="H19" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="I19" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="J19" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
     </row>
     <row r="20" spans="5:10">
       <c r="E20" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="F20" t="str">
         <f>角色!$E$10</f>
@@ -7413,18 +6844,18 @@
         <v>iam_menu-18</v>
       </c>
       <c r="H20" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="I20" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="J20" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
     </row>
     <row r="21" spans="5:10">
       <c r="E21" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="F21" t="str">
         <f>角色!$E$10</f>
@@ -7435,18 +6866,18 @@
         <v>iam_menu-19</v>
       </c>
       <c r="H21" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="I21" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="J21" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
     </row>
     <row r="22" spans="5:10">
       <c r="E22" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="F22" t="str">
         <f>角色!$E$10</f>
@@ -7457,18 +6888,18 @@
         <v>iam_menu-14</v>
       </c>
       <c r="H22" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="I22" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="J22" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
     </row>
     <row r="23" spans="5:10">
       <c r="E23" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="F23" t="str">
         <f>角色!$E$11</f>
@@ -7479,18 +6910,18 @@
         <v>iam_menu-14</v>
       </c>
       <c r="H23" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="I23" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="J23" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
     </row>
     <row r="24" spans="5:10">
       <c r="E24" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="F24" t="str">
         <f>角色!$E$12</f>
@@ -7501,18 +6932,18 @@
         <v>iam_menu-17</v>
       </c>
       <c r="H24" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="I24" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="J24" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
     </row>
     <row r="25" spans="5:10">
       <c r="E25" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="F25" t="str">
         <f>角色!$E$12</f>
@@ -7523,18 +6954,18 @@
         <v>iam_menu-19</v>
       </c>
       <c r="H25" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="I25" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="J25" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
     </row>
     <row r="26" spans="5:10">
       <c r="E26" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="F26" t="str">
         <f>角色!$E$12</f>
@@ -7545,18 +6976,18 @@
         <v>iam_menu-14</v>
       </c>
       <c r="H26" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="I26" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="J26" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
     </row>
     <row r="27" spans="5:10">
       <c r="E27" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="F27" t="str">
         <f>角色!$E$13</f>
@@ -7567,18 +6998,18 @@
         <v>iam_menu-17</v>
       </c>
       <c r="H27" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="I27" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="J27" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
     </row>
     <row r="28" spans="5:10">
       <c r="E28" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="F28" t="str">
         <f>角色!$E$13</f>
@@ -7589,18 +7020,18 @@
         <v>iam_menu-18</v>
       </c>
       <c r="H28" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="I28" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="J28" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
     </row>
     <row r="29" spans="5:10">
       <c r="E29" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="F29" t="str">
         <f>角色!$E$13</f>
@@ -7611,18 +7042,18 @@
         <v>iam_menu-19</v>
       </c>
       <c r="H29" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="I29" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="J29" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
     </row>
     <row r="30" spans="5:10">
       <c r="E30" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="F30" t="str">
         <f>角色!$E$13</f>
@@ -7633,30 +7064,36 @@
         <v>iam_menu-14</v>
       </c>
       <c r="H30" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="I30" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="J30" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="23" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
+  <cols>
+    <col min="5" max="5" width="17.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -7670,7 +7107,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="5:7">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -7689,319 +7126,319 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>183</v>
+        <v>222</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>184</v>
+        <v>223</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>185</v>
+        <v>224</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>186</v>
+        <v>225</v>
       </c>
       <c r="H7" t="s">
-        <v>187</v>
+        <v>226</v>
       </c>
       <c r="I7" t="s">
-        <v>188</v>
+        <v>227</v>
       </c>
       <c r="J7" t="s">
-        <v>189</v>
+        <v>228</v>
       </c>
       <c r="K7" t="s">
-        <v>190</v>
+        <v>229</v>
       </c>
       <c r="L7" t="s">
-        <v>191</v>
+        <v>230</v>
       </c>
       <c r="M7" t="s">
-        <v>192</v>
+        <v>231</v>
       </c>
       <c r="N7" t="s">
-        <v>193</v>
+        <v>232</v>
       </c>
       <c r="O7" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="8" spans="5:15">
       <c r="E8" t="s">
-        <v>195</v>
+        <v>234</v>
       </c>
       <c r="F8" t="s">
+        <v>345</v>
+      </c>
+      <c r="G8" t="s">
+        <v>346</v>
+      </c>
+      <c r="H8" t="s">
+        <v>82</v>
+      </c>
+      <c r="I8" t="s">
+        <v>237</v>
+      </c>
+      <c r="J8" t="s">
+        <v>347</v>
+      </c>
+      <c r="K8" t="s">
+        <v>348</v>
+      </c>
+      <c r="M8" t="s">
+        <v>79</v>
+      </c>
+      <c r="N8" t="s">
+        <v>82</v>
+      </c>
+      <c r="O8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="5:15">
+      <c r="E9" t="s">
+        <v>349</v>
+      </c>
+      <c r="F9" t="s">
+        <v>350</v>
+      </c>
+      <c r="G9" t="s">
+        <v>346</v>
+      </c>
+      <c r="H9" t="s">
+        <v>82</v>
+      </c>
+      <c r="I9" t="s">
+        <v>243</v>
+      </c>
+      <c r="J9" t="s">
+        <v>351</v>
+      </c>
+      <c r="M9" t="s">
+        <v>79</v>
+      </c>
+      <c r="N9" t="s">
+        <v>82</v>
+      </c>
+      <c r="O9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="5:15">
+      <c r="E10" t="s">
+        <v>352</v>
+      </c>
+      <c r="F10" t="s">
+        <v>353</v>
+      </c>
+      <c r="G10" t="s">
+        <v>346</v>
+      </c>
+      <c r="H10" t="s">
+        <v>82</v>
+      </c>
+      <c r="I10" t="s">
+        <v>237</v>
+      </c>
+      <c r="J10" t="s">
+        <v>354</v>
+      </c>
+      <c r="K10" t="s">
+        <v>354</v>
+      </c>
+      <c r="M10" t="s">
+        <v>79</v>
+      </c>
+      <c r="N10" t="s">
+        <v>82</v>
+      </c>
+      <c r="O10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="5:15">
+      <c r="E11" t="s">
+        <v>239</v>
+      </c>
+      <c r="F11" t="s">
         <v>355</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G11" t="s">
+        <v>346</v>
+      </c>
+      <c r="H11" t="s">
+        <v>82</v>
+      </c>
+      <c r="I11" t="s">
+        <v>237</v>
+      </c>
+      <c r="J11" t="s">
         <v>356</v>
       </c>
-      <c r="H8" t="s">
-        <v>82</v>
-      </c>
-      <c r="I8" t="s">
-        <v>198</v>
-      </c>
-      <c r="J8" t="s">
+      <c r="K11" t="s">
         <v>357</v>
       </c>
-      <c r="K8" t="s">
+      <c r="M11" t="s">
+        <v>79</v>
+      </c>
+      <c r="N11" t="s">
+        <v>82</v>
+      </c>
+      <c r="O11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="5:15">
+      <c r="E12" t="s">
+        <v>241</v>
+      </c>
+      <c r="F12" t="s">
         <v>358</v>
       </c>
-      <c r="M8" t="s">
-        <v>79</v>
-      </c>
-      <c r="N8" t="s">
-        <v>82</v>
-      </c>
-      <c r="O8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="E9" t="s">
-        <v>200</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="G12" t="s">
+        <v>346</v>
+      </c>
+      <c r="H12" t="s">
+        <v>82</v>
+      </c>
+      <c r="I12" t="s">
+        <v>237</v>
+      </c>
+      <c r="J12" t="s">
         <v>359</v>
       </c>
-      <c r="G9" t="s">
-        <v>356</v>
-      </c>
-      <c r="H9" t="s">
-        <v>82</v>
-      </c>
-      <c r="I9" t="s">
-        <v>205</v>
-      </c>
-      <c r="J9" t="s">
+      <c r="K12" t="s">
+        <v>359</v>
+      </c>
+      <c r="M12" t="s">
+        <v>79</v>
+      </c>
+      <c r="N12" t="s">
+        <v>82</v>
+      </c>
+      <c r="O12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="5:15">
+      <c r="E13" t="s">
         <v>360</v>
       </c>
-      <c r="M9" t="s">
-        <v>79</v>
-      </c>
-      <c r="N9" t="s">
-        <v>82</v>
-      </c>
-      <c r="O9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="E10" t="s">
-        <v>203</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="F13" t="s">
         <v>361</v>
       </c>
-      <c r="G10" t="s">
-        <v>356</v>
-      </c>
-      <c r="H10" t="s">
-        <v>82</v>
-      </c>
-      <c r="I10" t="s">
-        <v>198</v>
-      </c>
-      <c r="J10" t="s">
+      <c r="G13" t="s">
+        <v>346</v>
+      </c>
+      <c r="H13" t="s">
+        <v>82</v>
+      </c>
+      <c r="I13" t="s">
+        <v>237</v>
+      </c>
+      <c r="J13" t="s">
         <v>362</v>
       </c>
-      <c r="K10" t="s">
-        <v>362</v>
-      </c>
-      <c r="M10" t="s">
-        <v>79</v>
-      </c>
-      <c r="N10" t="s">
-        <v>82</v>
-      </c>
-      <c r="O10" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="E11" t="s">
-        <v>206</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="K13" t="s">
         <v>363</v>
       </c>
-      <c r="G11" t="s">
-        <v>356</v>
-      </c>
-      <c r="H11" t="s">
-        <v>82</v>
-      </c>
-      <c r="I11" t="s">
-        <v>198</v>
-      </c>
-      <c r="J11" t="s">
+      <c r="M13" t="s">
+        <v>79</v>
+      </c>
+      <c r="N13" t="s">
+        <v>82</v>
+      </c>
+      <c r="O13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="5:15">
+      <c r="E14" t="s">
         <v>364</v>
       </c>
-      <c r="K11" t="s">
+      <c r="F14" t="s">
         <v>365</v>
       </c>
-      <c r="M11" t="s">
-        <v>79</v>
-      </c>
-      <c r="N11" t="s">
-        <v>82</v>
-      </c>
-      <c r="O11" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="E12" t="s">
-        <v>208</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="G14" t="s">
+        <v>346</v>
+      </c>
+      <c r="H14" t="s">
+        <v>82</v>
+      </c>
+      <c r="I14" t="s">
+        <v>237</v>
+      </c>
+      <c r="J14" t="s">
         <v>366</v>
       </c>
-      <c r="G12" t="s">
-        <v>356</v>
-      </c>
-      <c r="H12" t="s">
-        <v>82</v>
-      </c>
-      <c r="I12" t="s">
-        <v>198</v>
-      </c>
-      <c r="J12" t="s">
+      <c r="K14" t="s">
+        <v>308</v>
+      </c>
+      <c r="M14" t="s">
+        <v>79</v>
+      </c>
+      <c r="N14" t="s">
+        <v>82</v>
+      </c>
+      <c r="O14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="5:15">
+      <c r="E15" t="s">
         <v>367</v>
       </c>
-      <c r="K12" t="s">
-        <v>367</v>
-      </c>
-      <c r="M12" t="s">
-        <v>79</v>
-      </c>
-      <c r="N12" t="s">
-        <v>82</v>
-      </c>
-      <c r="O12" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="E13" t="s">
-        <v>211</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="F15" t="s">
         <v>368</v>
       </c>
-      <c r="G13" t="s">
-        <v>356</v>
-      </c>
-      <c r="H13" t="s">
-        <v>82</v>
-      </c>
-      <c r="I13" t="s">
-        <v>198</v>
-      </c>
-      <c r="J13" t="s">
+      <c r="G15" t="s">
+        <v>346</v>
+      </c>
+      <c r="H15" t="s">
+        <v>82</v>
+      </c>
+      <c r="I15" t="s">
+        <v>237</v>
+      </c>
+      <c r="J15" t="s">
         <v>369</v>
       </c>
-      <c r="K13" t="s">
+      <c r="K15" t="s">
         <v>370</v>
       </c>
-      <c r="M13" t="s">
-        <v>79</v>
-      </c>
-      <c r="N13" t="s">
-        <v>82</v>
-      </c>
-      <c r="O13" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="E14" t="s">
-        <v>214</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="M15" t="s">
+        <v>79</v>
+      </c>
+      <c r="N15" t="s">
+        <v>82</v>
+      </c>
+      <c r="O15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="5:15">
+      <c r="E16" t="s">
         <v>371</v>
       </c>
-      <c r="G14" t="s">
-        <v>356</v>
-      </c>
-      <c r="H14" t="s">
-        <v>82</v>
-      </c>
-      <c r="I14" t="s">
-        <v>198</v>
-      </c>
-      <c r="J14" t="s">
+      <c r="F16" t="s">
         <v>372</v>
       </c>
-      <c r="K14" t="s">
-        <v>318</v>
-      </c>
-      <c r="M14" t="s">
-        <v>79</v>
-      </c>
-      <c r="N14" t="s">
-        <v>82</v>
-      </c>
-      <c r="O14" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="E15" t="s">
-        <v>217</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="G16" t="s">
+        <v>346</v>
+      </c>
+      <c r="H16" t="s">
+        <v>82</v>
+      </c>
+      <c r="I16" t="s">
+        <v>237</v>
+      </c>
+      <c r="J16" t="s">
         <v>373</v>
       </c>
-      <c r="G15" t="s">
-        <v>356</v>
-      </c>
-      <c r="H15" t="s">
-        <v>82</v>
-      </c>
-      <c r="I15" t="s">
-        <v>198</v>
-      </c>
-      <c r="J15" t="s">
+      <c r="K16" t="s">
         <v>374</v>
-      </c>
-      <c r="K15" t="s">
-        <v>375</v>
-      </c>
-      <c r="M15" t="s">
-        <v>79</v>
-      </c>
-      <c r="N15" t="s">
-        <v>82</v>
-      </c>
-      <c r="O15" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
-      <c r="E16" t="s">
-        <v>220</v>
-      </c>
-      <c r="F16" t="s">
-        <v>376</v>
-      </c>
-      <c r="G16" t="s">
-        <v>356</v>
-      </c>
-      <c r="H16" t="s">
-        <v>82</v>
-      </c>
-      <c r="I16" t="s">
-        <v>198</v>
-      </c>
-      <c r="J16" t="s">
-        <v>377</v>
-      </c>
-      <c r="K16" t="s">
-        <v>378</v>
       </c>
       <c r="M16" t="s">
         <v>79</v>
@@ -8015,25 +7452,25 @@
     </row>
     <row r="17" spans="5:15">
       <c r="E17" t="s">
-        <v>223</v>
+        <v>375</v>
       </c>
       <c r="F17" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="G17" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="H17" t="s">
         <v>82</v>
       </c>
       <c r="I17" t="s">
-        <v>198</v>
+        <v>237</v>
       </c>
       <c r="J17" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="K17" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="M17" t="s">
         <v>79</v>
@@ -8047,25 +7484,25 @@
     </row>
     <row r="18" spans="5:15">
       <c r="E18" t="s">
-        <v>226</v>
+        <v>379</v>
       </c>
       <c r="F18" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G18" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="H18" t="s">
         <v>82</v>
       </c>
       <c r="I18" t="s">
-        <v>198</v>
+        <v>237</v>
       </c>
       <c r="J18" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="K18" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="M18" t="s">
         <v>79</v>
@@ -8079,25 +7516,25 @@
     </row>
     <row r="19" spans="5:15">
       <c r="E19" t="s">
-        <v>229</v>
+        <v>382</v>
       </c>
       <c r="F19" t="s">
+        <v>383</v>
+      </c>
+      <c r="G19" t="s">
+        <v>346</v>
+      </c>
+      <c r="H19" t="s">
+        <v>82</v>
+      </c>
+      <c r="I19" t="s">
+        <v>237</v>
+      </c>
+      <c r="J19" t="s">
         <v>384</v>
       </c>
-      <c r="G19" t="s">
-        <v>356</v>
-      </c>
-      <c r="H19" t="s">
-        <v>82</v>
-      </c>
-      <c r="I19" t="s">
-        <v>198</v>
-      </c>
-      <c r="J19" t="s">
-        <v>385</v>
-      </c>
       <c r="K19" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="M19" t="s">
         <v>79</v>
@@ -8110,8 +7547,8 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="23" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/src/main/resources/script/db/init-data/hrds_code_repo/hzero_platform/hzero-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/hrds_code_repo/hzero_platform/hzero-menu-user-role-label.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="597" activeTab="4"/>
+    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="597" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="385">
   <si>
     <r>
       <rPr>
@@ -2898,12 +2898,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="42">
+  <fonts count="38">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2932,12 +2932,6 @@
       <sz val="11"/>
       <color indexed="42"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2979,21 +2973,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3006,9 +3008,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3021,8 +3038,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -3052,75 +3107,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -3129,10 +3115,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -3150,13 +3138,6 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="DengXian (正文)"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3181,17 +3162,11 @@
     <font>
       <sz val="12"/>
       <color rgb="FF548235"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF548235"/>
       <name val="DengXian"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3230,7 +3205,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3242,7 +3247,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3254,25 +3343,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3284,133 +3373,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3517,17 +3486,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3537,6 +3500,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3585,31 +3563,22 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -3620,10 +3589,10 @@
     <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3632,31 +3601,37 @@
     <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3665,111 +3640,105 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="29" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="28" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3777,46 +3746,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3829,7 +3797,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -4235,7 +4203,7 @@
     <col min="1" max="1" width="15.5694444444444" style="7" customWidth="1"/>
     <col min="2" max="2" width="10.3541666666667" style="8" customWidth="1"/>
     <col min="3" max="3" width="28.1388888888889" customWidth="1"/>
-    <col min="4" max="4" width="35.3541666666667" style="9" customWidth="1"/>
+    <col min="4" max="4" width="35.3541666666667" style="5" customWidth="1"/>
     <col min="5" max="5" width="38.5694444444444" customWidth="1"/>
     <col min="6" max="6" width="23.4236111111111" customWidth="1"/>
     <col min="7" max="7" width="21.5694444444444" customWidth="1"/>
@@ -4249,79 +4217,79 @@
   </cols>
   <sheetData>
     <row r="1" ht="64.5" customHeight="1" spans="1:8">
-      <c r="A1" s="10"/>
-      <c r="C1" s="11" t="s">
+      <c r="A1" s="9"/>
+      <c r="C1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
     </row>
     <row r="2" spans="5:5">
-      <c r="E2" s="13"/>
+      <c r="E2" s="12"/>
     </row>
     <row r="3" ht="49.5" customHeight="1" spans="3:7">
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="15" t="s">
+      <c r="D3" s="13"/>
+      <c r="E3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
     </row>
     <row r="4" spans="3:7">
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="17" t="s">
+      <c r="D4" s="15"/>
+      <c r="E4" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="18" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="10"/>
+      <c r="A5" s="9"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="3:5">
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="21" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="3:5">
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="25"/>
+      <c r="E8" s="24"/>
     </row>
     <row r="9" ht="52.2" spans="3:6">
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="D9" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="28" t="s">
+      <c r="E9" s="27" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
@@ -4329,56 +4297,56 @@
       </c>
     </row>
     <row r="10" ht="52.2" spans="3:5">
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="D10" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="28" t="s">
+      <c r="E10" s="27" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" ht="69.6" spans="3:5">
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="D11" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="28" t="s">
+      <c r="E11" s="27" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="3:5">
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="27" t="s">
+      <c r="D12" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="30" t="s">
+      <c r="E12" s="29" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="3:5">
-      <c r="C13" s="23"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="25"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="24"/>
     </row>
     <row r="14" spans="3:5">
-      <c r="C14" s="23"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="25"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="24"/>
     </row>
     <row r="15" ht="34.8" spans="3:5">
-      <c r="C15" s="31" t="s">
+      <c r="C15" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="32" t="s">
+      <c r="D15" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="33" t="s">
+      <c r="E15" s="32" t="s">
         <v>28</v>
       </c>
     </row>
@@ -4388,64 +4356,64 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="34" t="s">
+      <c r="C19" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
     </row>
     <row r="20" spans="3:4">
-      <c r="C20" s="35" t="s">
+      <c r="C20" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="12" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="21" spans="3:4">
-      <c r="C21" s="35" t="s">
+      <c r="C21" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="12" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="22" spans="3:4">
-      <c r="C22" s="35" t="s">
+      <c r="C22" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="23" spans="3:4">
-      <c r="C23" s="35" t="s">
+      <c r="C23" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="5" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="36" t="s">
+      <c r="C25" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="14" t="s">
+      <c r="D25" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="14"/>
+      <c r="E25" s="13"/>
     </row>
     <row r="26" ht="14.25" customHeight="1" spans="3:5">
-      <c r="C26" s="24" t="s">
+      <c r="C26" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="14" t="s">
+      <c r="D26" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="14"/>
+      <c r="E26" s="13"/>
     </row>
     <row r="27" ht="52.2" spans="3:3">
-      <c r="C27" s="37" t="s">
+      <c r="C27" s="36" t="s">
         <v>43</v>
       </c>
     </row>
@@ -5802,10 +5770,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O20"/>
+  <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView topLeftCell="F4" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
@@ -6182,6 +6150,63 @@
         <v>258</v>
       </c>
     </row>
+    <row r="21" customFormat="1" spans="5:9">
+      <c r="E21" t="s">
+        <v>257</v>
+      </c>
+      <c r="F21" t="s">
+        <v>236</v>
+      </c>
+      <c r="G21" t="str">
+        <f>菜单SAAS版!E9</f>
+        <v>iam_menu-9</v>
+      </c>
+      <c r="H21" t="str">
+        <f>E12</f>
+        <v>iam_label-21</v>
+      </c>
+      <c r="I21" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="22" customFormat="1" spans="5:9">
+      <c r="E22" t="s">
+        <v>257</v>
+      </c>
+      <c r="F22" t="s">
+        <v>236</v>
+      </c>
+      <c r="G22" t="str">
+        <f>菜单SAAS版!E13</f>
+        <v>iam_menu-13</v>
+      </c>
+      <c r="H22" t="str">
+        <f>E12</f>
+        <v>iam_label-21</v>
+      </c>
+      <c r="I22" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="23" customFormat="1" spans="5:9">
+      <c r="E23" t="s">
+        <v>257</v>
+      </c>
+      <c r="F23" t="s">
+        <v>236</v>
+      </c>
+      <c r="G23" t="str">
+        <f>菜单SAAS版!E16</f>
+        <v>iam_menu-16</v>
+      </c>
+      <c r="H23" t="str">
+        <f>E12</f>
+        <v>iam_label-21</v>
+      </c>
+      <c r="I23" t="s">
+        <v>258</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -6193,7 +6218,7 @@
   <sheetPr/>
   <dimension ref="A1:Y30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>

--- a/src/main/resources/script/db/init-data/hrds_code_repo/hzero_platform/hzero-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/hrds_code_repo/hzero_platform/hzero-menu-user-role-label.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="384">
   <si>
     <r>
       <rPr>
@@ -2090,9 +2090,6 @@
   </si>
   <si>
     <t>choerodon.code.project.infra</t>
-  </si>
-  <si>
-    <t>8</t>
   </si>
   <si>
     <t>iam_menu-16</t>
@@ -2898,10 +2895,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="38">
     <font>
@@ -2972,15 +2969,31 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2995,7 +3008,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3004,28 +3017,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3038,23 +3035,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3068,8 +3051,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -3085,7 +3076,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3093,7 +3084,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3107,17 +3106,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3205,7 +3202,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3217,13 +3298,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3235,55 +3322,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3295,37 +3346,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3337,49 +3376,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3486,24 +3483,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -3520,16 +3499,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3563,6 +3551,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -3570,164 +3567,164 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="29" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -4438,13 +4435,14 @@
   <sheetPr/>
   <dimension ref="A1:Y19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="$A16:$XFD16"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
   <cols>
-    <col min="6" max="6" width="20" customWidth="1"/>
+    <col min="5" max="5" width="16.6666666666667" customWidth="1"/>
+    <col min="6" max="6" width="42.0833333333333" customWidth="1"/>
     <col min="7" max="7" width="15.25" customWidth="1"/>
     <col min="16" max="16" width="45.8541666666667" customWidth="1"/>
   </cols>
@@ -4925,8 +4923,8 @@
       <c r="L15" t="s">
         <v>80</v>
       </c>
-      <c r="M15" t="s">
-        <v>118</v>
+      <c r="M15">
+        <v>90</v>
       </c>
       <c r="N15" t="s">
         <v>82</v>
@@ -4952,10 +4950,10 @@
     </row>
     <row r="16" spans="5:24">
       <c r="E16" t="s">
+        <v>118</v>
+      </c>
+      <c r="F16" t="s">
         <v>119</v>
-      </c>
-      <c r="F16" t="s">
-        <v>120</v>
       </c>
       <c r="G16" t="s">
         <v>86</v>
@@ -4983,16 +4981,16 @@
         <v>89</v>
       </c>
       <c r="P16" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>79</v>
+      </c>
+      <c r="R16" t="s">
+        <v>79</v>
+      </c>
+      <c r="S16" t="s">
         <v>121</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>79</v>
-      </c>
-      <c r="R16" t="s">
-        <v>79</v>
-      </c>
-      <c r="S16" t="s">
-        <v>122</v>
       </c>
       <c r="T16" t="s">
         <v>79</v>
@@ -5006,10 +5004,10 @@
     </row>
     <row r="17" spans="5:24">
       <c r="E17" t="s">
+        <v>122</v>
+      </c>
+      <c r="F17" t="s">
         <v>123</v>
-      </c>
-      <c r="F17" t="s">
-        <v>124</v>
       </c>
       <c r="G17" t="s">
         <v>94</v>
@@ -5040,7 +5038,7 @@
         <v>79</v>
       </c>
       <c r="S17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="T17" t="s">
         <v>79</v>
@@ -5057,16 +5055,16 @@
     </row>
     <row r="18" spans="5:24">
       <c r="E18" t="s">
+        <v>125</v>
+      </c>
+      <c r="F18" t="s">
         <v>126</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>127</v>
       </c>
-      <c r="G18" t="s">
-        <v>128</v>
-      </c>
       <c r="H18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J18" t="s">
         <v>78</v>
@@ -5091,7 +5089,7 @@
         <v>79</v>
       </c>
       <c r="S18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="T18" t="s">
         <v>79</v>
@@ -5105,16 +5103,16 @@
     </row>
     <row r="19" spans="5:24">
       <c r="E19" t="s">
+        <v>129</v>
+      </c>
+      <c r="F19" t="s">
         <v>130</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>131</v>
       </c>
-      <c r="G19" t="s">
-        <v>132</v>
-      </c>
       <c r="H19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J19" t="s">
         <v>78</v>
@@ -5139,7 +5137,7 @@
         <v>79</v>
       </c>
       <c r="S19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="T19" t="s">
         <v>79</v>
@@ -5206,559 +5204,559 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
+        <v>133</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>135</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>136</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="8" spans="5:7">
       <c r="E8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F8" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="5:7">
       <c r="E9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F9" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="5:7">
       <c r="E10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F10" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="5:7">
       <c r="E11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F11" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12" spans="5:7">
       <c r="E12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F12" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13" spans="5:7">
       <c r="E13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F13" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-18</v>
       </c>
       <c r="G13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14" spans="5:7">
       <c r="E14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F14" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-18</v>
       </c>
       <c r="G14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="5:7">
       <c r="E15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F15" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-18</v>
       </c>
       <c r="G15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16" spans="5:7">
       <c r="E16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F16" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-18</v>
       </c>
       <c r="G16" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17" spans="5:7">
       <c r="E17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F17" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-18</v>
       </c>
       <c r="G17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18" spans="5:7">
       <c r="E18" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F18" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-18</v>
       </c>
       <c r="G18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="19" spans="5:7">
       <c r="E19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F19" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-18</v>
       </c>
       <c r="G19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20" spans="5:7">
       <c r="E20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F20" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="21" spans="5:7">
       <c r="E21" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F21" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G21" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="22" spans="5:7">
       <c r="E22" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F22" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="23" spans="5:7">
       <c r="E23" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F23" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="5:7">
       <c r="E24" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F24" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G24" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="25" spans="5:7">
       <c r="E25" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F25" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G25" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="26" spans="5:7">
       <c r="E26" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F26" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G26" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="27" spans="5:7">
       <c r="E27" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F27" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G27" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="28" spans="5:7">
       <c r="E28" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F28" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G28" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="29" spans="5:7">
       <c r="E29" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F29" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G29" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="30" spans="5:7">
       <c r="E30" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F30" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G30" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="31" spans="5:7">
       <c r="E31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F31" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G31" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="32" spans="5:7">
       <c r="E32" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F32" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G32" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="33" spans="5:7">
       <c r="E33" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F33" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G33" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="34" spans="5:7">
       <c r="E34" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F34" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G34" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="35" spans="5:7">
       <c r="E35" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F35" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G35" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="36" spans="5:7">
       <c r="E36" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F36" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G36" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="37" spans="5:7">
       <c r="E37" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F37" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G37" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="38" spans="5:7">
       <c r="E38" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F38" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G38" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="39" spans="5:7">
       <c r="E39" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F39" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G39" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="40" spans="5:7">
       <c r="E40" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F40" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G40" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="41" spans="5:7">
       <c r="E41" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F41" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G41" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="42" spans="5:7">
       <c r="E42" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F42" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G42" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="43" spans="5:7">
       <c r="E43" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F43" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G43" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="44" spans="5:7">
       <c r="E44" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F44" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G44" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="45" spans="5:7">
       <c r="E45" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F45" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G45" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="46" spans="5:7">
       <c r="E46" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F46" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G46" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="47" spans="5:7">
       <c r="E47" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F47" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G47" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="48" spans="5:7">
       <c r="E48" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F48" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G48" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="49" spans="5:7">
       <c r="E49" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F49" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G49" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="50" spans="5:7">
       <c r="E50" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F50" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G50" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="51" spans="5:7">
       <c r="E51" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F51" t="str">
         <f>菜单SAAS版!$E$19</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G51" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="52" spans="5:7">
       <c r="E52" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F52" s="6" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -5770,10 +5768,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O23"/>
+  <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
@@ -5820,66 +5818,66 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
+        <v>221</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>222</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>223</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="H7" t="s">
         <v>225</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>226</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>227</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>228</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>229</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>230</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>231</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>232</v>
-      </c>
-      <c r="O7" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="8" spans="5:15">
       <c r="E8" t="s">
+        <v>233</v>
+      </c>
+      <c r="F8" t="s">
         <v>234</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>235</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
+        <v>82</v>
+      </c>
+      <c r="I8" t="s">
         <v>236</v>
       </c>
-      <c r="H8" t="s">
-        <v>82</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>237</v>
       </c>
-      <c r="J8" t="s">
-        <v>238</v>
-      </c>
       <c r="K8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="M8" t="s">
         <v>82</v>
@@ -5893,19 +5891,19 @@
     </row>
     <row r="9" spans="5:15">
       <c r="E9" t="s">
+        <v>238</v>
+      </c>
+      <c r="F9" t="s">
         <v>239</v>
       </c>
-      <c r="F9" t="s">
-        <v>240</v>
-      </c>
       <c r="G9" t="s">
+        <v>235</v>
+      </c>
+      <c r="H9" t="s">
+        <v>82</v>
+      </c>
+      <c r="I9" t="s">
         <v>236</v>
-      </c>
-      <c r="H9" t="s">
-        <v>82</v>
-      </c>
-      <c r="I9" t="s">
-        <v>237</v>
       </c>
       <c r="M9" t="s">
         <v>79</v>
@@ -5919,25 +5917,25 @@
     </row>
     <row r="10" spans="5:15">
       <c r="E10" t="s">
+        <v>240</v>
+      </c>
+      <c r="F10" t="s">
         <v>241</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
+        <v>235</v>
+      </c>
+      <c r="H10" t="s">
+        <v>82</v>
+      </c>
+      <c r="I10" t="s">
         <v>242</v>
       </c>
-      <c r="G10" t="s">
-        <v>236</v>
-      </c>
-      <c r="H10" t="s">
-        <v>82</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>243</v>
       </c>
-      <c r="J10" t="s">
-        <v>244</v>
-      </c>
       <c r="K10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="M10" t="s">
         <v>82</v>
@@ -5951,19 +5949,19 @@
     </row>
     <row r="11" spans="5:15">
       <c r="E11" t="s">
+        <v>244</v>
+      </c>
+      <c r="F11" t="s">
         <v>245</v>
       </c>
-      <c r="F11" t="s">
-        <v>246</v>
-      </c>
       <c r="G11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H11" t="s">
         <v>82</v>
       </c>
       <c r="I11" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M11" t="s">
         <v>82</v>
@@ -5977,25 +5975,25 @@
     </row>
     <row r="12" spans="5:15">
       <c r="E12" t="s">
+        <v>246</v>
+      </c>
+      <c r="F12" t="s">
         <v>247</v>
       </c>
-      <c r="F12" t="s">
-        <v>248</v>
-      </c>
       <c r="G12" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H12">
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -6015,33 +6013,33 @@
         <v>51</v>
       </c>
       <c r="C14" t="s">
+        <v>249</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="F14" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="H14" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="I14" t="s">
         <v>255</v>
-      </c>
-      <c r="I14" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="15" spans="5:9">
       <c r="E15" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F15" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G15" t="str">
         <f>菜单SAAS版!$E$12</f>
@@ -6052,15 +6050,15 @@
         <v>iam_label-11</v>
       </c>
       <c r="I15" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="16" spans="5:9">
       <c r="E16" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F16" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G16" t="str">
         <f>菜单SAAS版!$E$8</f>
@@ -6071,15 +6069,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I16" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="17" spans="5:9">
       <c r="E17" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F17" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G17" t="str">
         <f>菜单SAAS版!$E$9</f>
@@ -6090,15 +6088,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I17" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="18" spans="5:9">
       <c r="E18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F18" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G18" t="str">
         <f>菜单SAAS版!$E$10</f>
@@ -6109,15 +6107,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="19" spans="5:9">
       <c r="E19" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F19" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G19" t="str">
         <f>菜单SAAS版!$E$11</f>
@@ -6128,15 +6126,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I19" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="20" spans="5:9">
       <c r="E20" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F20" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G20" t="str">
         <f>菜单SAAS版!$E$13</f>
@@ -6147,64 +6145,45 @@
         <v>iam_label-11</v>
       </c>
       <c r="I20" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="21" customFormat="1" spans="5:9">
       <c r="E21" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F21" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G21" t="str">
-        <f>菜单SAAS版!E9</f>
-        <v>iam_menu-9</v>
+        <f>菜单SAAS版!E15</f>
+        <v>iam_menu-15</v>
       </c>
       <c r="H21" t="str">
         <f>E12</f>
         <v>iam_label-21</v>
       </c>
       <c r="I21" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="22" customFormat="1" spans="5:9">
       <c r="E22" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F22" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G22" t="str">
-        <f>菜单SAAS版!E13</f>
-        <v>iam_menu-13</v>
+        <f>菜单SAAS版!E16</f>
+        <v>iam_menu-16</v>
       </c>
       <c r="H22" t="str">
         <f>E12</f>
         <v>iam_label-21</v>
       </c>
       <c r="I22" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="23" customFormat="1" spans="5:9">
-      <c r="E23" t="s">
         <v>257</v>
-      </c>
-      <c r="F23" t="s">
-        <v>236</v>
-      </c>
-      <c r="G23" t="str">
-        <f>菜单SAAS版!E16</f>
-        <v>iam_menu-16</v>
-      </c>
-      <c r="H23" t="str">
-        <f>E12</f>
-        <v>iam_label-21</v>
-      </c>
-      <c r="I23" t="s">
-        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -6262,10 +6241,10 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
+        <v>259</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>260</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>261</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
@@ -6280,75 +6259,75 @@
         <v>55</v>
       </c>
       <c r="I7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="J7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>67</v>
       </c>
       <c r="L7" t="s">
+        <v>262</v>
+      </c>
+      <c r="M7" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="M7" s="3" t="s">
+      <c r="N7" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="N7" s="3" t="s">
+      <c r="O7" t="s">
         <v>265</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>266</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>267</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>268</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>269</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>270</v>
-      </c>
-      <c r="T7" t="s">
-        <v>271</v>
       </c>
       <c r="U7" t="s">
         <v>68</v>
       </c>
       <c r="V7" t="s">
+        <v>271</v>
+      </c>
+      <c r="W7" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="W7" s="3" t="s">
+      <c r="X7" t="s">
         <v>273</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>274</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="8" spans="5:23">
       <c r="E8" t="s">
+        <v>275</v>
+      </c>
+      <c r="F8" t="s">
         <v>276</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>277</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>278</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>279</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>280</v>
-      </c>
-      <c r="J8" t="s">
-        <v>281</v>
       </c>
       <c r="K8" t="s">
         <v>79</v>
@@ -6381,10 +6360,10 @@
         <v>79</v>
       </c>
       <c r="U8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="V8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="W8" t="s">
         <v>79</v>
@@ -6392,19 +6371,19 @@
     </row>
     <row r="9" spans="5:23">
       <c r="E9" t="s">
+        <v>281</v>
+      </c>
+      <c r="F9" t="s">
         <v>282</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>283</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>284</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>285</v>
-      </c>
-      <c r="I9" t="s">
-        <v>286</v>
       </c>
       <c r="J9" t="s">
         <v>78</v>
@@ -6440,10 +6419,10 @@
         <v>79</v>
       </c>
       <c r="U9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="V9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="W9" t="s">
         <v>79</v>
@@ -6451,16 +6430,16 @@
     </row>
     <row r="10" spans="5:25">
       <c r="E10" t="s">
+        <v>286</v>
+      </c>
+      <c r="F10" t="s">
         <v>287</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>288</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>289</v>
-      </c>
-      <c r="H10" t="s">
-        <v>290</v>
       </c>
       <c r="J10" t="s">
         <v>78</v>
@@ -6497,10 +6476,10 @@
         <v>79</v>
       </c>
       <c r="U10" t="s">
+        <v>290</v>
+      </c>
+      <c r="V10" t="s">
         <v>291</v>
-      </c>
-      <c r="V10" t="s">
-        <v>292</v>
       </c>
       <c r="W10" t="s">
         <v>79</v>
@@ -6509,21 +6488,21 @@
         <v>100</v>
       </c>
       <c r="Y10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="11" spans="5:25">
       <c r="E11" t="s">
+        <v>293</v>
+      </c>
+      <c r="F11" t="s">
         <v>294</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>295</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>296</v>
-      </c>
-      <c r="H11" t="s">
-        <v>297</v>
       </c>
       <c r="J11" t="s">
         <v>78</v>
@@ -6560,33 +6539,33 @@
         <v>79</v>
       </c>
       <c r="U11" t="s">
+        <v>297</v>
+      </c>
+      <c r="V11" t="s">
         <v>298</v>
       </c>
-      <c r="V11" t="s">
+      <c r="W11" t="s">
+        <v>79</v>
+      </c>
+      <c r="X11" t="s">
         <v>299</v>
       </c>
-      <c r="W11" t="s">
-        <v>79</v>
-      </c>
-      <c r="X11" t="s">
+      <c r="Y11" t="s">
         <v>300</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="12" spans="5:25">
       <c r="E12" t="s">
+        <v>301</v>
+      </c>
+      <c r="F12" t="s">
         <v>302</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>303</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>304</v>
-      </c>
-      <c r="H12" t="s">
-        <v>305</v>
       </c>
       <c r="J12" t="s">
         <v>78</v>
@@ -6623,33 +6602,33 @@
         <v>79</v>
       </c>
       <c r="U12" t="s">
+        <v>305</v>
+      </c>
+      <c r="V12" t="s">
         <v>306</v>
       </c>
-      <c r="V12" t="s">
+      <c r="W12" t="s">
+        <v>79</v>
+      </c>
+      <c r="X12" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y12" t="s">
         <v>307</v>
-      </c>
-      <c r="W12" t="s">
-        <v>79</v>
-      </c>
-      <c r="X12" t="s">
-        <v>132</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="13" spans="5:25">
       <c r="E13" t="s">
+        <v>308</v>
+      </c>
+      <c r="F13" t="s">
         <v>309</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>310</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>311</v>
-      </c>
-      <c r="H13" t="s">
-        <v>312</v>
       </c>
       <c r="J13" t="s">
         <v>78</v>
@@ -6686,36 +6665,36 @@
         <v>79</v>
       </c>
       <c r="U13" t="s">
+        <v>312</v>
+      </c>
+      <c r="V13" t="s">
         <v>313</v>
       </c>
-      <c r="V13" t="s">
+      <c r="W13" t="s">
+        <v>79</v>
+      </c>
+      <c r="X13" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y13" t="s">
         <v>314</v>
-      </c>
-      <c r="W13" t="s">
-        <v>79</v>
-      </c>
-      <c r="X13" t="s">
-        <v>128</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="14" spans="5:23">
       <c r="E14" t="s">
+        <v>315</v>
+      </c>
+      <c r="F14" t="s">
         <v>316</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
+        <v>316</v>
+      </c>
+      <c r="H14" t="s">
         <v>317</v>
       </c>
-      <c r="G14" t="s">
-        <v>317</v>
-      </c>
-      <c r="H14" t="s">
-        <v>318</v>
-      </c>
       <c r="J14" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K14" t="s">
         <v>79</v>
@@ -6749,10 +6728,10 @@
         <v>79</v>
       </c>
       <c r="U14" t="s">
+        <v>318</v>
+      </c>
+      <c r="V14" t="s">
         <v>319</v>
-      </c>
-      <c r="V14" t="s">
-        <v>320</v>
       </c>
       <c r="W14" t="s">
         <v>79</v>
@@ -6766,33 +6745,33 @@
         <v>51</v>
       </c>
       <c r="C16" t="s">
+        <v>320</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>321</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>322</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F16" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="G16" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="H16" t="s">
         <v>324</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>325</v>
       </c>
-      <c r="I16" t="s">
-        <v>326</v>
-      </c>
       <c r="J16" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="17" spans="5:10">
       <c r="E17" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F17" t="str">
         <f>角色!$E$10</f>
@@ -6803,18 +6782,18 @@
         <v>iam_menu-10</v>
       </c>
       <c r="H17" t="s">
+        <v>327</v>
+      </c>
+      <c r="I17" t="s">
         <v>328</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>329</v>
-      </c>
-      <c r="J17" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="18" spans="5:10">
       <c r="E18" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F18" t="str">
         <f>角色!$E$10</f>
@@ -6825,18 +6804,18 @@
         <v>iam_menu-11</v>
       </c>
       <c r="H18" t="s">
+        <v>327</v>
+      </c>
+      <c r="I18" t="s">
         <v>328</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>329</v>
-      </c>
-      <c r="J18" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="19" spans="5:10">
       <c r="E19" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F19" t="str">
         <f>角色!$E$10</f>
@@ -6847,18 +6826,18 @@
         <v>iam_menu-17</v>
       </c>
       <c r="H19" t="s">
+        <v>327</v>
+      </c>
+      <c r="I19" t="s">
         <v>328</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>329</v>
-      </c>
-      <c r="J19" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="20" spans="5:10">
       <c r="E20" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F20" t="str">
         <f>角色!$E$10</f>
@@ -6869,18 +6848,18 @@
         <v>iam_menu-18</v>
       </c>
       <c r="H20" t="s">
+        <v>327</v>
+      </c>
+      <c r="I20" t="s">
         <v>328</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>329</v>
-      </c>
-      <c r="J20" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="21" spans="5:10">
       <c r="E21" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F21" t="str">
         <f>角色!$E$10</f>
@@ -6891,18 +6870,18 @@
         <v>iam_menu-19</v>
       </c>
       <c r="H21" t="s">
+        <v>327</v>
+      </c>
+      <c r="I21" t="s">
         <v>328</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>329</v>
-      </c>
-      <c r="J21" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="22" spans="5:10">
       <c r="E22" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F22" t="str">
         <f>角色!$E$10</f>
@@ -6913,18 +6892,18 @@
         <v>iam_menu-14</v>
       </c>
       <c r="H22" t="s">
+        <v>327</v>
+      </c>
+      <c r="I22" t="s">
         <v>328</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>329</v>
-      </c>
-      <c r="J22" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="23" spans="5:10">
       <c r="E23" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F23" t="str">
         <f>角色!$E$11</f>
@@ -6935,18 +6914,18 @@
         <v>iam_menu-14</v>
       </c>
       <c r="H23" t="s">
+        <v>327</v>
+      </c>
+      <c r="I23" t="s">
         <v>328</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>329</v>
-      </c>
-      <c r="J23" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="24" spans="5:10">
       <c r="E24" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F24" t="str">
         <f>角色!$E$12</f>
@@ -6957,18 +6936,18 @@
         <v>iam_menu-17</v>
       </c>
       <c r="H24" t="s">
+        <v>327</v>
+      </c>
+      <c r="I24" t="s">
         <v>328</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>329</v>
-      </c>
-      <c r="J24" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="25" spans="5:10">
       <c r="E25" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F25" t="str">
         <f>角色!$E$12</f>
@@ -6979,18 +6958,18 @@
         <v>iam_menu-19</v>
       </c>
       <c r="H25" t="s">
+        <v>327</v>
+      </c>
+      <c r="I25" t="s">
         <v>328</v>
       </c>
-      <c r="I25" t="s">
+      <c r="J25" t="s">
         <v>329</v>
-      </c>
-      <c r="J25" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="26" spans="5:10">
       <c r="E26" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F26" t="str">
         <f>角色!$E$12</f>
@@ -7001,18 +6980,18 @@
         <v>iam_menu-14</v>
       </c>
       <c r="H26" t="s">
+        <v>327</v>
+      </c>
+      <c r="I26" t="s">
         <v>328</v>
       </c>
-      <c r="I26" t="s">
+      <c r="J26" t="s">
         <v>329</v>
-      </c>
-      <c r="J26" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="27" spans="5:10">
       <c r="E27" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F27" t="str">
         <f>角色!$E$13</f>
@@ -7023,18 +7002,18 @@
         <v>iam_menu-17</v>
       </c>
       <c r="H27" t="s">
+        <v>327</v>
+      </c>
+      <c r="I27" t="s">
         <v>328</v>
       </c>
-      <c r="I27" t="s">
+      <c r="J27" t="s">
         <v>329</v>
-      </c>
-      <c r="J27" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="28" spans="5:10">
       <c r="E28" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F28" t="str">
         <f>角色!$E$13</f>
@@ -7045,18 +7024,18 @@
         <v>iam_menu-18</v>
       </c>
       <c r="H28" t="s">
+        <v>327</v>
+      </c>
+      <c r="I28" t="s">
         <v>328</v>
       </c>
-      <c r="I28" t="s">
+      <c r="J28" t="s">
         <v>329</v>
-      </c>
-      <c r="J28" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="29" spans="5:10">
       <c r="E29" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F29" t="str">
         <f>角色!$E$13</f>
@@ -7067,18 +7046,18 @@
         <v>iam_menu-19</v>
       </c>
       <c r="H29" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="I29" t="s">
+        <v>328</v>
+      </c>
+      <c r="J29" t="s">
         <v>329</v>
-      </c>
-      <c r="J29" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="30" spans="5:10">
       <c r="E30" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F30" t="str">
         <f>角色!$E$13</f>
@@ -7089,13 +7068,13 @@
         <v>iam_menu-14</v>
       </c>
       <c r="H30" t="s">
+        <v>327</v>
+      </c>
+      <c r="I30" t="s">
         <v>328</v>
       </c>
-      <c r="I30" t="s">
+      <c r="J30" t="s">
         <v>329</v>
-      </c>
-      <c r="J30" t="s">
-        <v>330</v>
       </c>
     </row>
   </sheetData>
@@ -7151,66 +7130,66 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
+        <v>221</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>222</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>223</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="H7" t="s">
         <v>225</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>226</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>227</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>228</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>229</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>230</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>231</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>232</v>
-      </c>
-      <c r="O7" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="8" spans="5:15">
       <c r="E8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F8" t="s">
+        <v>344</v>
+      </c>
+      <c r="G8" t="s">
         <v>345</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
+        <v>82</v>
+      </c>
+      <c r="I8" t="s">
+        <v>236</v>
+      </c>
+      <c r="J8" t="s">
         <v>346</v>
       </c>
-      <c r="H8" t="s">
-        <v>82</v>
-      </c>
-      <c r="I8" t="s">
-        <v>237</v>
-      </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>347</v>
-      </c>
-      <c r="K8" t="s">
-        <v>348</v>
       </c>
       <c r="M8" t="s">
         <v>79</v>
@@ -7224,22 +7203,22 @@
     </row>
     <row r="9" spans="5:15">
       <c r="E9" t="s">
+        <v>348</v>
+      </c>
+      <c r="F9" t="s">
         <v>349</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
+        <v>345</v>
+      </c>
+      <c r="H9" t="s">
+        <v>82</v>
+      </c>
+      <c r="I9" t="s">
+        <v>242</v>
+      </c>
+      <c r="J9" t="s">
         <v>350</v>
-      </c>
-      <c r="G9" t="s">
-        <v>346</v>
-      </c>
-      <c r="H9" t="s">
-        <v>82</v>
-      </c>
-      <c r="I9" t="s">
-        <v>243</v>
-      </c>
-      <c r="J9" t="s">
-        <v>351</v>
       </c>
       <c r="M9" t="s">
         <v>79</v>
@@ -7253,25 +7232,25 @@
     </row>
     <row r="10" spans="5:15">
       <c r="E10" t="s">
+        <v>351</v>
+      </c>
+      <c r="F10" t="s">
         <v>352</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
+        <v>345</v>
+      </c>
+      <c r="H10" t="s">
+        <v>82</v>
+      </c>
+      <c r="I10" t="s">
+        <v>236</v>
+      </c>
+      <c r="J10" t="s">
         <v>353</v>
       </c>
-      <c r="G10" t="s">
-        <v>346</v>
-      </c>
-      <c r="H10" t="s">
-        <v>82</v>
-      </c>
-      <c r="I10" t="s">
-        <v>237</v>
-      </c>
-      <c r="J10" t="s">
-        <v>354</v>
-      </c>
       <c r="K10" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M10" t="s">
         <v>79</v>
@@ -7285,25 +7264,25 @@
     </row>
     <row r="11" spans="5:15">
       <c r="E11" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F11" t="s">
+        <v>354</v>
+      </c>
+      <c r="G11" t="s">
+        <v>345</v>
+      </c>
+      <c r="H11" t="s">
+        <v>82</v>
+      </c>
+      <c r="I11" t="s">
+        <v>236</v>
+      </c>
+      <c r="J11" t="s">
         <v>355</v>
       </c>
-      <c r="G11" t="s">
-        <v>346</v>
-      </c>
-      <c r="H11" t="s">
-        <v>82</v>
-      </c>
-      <c r="I11" t="s">
-        <v>237</v>
-      </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>356</v>
-      </c>
-      <c r="K11" t="s">
-        <v>357</v>
       </c>
       <c r="M11" t="s">
         <v>79</v>
@@ -7317,25 +7296,25 @@
     </row>
     <row r="12" spans="5:15">
       <c r="E12" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F12" t="s">
+        <v>357</v>
+      </c>
+      <c r="G12" t="s">
+        <v>345</v>
+      </c>
+      <c r="H12" t="s">
+        <v>82</v>
+      </c>
+      <c r="I12" t="s">
+        <v>236</v>
+      </c>
+      <c r="J12" t="s">
         <v>358</v>
       </c>
-      <c r="G12" t="s">
-        <v>346</v>
-      </c>
-      <c r="H12" t="s">
-        <v>82</v>
-      </c>
-      <c r="I12" t="s">
-        <v>237</v>
-      </c>
-      <c r="J12" t="s">
-        <v>359</v>
-      </c>
       <c r="K12" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="M12" t="s">
         <v>79</v>
@@ -7349,25 +7328,25 @@
     </row>
     <row r="13" spans="5:15">
       <c r="E13" t="s">
+        <v>359</v>
+      </c>
+      <c r="F13" t="s">
         <v>360</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
+        <v>345</v>
+      </c>
+      <c r="H13" t="s">
+        <v>82</v>
+      </c>
+      <c r="I13" t="s">
+        <v>236</v>
+      </c>
+      <c r="J13" t="s">
         <v>361</v>
       </c>
-      <c r="G13" t="s">
-        <v>346</v>
-      </c>
-      <c r="H13" t="s">
-        <v>82</v>
-      </c>
-      <c r="I13" t="s">
-        <v>237</v>
-      </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>362</v>
-      </c>
-      <c r="K13" t="s">
-        <v>363</v>
       </c>
       <c r="M13" t="s">
         <v>79</v>
@@ -7381,25 +7360,25 @@
     </row>
     <row r="14" spans="5:15">
       <c r="E14" t="s">
+        <v>363</v>
+      </c>
+      <c r="F14" t="s">
         <v>364</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
+        <v>345</v>
+      </c>
+      <c r="H14" t="s">
+        <v>82</v>
+      </c>
+      <c r="I14" t="s">
+        <v>236</v>
+      </c>
+      <c r="J14" t="s">
         <v>365</v>
       </c>
-      <c r="G14" t="s">
-        <v>346</v>
-      </c>
-      <c r="H14" t="s">
-        <v>82</v>
-      </c>
-      <c r="I14" t="s">
-        <v>237</v>
-      </c>
-      <c r="J14" t="s">
-        <v>366</v>
-      </c>
       <c r="K14" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M14" t="s">
         <v>79</v>
@@ -7413,25 +7392,25 @@
     </row>
     <row r="15" spans="5:15">
       <c r="E15" t="s">
+        <v>366</v>
+      </c>
+      <c r="F15" t="s">
         <v>367</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
+        <v>345</v>
+      </c>
+      <c r="H15" t="s">
+        <v>82</v>
+      </c>
+      <c r="I15" t="s">
+        <v>236</v>
+      </c>
+      <c r="J15" t="s">
         <v>368</v>
       </c>
-      <c r="G15" t="s">
-        <v>346</v>
-      </c>
-      <c r="H15" t="s">
-        <v>82</v>
-      </c>
-      <c r="I15" t="s">
-        <v>237</v>
-      </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>369</v>
-      </c>
-      <c r="K15" t="s">
-        <v>370</v>
       </c>
       <c r="M15" t="s">
         <v>79</v>
@@ -7445,25 +7424,25 @@
     </row>
     <row r="16" spans="5:15">
       <c r="E16" t="s">
+        <v>370</v>
+      </c>
+      <c r="F16" t="s">
         <v>371</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
+        <v>345</v>
+      </c>
+      <c r="H16" t="s">
+        <v>82</v>
+      </c>
+      <c r="I16" t="s">
+        <v>236</v>
+      </c>
+      <c r="J16" t="s">
         <v>372</v>
       </c>
-      <c r="G16" t="s">
-        <v>346</v>
-      </c>
-      <c r="H16" t="s">
-        <v>82</v>
-      </c>
-      <c r="I16" t="s">
-        <v>237</v>
-      </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>373</v>
-      </c>
-      <c r="K16" t="s">
-        <v>374</v>
       </c>
       <c r="M16" t="s">
         <v>79</v>
@@ -7477,25 +7456,25 @@
     </row>
     <row r="17" spans="5:15">
       <c r="E17" t="s">
+        <v>374</v>
+      </c>
+      <c r="F17" t="s">
         <v>375</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
+        <v>345</v>
+      </c>
+      <c r="H17" t="s">
+        <v>82</v>
+      </c>
+      <c r="I17" t="s">
+        <v>236</v>
+      </c>
+      <c r="J17" t="s">
         <v>376</v>
       </c>
-      <c r="G17" t="s">
-        <v>346</v>
-      </c>
-      <c r="H17" t="s">
-        <v>82</v>
-      </c>
-      <c r="I17" t="s">
-        <v>237</v>
-      </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>377</v>
-      </c>
-      <c r="K17" t="s">
-        <v>378</v>
       </c>
       <c r="M17" t="s">
         <v>79</v>
@@ -7509,25 +7488,25 @@
     </row>
     <row r="18" spans="5:15">
       <c r="E18" t="s">
+        <v>378</v>
+      </c>
+      <c r="F18" t="s">
         <v>379</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
+        <v>345</v>
+      </c>
+      <c r="H18" t="s">
+        <v>82</v>
+      </c>
+      <c r="I18" t="s">
+        <v>236</v>
+      </c>
+      <c r="J18" t="s">
         <v>380</v>
       </c>
-      <c r="G18" t="s">
-        <v>346</v>
-      </c>
-      <c r="H18" t="s">
-        <v>82</v>
-      </c>
-      <c r="I18" t="s">
-        <v>237</v>
-      </c>
-      <c r="J18" t="s">
-        <v>381</v>
-      </c>
       <c r="K18" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="M18" t="s">
         <v>79</v>
@@ -7541,25 +7520,25 @@
     </row>
     <row r="19" spans="5:15">
       <c r="E19" t="s">
+        <v>381</v>
+      </c>
+      <c r="F19" t="s">
         <v>382</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
+        <v>345</v>
+      </c>
+      <c r="H19" t="s">
+        <v>82</v>
+      </c>
+      <c r="I19" t="s">
+        <v>236</v>
+      </c>
+      <c r="J19" t="s">
         <v>383</v>
       </c>
-      <c r="G19" t="s">
-        <v>346</v>
-      </c>
-      <c r="H19" t="s">
-        <v>82</v>
-      </c>
-      <c r="I19" t="s">
-        <v>237</v>
-      </c>
-      <c r="J19" t="s">
-        <v>384</v>
-      </c>
       <c r="K19" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="M19" t="s">
         <v>79</v>

--- a/src/main/resources/script/db/init-data/hrds_code_repo/hzero_platform/hzero-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/hrds_code_repo/hzero_platform/hzero-menu-user-role-label.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="597" activeTab="3"/>
+    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="597" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="386">
   <si>
     <r>
       <rPr>
@@ -2086,12 +2086,6 @@
     <t>choerodon.code.person.setting|choerodon.code.person.setting.personal-setting|choerodon.code.person.setting.personal-setting.ps.default</t>
   </si>
   <si>
-    <t>iam_menu-15</t>
-  </si>
-  <si>
-    <t>choerodon.code.project.infra</t>
-  </si>
-  <si>
     <t>iam_menu-16</t>
   </si>
   <si>
@@ -2135,6 +2129,18 @@
   </si>
   <si>
     <t>choerodon.code.project.infra|choerodon.code.project.infra.code-lib-management|choerodon.code.project.infra.code-lib-management.ps.project-owner</t>
+  </si>
+  <si>
+    <t>iam_menu-20</t>
+  </si>
+  <si>
+    <t>choerodon.code.project.develop</t>
+  </si>
+  <si>
+    <t>开发</t>
+  </si>
+  <si>
+    <t>KF</t>
   </si>
   <si>
     <t>菜单权限</t>
@@ -2895,12 +2901,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="38">
+  <fonts count="39">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2929,6 +2935,12 @@
       <sz val="11"/>
       <color indexed="42"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF24292E"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2969,31 +2981,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3017,6 +3006,37 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -3028,8 +3048,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3037,15 +3072,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3060,21 +3087,14 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -3083,7 +3103,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -3098,14 +3118,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
@@ -3114,7 +3126,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3202,7 +3214,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3214,19 +3256,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3244,103 +3358,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3352,13 +3376,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3371,12 +3389,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3483,6 +3495,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -3515,30 +3551,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -3551,8 +3563,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3560,8 +3572,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3583,153 +3595,153 @@
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3737,6 +3749,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3744,44 +3757,44 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3794,7 +3807,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -4197,8 +4210,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.5694444444444" style="7" customWidth="1"/>
-    <col min="2" max="2" width="10.3541666666667" style="8" customWidth="1"/>
+    <col min="1" max="1" width="15.5694444444444" style="8" customWidth="1"/>
+    <col min="2" max="2" width="10.3541666666667" style="9" customWidth="1"/>
     <col min="3" max="3" width="28.1388888888889" customWidth="1"/>
     <col min="4" max="4" width="35.3541666666667" style="5" customWidth="1"/>
     <col min="5" max="5" width="38.5694444444444" customWidth="1"/>
@@ -4214,79 +4227,79 @@
   </cols>
   <sheetData>
     <row r="1" ht="64.5" customHeight="1" spans="1:8">
-      <c r="A1" s="9"/>
-      <c r="C1" s="10" t="s">
+      <c r="A1" s="10"/>
+      <c r="C1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
     </row>
     <row r="2" spans="5:5">
-      <c r="E2" s="12"/>
+      <c r="E2" s="13"/>
     </row>
     <row r="3" ht="49.5" customHeight="1" spans="3:7">
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="14" t="s">
+      <c r="D3" s="14"/>
+      <c r="E3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
     </row>
     <row r="4" spans="3:7">
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="16" t="s">
+      <c r="D4" s="16"/>
+      <c r="E4" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="19" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="9"/>
+      <c r="A5" s="10"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="3:5">
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="22" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="3:5">
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="24"/>
+      <c r="E8" s="25"/>
     </row>
     <row r="9" ht="52.2" spans="3:6">
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="27" t="s">
+      <c r="E9" s="28" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
@@ -4294,56 +4307,56 @@
       </c>
     </row>
     <row r="10" ht="52.2" spans="3:5">
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="27" t="s">
+      <c r="E10" s="28" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" ht="69.6" spans="3:5">
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="27" t="s">
+      <c r="E11" s="28" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="3:5">
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="26" t="s">
+      <c r="D12" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="29" t="s">
+      <c r="E12" s="30" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="3:5">
-      <c r="C13" s="22"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="24"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="25"/>
     </row>
     <row r="14" spans="3:5">
-      <c r="C14" s="22"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="24"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="25"/>
     </row>
     <row r="15" ht="34.8" spans="3:5">
-      <c r="C15" s="30" t="s">
+      <c r="C15" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="31" t="s">
+      <c r="D15" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="32" t="s">
+      <c r="E15" s="33" t="s">
         <v>28</v>
       </c>
     </row>
@@ -4353,30 +4366,30 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="33" t="s">
+      <c r="C19" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
     </row>
     <row r="20" spans="3:4">
-      <c r="C20" s="34" t="s">
+      <c r="C20" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="13" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="21" spans="3:4">
-      <c r="C21" s="34" t="s">
+      <c r="C21" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="13" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="22" spans="3:4">
-      <c r="C22" s="34" t="s">
+      <c r="C22" s="35" t="s">
         <v>35</v>
       </c>
       <c r="D22" s="5" t="s">
@@ -4384,7 +4397,7 @@
       </c>
     </row>
     <row r="23" spans="3:4">
-      <c r="C23" s="34" t="s">
+      <c r="C23" s="35" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="5" t="s">
@@ -4392,25 +4405,25 @@
       </c>
     </row>
     <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="35" t="s">
+      <c r="C25" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="13"/>
+      <c r="E25" s="14"/>
     </row>
     <row r="26" ht="14.25" customHeight="1" spans="3:5">
-      <c r="C26" s="23" t="s">
+      <c r="C26" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="D26" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="13"/>
+      <c r="E26" s="14"/>
     </row>
     <row r="27" ht="52.2" spans="3:3">
-      <c r="C27" s="36" t="s">
+      <c r="C27" s="37" t="s">
         <v>43</v>
       </c>
     </row>
@@ -4435,14 +4448,14 @@
   <sheetPr/>
   <dimension ref="A1:Y19"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
   <cols>
     <col min="5" max="5" width="16.6666666666667" customWidth="1"/>
-    <col min="6" max="6" width="42.0833333333333" customWidth="1"/>
+    <col min="6" max="6" width="46.75" customWidth="1"/>
     <col min="7" max="7" width="15.25" customWidth="1"/>
     <col min="16" max="16" width="45.8541666666667" customWidth="1"/>
   </cols>
@@ -4909,26 +4922,33 @@
         <v>117</v>
       </c>
       <c r="G15" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H15" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="J15" t="s">
         <v>78</v>
       </c>
-      <c r="K15" t="s">
-        <v>79</v>
+      <c r="K15" t="str">
+        <f>E19</f>
+        <v>iam_menu-20</v>
       </c>
       <c r="L15" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="M15">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="N15" t="s">
         <v>82</v>
       </c>
+      <c r="O15" t="s">
+        <v>89</v>
+      </c>
+      <c r="P15" t="s">
+        <v>118</v>
+      </c>
       <c r="Q15" t="s">
         <v>79</v>
       </c>
@@ -4936,7 +4956,7 @@
         <v>79</v>
       </c>
       <c r="S15" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="T15" t="s">
         <v>79</v>
@@ -4950,26 +4970,26 @@
     </row>
     <row r="16" spans="5:24">
       <c r="E16" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F16" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G16" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="H16" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="J16" t="s">
         <v>78</v>
       </c>
       <c r="K16" t="str">
         <f>菜单SAAS版!$E$15</f>
-        <v>iam_menu-15</v>
+        <v>iam_menu-16</v>
       </c>
       <c r="L16" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="M16" t="s">
         <v>88</v>
@@ -4977,12 +4997,6 @@
       <c r="N16" t="s">
         <v>82</v>
       </c>
-      <c r="O16" t="s">
-        <v>89</v>
-      </c>
-      <c r="P16" t="s">
-        <v>120</v>
-      </c>
       <c r="Q16" t="s">
         <v>79</v>
       </c>
@@ -4990,10 +5004,13 @@
         <v>79</v>
       </c>
       <c r="S16" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="T16" t="s">
         <v>79</v>
+      </c>
+      <c r="U16" t="s">
+        <v>97</v>
       </c>
       <c r="V16" t="s">
         <v>83</v>
@@ -5004,33 +5021,33 @@
     </row>
     <row r="17" spans="5:24">
       <c r="E17" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F17" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G17" t="s">
-        <v>94</v>
+        <v>125</v>
       </c>
       <c r="H17" t="s">
-        <v>94</v>
+        <v>125</v>
       </c>
       <c r="J17" t="s">
         <v>78</v>
       </c>
       <c r="K17" t="str">
-        <f>菜单SAAS版!$E$16</f>
+        <f>菜单SAAS版!$E$15</f>
         <v>iam_menu-16</v>
       </c>
       <c r="L17" t="s">
         <v>95</v>
       </c>
-      <c r="M17" t="s">
-        <v>88</v>
-      </c>
       <c r="N17" t="s">
         <v>82</v>
       </c>
+      <c r="O17" t="s">
+        <v>101</v>
+      </c>
       <c r="Q17" t="s">
         <v>79</v>
       </c>
@@ -5038,13 +5055,10 @@
         <v>79</v>
       </c>
       <c r="S17" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="T17" t="s">
         <v>79</v>
-      </c>
-      <c r="U17" t="s">
-        <v>97</v>
       </c>
       <c r="V17" t="s">
         <v>83</v>
@@ -5055,22 +5069,22 @@
     </row>
     <row r="18" spans="5:24">
       <c r="E18" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F18" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G18" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H18" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="J18" t="s">
         <v>78</v>
       </c>
       <c r="K18" t="str">
-        <f>菜单SAAS版!$E$16</f>
+        <f>菜单SAAS版!$E$15</f>
         <v>iam_menu-16</v>
       </c>
       <c r="L18" t="s">
@@ -5089,7 +5103,7 @@
         <v>79</v>
       </c>
       <c r="S18" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="T18" t="s">
         <v>79</v>
@@ -5103,32 +5117,34 @@
     </row>
     <row r="19" spans="5:24">
       <c r="E19" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F19" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G19" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H19" t="s">
-        <v>131</v>
+        <v>133</v>
+      </c>
+      <c r="I19" t="s">
+        <v>134</v>
       </c>
       <c r="J19" t="s">
         <v>78</v>
       </c>
-      <c r="K19" t="str">
-        <f>菜单SAAS版!$E$16</f>
-        <v>iam_menu-16</v>
+      <c r="K19" t="s">
+        <v>79</v>
       </c>
       <c r="L19" t="s">
-        <v>95</v>
+        <v>80</v>
+      </c>
+      <c r="M19" s="7">
+        <v>30</v>
       </c>
       <c r="N19" t="s">
         <v>82</v>
-      </c>
-      <c r="O19" t="s">
-        <v>101</v>
       </c>
       <c r="Q19" t="s">
         <v>79</v>
@@ -5204,559 +5220,559 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="5:7">
       <c r="E8" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F8" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="5:7">
       <c r="E9" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F9" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G9" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="5:7">
       <c r="E10" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F10" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G10" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="5:7">
       <c r="E11" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F11" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G11" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12" spans="5:7">
       <c r="E12" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F12" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G12" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13" spans="5:7">
       <c r="E13" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F13" t="str">
-        <f>菜单SAAS版!$E$18</f>
+        <f>菜单SAAS版!$E$17</f>
         <v>iam_menu-18</v>
       </c>
       <c r="G13" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="5:7">
       <c r="E14" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F14" t="str">
-        <f>菜单SAAS版!$E$18</f>
+        <f>菜单SAAS版!$E$17</f>
         <v>iam_menu-18</v>
       </c>
       <c r="G14" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="5:7">
       <c r="E15" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F15" t="str">
-        <f>菜单SAAS版!$E$18</f>
+        <f>菜单SAAS版!$E$17</f>
         <v>iam_menu-18</v>
       </c>
       <c r="G15" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="16" spans="5:7">
       <c r="E16" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F16" t="str">
-        <f>菜单SAAS版!$E$18</f>
+        <f>菜单SAAS版!$E$17</f>
         <v>iam_menu-18</v>
       </c>
       <c r="G16" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="5:7">
       <c r="E17" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F17" t="str">
-        <f>菜单SAAS版!$E$18</f>
+        <f>菜单SAAS版!$E$17</f>
         <v>iam_menu-18</v>
       </c>
       <c r="G17" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="18" spans="5:7">
       <c r="E18" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F18" t="str">
-        <f>菜单SAAS版!$E$18</f>
+        <f>菜单SAAS版!$E$17</f>
         <v>iam_menu-18</v>
       </c>
       <c r="G18" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19" spans="5:7">
       <c r="E19" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F19" t="str">
-        <f>菜单SAAS版!$E$18</f>
+        <f>菜单SAAS版!$E$17</f>
         <v>iam_menu-18</v>
       </c>
       <c r="G19" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="20" spans="5:7">
       <c r="E20" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F20" t="str">
-        <f>菜单SAAS版!$E$19</f>
+        <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G20" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="5:7">
       <c r="E21" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F21" t="str">
-        <f>菜单SAAS版!$E$19</f>
+        <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G21" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22" spans="5:7">
       <c r="E22" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F22" t="str">
-        <f>菜单SAAS版!$E$19</f>
+        <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G22" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="23" spans="5:7">
       <c r="E23" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F23" t="str">
-        <f>菜单SAAS版!$E$19</f>
+        <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G23" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="24" spans="5:7">
       <c r="E24" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F24" t="str">
-        <f>菜单SAAS版!$E$19</f>
+        <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G24" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="25" spans="5:7">
       <c r="E25" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F25" t="str">
-        <f>菜单SAAS版!$E$19</f>
+        <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G25" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="26" spans="5:7">
       <c r="E26" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F26" t="str">
-        <f>菜单SAAS版!$E$19</f>
+        <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G26" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="27" spans="5:7">
       <c r="E27" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F27" t="str">
-        <f>菜单SAAS版!$E$19</f>
+        <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G27" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="28" spans="5:7">
       <c r="E28" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F28" t="str">
-        <f>菜单SAAS版!$E$19</f>
+        <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G28" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="29" spans="5:7">
       <c r="E29" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F29" t="str">
-        <f>菜单SAAS版!$E$19</f>
+        <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G29" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="30" spans="5:7">
       <c r="E30" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F30" t="str">
-        <f>菜单SAAS版!$E$19</f>
+        <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G30" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="31" spans="5:7">
       <c r="E31" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F31" t="str">
-        <f>菜单SAAS版!$E$19</f>
+        <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G31" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="32" spans="5:7">
       <c r="E32" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F32" t="str">
-        <f>菜单SAAS版!$E$19</f>
+        <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G32" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="33" spans="5:7">
       <c r="E33" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F33" t="str">
-        <f>菜单SAAS版!$E$19</f>
+        <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G33" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="34" spans="5:7">
       <c r="E34" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F34" t="str">
-        <f>菜单SAAS版!$E$19</f>
+        <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G34" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="35" spans="5:7">
       <c r="E35" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F35" t="str">
-        <f>菜单SAAS版!$E$19</f>
+        <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G35" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="36" spans="5:7">
       <c r="E36" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F36" t="str">
-        <f>菜单SAAS版!$E$19</f>
+        <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G36" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="37" spans="5:7">
       <c r="E37" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F37" t="str">
-        <f>菜单SAAS版!$E$19</f>
+        <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G37" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="38" spans="5:7">
       <c r="E38" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F38" t="str">
-        <f>菜单SAAS版!$E$19</f>
+        <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G38" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="39" spans="5:7">
       <c r="E39" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F39" t="str">
-        <f>菜单SAAS版!$E$19</f>
+        <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G39" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="40" spans="5:7">
       <c r="E40" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F40" t="str">
-        <f>菜单SAAS版!$E$19</f>
+        <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G40" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="41" spans="5:7">
       <c r="E41" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F41" t="str">
-        <f>菜单SAAS版!$E$19</f>
+        <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G41" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="42" spans="5:7">
       <c r="E42" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F42" t="str">
-        <f>菜单SAAS版!$E$19</f>
+        <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G42" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="43" spans="5:7">
       <c r="E43" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F43" t="str">
-        <f>菜单SAAS版!$E$19</f>
+        <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G43" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="44" spans="5:7">
       <c r="E44" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F44" t="str">
-        <f>菜单SAAS版!$E$19</f>
+        <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G44" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="45" spans="5:7">
       <c r="E45" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F45" t="str">
-        <f>菜单SAAS版!$E$19</f>
+        <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G45" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="46" spans="5:7">
       <c r="E46" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F46" t="str">
-        <f>菜单SAAS版!$E$19</f>
+        <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G46" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="47" spans="5:7">
       <c r="E47" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F47" t="str">
-        <f>菜单SAAS版!$E$19</f>
+        <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G47" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="48" spans="5:7">
       <c r="E48" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F48" t="str">
-        <f>菜单SAAS版!$E$19</f>
+        <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G48" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="49" spans="5:7">
       <c r="E49" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F49" t="str">
-        <f>菜单SAAS版!$E$19</f>
+        <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G49" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="50" spans="5:7">
       <c r="E50" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="F50" t="str">
-        <f>菜单SAAS版!$E$19</f>
+        <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G50" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="51" spans="5:7">
       <c r="E51" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F51" t="str">
-        <f>菜单SAAS版!$E$19</f>
+        <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G51" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="52" spans="5:7">
       <c r="E52" s="6" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F52" s="6" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -5770,7 +5786,7 @@
   <sheetPr/>
   <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
@@ -5818,66 +5834,66 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="H7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="I7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="K7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="L7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="M7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="N7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="O7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="8" spans="5:15">
       <c r="E8" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F8" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="G8" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="H8" t="s">
         <v>82</v>
       </c>
       <c r="I8" t="s">
+        <v>238</v>
+      </c>
+      <c r="J8" t="s">
+        <v>239</v>
+      </c>
+      <c r="K8" t="s">
         <v>236</v>
-      </c>
-      <c r="J8" t="s">
-        <v>237</v>
-      </c>
-      <c r="K8" t="s">
-        <v>234</v>
       </c>
       <c r="M8" t="s">
         <v>82</v>
@@ -5891,19 +5907,19 @@
     </row>
     <row r="9" spans="5:15">
       <c r="E9" t="s">
+        <v>240</v>
+      </c>
+      <c r="F9" t="s">
+        <v>241</v>
+      </c>
+      <c r="G9" t="s">
+        <v>237</v>
+      </c>
+      <c r="H9" t="s">
+        <v>82</v>
+      </c>
+      <c r="I9" t="s">
         <v>238</v>
-      </c>
-      <c r="F9" t="s">
-        <v>239</v>
-      </c>
-      <c r="G9" t="s">
-        <v>235</v>
-      </c>
-      <c r="H9" t="s">
-        <v>82</v>
-      </c>
-      <c r="I9" t="s">
-        <v>236</v>
       </c>
       <c r="M9" t="s">
         <v>79</v>
@@ -5917,25 +5933,25 @@
     </row>
     <row r="10" spans="5:15">
       <c r="E10" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F10" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="G10" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="H10" t="s">
         <v>82</v>
       </c>
       <c r="I10" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="J10" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="K10" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="M10" t="s">
         <v>82</v>
@@ -5949,19 +5965,19 @@
     </row>
     <row r="11" spans="5:15">
       <c r="E11" t="s">
+        <v>246</v>
+      </c>
+      <c r="F11" t="s">
+        <v>247</v>
+      </c>
+      <c r="G11" t="s">
+        <v>237</v>
+      </c>
+      <c r="H11" t="s">
+        <v>82</v>
+      </c>
+      <c r="I11" t="s">
         <v>244</v>
-      </c>
-      <c r="F11" t="s">
-        <v>245</v>
-      </c>
-      <c r="G11" t="s">
-        <v>235</v>
-      </c>
-      <c r="H11" t="s">
-        <v>82</v>
-      </c>
-      <c r="I11" t="s">
-        <v>242</v>
       </c>
       <c r="M11" t="s">
         <v>82</v>
@@ -5975,25 +5991,25 @@
     </row>
     <row r="12" spans="5:15">
       <c r="E12" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F12" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="G12" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="H12">
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="J12" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="K12" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -6013,33 +6029,33 @@
         <v>51</v>
       </c>
       <c r="C14" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="I14" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="15" spans="5:9">
       <c r="E15" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="F15" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G15" t="str">
         <f>菜单SAAS版!$E$12</f>
@@ -6050,15 +6066,15 @@
         <v>iam_label-11</v>
       </c>
       <c r="I15" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="16" spans="5:9">
       <c r="E16" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="F16" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G16" t="str">
         <f>菜单SAAS版!$E$8</f>
@@ -6069,15 +6085,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I16" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="17" spans="5:9">
       <c r="E17" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="F17" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G17" t="str">
         <f>菜单SAAS版!$E$9</f>
@@ -6088,15 +6104,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I17" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="18" spans="5:9">
       <c r="E18" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="F18" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G18" t="str">
         <f>菜单SAAS版!$E$10</f>
@@ -6107,15 +6123,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I18" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="19" spans="5:9">
       <c r="E19" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="F19" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G19" t="str">
         <f>菜单SAAS版!$E$11</f>
@@ -6126,15 +6142,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I19" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="20" spans="5:9">
       <c r="E20" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="F20" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G20" t="str">
         <f>菜单SAAS版!$E$13</f>
@@ -6145,37 +6161,37 @@
         <v>iam_label-11</v>
       </c>
       <c r="I20" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="21" customFormat="1" spans="5:9">
       <c r="E21" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="F21" t="s">
-        <v>235</v>
-      </c>
-      <c r="G21" t="str">
-        <f>菜单SAAS版!E15</f>
-        <v>iam_menu-15</v>
+        <v>237</v>
+      </c>
+      <c r="G21" t="e">
+        <f>菜单SAAS版!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="H21" t="str">
         <f>E12</f>
         <v>iam_label-21</v>
       </c>
       <c r="I21" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="22" customFormat="1" spans="5:9">
       <c r="E22" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="F22" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G22" t="str">
-        <f>菜单SAAS版!E16</f>
+        <f>菜单SAAS版!E15</f>
         <v>iam_menu-16</v>
       </c>
       <c r="H22" t="str">
@@ -6183,7 +6199,7 @@
         <v>iam_label-21</v>
       </c>
       <c r="I22" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -6241,10 +6257,10 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
@@ -6259,75 +6275,75 @@
         <v>55</v>
       </c>
       <c r="I7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="J7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>67</v>
       </c>
       <c r="L7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="O7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="P7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="R7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="S7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="T7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="U7" t="s">
         <v>68</v>
       </c>
       <c r="V7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="W7" s="3" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="X7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Y7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="8" spans="5:23">
       <c r="E8" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F8" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="G8" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="H8" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="I8" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="J8" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="K8" t="s">
         <v>79</v>
@@ -6360,10 +6376,10 @@
         <v>79</v>
       </c>
       <c r="U8" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="V8" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="W8" t="s">
         <v>79</v>
@@ -6371,19 +6387,19 @@
     </row>
     <row r="9" spans="5:23">
       <c r="E9" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="F9" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="G9" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="H9" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="I9" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="J9" t="s">
         <v>78</v>
@@ -6419,10 +6435,10 @@
         <v>79</v>
       </c>
       <c r="U9" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="V9" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="W9" t="s">
         <v>79</v>
@@ -6430,16 +6446,16 @@
     </row>
     <row r="10" spans="5:25">
       <c r="E10" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F10" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="G10" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="H10" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="J10" t="s">
         <v>78</v>
@@ -6476,10 +6492,10 @@
         <v>79</v>
       </c>
       <c r="U10" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="V10" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="W10" t="s">
         <v>79</v>
@@ -6488,21 +6504,21 @@
         <v>100</v>
       </c>
       <c r="Y10" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="11" spans="5:25">
       <c r="E11" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F11" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="G11" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="H11" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="J11" t="s">
         <v>78</v>
@@ -6539,33 +6555,33 @@
         <v>79</v>
       </c>
       <c r="U11" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="V11" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="W11" t="s">
         <v>79</v>
       </c>
       <c r="X11" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Y11" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="12" spans="5:25">
       <c r="E12" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F12" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="G12" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="H12" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="J12" t="s">
         <v>78</v>
@@ -6602,33 +6618,33 @@
         <v>79</v>
       </c>
       <c r="U12" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="V12" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="W12" t="s">
         <v>79</v>
       </c>
       <c r="X12" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="Y12" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="13" spans="5:25">
       <c r="E13" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="F13" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="G13" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="H13" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="J13" t="s">
         <v>78</v>
@@ -6665,36 +6681,36 @@
         <v>79</v>
       </c>
       <c r="U13" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="V13" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="W13" t="s">
         <v>79</v>
       </c>
       <c r="X13" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="Y13" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="14" spans="5:23">
       <c r="E14" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="F14" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="G14" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="H14" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="J14" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="K14" t="s">
         <v>79</v>
@@ -6728,10 +6744,10 @@
         <v>79</v>
       </c>
       <c r="U14" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="V14" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="W14" t="s">
         <v>79</v>
@@ -6745,33 +6761,33 @@
         <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="H16" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="I16" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="17" spans="5:10">
       <c r="E17" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="F17" t="str">
         <f>角色!$E$10</f>
@@ -6782,18 +6798,18 @@
         <v>iam_menu-10</v>
       </c>
       <c r="H17" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="I17" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="J17" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="18" spans="5:10">
       <c r="E18" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="F18" t="str">
         <f>角色!$E$10</f>
@@ -6804,84 +6820,84 @@
         <v>iam_menu-11</v>
       </c>
       <c r="H18" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="I18" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="J18" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="19" spans="5:10">
       <c r="E19" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="F19" t="str">
         <f>角色!$E$10</f>
         <v>iam_role-10</v>
       </c>
       <c r="G19" t="str">
-        <f>菜单SAAS版!$E$17</f>
+        <f>菜单SAAS版!$E$16</f>
         <v>iam_menu-17</v>
       </c>
       <c r="H19" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="I19" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="J19" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="20" spans="5:10">
       <c r="E20" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="F20" t="str">
         <f>角色!$E$10</f>
         <v>iam_role-10</v>
       </c>
       <c r="G20" t="str">
-        <f>菜单SAAS版!$E$18</f>
+        <f>菜单SAAS版!$E$17</f>
         <v>iam_menu-18</v>
       </c>
       <c r="H20" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="I20" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="J20" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="21" spans="5:10">
       <c r="E21" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="F21" t="str">
         <f>角色!$E$10</f>
         <v>iam_role-10</v>
       </c>
       <c r="G21" t="str">
-        <f>菜单SAAS版!$E$19</f>
+        <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="H21" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="I21" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="J21" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="22" spans="5:10">
       <c r="E22" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="F22" t="str">
         <f>角色!$E$10</f>
@@ -6892,18 +6908,18 @@
         <v>iam_menu-14</v>
       </c>
       <c r="H22" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="I22" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="J22" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="23" spans="5:10">
       <c r="E23" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="F23" t="str">
         <f>角色!$E$11</f>
@@ -6914,62 +6930,62 @@
         <v>iam_menu-14</v>
       </c>
       <c r="H23" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="I23" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="J23" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="24" spans="5:10">
       <c r="E24" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="F24" t="str">
         <f>角色!$E$12</f>
         <v>iam_role-12</v>
       </c>
       <c r="G24" t="str">
-        <f>菜单SAAS版!$E$17</f>
+        <f>菜单SAAS版!$E$16</f>
         <v>iam_menu-17</v>
       </c>
       <c r="H24" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="I24" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="J24" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="25" spans="5:10">
       <c r="E25" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="F25" t="str">
         <f>角色!$E$12</f>
         <v>iam_role-12</v>
       </c>
       <c r="G25" t="str">
-        <f>菜单SAAS版!$E$19</f>
+        <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="H25" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="I25" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="J25" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="26" spans="5:10">
       <c r="E26" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="F26" t="str">
         <f>角色!$E$12</f>
@@ -6980,84 +6996,84 @@
         <v>iam_menu-14</v>
       </c>
       <c r="H26" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="I26" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="J26" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="27" spans="5:10">
       <c r="E27" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="F27" t="str">
         <f>角色!$E$13</f>
         <v>iam_role-13</v>
       </c>
       <c r="G27" t="str">
-        <f>菜单SAAS版!$E$17</f>
+        <f>菜单SAAS版!$E$16</f>
         <v>iam_menu-17</v>
       </c>
       <c r="H27" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="I27" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="J27" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="28" spans="5:10">
       <c r="E28" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="F28" t="str">
         <f>角色!$E$13</f>
         <v>iam_role-13</v>
       </c>
       <c r="G28" t="str">
-        <f>菜单SAAS版!$E$18</f>
+        <f>菜单SAAS版!$E$17</f>
         <v>iam_menu-18</v>
       </c>
       <c r="H28" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="I28" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="J28" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="29" spans="5:10">
       <c r="E29" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="F29" t="str">
         <f>角色!$E$13</f>
         <v>iam_role-13</v>
       </c>
       <c r="G29" t="str">
-        <f>菜单SAAS版!$E$19</f>
+        <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="H29" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="I29" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="J29" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="30" spans="5:10">
       <c r="E30" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="F30" t="str">
         <f>角色!$E$13</f>
@@ -7068,13 +7084,13 @@
         <v>iam_menu-14</v>
       </c>
       <c r="H30" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="I30" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="J30" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
   </sheetData>
@@ -7130,66 +7146,66 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="H7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="I7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="K7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="L7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="M7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="N7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="O7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="8" spans="5:15">
       <c r="E8" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F8" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="G8" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="H8" t="s">
         <v>82</v>
       </c>
       <c r="I8" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="J8" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="K8" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="M8" t="s">
         <v>79</v>
@@ -7203,22 +7219,22 @@
     </row>
     <row r="9" spans="5:15">
       <c r="E9" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="F9" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="G9" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="H9" t="s">
         <v>82</v>
       </c>
       <c r="I9" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="J9" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="M9" t="s">
         <v>79</v>
@@ -7232,25 +7248,25 @@
     </row>
     <row r="10" spans="5:15">
       <c r="E10" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="F10" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="G10" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="H10" t="s">
         <v>82</v>
       </c>
       <c r="I10" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="J10" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="K10" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="M10" t="s">
         <v>79</v>
@@ -7264,25 +7280,25 @@
     </row>
     <row r="11" spans="5:15">
       <c r="E11" t="s">
+        <v>240</v>
+      </c>
+      <c r="F11" t="s">
+        <v>356</v>
+      </c>
+      <c r="G11" t="s">
+        <v>347</v>
+      </c>
+      <c r="H11" t="s">
+        <v>82</v>
+      </c>
+      <c r="I11" t="s">
         <v>238</v>
       </c>
-      <c r="F11" t="s">
-        <v>354</v>
-      </c>
-      <c r="G11" t="s">
-        <v>345</v>
-      </c>
-      <c r="H11" t="s">
-        <v>82</v>
-      </c>
-      <c r="I11" t="s">
-        <v>236</v>
-      </c>
       <c r="J11" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="K11" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="M11" t="s">
         <v>79</v>
@@ -7296,25 +7312,25 @@
     </row>
     <row r="12" spans="5:15">
       <c r="E12" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F12" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="G12" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="H12" t="s">
         <v>82</v>
       </c>
       <c r="I12" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="J12" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="K12" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="M12" t="s">
         <v>79</v>
@@ -7328,25 +7344,25 @@
     </row>
     <row r="13" spans="5:15">
       <c r="E13" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="F13" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="G13" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="H13" t="s">
         <v>82</v>
       </c>
       <c r="I13" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="J13" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="K13" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="M13" t="s">
         <v>79</v>
@@ -7360,25 +7376,25 @@
     </row>
     <row r="14" spans="5:15">
       <c r="E14" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="F14" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="G14" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="H14" t="s">
         <v>82</v>
       </c>
       <c r="I14" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="J14" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="K14" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="M14" t="s">
         <v>79</v>
@@ -7392,25 +7408,25 @@
     </row>
     <row r="15" spans="5:15">
       <c r="E15" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="F15" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="G15" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="H15" t="s">
         <v>82</v>
       </c>
       <c r="I15" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="J15" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="K15" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="M15" t="s">
         <v>79</v>
@@ -7424,25 +7440,25 @@
     </row>
     <row r="16" spans="5:15">
       <c r="E16" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="F16" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="G16" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="H16" t="s">
         <v>82</v>
       </c>
       <c r="I16" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="J16" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="K16" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="M16" t="s">
         <v>79</v>
@@ -7456,25 +7472,25 @@
     </row>
     <row r="17" spans="5:15">
       <c r="E17" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="F17" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="G17" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="H17" t="s">
         <v>82</v>
       </c>
       <c r="I17" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="J17" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="K17" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="M17" t="s">
         <v>79</v>
@@ -7488,25 +7504,25 @@
     </row>
     <row r="18" spans="5:15">
       <c r="E18" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="F18" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="G18" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="H18" t="s">
         <v>82</v>
       </c>
       <c r="I18" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="J18" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="K18" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="M18" t="s">
         <v>79</v>
@@ -7520,25 +7536,25 @@
     </row>
     <row r="19" spans="5:15">
       <c r="E19" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="F19" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="G19" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="H19" t="s">
         <v>82</v>
       </c>
       <c r="I19" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="J19" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="K19" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="M19" t="s">
         <v>79</v>

--- a/src/main/resources/script/db/init-data/hrds_code_repo/hzero_platform/hzero-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/hrds_code_repo/hzero_platform/hzero-menu-user-role-label.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="597" activeTab="1"/>
+    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="597" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -2901,10 +2901,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="39">
     <font>
@@ -2982,15 +2982,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3006,31 +3012,23 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3042,24 +3040,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3072,15 +3063,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3089,14 +3072,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3112,14 +3087,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3129,6 +3097,38 @@
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3214,7 +3214,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3226,7 +3238,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3238,7 +3262,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3250,55 +3298,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3310,13 +3310,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3328,25 +3322,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3358,25 +3334,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3389,6 +3353,42 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3495,15 +3495,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -3515,6 +3506,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3535,16 +3535,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3563,8 +3563,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3572,171 +3572,171 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -4448,7 +4448,7 @@
   <sheetPr/>
   <dimension ref="A1:Y19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
@@ -4457,6 +4457,7 @@
     <col min="5" max="5" width="16.6666666666667" customWidth="1"/>
     <col min="6" max="6" width="46.75" customWidth="1"/>
     <col min="7" max="7" width="15.25" customWidth="1"/>
+    <col min="11" max="11" width="16.75" customWidth="1"/>
     <col min="16" max="16" width="45.8541666666667" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5176,7 +5177,7 @@
   <sheetPr/>
   <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B43" workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
@@ -5787,7 +5788,7 @@
   <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
@@ -6171,9 +6172,9 @@
       <c r="F21" t="s">
         <v>237</v>
       </c>
-      <c r="G21" t="e">
-        <f>菜单SAAS版!#REF!</f>
-        <v>#REF!</v>
+      <c r="G21" t="str">
+        <f>菜单SAAS版!E19</f>
+        <v>iam_menu-20</v>
       </c>
       <c r="H21" t="str">
         <f>E12</f>
@@ -7104,7 +7105,7 @@
   <sheetPr/>
   <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>

--- a/src/main/resources/script/db/init-data/hrds_code_repo/hzero_platform/hzero-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/hrds_code_repo/hzero_platform/hzero-menu-user-role-label.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\14589\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB58F945-4499-40BB-9796-88458750D59D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="597" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="597" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -20,18 +26,19 @@
     <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
     <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="389">
   <si>
     <r>
       <rPr>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">注意这个文档不能 </t>
@@ -50,6 +57,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>！！
@@ -62,6 +70,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">正式的数据从第二个 </t>
@@ -80,6 +89,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页开始</t>
@@ -98,6 +108,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">每页 从 </t>
@@ -116,6 +127,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格开始有效
@@ -147,6 +159,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>颜色示例</t>
@@ -165,6 +178,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非必须</t>
@@ -183,6 +197,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非强制</t>
@@ -204,6 +219,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>请给特殊单元格</t>
@@ -224,6 +240,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列名添加颜色</t>
@@ -244,6 +261,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>提高数据可读性</t>
@@ -264,6 +282,7 @@
         <sz val="12"/>
         <color rgb="FFC55A11"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动生成</t>
@@ -284,6 +303,7 @@
         <sz val="12"/>
         <color rgb="FF2E75B6"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>唯一性检查</t>
@@ -295,6 +315,7 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -313,6 +334,7 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -324,6 +346,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>理论上</t>
@@ -342,6 +365,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表的前后顺序</t>
@@ -360,6 +384,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页的顺序没有严格要求</t>
@@ -378,6 +403,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但请尽量按照先插 后引用的顺序排列</t>
@@ -396,6 +422,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>减少迭代次数</t>
@@ -443,6 +470,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -461,6 +489,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>该列的值自动生成</t>
@@ -479,6 +508,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当数据库存在等价记录时</t>
@@ -497,6 +527,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>这个值会被替换为数据库中已存在的值</t>
@@ -508,6 +539,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自增长</t>
@@ -526,6 +558,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>或序列</t>
@@ -544,6 +577,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>主键列</t>
@@ -563,6 +597,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当不作为外键引用时</t>
@@ -581,6 +616,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般写</t>
@@ -600,6 +636,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>作为外键时</t>
@@ -618,6 +655,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>写可读的值</t>
@@ -629,6 +667,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">目前 </t>
@@ -647,6 +686,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>是序列</t>
@@ -665,6 +705,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他自增涨</t>
@@ -688,6 +729,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -706,6 +748,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表中所有带有</t>
@@ -724,6 +767,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>的列组成一个唯一性校验</t>
@@ -742,6 +786,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>在执行插入之前</t>
@@ -760,6 +805,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会首先按照唯一键来检查数据库是否存在等价记录</t>
@@ -771,6 +817,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>可以有多列</t>
@@ -789,6 +836,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>仅支持</t>
@@ -799,6 +847,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>数字</t>
@@ -819,6 +868,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">字符串
@@ -829,6 +879,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当</t>
@@ -847,6 +898,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列涉及到公式时</t>
@@ -865,6 +917,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会先确定公式的值</t>
@@ -888,6 +941,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定这一列的类型</t>
@@ -906,6 +960,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>默认会自动检测</t>
@@ -925,6 +980,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为数字</t>
@@ -944,6 +1000,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为日期</t>
@@ -963,6 +1020,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他默认为</t>
@@ -983,6 +1041,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般不需要指定</t>
@@ -1002,6 +1061,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>日期格式仅支持</t>
@@ -1036,6 +1096,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定语言环境</t>
@@ -1056,6 +1117,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表数据不需要专门写</t>
@@ -1067,6 +1129,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -1085,6 +1148,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -1105,6 +1169,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>用于引用外键</t>
@@ -1123,6 +1188,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>也可用于普通值
@@ -1135,6 +1201,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动增长列</t>
@@ -1153,6 +1220,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>如果被公式引用</t>
@@ -1171,6 +1239,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>最好写一个人可以读懂的值</t>
@@ -1189,6 +1258,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>增强公式可读性</t>
@@ -1203,6 +1273,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般用于引用自动生成的外键</t>
@@ -1221,6 +1292,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">所有公式均为 </t>
@@ -1239,6 +1311,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>支持的标准公式</t>
@@ -1257,6 +1330,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但不支持特别复杂的计算公式</t>
@@ -1275,6 +1349,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>比如范围计算</t>
@@ -1290,6 +1365,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1299,6 +1375,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1317,6 +1394,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1332,6 +1410,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1341,6 +1420,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1359,6 +1439,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1373,6 +1454,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1391,6 +1473,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1409,6 +1492,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1428,6 +1512,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1451,6 +1536,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1469,6 +1555,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1487,6 +1574,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1506,6 +1594,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1526,6 +1615,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1536,6 +1626,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1545,6 +1636,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1556,6 +1648,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>举例</t>
@@ -1574,6 +1667,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">当 </t>
@@ -1592,6 +1686,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格引用 </t>
@@ -1610,6 +1705,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">时
@@ -1629,6 +1725,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1647,6 +1744,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格时</t>
@@ -1665,6 +1763,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用的是 </t>
@@ -1684,6 +1783,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">将 </t>
@@ -1702,6 +1802,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1720,6 +1821,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>时</t>
@@ -1738,6 +1840,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">实际引用的是 </t>
@@ -1757,6 +1860,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>以上情况适用于拖拽填充</t>
@@ -1768,6 +1872,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1778,6 +1883,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1787,6 +1893,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1798,6 +1905,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>复制公式单元格时</t>
@@ -1816,6 +1924,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>保持公式不变</t>
@@ -1827,6 +1936,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对引用</t>
@@ -1845,6 +1955,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对引用各有用途</t>
@@ -1864,6 +1975,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>直接拖拽填充就可以避免大量重复工作</t>
@@ -2894,19 +3006,49 @@
   </si>
   <si>
     <t>标识gitlab_developer</t>
+  </si>
+  <si>
+    <r>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>am_menu_permission-53</t>
+    </r>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>am_menu-19</t>
+    </r>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>code-repo-service.rdm-member-proj.batchRemoveMember</t>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="39">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="24">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2917,25 +3059,25 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="53"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="48"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="42"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -2981,157 +3123,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="DengXian"/>
@@ -3160,12 +3151,14 @@
       <sz val="12"/>
       <color rgb="FFC55A11"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3174,8 +3167,43 @@
       <name val="DengXian"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF548235"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="37">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3212,188 +3240,8 @@
         <bgColor rgb="FFE7E6E6"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="18">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -3494,254 +3342,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3757,20 +3363,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3804,9 +3398,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3814,59 +3405,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
@@ -3939,6 +3499,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -4196,272 +3759,270 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView topLeftCell="A16" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="15.5694444444444" style="8" customWidth="1"/>
-    <col min="2" max="2" width="10.3541666666667" style="9" customWidth="1"/>
-    <col min="3" max="3" width="28.1388888888889" customWidth="1"/>
-    <col min="4" max="4" width="35.3541666666667" style="5" customWidth="1"/>
-    <col min="5" max="5" width="38.5694444444444" customWidth="1"/>
-    <col min="6" max="6" width="23.4236111111111" customWidth="1"/>
-    <col min="7" max="7" width="21.5694444444444" customWidth="1"/>
+    <col min="1" max="1" width="15.5546875" style="8" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="28.109375" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="38.5546875" customWidth="1"/>
+    <col min="6" max="6" width="23.44140625" customWidth="1"/>
+    <col min="7" max="7" width="21.5546875" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5694444444444" customWidth="1"/>
+    <col min="9" max="9" width="24.5546875" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.1388888888889" customWidth="1"/>
-    <col min="12" max="12" width="18.5694444444444" customWidth="1"/>
-    <col min="13" max="13" width="13.1388888888889" customWidth="1"/>
-    <col min="14" max="1025" width="10.3541666666667" customWidth="1"/>
+    <col min="11" max="11" width="19.109375" customWidth="1"/>
+    <col min="12" max="12" width="18.5546875" customWidth="1"/>
+    <col min="13" max="13" width="13.109375" customWidth="1"/>
+    <col min="14" max="1025" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="64.5" customHeight="1" spans="1:8">
+    <row r="1" spans="1:8" ht="64.5" customHeight="1">
       <c r="A1" s="10"/>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-    </row>
-    <row r="2" spans="5:5">
-      <c r="E2" s="13"/>
-    </row>
-    <row r="3" ht="49.5" customHeight="1" spans="3:7">
-      <c r="C3" s="14" t="s">
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+    </row>
+    <row r="2" spans="1:8" ht="18">
+      <c r="E2" s="12"/>
+    </row>
+    <row r="3" spans="1:8" ht="49.5" customHeight="1">
+      <c r="C3" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="15" t="s">
+      <c r="D3" s="34"/>
+      <c r="E3" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-    </row>
-    <row r="4" spans="3:7">
-      <c r="C4" s="16" t="s">
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+    </row>
+    <row r="4" spans="1:8" ht="18">
+      <c r="C4" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="17" t="s">
+      <c r="D4" s="37"/>
+      <c r="E4" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:8">
       <c r="A5" s="10"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="3:5">
-      <c r="C7" s="20" t="s">
+    <row r="7" spans="1:8" ht="18">
+      <c r="C7" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="18" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="3:5">
-      <c r="C8" s="23" t="s">
+    <row r="8" spans="1:8">
+      <c r="C8" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="25"/>
-    </row>
-    <row r="9" ht="52.2" spans="3:6">
-      <c r="C9" s="26" t="s">
+      <c r="E8" s="21"/>
+    </row>
+    <row r="9" spans="1:8" ht="51.75">
+      <c r="C9" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="D9" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="28" t="s">
+      <c r="E9" s="24" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" ht="52.2" spans="3:5">
-      <c r="C10" s="29" t="s">
+    <row r="10" spans="1:8" ht="51.75">
+      <c r="C10" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="D10" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="28" t="s">
+      <c r="E10" s="24" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" ht="69.6" spans="3:5">
-      <c r="C11" s="23" t="s">
+    <row r="11" spans="1:8" ht="69">
+      <c r="C11" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="D11" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="28" t="s">
+      <c r="E11" s="24" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="3:5">
-      <c r="C12" s="23" t="s">
+    <row r="12" spans="1:8">
+      <c r="C12" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="27" t="s">
+      <c r="D12" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="30" t="s">
+      <c r="E12" s="26" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="3:5">
-      <c r="C13" s="23"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="25"/>
-    </row>
-    <row r="14" spans="3:5">
-      <c r="C14" s="23"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="25"/>
-    </row>
-    <row r="15" ht="34.8" spans="3:5">
-      <c r="C15" s="31" t="s">
+    <row r="13" spans="1:8">
+      <c r="C13" s="19"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="21"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="C14" s="19"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="21"/>
+    </row>
+    <row r="15" spans="1:8" ht="34.5">
+      <c r="C15" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="32" t="s">
+      <c r="D15" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="33" t="s">
+      <c r="E15" s="29" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="3:3">
+    <row r="18" spans="3:5">
       <c r="C18" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="34" t="s">
+      <c r="C19" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-    </row>
-    <row r="20" spans="3:4">
-      <c r="C20" s="35" t="s">
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+    </row>
+    <row r="20" spans="3:5" ht="18">
+      <c r="C20" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="3:4">
-      <c r="C21" s="35" t="s">
+    <row r="21" spans="3:5" ht="18">
+      <c r="C21" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="12" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="3:4">
-      <c r="C22" s="35" t="s">
+    <row r="22" spans="3:5" ht="18">
+      <c r="C22" s="30" t="s">
         <v>35</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="3:4">
-      <c r="C23" s="35" t="s">
+    <row r="23" spans="3:5" ht="18">
+      <c r="C23" s="30" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="36" t="s">
+    <row r="25" spans="3:5" ht="69" customHeight="1">
+      <c r="C25" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="14" t="s">
+      <c r="D25" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="14"/>
-    </row>
-    <row r="26" ht="14.25" customHeight="1" spans="3:5">
-      <c r="C26" s="24" t="s">
+      <c r="E25" s="34"/>
+    </row>
+    <row r="26" spans="3:5" ht="14.25" customHeight="1">
+      <c r="C26" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="14" t="s">
+      <c r="D26" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="14"/>
-    </row>
-    <row r="27" ht="52.2" spans="3:3">
-      <c r="C27" s="37" t="s">
+      <c r="E26" s="34"/>
+    </row>
+    <row r="27" spans="3:5" ht="51.75">
+      <c r="C27" s="32" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C19:E19"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
   </mergeCells>
-  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
+  <phoneticPr fontId="23" type="noConversion"/>
+  <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.51041666666666696" footer="0.51041666666666696"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y19"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="5" max="5" width="16.6666666666667" customWidth="1"/>
-    <col min="6" max="6" width="46.75" customWidth="1"/>
-    <col min="7" max="7" width="15.25" customWidth="1"/>
-    <col min="11" max="11" width="16.75" customWidth="1"/>
-    <col min="16" max="16" width="45.8541666666667" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="6" max="6" width="63.21875" customWidth="1"/>
+    <col min="7" max="7" width="15.21875" customWidth="1"/>
+    <col min="10" max="10" width="16.5546875" customWidth="1"/>
+    <col min="11" max="11" width="16.77734375" customWidth="1"/>
+    <col min="16" max="16" width="45.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -4475,7 +4036,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:25">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -4563,7 +4124,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="5:24">
+    <row r="8" spans="1:25">
       <c r="E8" t="s">
         <v>75</v>
       </c>
@@ -4610,7 +4171,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="5:24">
+    <row r="9" spans="1:25">
       <c r="E9" t="s">
         <v>84</v>
       </c>
@@ -4664,7 +4225,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="5:24">
+    <row r="10" spans="1:25">
       <c r="E10" t="s">
         <v>92</v>
       </c>
@@ -4715,7 +4276,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="5:24">
+    <row r="11" spans="1:25">
       <c r="E11" t="s">
         <v>98</v>
       </c>
@@ -4763,7 +4324,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="5:24">
+    <row r="12" spans="1:25">
       <c r="E12" t="s">
         <v>103</v>
       </c>
@@ -4810,7 +4371,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="5:24">
+    <row r="13" spans="1:25">
       <c r="E13" t="s">
         <v>106</v>
       </c>
@@ -4864,7 +4425,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="5:24">
+    <row r="14" spans="1:25">
       <c r="E14" t="s">
         <v>113</v>
       </c>
@@ -4915,7 +4476,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="5:24">
+    <row r="15" spans="1:25">
       <c r="E15" t="s">
         <v>116</v>
       </c>
@@ -4969,7 +4530,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="5:24">
+    <row r="16" spans="1:25">
       <c r="E16" t="s">
         <v>120</v>
       </c>
@@ -5167,28 +4728,27 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="23" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:G52"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B43" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="B41" workbookViewId="0">
+      <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="5" max="5" width="21.2847222222222" customWidth="1"/>
-    <col min="6" max="6" width="17.5694444444444" customWidth="1"/>
-    <col min="7" max="7" width="30.3541666666667" customWidth="1"/>
+    <col min="5" max="5" width="32.21875" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" customWidth="1"/>
+    <col min="7" max="7" width="30.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -5202,7 +4762,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:7">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -5236,7 +4796,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="8" spans="5:7">
+    <row r="8" spans="1:7">
       <c r="E8" t="s">
         <v>139</v>
       </c>
@@ -5248,7 +4808,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="9" spans="5:7">
+    <row r="9" spans="1:7">
       <c r="E9" t="s">
         <v>141</v>
       </c>
@@ -5260,7 +4820,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="10" spans="5:7">
+    <row r="10" spans="1:7">
       <c r="E10" t="s">
         <v>143</v>
       </c>
@@ -5272,7 +4832,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="11" spans="5:7">
+    <row r="11" spans="1:7">
       <c r="E11" t="s">
         <v>145</v>
       </c>
@@ -5284,7 +4844,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="12" spans="5:7">
+    <row r="12" spans="1:7">
       <c r="E12" t="s">
         <v>147</v>
       </c>
@@ -5296,7 +4856,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="13" spans="5:7">
+    <row r="13" spans="1:7">
       <c r="E13" t="s">
         <v>149</v>
       </c>
@@ -5308,7 +4868,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="14" spans="5:7">
+    <row r="14" spans="1:7">
       <c r="E14" t="s">
         <v>151</v>
       </c>
@@ -5320,7 +4880,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="15" spans="5:7">
+    <row r="15" spans="1:7">
       <c r="E15" t="s">
         <v>153</v>
       </c>
@@ -5332,7 +4892,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="16" spans="5:7">
+    <row r="16" spans="1:7">
       <c r="E16" t="s">
         <v>155</v>
       </c>
@@ -5776,33 +5336,43 @@
         <v>222</v>
       </c>
     </row>
+    <row r="53" spans="5:7">
+      <c r="E53" s="33" t="s">
+        <v>386</v>
+      </c>
+      <c r="F53" s="33" t="s">
+        <v>387</v>
+      </c>
+      <c r="G53" s="33" t="s">
+        <v>388</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="23" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView topLeftCell="C13" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="5" max="5" width="26.5833333333333" customWidth="1"/>
-    <col min="6" max="6" width="25.5" customWidth="1"/>
-    <col min="7" max="7" width="17.4166666666667" customWidth="1"/>
-    <col min="8" max="8" width="21.9166666666667" customWidth="1"/>
-    <col min="11" max="11" width="19.0833333333333" customWidth="1"/>
-    <col min="13" max="13" width="12.75" customWidth="1"/>
-    <col min="14" max="14" width="15.5" customWidth="1"/>
+    <col min="5" max="5" width="26.5546875" customWidth="1"/>
+    <col min="6" max="6" width="25.44140625" customWidth="1"/>
+    <col min="7" max="7" width="17.44140625" customWidth="1"/>
+    <col min="8" max="8" width="21.88671875" customWidth="1"/>
+    <col min="11" max="11" width="19.109375" customWidth="1"/>
+    <col min="13" max="13" width="12.77734375" customWidth="1"/>
+    <col min="14" max="14" width="15.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -5816,7 +5386,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:15">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -5874,7 +5444,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="8" spans="5:15">
+    <row r="8" spans="1:15">
       <c r="E8" t="s">
         <v>235</v>
       </c>
@@ -5906,7 +5476,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="5:15">
+    <row r="9" spans="1:15">
       <c r="E9" t="s">
         <v>240</v>
       </c>
@@ -5932,7 +5502,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="5:15">
+    <row r="10" spans="1:15">
       <c r="E10" t="s">
         <v>242</v>
       </c>
@@ -5964,7 +5534,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="5:15">
+    <row r="11" spans="1:15">
       <c r="E11" t="s">
         <v>246</v>
       </c>
@@ -5990,7 +5560,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="5:15">
+    <row r="12" spans="1:15">
       <c r="E12" t="s">
         <v>248</v>
       </c>
@@ -6022,7 +5592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:15">
       <c r="A14" t="s">
         <v>50</v>
       </c>
@@ -6051,7 +5621,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="15" spans="5:9">
+    <row r="15" spans="1:15">
       <c r="E15" t="s">
         <v>258</v>
       </c>
@@ -6070,7 +5640,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="16" spans="5:9">
+    <row r="16" spans="1:15">
       <c r="E16" t="s">
         <v>258</v>
       </c>
@@ -6165,7 +5735,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="21" customFormat="1" spans="5:9">
+    <row r="21" spans="5:9">
       <c r="E21" t="s">
         <v>258</v>
       </c>
@@ -6184,7 +5754,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="22" customFormat="1" spans="5:9">
+    <row r="22" spans="5:9">
       <c r="E22" t="s">
         <v>258</v>
       </c>
@@ -6204,28 +5774,29 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="23" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Y30"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="5" max="5" width="17.8333333333333" customWidth="1"/>
-    <col min="6" max="6" width="22.5" customWidth="1"/>
-    <col min="7" max="7" width="39.3541666666667" customWidth="1"/>
+    <col min="5" max="5" width="28.6640625" customWidth="1"/>
+    <col min="6" max="6" width="22.44140625" customWidth="1"/>
+    <col min="7" max="7" width="39.33203125" customWidth="1"/>
+    <col min="8" max="8" width="13.88671875" customWidth="1"/>
+    <col min="9" max="9" width="15.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -6239,7 +5810,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:25">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -6327,7 +5898,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="8" spans="5:23">
+    <row r="8" spans="1:25">
       <c r="E8" t="s">
         <v>277</v>
       </c>
@@ -6386,7 +5957,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="5:23">
+    <row r="9" spans="1:25">
       <c r="E9" t="s">
         <v>283</v>
       </c>
@@ -6445,7 +6016,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="5:25">
+    <row r="10" spans="1:25">
       <c r="E10" t="s">
         <v>288</v>
       </c>
@@ -6508,7 +6079,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="11" spans="5:25">
+    <row r="11" spans="1:25">
       <c r="E11" t="s">
         <v>295</v>
       </c>
@@ -6571,7 +6142,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="12" spans="5:25">
+    <row r="12" spans="1:25">
       <c r="E12" t="s">
         <v>303</v>
       </c>
@@ -6634,7 +6205,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="13" spans="5:25">
+    <row r="13" spans="1:25">
       <c r="E13" t="s">
         <v>310</v>
       </c>
@@ -6697,7 +6268,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="14" spans="5:23">
+    <row r="14" spans="1:25">
       <c r="E14" t="s">
         <v>317</v>
       </c>
@@ -6754,7 +6325,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:25">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -7095,26 +6666,25 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="23" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="5" max="5" width="17.5" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -7128,7 +6698,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:15">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -7186,7 +6756,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="8" spans="5:15">
+    <row r="8" spans="1:15">
       <c r="E8" t="s">
         <v>235</v>
       </c>
@@ -7218,7 +6788,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="5:15">
+    <row r="9" spans="1:15">
       <c r="E9" t="s">
         <v>350</v>
       </c>
@@ -7247,7 +6817,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="5:15">
+    <row r="10" spans="1:15">
       <c r="E10" t="s">
         <v>353</v>
       </c>
@@ -7279,7 +6849,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="5:15">
+    <row r="11" spans="1:15">
       <c r="E11" t="s">
         <v>240</v>
       </c>
@@ -7311,7 +6881,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="5:15">
+    <row r="12" spans="1:15">
       <c r="E12" t="s">
         <v>242</v>
       </c>
@@ -7343,7 +6913,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="13" spans="5:15">
+    <row r="13" spans="1:15">
       <c r="E13" t="s">
         <v>361</v>
       </c>
@@ -7375,7 +6945,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="5:15">
+    <row r="14" spans="1:15">
       <c r="E14" t="s">
         <v>365</v>
       </c>
@@ -7407,7 +6977,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="5:15">
+    <row r="15" spans="1:15">
       <c r="E15" t="s">
         <v>368</v>
       </c>
@@ -7439,7 +7009,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="5:15">
+    <row r="16" spans="1:15">
       <c r="E16" t="s">
         <v>372</v>
       </c>
@@ -7568,8 +7138,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <phoneticPr fontId="23" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/script/db/init-data/hrds_code_repo/hzero_platform/hzero-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/hrds_code_repo/hzero_platform/hzero-menu-user-role-label.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="597" activeTab="2"/>
+    <workbookView windowWidth="19485" windowHeight="8460" tabRatio="597" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -2005,7 +2005,7 @@
     <t>10</t>
   </si>
   <si>
-    <t>account_balance</t>
+    <t>settings_ethernet</t>
   </si>
   <si>
     <t>/rducm/code-lib-org</t>
@@ -2902,9 +2902,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="39">
     <font>
@@ -2988,10 +2988,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3016,11 +3017,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3032,22 +3055,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -3055,7 +3072,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3063,7 +3080,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3094,7 +3111,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3102,33 +3119,16 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3214,13 +3214,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3232,43 +3274,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3286,7 +3292,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3304,25 +3340,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3334,37 +3364,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3376,19 +3388,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3495,41 +3495,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3549,13 +3519,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3565,15 +3539,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3592,16 +3557,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3610,133 +3610,133 @@
     <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="27" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -4208,22 +4208,22 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.5694444444444" style="8" customWidth="1"/>
-    <col min="2" max="2" width="10.3541666666667" style="9" customWidth="1"/>
-    <col min="3" max="3" width="28.1388888888889" customWidth="1"/>
-    <col min="4" max="4" width="35.3541666666667" style="5" customWidth="1"/>
-    <col min="5" max="5" width="38.5694444444444" customWidth="1"/>
-    <col min="6" max="6" width="23.4236111111111" customWidth="1"/>
-    <col min="7" max="7" width="21.5694444444444" customWidth="1"/>
+    <col min="1" max="1" width="15.5703703703704" style="8" customWidth="1"/>
+    <col min="2" max="2" width="10.3555555555556" style="9" customWidth="1"/>
+    <col min="3" max="3" width="28.1407407407407" customWidth="1"/>
+    <col min="4" max="4" width="35.3555555555556" style="5" customWidth="1"/>
+    <col min="5" max="5" width="38.5703703703704" customWidth="1"/>
+    <col min="6" max="6" width="23.4222222222222" customWidth="1"/>
+    <col min="7" max="7" width="21.5703703703704" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5694444444444" customWidth="1"/>
+    <col min="9" max="9" width="24.5703703703704" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.1388888888889" customWidth="1"/>
-    <col min="12" max="12" width="18.5694444444444" customWidth="1"/>
-    <col min="13" max="13" width="13.1388888888889" customWidth="1"/>
-    <col min="14" max="1025" width="10.3541666666667" customWidth="1"/>
+    <col min="11" max="11" width="19.1407407407407" customWidth="1"/>
+    <col min="12" max="12" width="18.5703703703704" customWidth="1"/>
+    <col min="13" max="13" width="13.1407407407407" customWidth="1"/>
+    <col min="14" max="1025" width="10.3555555555556" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="64.5" customHeight="1" spans="1:8">
@@ -4237,7 +4237,7 @@
       <c r="G1" s="12"/>
       <c r="H1" s="12"/>
     </row>
-    <row r="2" spans="5:5">
+    <row r="2" ht="18" spans="5:5">
       <c r="E2" s="13"/>
     </row>
     <row r="3" ht="49.5" customHeight="1" spans="3:7">
@@ -4251,7 +4251,7 @@
       <c r="F3" s="15"/>
       <c r="G3" s="15"/>
     </row>
-    <row r="4" spans="3:7">
+    <row r="4" ht="18" spans="3:7">
       <c r="C4" s="16" t="s">
         <v>3</v>
       </c>
@@ -4272,7 +4272,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="3:5">
+    <row r="7" ht="18" spans="3:5">
       <c r="C7" s="20" t="s">
         <v>8</v>
       </c>
@@ -4292,7 +4292,7 @@
       </c>
       <c r="E8" s="25"/>
     </row>
-    <row r="9" ht="52.2" spans="3:6">
+    <row r="9" ht="51.75" spans="3:6">
       <c r="C9" s="26" t="s">
         <v>13</v>
       </c>
@@ -4306,7 +4306,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" ht="52.2" spans="3:5">
+    <row r="10" ht="51.75" spans="3:5">
       <c r="C10" s="29" t="s">
         <v>17</v>
       </c>
@@ -4317,7 +4317,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" ht="69.6" spans="3:5">
+    <row r="11" ht="69" spans="3:5">
       <c r="C11" s="23" t="s">
         <v>20</v>
       </c>
@@ -4349,7 +4349,7 @@
       <c r="D14" s="24"/>
       <c r="E14" s="25"/>
     </row>
-    <row r="15" ht="34.8" spans="3:5">
+    <row r="15" ht="34.5" spans="3:5">
       <c r="C15" s="31" t="s">
         <v>26</v>
       </c>
@@ -4372,7 +4372,7 @@
       <c r="D19" s="34"/>
       <c r="E19" s="34"/>
     </row>
-    <row r="20" spans="3:4">
+    <row r="20" ht="18" spans="3:4">
       <c r="C20" s="35" t="s">
         <v>31</v>
       </c>
@@ -4380,7 +4380,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="3:4">
+    <row r="21" ht="18" spans="3:4">
       <c r="C21" s="35" t="s">
         <v>33</v>
       </c>
@@ -4388,7 +4388,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="3:4">
+    <row r="22" ht="18" spans="3:4">
       <c r="C22" s="35" t="s">
         <v>35</v>
       </c>
@@ -4396,7 +4396,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="3:4">
+    <row r="23" ht="18" spans="3:4">
       <c r="C23" s="35" t="s">
         <v>37</v>
       </c>
@@ -4422,7 +4422,7 @@
       </c>
       <c r="E26" s="14"/>
     </row>
-    <row r="27" ht="52.2" spans="3:3">
+    <row r="27" ht="51.75" spans="3:3">
       <c r="C27" s="37" t="s">
         <v>43</v>
       </c>
@@ -4448,17 +4448,18 @@
   <sheetPr/>
   <dimension ref="A1:Y19"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
     <col min="5" max="5" width="16.6666666666667" customWidth="1"/>
-    <col min="6" max="6" width="46.75" customWidth="1"/>
-    <col min="7" max="7" width="15.25" customWidth="1"/>
-    <col min="11" max="11" width="16.75" customWidth="1"/>
-    <col min="16" max="16" width="45.8541666666667" customWidth="1"/>
+    <col min="6" max="6" width="46.7481481481481" customWidth="1"/>
+    <col min="7" max="7" width="15.2518518518519" customWidth="1"/>
+    <col min="11" max="11" width="16.7481481481481" customWidth="1"/>
+    <col min="15" max="15" width="29.6666666666667" customWidth="1"/>
+    <col min="16" max="16" width="45.8518518518519" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -5177,15 +5178,15 @@
   <sheetPr/>
   <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B43" workbookViewId="0">
+    <sheetView topLeftCell="B43" workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="6"/>
   <cols>
-    <col min="5" max="5" width="21.2847222222222" customWidth="1"/>
-    <col min="6" max="6" width="17.5694444444444" customWidth="1"/>
-    <col min="7" max="7" width="30.3541666666667" customWidth="1"/>
+    <col min="5" max="5" width="21.2814814814815" customWidth="1"/>
+    <col min="6" max="6" width="17.5703703703704" customWidth="1"/>
+    <col min="7" max="7" width="30.3555555555556" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -5791,15 +5792,15 @@
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="5" max="5" width="26.5833333333333" customWidth="1"/>
-    <col min="6" max="6" width="25.5" customWidth="1"/>
-    <col min="7" max="7" width="17.4166666666667" customWidth="1"/>
-    <col min="8" max="8" width="21.9166666666667" customWidth="1"/>
-    <col min="11" max="11" width="19.0833333333333" customWidth="1"/>
-    <col min="13" max="13" width="12.75" customWidth="1"/>
-    <col min="14" max="14" width="15.5" customWidth="1"/>
+    <col min="5" max="5" width="26.5851851851852" customWidth="1"/>
+    <col min="6" max="6" width="25.5037037037037" customWidth="1"/>
+    <col min="7" max="7" width="17.4148148148148" customWidth="1"/>
+    <col min="8" max="8" width="21.9185185185185" customWidth="1"/>
+    <col min="11" max="11" width="19.0814814814815" customWidth="1"/>
+    <col min="13" max="13" width="12.7481481481481" customWidth="1"/>
+    <col min="14" max="14" width="15.5037037037037" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -6218,11 +6219,11 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="5" max="5" width="17.8333333333333" customWidth="1"/>
-    <col min="6" max="6" width="22.5" customWidth="1"/>
-    <col min="7" max="7" width="39.3541666666667" customWidth="1"/>
+    <col min="5" max="5" width="17.837037037037" customWidth="1"/>
+    <col min="6" max="6" width="22.5037037037037" customWidth="1"/>
+    <col min="7" max="7" width="39.3555555555556" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -7109,9 +7110,9 @@
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="5" max="5" width="17.5" customWidth="1"/>
+    <col min="5" max="5" width="17.5037037037037" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">

--- a/src/main/resources/script/db/init-data/hrds_code_repo/hzero_platform/hzero-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/hrds_code_repo/hzero_platform/hzero-menu-user-role-label.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\choerodon\code-repo-service\src\main\resources\script\db\init-data\hrds_code_repo\hzero_platform\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="19485" windowHeight="8460" tabRatio="597" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19488" windowHeight="8460" tabRatio="597" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -20,7 +25,7 @@
     <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
     <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -32,6 +37,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">注意这个文档不能 </t>
@@ -50,6 +56,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>！！
@@ -62,6 +69,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">正式的数据从第二个 </t>
@@ -80,6 +88,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页开始</t>
@@ -98,6 +107,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">每页 从 </t>
@@ -116,6 +126,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格开始有效
@@ -147,6 +158,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>颜色示例</t>
@@ -165,6 +177,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非必须</t>
@@ -183,6 +196,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非强制</t>
@@ -204,6 +218,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>请给特殊单元格</t>
@@ -224,6 +239,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列名添加颜色</t>
@@ -244,6 +260,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>提高数据可读性</t>
@@ -264,6 +281,7 @@
         <sz val="12"/>
         <color rgb="FFC55A11"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动生成</t>
@@ -284,6 +302,7 @@
         <sz val="12"/>
         <color rgb="FF2E75B6"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>唯一性检查</t>
@@ -295,6 +314,7 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -313,6 +333,7 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -324,6 +345,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>理论上</t>
@@ -342,6 +364,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表的前后顺序</t>
@@ -360,6 +383,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页的顺序没有严格要求</t>
@@ -378,6 +402,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但请尽量按照先插 后引用的顺序排列</t>
@@ -396,6 +421,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>减少迭代次数</t>
@@ -443,6 +469,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -461,6 +488,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>该列的值自动生成</t>
@@ -479,6 +507,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当数据库存在等价记录时</t>
@@ -497,6 +526,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>这个值会被替换为数据库中已存在的值</t>
@@ -508,6 +538,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自增长</t>
@@ -526,6 +557,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>或序列</t>
@@ -544,6 +576,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>主键列</t>
@@ -563,6 +596,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当不作为外键引用时</t>
@@ -581,6 +615,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般写</t>
@@ -600,6 +635,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>作为外键时</t>
@@ -618,6 +654,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>写可读的值</t>
@@ -629,6 +666,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">目前 </t>
@@ -647,6 +685,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>是序列</t>
@@ -665,6 +704,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他自增涨</t>
@@ -688,6 +728,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -706,6 +747,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表中所有带有</t>
@@ -724,6 +766,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>的列组成一个唯一性校验</t>
@@ -742,6 +785,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>在执行插入之前</t>
@@ -760,6 +804,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会首先按照唯一键来检查数据库是否存在等价记录</t>
@@ -771,6 +816,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>可以有多列</t>
@@ -789,6 +835,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>仅支持</t>
@@ -799,6 +846,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>数字</t>
@@ -819,6 +867,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">字符串
@@ -829,6 +878,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当</t>
@@ -847,6 +897,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列涉及到公式时</t>
@@ -865,6 +916,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会先确定公式的值</t>
@@ -888,6 +940,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定这一列的类型</t>
@@ -906,6 +959,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>默认会自动检测</t>
@@ -925,6 +979,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为数字</t>
@@ -944,6 +999,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为日期</t>
@@ -963,6 +1019,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他默认为</t>
@@ -983,6 +1040,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般不需要指定</t>
@@ -1002,6 +1060,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>日期格式仅支持</t>
@@ -1036,6 +1095,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定语言环境</t>
@@ -1056,6 +1116,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表数据不需要专门写</t>
@@ -1067,6 +1128,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -1085,6 +1147,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -1105,6 +1168,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>用于引用外键</t>
@@ -1123,6 +1187,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>也可用于普通值
@@ -1135,6 +1200,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动增长列</t>
@@ -1153,6 +1219,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>如果被公式引用</t>
@@ -1171,6 +1238,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>最好写一个人可以读懂的值</t>
@@ -1189,6 +1257,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>增强公式可读性</t>
@@ -1203,6 +1272,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般用于引用自动生成的外键</t>
@@ -1221,6 +1291,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">所有公式均为 </t>
@@ -1239,6 +1310,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>支持的标准公式</t>
@@ -1257,6 +1329,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但不支持特别复杂的计算公式</t>
@@ -1275,6 +1348,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>比如范围计算</t>
@@ -1290,6 +1364,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1299,6 +1374,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1317,6 +1393,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1332,6 +1409,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1341,6 +1419,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1359,6 +1438,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1373,6 +1453,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1391,6 +1472,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1409,6 +1491,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1428,6 +1511,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1451,6 +1535,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1469,6 +1554,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1487,6 +1573,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1506,6 +1593,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1526,6 +1614,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1536,6 +1625,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1545,6 +1635,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1556,6 +1647,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>举例</t>
@@ -1574,6 +1666,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">当 </t>
@@ -1592,6 +1685,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格引用 </t>
@@ -1610,6 +1704,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">时
@@ -1629,6 +1724,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1647,6 +1743,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格时</t>
@@ -1665,6 +1762,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用的是 </t>
@@ -1684,6 +1782,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">将 </t>
@@ -1702,6 +1801,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1720,6 +1820,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>时</t>
@@ -1738,6 +1839,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">实际引用的是 </t>
@@ -1757,6 +1859,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>以上情况适用于拖拽填充</t>
@@ -1768,6 +1871,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1778,6 +1882,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1787,6 +1892,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1798,6 +1904,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>复制公式单元格时</t>
@@ -1816,6 +1923,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>保持公式不变</t>
@@ -1827,6 +1935,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对引用</t>
@@ -1845,6 +1954,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对引用各有用途</t>
@@ -1864,6 +1974,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>直接拖拽填充就可以避免大量重复工作</t>
@@ -1963,950 +2074,945 @@
     <t>category</t>
   </si>
   <si>
+    <t>organization</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>root</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>api</t>
+  </si>
+  <si>
+    <t>iam_menu-9</t>
+  </si>
+  <si>
+    <t>choerodon.code.organization.infra.code-lib-management</t>
+  </si>
+  <si>
+    <t>代码库管理</t>
+  </si>
+  <si>
+    <t>menu</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>settings_ethernet</t>
+  </si>
+  <si>
+    <t>/rducm/code-lib-org</t>
+  </si>
+  <si>
+    <t>choerodon.code.organization.infra|choerodon.code.organization.infra.code-lib-management</t>
+  </si>
+  <si>
+    <t>iam_menu-10</t>
+  </si>
+  <si>
+    <t>choerodon.code.organization.infra.code-lib-management.ps.default</t>
+  </si>
+  <si>
+    <t>默认权限集</t>
+  </si>
+  <si>
+    <t>ps</t>
+  </si>
+  <si>
+    <t>choerodon.code.organization.infra|choerodon.code.organization.infra.code-lib-management|choerodon.code.organization.infra.code-lib-management.ps.default</t>
+  </si>
+  <si>
+    <t>disabled</t>
+  </si>
+  <si>
+    <t>iam_menu-11</t>
+  </si>
+  <si>
+    <t>choerodon.code.organization.infra.code-lib-management.ps.project-owner</t>
+  </si>
+  <si>
+    <t>组织管理员</t>
+  </si>
+  <si>
+    <t>link</t>
+  </si>
+  <si>
+    <t>choerodon.code.organization.infra|choerodon.code.organization.infra.code-lib-management|choerodon.code.organization.infra.code-lib-management.ps.project-owner</t>
+  </si>
+  <si>
+    <t>iam_menu-12</t>
+  </si>
+  <si>
+    <t>choerodon.code.person.setting</t>
+  </si>
+  <si>
+    <t>个人信息</t>
+  </si>
+  <si>
+    <t>iam_menu-13</t>
+  </si>
+  <si>
+    <t>choerodon.code.person.setting.personal-setting</t>
+  </si>
+  <si>
+    <t>个人设置</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>manage_person</t>
+  </si>
+  <si>
+    <t>/rducm/personal-setting</t>
+  </si>
+  <si>
+    <t>choerodon.code.person.setting|choerodon.code.person.setting.personal-setting</t>
+  </si>
+  <si>
+    <t>iam_menu-14</t>
+  </si>
+  <si>
+    <t>choerodon.code.person.setting.personal-setting.ps.default</t>
+  </si>
+  <si>
+    <t>choerodon.code.person.setting|choerodon.code.person.setting.personal-setting|choerodon.code.person.setting.personal-setting.ps.default</t>
+  </si>
+  <si>
+    <t>iam_menu-16</t>
+  </si>
+  <si>
+    <t>choerodon.code.project.infra.code-lib-management</t>
+  </si>
+  <si>
+    <t>/rducm/code-lib-management</t>
+  </si>
+  <si>
+    <t>choerodon.code.project.infra|choerodon.code.project.infra.code-lib-management</t>
+  </si>
+  <si>
+    <t>iam_menu-17</t>
+  </si>
+  <si>
+    <t>choerodon.code.project.infra.code-lib-management.ps.default</t>
+  </si>
+  <si>
+    <t>choerodon.code.project.infra|choerodon.code.project.infra.code-lib-management|choerodon.code.project.infra.code-lib-management.ps.default</t>
+  </si>
+  <si>
+    <t>iam_menu-18</t>
+  </si>
+  <si>
+    <t>choerodon.code.project.infra.code-lib-management.ps.project-member</t>
+  </si>
+  <si>
+    <t>项目成员</t>
+  </si>
+  <si>
+    <t>choerodon.code.project.infra|choerodon.code.project.infra.code-lib-management|choerodon.code.project.infra.code-lib-management.ps.project-member</t>
+  </si>
+  <si>
+    <t>iam_menu-19</t>
+  </si>
+  <si>
+    <t>choerodon.code.project.infra.code-lib-management.ps.project-owner</t>
+  </si>
+  <si>
+    <t>项目所有者</t>
+  </si>
+  <si>
+    <t>choerodon.code.project.infra|choerodon.code.project.infra.code-lib-management|choerodon.code.project.infra.code-lib-management.ps.project-owner</t>
+  </si>
+  <si>
+    <t>iam_menu-20</t>
+  </si>
+  <si>
+    <t>choerodon.code.project.develop</t>
+  </si>
+  <si>
+    <t>开发</t>
+  </si>
+  <si>
+    <t>KF</t>
+  </si>
+  <si>
+    <t>菜单权限</t>
+  </si>
+  <si>
+    <t>iam_menu_permission</t>
+  </si>
+  <si>
+    <t>#menu_id</t>
+  </si>
+  <si>
+    <t>#permission_code</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-8</t>
+  </si>
+  <si>
+    <t>code-repo-service.member-audit-log-org.detailLatest</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-9</t>
+  </si>
+  <si>
+    <t>code-repo-service.org.listProjectsByUserId</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-10</t>
+  </si>
+  <si>
+    <t>code-repo-service.rdm-member-audit-record-org.pageByOptions</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-11</t>
+  </si>
+  <si>
+    <t>code-repo-service.rdm-member-org.pageByOptions</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-12</t>
+  </si>
+  <si>
+    <t>code-repo-service.rdm-operation-log-org.pageByOptionsMemberLog</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-13</t>
+  </si>
+  <si>
+    <t>code-repo-service.project.listDeveloperProjectMembers</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-14</t>
+  </si>
+  <si>
+    <t>code-repo-service.rdm-member-applicant-proj.create</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-15</t>
+  </si>
+  <si>
+    <t>code-repo-service.rdm-member-applicant-proj.detectApplicantType</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-16</t>
+  </si>
+  <si>
+    <t>code-repo-service.rdm-member-applicant-proj.pageByOptionsSelf</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-17</t>
+  </si>
+  <si>
+    <t>code-repo-service.rdm-member-proj.export</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-18</t>
+  </si>
+  <si>
+    <t>code-repo-service.rdm-member-proj.pageByOptions</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-19</t>
+  </si>
+  <si>
+    <t>code-repo-service.rdm-repository-proj.listByActive</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-20</t>
+  </si>
+  <si>
+    <t>code-repo-service.member-audit-log.detailLatest</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-21</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-22</t>
+  </si>
+  <si>
+    <t>code-repo-service.rdm-branch.createProtectedBranch</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-23</t>
+  </si>
+  <si>
+    <t>code-repo-service.rdm-branch.getBranches</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-24</t>
+  </si>
+  <si>
+    <t>code-repo-service.rdm-branch.getProtectedBranches</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-25</t>
+  </si>
+  <si>
+    <t>code-repo-service.rdm-branch.removeProtectedBranch</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-26</t>
+  </si>
+  <si>
+    <t>code-repo-service.rdm-branch.updateProtectedBranch</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-27</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-28</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-29</t>
+  </si>
+  <si>
+    <t>code-repo-service.rdm-member-applicant-proj.pageByOptions</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-30</t>
+  </si>
+  <si>
+    <t>code-repo-service.rdm-member-applicant-proj.passAndHandleMember</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-31</t>
+  </si>
+  <si>
+    <t>code-repo-service.rdm-member-applicant-proj.refuse</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-32</t>
+  </si>
+  <si>
+    <t>code-repo-service.rdm-member-audit-record-proj.auditFix</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-33</t>
+  </si>
+  <si>
+    <t>code-repo-service.rdm-member-audit-record-proj.pageByOptions</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-34</t>
+  </si>
+  <si>
+    <t>code-repo-service.rdm-member-audit-record-proj.sync</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-35</t>
+  </si>
+  <si>
+    <t>code-repo-service.rdm-member-proj.batchAddMembers</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-36</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-37</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-38</t>
+  </si>
+  <si>
+    <t>code-repo-service.rdm-member-proj.pageSecurityAudit</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-39</t>
+  </si>
+  <si>
+    <t>code-repo-service.rdm-member.removeMember</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-40</t>
+  </si>
+  <si>
+    <t>code-repo-service.rdm-member.syncMember</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-41</t>
+  </si>
+  <si>
+    <t>code-repo-service.rdm-member.syncMembersFromGitlab</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-42</t>
+  </si>
+  <si>
+    <t>code-repo-service.rdm-member.updateMember</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-43</t>
+  </si>
+  <si>
+    <t>code-repo-service.rdm-operation-log-proj.pageByOptionsMemberLog</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-44</t>
+  </si>
+  <si>
+    <t>code-repo-service.rdm-project.pageMemberPermissions</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-45</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-46</t>
+  </si>
+  <si>
+    <t>code-repo-service.rdm-repository-proj.pageOverviewByOptions</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-47</t>
+  </si>
+  <si>
+    <t>code-repo-service.rdm-tag.createProtectedTag</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-48</t>
+  </si>
+  <si>
+    <t>code-repo-service.rdm-tag.deleteProtectedTag</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-49</t>
+  </si>
+  <si>
+    <t>code-repo-service.rdm-tag.getProtectedTags</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-50</t>
+  </si>
+  <si>
+    <t>code-repo-service.rdm-tag.getTags</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-51</t>
+  </si>
+  <si>
+    <t>code-repo-service.rdm-tag.updateProtectedTag</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-52</t>
+  </si>
+  <si>
+    <t>code-repo-service.rdm-member-org.export</t>
+  </si>
+  <si>
+    <t>标签表</t>
+  </si>
+  <si>
+    <t>iam_label</t>
+  </si>
+  <si>
+    <t>#name</t>
+  </si>
+  <si>
+    <t>#type</t>
+  </si>
+  <si>
+    <t>enabled_flag</t>
+  </si>
+  <si>
+    <t>fd_level</t>
+  </si>
+  <si>
+    <t>description:zh_CN</t>
+  </si>
+  <si>
+    <t>description:en_US</t>
+  </si>
+  <si>
+    <t>tag</t>
+  </si>
+  <si>
+    <t>inherit_flag</t>
+  </si>
+  <si>
+    <t>preset_flag</t>
+  </si>
+  <si>
+    <t>visible_flag</t>
+  </si>
+  <si>
+    <t>iam_label-8</t>
+  </si>
+  <si>
+    <t>TENANT_MENU</t>
+  </si>
+  <si>
+    <t>MENU</t>
+  </si>
+  <si>
+    <t>TENANT</t>
+  </si>
+  <si>
+    <t>标识组织层菜单</t>
+  </si>
+  <si>
+    <t>iam_label-11</t>
+  </si>
+  <si>
+    <t>USER_MENU</t>
+  </si>
+  <si>
+    <t>iam_label-12</t>
+  </si>
+  <si>
+    <t>SITE_MENU</t>
+  </si>
+  <si>
+    <t>SITE</t>
+  </si>
+  <si>
+    <t>标识平台层菜单</t>
+  </si>
+  <si>
+    <t>iam_label-20</t>
+  </si>
+  <si>
+    <t>TENANT_GENERAL</t>
+  </si>
+  <si>
+    <t>iam_label-21</t>
+  </si>
+  <si>
+    <t>N_DEVOPS_MENU</t>
+  </si>
+  <si>
+    <t>Devops流程</t>
+  </si>
+  <si>
+    <t>标签关系表</t>
+  </si>
+  <si>
+    <t>hiam_label_rel</t>
+  </si>
+  <si>
+    <t>*label_rel_id</t>
+  </si>
+  <si>
+    <t>#data_type</t>
+  </si>
+  <si>
+    <t>#data_id</t>
+  </si>
+  <si>
+    <t>#label_id</t>
+  </si>
+  <si>
+    <t>assign_type</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>角色</t>
+  </si>
+  <si>
+    <t>iam_role</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>h_inherit_role_id</t>
+  </si>
+  <si>
+    <t>#h_parent_role_id</t>
+  </si>
+  <si>
+    <t>#h_parent_role_assign_level</t>
+  </si>
+  <si>
+    <t>h_parent_role_assign_level_val</t>
+  </si>
+  <si>
+    <t>is_enabled</t>
+  </si>
+  <si>
+    <t>is_modified</t>
+  </si>
+  <si>
+    <t>is_enable_forbidden</t>
+  </si>
+  <si>
+    <t>is_built_in</t>
+  </si>
+  <si>
+    <t>is_assignable</t>
+  </si>
+  <si>
+    <t>h_inherit_level_path</t>
+  </si>
+  <si>
+    <t>#created_by_tenant_id</t>
+  </si>
+  <si>
+    <t>tpl_role_name:zh_CN</t>
+  </si>
+  <si>
+    <t>tpl_role_name:en_US</t>
+  </si>
+  <si>
+    <t>iam_role-8</t>
+  </si>
+  <si>
+    <t>平台管理员</t>
+  </si>
+  <si>
+    <t>Site Administrator</t>
+  </si>
+  <si>
+    <t>role/site/default/administrator</t>
+  </si>
+  <si>
+    <t>abcf</t>
+  </si>
+  <si>
+    <t>site</t>
+  </si>
+  <si>
+    <t>iam_role-9</t>
+  </si>
+  <si>
+    <t>租户管理员</t>
+  </si>
+  <si>
+    <t>Organization Administrator</t>
+  </si>
+  <si>
+    <t>role/organization/default/administrator</t>
+  </si>
+  <si>
+    <t>abce</t>
+  </si>
+  <si>
+    <t>iam_role-10</t>
+  </si>
+  <si>
+    <t>租户管理员模板</t>
+  </si>
+  <si>
+    <t>Tenant admin template</t>
+  </si>
+  <si>
+    <t>role/organization/default/template/administrator</t>
+  </si>
+  <si>
+    <t>role/organization/default/administrator|HZERO.T.role/organization/default/template/administrator</t>
+  </si>
+  <si>
+    <t>HZERO.T.role/organization/default/template/administrator</t>
+  </si>
+  <si>
+    <t>Tenant Admin</t>
+  </si>
+  <si>
+    <t>iam_role-11</t>
+  </si>
+  <si>
+    <t>租户成员模板</t>
+  </si>
+  <si>
+    <t>Organization Member template</t>
+  </si>
+  <si>
+    <t>role/organization/default/template/member</t>
+  </si>
+  <si>
+    <t>role/organization/default/administrator|HZERO.T.role/organization/default/template/organization-member</t>
+  </si>
+  <si>
+    <t>HZERO.T.role/organization/default/template/organization-member</t>
+  </si>
+  <si>
+    <t>组织成员</t>
+  </si>
+  <si>
+    <t>Organization Member</t>
+  </si>
+  <si>
+    <t>iam_role-12</t>
+  </si>
+  <si>
+    <t>项目管理员模板</t>
+  </si>
+  <si>
+    <t>Project Admin template</t>
+  </si>
+  <si>
+    <t>role/project/default/template/project-admin</t>
+  </si>
+  <si>
+    <t>role/organization/default/administrator|HZERO.T.role/project/default/template/project-admin</t>
+  </si>
+  <si>
+    <t>HZERO.T.role/project/default/template/project-admin</t>
+  </si>
+  <si>
+    <t>Project Admin</t>
+  </si>
+  <si>
+    <t>iam_role-13</t>
+  </si>
+  <si>
+    <t>项目成员模板</t>
+  </si>
+  <si>
+    <t>Project member template</t>
+  </si>
+  <si>
+    <t>role/project/default/template/project-member</t>
+  </si>
+  <si>
+    <t>role/organization/default/administrator|HZERO.T.role/project/default/template/project-member</t>
+  </si>
+  <si>
+    <t>HZERO.T.role/project/default/template/project-member</t>
+  </si>
+  <si>
+    <t>Project member</t>
+  </si>
+  <si>
+    <t>iam_role-14</t>
+  </si>
+  <si>
+    <t>平台开发者</t>
+  </si>
+  <si>
+    <t>role/site/default/developer</t>
+  </si>
+  <si>
+    <t>role/site/default/administrator|HZERO-PLATFORM.T.role/site/default/developer</t>
+  </si>
+  <si>
+    <t>HZERO-PLATFORM.T.role/site/default/developer</t>
+  </si>
+  <si>
+    <t>角色权限</t>
+  </si>
+  <si>
+    <t>iam_role_permission</t>
+  </si>
+  <si>
+    <t>#role_id</t>
+  </si>
+  <si>
+    <t>#permission_id</t>
+  </si>
+  <si>
+    <t>h_create_flag</t>
+  </si>
+  <si>
+    <t>h_inherit_flag</t>
+  </si>
+  <si>
+    <t>iam_role_permission-17</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>PS</t>
+  </si>
+  <si>
+    <t>iam_role_permission-18</t>
+  </si>
+  <si>
+    <t>iam_role_permission-19</t>
+  </si>
+  <si>
+    <t>iam_role_permission-20</t>
+  </si>
+  <si>
+    <t>iam_role_permission-21</t>
+  </si>
+  <si>
+    <t>iam_role_permission-22</t>
+  </si>
+  <si>
+    <t>iam_role_permission-23</t>
+  </si>
+  <si>
+    <t>iam_role_permission-24</t>
+  </si>
+  <si>
+    <t>iam_role_permission-25</t>
+  </si>
+  <si>
+    <t>iam_role_permission-26</t>
+  </si>
+  <si>
+    <t>iam_role_permission-27</t>
+  </si>
+  <si>
+    <t>iam_role_permission-28</t>
+  </si>
+  <si>
+    <t>iam_role_permission-29</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>iam_role_permission-30</t>
+  </si>
+  <si>
+    <t>TENANT_MGR</t>
+  </si>
+  <si>
+    <t>ROLE</t>
+  </si>
+  <si>
+    <t>租户管理员标签</t>
+  </si>
+  <si>
+    <t>Tenant Manager Label</t>
+  </si>
+  <si>
+    <t>iam_label-9</t>
+  </si>
+  <si>
+    <t>SITE_MGR</t>
+  </si>
+  <si>
+    <t>平台管理员标签</t>
+  </si>
+  <si>
+    <t>iam_label-10</t>
+  </si>
+  <si>
+    <t>TENANT_ROLE_TPL</t>
+  </si>
+  <si>
+    <t>标识内置模板角色</t>
+  </si>
+  <si>
+    <t>TENANT_ROLE</t>
+  </si>
+  <si>
+    <t>标识租户层角色</t>
+  </si>
+  <si>
+    <t>Tenant Role</t>
+  </si>
+  <si>
+    <t>TENANT_ADMIN</t>
+  </si>
+  <si>
+    <t>标识租户管理员角色</t>
+  </si>
+  <si>
+    <t>iam_label-13</t>
+  </si>
+  <si>
+    <t>PROJECT_ROLE</t>
+  </si>
+  <si>
+    <t>标识项目层角色</t>
+  </si>
+  <si>
+    <t>Project Role</t>
+  </si>
+  <si>
+    <t>iam_label-14</t>
+  </si>
+  <si>
+    <t>PROJECT_ADMIN</t>
+  </si>
+  <si>
+    <t>标识项目管理员角色</t>
+  </si>
+  <si>
+    <t>iam_label-15</t>
+  </si>
+  <si>
+    <t>TENANT_MEMBER</t>
+  </si>
+  <si>
+    <t>标识租户成员角色</t>
+  </si>
+  <si>
+    <t>Tenant Member</t>
+  </si>
+  <si>
+    <t>iam_label-16</t>
+  </si>
+  <si>
+    <t>PROJECT_MEMBER</t>
+  </si>
+  <si>
+    <t>标识项目成员角色</t>
+  </si>
+  <si>
+    <t>Project Member</t>
+  </si>
+  <si>
+    <t>iam_label-17</t>
+  </si>
+  <si>
+    <t>TENANT_TPL</t>
+  </si>
+  <si>
+    <t>租户管理员模板标签</t>
+  </si>
+  <si>
+    <t>Tenant Template Label</t>
+  </si>
+  <si>
+    <t>iam_label-18</t>
+  </si>
+  <si>
+    <t>GITLAB_OWNER</t>
+  </si>
+  <si>
+    <t>标识gitlab_owner</t>
+  </si>
+  <si>
+    <t>iam_label-19</t>
+  </si>
+  <si>
+    <t>GITLAB_DEVELOPER</t>
+  </si>
+  <si>
+    <t>标识gitlab_developer</t>
+  </si>
+  <si>
+    <t>choerodon.code.organization.manager</t>
+  </si>
+  <si>
+    <t>管理</t>
+  </si>
+  <si>
+    <t>GL</t>
+  </si>
+  <si>
     <t>iam_menu-8</t>
-  </si>
-  <si>
-    <t>choerodon.code.organization.infra</t>
-  </si>
-  <si>
-    <t>基础</t>
-  </si>
-  <si>
-    <t>organization</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>root</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>api</t>
-  </si>
-  <si>
-    <t>iam_menu-9</t>
-  </si>
-  <si>
-    <t>choerodon.code.organization.infra.code-lib-management</t>
-  </si>
-  <si>
-    <t>代码库管理</t>
-  </si>
-  <si>
-    <t>menu</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>settings_ethernet</t>
-  </si>
-  <si>
-    <t>/rducm/code-lib-org</t>
-  </si>
-  <si>
-    <t>choerodon.code.organization.infra|choerodon.code.organization.infra.code-lib-management</t>
-  </si>
-  <si>
-    <t>iam_menu-10</t>
-  </si>
-  <si>
-    <t>choerodon.code.organization.infra.code-lib-management.ps.default</t>
-  </si>
-  <si>
-    <t>默认权限集</t>
-  </si>
-  <si>
-    <t>ps</t>
-  </si>
-  <si>
-    <t>choerodon.code.organization.infra|choerodon.code.organization.infra.code-lib-management|choerodon.code.organization.infra.code-lib-management.ps.default</t>
-  </si>
-  <si>
-    <t>disabled</t>
-  </si>
-  <si>
-    <t>iam_menu-11</t>
-  </si>
-  <si>
-    <t>choerodon.code.organization.infra.code-lib-management.ps.project-owner</t>
-  </si>
-  <si>
-    <t>组织管理员</t>
-  </si>
-  <si>
-    <t>link</t>
-  </si>
-  <si>
-    <t>choerodon.code.organization.infra|choerodon.code.organization.infra.code-lib-management|choerodon.code.organization.infra.code-lib-management.ps.project-owner</t>
-  </si>
-  <si>
-    <t>iam_menu-12</t>
-  </si>
-  <si>
-    <t>choerodon.code.person.setting</t>
-  </si>
-  <si>
-    <t>个人信息</t>
-  </si>
-  <si>
-    <t>iam_menu-13</t>
-  </si>
-  <si>
-    <t>choerodon.code.person.setting.personal-setting</t>
-  </si>
-  <si>
-    <t>个人设置</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>manage_person</t>
-  </si>
-  <si>
-    <t>/rducm/personal-setting</t>
-  </si>
-  <si>
-    <t>choerodon.code.person.setting|choerodon.code.person.setting.personal-setting</t>
-  </si>
-  <si>
-    <t>iam_menu-14</t>
-  </si>
-  <si>
-    <t>choerodon.code.person.setting.personal-setting.ps.default</t>
-  </si>
-  <si>
-    <t>choerodon.code.person.setting|choerodon.code.person.setting.personal-setting|choerodon.code.person.setting.personal-setting.ps.default</t>
-  </si>
-  <si>
-    <t>iam_menu-16</t>
-  </si>
-  <si>
-    <t>choerodon.code.project.infra.code-lib-management</t>
-  </si>
-  <si>
-    <t>/rducm/code-lib-management</t>
-  </si>
-  <si>
-    <t>choerodon.code.project.infra|choerodon.code.project.infra.code-lib-management</t>
-  </si>
-  <si>
-    <t>iam_menu-17</t>
-  </si>
-  <si>
-    <t>choerodon.code.project.infra.code-lib-management.ps.default</t>
-  </si>
-  <si>
-    <t>choerodon.code.project.infra|choerodon.code.project.infra.code-lib-management|choerodon.code.project.infra.code-lib-management.ps.default</t>
-  </si>
-  <si>
-    <t>iam_menu-18</t>
-  </si>
-  <si>
-    <t>choerodon.code.project.infra.code-lib-management.ps.project-member</t>
-  </si>
-  <si>
-    <t>项目成员</t>
-  </si>
-  <si>
-    <t>choerodon.code.project.infra|choerodon.code.project.infra.code-lib-management|choerodon.code.project.infra.code-lib-management.ps.project-member</t>
-  </si>
-  <si>
-    <t>iam_menu-19</t>
-  </si>
-  <si>
-    <t>choerodon.code.project.infra.code-lib-management.ps.project-owner</t>
-  </si>
-  <si>
-    <t>项目所有者</t>
-  </si>
-  <si>
-    <t>choerodon.code.project.infra|choerodon.code.project.infra.code-lib-management|choerodon.code.project.infra.code-lib-management.ps.project-owner</t>
-  </si>
-  <si>
-    <t>iam_menu-20</t>
-  </si>
-  <si>
-    <t>choerodon.code.project.develop</t>
-  </si>
-  <si>
-    <t>开发</t>
-  </si>
-  <si>
-    <t>KF</t>
-  </si>
-  <si>
-    <t>菜单权限</t>
-  </si>
-  <si>
-    <t>iam_menu_permission</t>
-  </si>
-  <si>
-    <t>#menu_id</t>
-  </si>
-  <si>
-    <t>#permission_code</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-8</t>
-  </si>
-  <si>
-    <t>code-repo-service.member-audit-log-org.detailLatest</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-9</t>
-  </si>
-  <si>
-    <t>code-repo-service.org.listProjectsByUserId</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-10</t>
-  </si>
-  <si>
-    <t>code-repo-service.rdm-member-audit-record-org.pageByOptions</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-11</t>
-  </si>
-  <si>
-    <t>code-repo-service.rdm-member-org.pageByOptions</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-12</t>
-  </si>
-  <si>
-    <t>code-repo-service.rdm-operation-log-org.pageByOptionsMemberLog</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-13</t>
-  </si>
-  <si>
-    <t>code-repo-service.project.listDeveloperProjectMembers</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-14</t>
-  </si>
-  <si>
-    <t>code-repo-service.rdm-member-applicant-proj.create</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-15</t>
-  </si>
-  <si>
-    <t>code-repo-service.rdm-member-applicant-proj.detectApplicantType</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-16</t>
-  </si>
-  <si>
-    <t>code-repo-service.rdm-member-applicant-proj.pageByOptionsSelf</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-17</t>
-  </si>
-  <si>
-    <t>code-repo-service.rdm-member-proj.export</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-18</t>
-  </si>
-  <si>
-    <t>code-repo-service.rdm-member-proj.pageByOptions</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-19</t>
-  </si>
-  <si>
-    <t>code-repo-service.rdm-repository-proj.listByActive</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-20</t>
-  </si>
-  <si>
-    <t>code-repo-service.member-audit-log.detailLatest</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-21</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-22</t>
-  </si>
-  <si>
-    <t>code-repo-service.rdm-branch.createProtectedBranch</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-23</t>
-  </si>
-  <si>
-    <t>code-repo-service.rdm-branch.getBranches</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-24</t>
-  </si>
-  <si>
-    <t>code-repo-service.rdm-branch.getProtectedBranches</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-25</t>
-  </si>
-  <si>
-    <t>code-repo-service.rdm-branch.removeProtectedBranch</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-26</t>
-  </si>
-  <si>
-    <t>code-repo-service.rdm-branch.updateProtectedBranch</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-27</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-28</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-29</t>
-  </si>
-  <si>
-    <t>code-repo-service.rdm-member-applicant-proj.pageByOptions</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-30</t>
-  </si>
-  <si>
-    <t>code-repo-service.rdm-member-applicant-proj.passAndHandleMember</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-31</t>
-  </si>
-  <si>
-    <t>code-repo-service.rdm-member-applicant-proj.refuse</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-32</t>
-  </si>
-  <si>
-    <t>code-repo-service.rdm-member-audit-record-proj.auditFix</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-33</t>
-  </si>
-  <si>
-    <t>code-repo-service.rdm-member-audit-record-proj.pageByOptions</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-34</t>
-  </si>
-  <si>
-    <t>code-repo-service.rdm-member-audit-record-proj.sync</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-35</t>
-  </si>
-  <si>
-    <t>code-repo-service.rdm-member-proj.batchAddMembers</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-36</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-37</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-38</t>
-  </si>
-  <si>
-    <t>code-repo-service.rdm-member-proj.pageSecurityAudit</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-39</t>
-  </si>
-  <si>
-    <t>code-repo-service.rdm-member.removeMember</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-40</t>
-  </si>
-  <si>
-    <t>code-repo-service.rdm-member.syncMember</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-41</t>
-  </si>
-  <si>
-    <t>code-repo-service.rdm-member.syncMembersFromGitlab</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-42</t>
-  </si>
-  <si>
-    <t>code-repo-service.rdm-member.updateMember</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-43</t>
-  </si>
-  <si>
-    <t>code-repo-service.rdm-operation-log-proj.pageByOptionsMemberLog</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-44</t>
-  </si>
-  <si>
-    <t>code-repo-service.rdm-project.pageMemberPermissions</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-45</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-46</t>
-  </si>
-  <si>
-    <t>code-repo-service.rdm-repository-proj.pageOverviewByOptions</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-47</t>
-  </si>
-  <si>
-    <t>code-repo-service.rdm-tag.createProtectedTag</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-48</t>
-  </si>
-  <si>
-    <t>code-repo-service.rdm-tag.deleteProtectedTag</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-49</t>
-  </si>
-  <si>
-    <t>code-repo-service.rdm-tag.getProtectedTags</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-50</t>
-  </si>
-  <si>
-    <t>code-repo-service.rdm-tag.getTags</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-51</t>
-  </si>
-  <si>
-    <t>code-repo-service.rdm-tag.updateProtectedTag</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-52</t>
-  </si>
-  <si>
-    <t>code-repo-service.rdm-member-org.export</t>
-  </si>
-  <si>
-    <t>标签表</t>
-  </si>
-  <si>
-    <t>iam_label</t>
-  </si>
-  <si>
-    <t>#name</t>
-  </si>
-  <si>
-    <t>#type</t>
-  </si>
-  <si>
-    <t>enabled_flag</t>
-  </si>
-  <si>
-    <t>fd_level</t>
-  </si>
-  <si>
-    <t>description:zh_CN</t>
-  </si>
-  <si>
-    <t>description:en_US</t>
-  </si>
-  <si>
-    <t>tag</t>
-  </si>
-  <si>
-    <t>inherit_flag</t>
-  </si>
-  <si>
-    <t>preset_flag</t>
-  </si>
-  <si>
-    <t>visible_flag</t>
-  </si>
-  <si>
-    <t>iam_label-8</t>
-  </si>
-  <si>
-    <t>TENANT_MENU</t>
-  </si>
-  <si>
-    <t>MENU</t>
-  </si>
-  <si>
-    <t>TENANT</t>
-  </si>
-  <si>
-    <t>标识组织层菜单</t>
-  </si>
-  <si>
-    <t>iam_label-11</t>
-  </si>
-  <si>
-    <t>USER_MENU</t>
-  </si>
-  <si>
-    <t>iam_label-12</t>
-  </si>
-  <si>
-    <t>SITE_MENU</t>
-  </si>
-  <si>
-    <t>SITE</t>
-  </si>
-  <si>
-    <t>标识平台层菜单</t>
-  </si>
-  <si>
-    <t>iam_label-20</t>
-  </si>
-  <si>
-    <t>TENANT_GENERAL</t>
-  </si>
-  <si>
-    <t>iam_label-21</t>
-  </si>
-  <si>
-    <t>N_DEVOPS_MENU</t>
-  </si>
-  <si>
-    <t>Devops流程</t>
-  </si>
-  <si>
-    <t>标签关系表</t>
-  </si>
-  <si>
-    <t>hiam_label_rel</t>
-  </si>
-  <si>
-    <t>*label_rel_id</t>
-  </si>
-  <si>
-    <t>#data_type</t>
-  </si>
-  <si>
-    <t>#data_id</t>
-  </si>
-  <si>
-    <t>#label_id</t>
-  </si>
-  <si>
-    <t>assign_type</t>
-  </si>
-  <si>
-    <t>*</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>角色</t>
-  </si>
-  <si>
-    <t>iam_role</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>h_inherit_role_id</t>
-  </si>
-  <si>
-    <t>#h_parent_role_id</t>
-  </si>
-  <si>
-    <t>#h_parent_role_assign_level</t>
-  </si>
-  <si>
-    <t>h_parent_role_assign_level_val</t>
-  </si>
-  <si>
-    <t>is_enabled</t>
-  </si>
-  <si>
-    <t>is_modified</t>
-  </si>
-  <si>
-    <t>is_enable_forbidden</t>
-  </si>
-  <si>
-    <t>is_built_in</t>
-  </si>
-  <si>
-    <t>is_assignable</t>
-  </si>
-  <si>
-    <t>h_inherit_level_path</t>
-  </si>
-  <si>
-    <t>#created_by_tenant_id</t>
-  </si>
-  <si>
-    <t>tpl_role_name:zh_CN</t>
-  </si>
-  <si>
-    <t>tpl_role_name:en_US</t>
-  </si>
-  <si>
-    <t>iam_role-8</t>
-  </si>
-  <si>
-    <t>平台管理员</t>
-  </si>
-  <si>
-    <t>Site Administrator</t>
-  </si>
-  <si>
-    <t>role/site/default/administrator</t>
-  </si>
-  <si>
-    <t>abcf</t>
-  </si>
-  <si>
-    <t>site</t>
-  </si>
-  <si>
-    <t>iam_role-9</t>
-  </si>
-  <si>
-    <t>租户管理员</t>
-  </si>
-  <si>
-    <t>Organization Administrator</t>
-  </si>
-  <si>
-    <t>role/organization/default/administrator</t>
-  </si>
-  <si>
-    <t>abce</t>
-  </si>
-  <si>
-    <t>iam_role-10</t>
-  </si>
-  <si>
-    <t>租户管理员模板</t>
-  </si>
-  <si>
-    <t>Tenant admin template</t>
-  </si>
-  <si>
-    <t>role/organization/default/template/administrator</t>
-  </si>
-  <si>
-    <t>role/organization/default/administrator|HZERO.T.role/organization/default/template/administrator</t>
-  </si>
-  <si>
-    <t>HZERO.T.role/organization/default/template/administrator</t>
-  </si>
-  <si>
-    <t>Tenant Admin</t>
-  </si>
-  <si>
-    <t>iam_role-11</t>
-  </si>
-  <si>
-    <t>租户成员模板</t>
-  </si>
-  <si>
-    <t>Organization Member template</t>
-  </si>
-  <si>
-    <t>role/organization/default/template/member</t>
-  </si>
-  <si>
-    <t>role/organization/default/administrator|HZERO.T.role/organization/default/template/organization-member</t>
-  </si>
-  <si>
-    <t>HZERO.T.role/organization/default/template/organization-member</t>
-  </si>
-  <si>
-    <t>组织成员</t>
-  </si>
-  <si>
-    <t>Organization Member</t>
-  </si>
-  <si>
-    <t>iam_role-12</t>
-  </si>
-  <si>
-    <t>项目管理员模板</t>
-  </si>
-  <si>
-    <t>Project Admin template</t>
-  </si>
-  <si>
-    <t>role/project/default/template/project-admin</t>
-  </si>
-  <si>
-    <t>role/organization/default/administrator|HZERO.T.role/project/default/template/project-admin</t>
-  </si>
-  <si>
-    <t>HZERO.T.role/project/default/template/project-admin</t>
-  </si>
-  <si>
-    <t>Project Admin</t>
-  </si>
-  <si>
-    <t>iam_role-13</t>
-  </si>
-  <si>
-    <t>项目成员模板</t>
-  </si>
-  <si>
-    <t>Project member template</t>
-  </si>
-  <si>
-    <t>role/project/default/template/project-member</t>
-  </si>
-  <si>
-    <t>role/organization/default/administrator|HZERO.T.role/project/default/template/project-member</t>
-  </si>
-  <si>
-    <t>HZERO.T.role/project/default/template/project-member</t>
-  </si>
-  <si>
-    <t>Project member</t>
-  </si>
-  <si>
-    <t>iam_role-14</t>
-  </si>
-  <si>
-    <t>平台开发者</t>
-  </si>
-  <si>
-    <t>role/site/default/developer</t>
-  </si>
-  <si>
-    <t>role/site/default/administrator|HZERO-PLATFORM.T.role/site/default/developer</t>
-  </si>
-  <si>
-    <t>HZERO-PLATFORM.T.role/site/default/developer</t>
-  </si>
-  <si>
-    <t>角色权限</t>
-  </si>
-  <si>
-    <t>iam_role_permission</t>
-  </si>
-  <si>
-    <t>#role_id</t>
-  </si>
-  <si>
-    <t>#permission_id</t>
-  </si>
-  <si>
-    <t>h_create_flag</t>
-  </si>
-  <si>
-    <t>h_inherit_flag</t>
-  </si>
-  <si>
-    <t>iam_role_permission-17</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>PS</t>
-  </si>
-  <si>
-    <t>iam_role_permission-18</t>
-  </si>
-  <si>
-    <t>iam_role_permission-19</t>
-  </si>
-  <si>
-    <t>iam_role_permission-20</t>
-  </si>
-  <si>
-    <t>iam_role_permission-21</t>
-  </si>
-  <si>
-    <t>iam_role_permission-22</t>
-  </si>
-  <si>
-    <t>iam_role_permission-23</t>
-  </si>
-  <si>
-    <t>iam_role_permission-24</t>
-  </si>
-  <si>
-    <t>iam_role_permission-25</t>
-  </si>
-  <si>
-    <t>iam_role_permission-26</t>
-  </si>
-  <si>
-    <t>iam_role_permission-27</t>
-  </si>
-  <si>
-    <t>iam_role_permission-28</t>
-  </si>
-  <si>
-    <t>iam_role_permission-29</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>iam_role_permission-30</t>
-  </si>
-  <si>
-    <t>TENANT_MGR</t>
-  </si>
-  <si>
-    <t>ROLE</t>
-  </si>
-  <si>
-    <t>租户管理员标签</t>
-  </si>
-  <si>
-    <t>Tenant Manager Label</t>
-  </si>
-  <si>
-    <t>iam_label-9</t>
-  </si>
-  <si>
-    <t>SITE_MGR</t>
-  </si>
-  <si>
-    <t>平台管理员标签</t>
-  </si>
-  <si>
-    <t>iam_label-10</t>
-  </si>
-  <si>
-    <t>TENANT_ROLE_TPL</t>
-  </si>
-  <si>
-    <t>标识内置模板角色</t>
-  </si>
-  <si>
-    <t>TENANT_ROLE</t>
-  </si>
-  <si>
-    <t>标识租户层角色</t>
-  </si>
-  <si>
-    <t>Tenant Role</t>
-  </si>
-  <si>
-    <t>TENANT_ADMIN</t>
-  </si>
-  <si>
-    <t>标识租户管理员角色</t>
-  </si>
-  <si>
-    <t>iam_label-13</t>
-  </si>
-  <si>
-    <t>PROJECT_ROLE</t>
-  </si>
-  <si>
-    <t>标识项目层角色</t>
-  </si>
-  <si>
-    <t>Project Role</t>
-  </si>
-  <si>
-    <t>iam_label-14</t>
-  </si>
-  <si>
-    <t>PROJECT_ADMIN</t>
-  </si>
-  <si>
-    <t>标识项目管理员角色</t>
-  </si>
-  <si>
-    <t>iam_label-15</t>
-  </si>
-  <si>
-    <t>TENANT_MEMBER</t>
-  </si>
-  <si>
-    <t>标识租户成员角色</t>
-  </si>
-  <si>
-    <t>Tenant Member</t>
-  </si>
-  <si>
-    <t>iam_label-16</t>
-  </si>
-  <si>
-    <t>PROJECT_MEMBER</t>
-  </si>
-  <si>
-    <t>标识项目成员角色</t>
-  </si>
-  <si>
-    <t>Project Member</t>
-  </si>
-  <si>
-    <t>iam_label-17</t>
-  </si>
-  <si>
-    <t>TENANT_TPL</t>
-  </si>
-  <si>
-    <t>租户管理员模板标签</t>
-  </si>
-  <si>
-    <t>Tenant Template Label</t>
-  </si>
-  <si>
-    <t>iam_label-18</t>
-  </si>
-  <si>
-    <t>GITLAB_OWNER</t>
-  </si>
-  <si>
-    <t>标识gitlab_owner</t>
-  </si>
-  <si>
-    <t>iam_label-19</t>
-  </si>
-  <si>
-    <t>GITLAB_DEVELOPER</t>
-  </si>
-  <si>
-    <t>标识gitlab_developer</t>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="39">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2917,36 +3023,38 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="53"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="48"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="42"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
       <color rgb="FF24292E"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2954,6 +3062,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2972,6 +3081,7 @@
       <sz val="12"/>
       <color rgb="FF548235"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2979,157 +3089,6 @@
       <color rgb="FF000000"/>
       <name val="DengXian"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -3160,12 +3119,14 @@
       <sz val="12"/>
       <color rgb="FFC55A11"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3174,8 +3135,21 @@
       <name val="DengXian"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="37">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3212,188 +3186,8 @@
         <bgColor rgb="FFE7E6E6"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="18">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -3494,254 +3288,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="27" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3757,20 +3309,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3804,9 +3344,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3814,59 +3351,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
@@ -3939,6 +3447,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -4196,273 +3707,270 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="15.5703703703704" style="8" customWidth="1"/>
-    <col min="2" max="2" width="10.3555555555556" style="9" customWidth="1"/>
-    <col min="3" max="3" width="28.1407407407407" customWidth="1"/>
-    <col min="4" max="4" width="35.3555555555556" style="5" customWidth="1"/>
-    <col min="5" max="5" width="38.5703703703704" customWidth="1"/>
-    <col min="6" max="6" width="23.4222222222222" customWidth="1"/>
-    <col min="7" max="7" width="21.5703703703704" customWidth="1"/>
+    <col min="1" max="1" width="15.58203125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="28.1640625" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="38.58203125" customWidth="1"/>
+    <col min="6" max="6" width="23.4140625" customWidth="1"/>
+    <col min="7" max="7" width="21.58203125" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5703703703704" customWidth="1"/>
+    <col min="9" max="9" width="24.58203125" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.1407407407407" customWidth="1"/>
-    <col min="12" max="12" width="18.5703703703704" customWidth="1"/>
-    <col min="13" max="13" width="13.1407407407407" customWidth="1"/>
-    <col min="14" max="1025" width="10.3555555555556" customWidth="1"/>
+    <col min="11" max="11" width="19.1640625" customWidth="1"/>
+    <col min="12" max="12" width="18.58203125" customWidth="1"/>
+    <col min="13" max="13" width="13.1640625" customWidth="1"/>
+    <col min="14" max="1025" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="64.5" customHeight="1" spans="1:8">
+    <row r="1" spans="1:8" ht="64.5" customHeight="1">
       <c r="A1" s="10"/>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-    </row>
-    <row r="2" ht="18" spans="5:5">
-      <c r="E2" s="13"/>
-    </row>
-    <row r="3" ht="49.5" customHeight="1" spans="3:7">
-      <c r="C3" s="14" t="s">
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="E2" s="12"/>
+    </row>
+    <row r="3" spans="1:8" ht="49.5" customHeight="1">
+      <c r="C3" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="15" t="s">
+      <c r="D3" s="34"/>
+      <c r="E3" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-    </row>
-    <row r="4" ht="18" spans="3:7">
-      <c r="C4" s="16" t="s">
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="C4" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="17" t="s">
+      <c r="D4" s="36"/>
+      <c r="E4" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:8">
       <c r="A5" s="10"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" ht="18" spans="3:5">
-      <c r="C7" s="20" t="s">
+    <row r="7" spans="1:8">
+      <c r="C7" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="18" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="3:5">
-      <c r="C8" s="23" t="s">
+    <row r="8" spans="1:8">
+      <c r="C8" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="25"/>
-    </row>
-    <row r="9" ht="51.75" spans="3:6">
-      <c r="C9" s="26" t="s">
+      <c r="E8" s="21"/>
+    </row>
+    <row r="9" spans="1:8" ht="52.2">
+      <c r="C9" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="D9" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="28" t="s">
+      <c r="E9" s="24" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" ht="51.75" spans="3:5">
-      <c r="C10" s="29" t="s">
+    <row r="10" spans="1:8" ht="52.2">
+      <c r="C10" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="D10" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="28" t="s">
+      <c r="E10" s="24" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" ht="69" spans="3:5">
-      <c r="C11" s="23" t="s">
+    <row r="11" spans="1:8" ht="69.599999999999994">
+      <c r="C11" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="D11" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="28" t="s">
+      <c r="E11" s="24" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="3:5">
-      <c r="C12" s="23" t="s">
+    <row r="12" spans="1:8">
+      <c r="C12" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="27" t="s">
+      <c r="D12" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="30" t="s">
+      <c r="E12" s="26" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="3:5">
-      <c r="C13" s="23"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="25"/>
-    </row>
-    <row r="14" spans="3:5">
-      <c r="C14" s="23"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="25"/>
-    </row>
-    <row r="15" ht="34.5" spans="3:5">
-      <c r="C15" s="31" t="s">
+    <row r="13" spans="1:8">
+      <c r="C13" s="19"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="21"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="C14" s="19"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="21"/>
+    </row>
+    <row r="15" spans="1:8" ht="34.799999999999997">
+      <c r="C15" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="32" t="s">
+      <c r="D15" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="33" t="s">
+      <c r="E15" s="29" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="3:3">
+    <row r="18" spans="3:5">
       <c r="C18" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="34" t="s">
+      <c r="C19" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-    </row>
-    <row r="20" ht="18" spans="3:4">
-      <c r="C20" s="35" t="s">
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+    </row>
+    <row r="20" spans="3:5">
+      <c r="C20" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" ht="18" spans="3:4">
-      <c r="C21" s="35" t="s">
+    <row r="21" spans="3:5">
+      <c r="C21" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="12" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" ht="18" spans="3:4">
-      <c r="C22" s="35" t="s">
+    <row r="22" spans="3:5">
+      <c r="C22" s="30" t="s">
         <v>35</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" ht="18" spans="3:4">
-      <c r="C23" s="35" t="s">
+    <row r="23" spans="3:5">
+      <c r="C23" s="30" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="36" t="s">
+    <row r="25" spans="3:5" ht="69" customHeight="1">
+      <c r="C25" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="14" t="s">
+      <c r="D25" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="14"/>
-    </row>
-    <row r="26" ht="14.25" customHeight="1" spans="3:5">
-      <c r="C26" s="24" t="s">
+      <c r="E25" s="34"/>
+    </row>
+    <row r="26" spans="3:5" ht="14.25" customHeight="1">
+      <c r="C26" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="14" t="s">
+      <c r="D26" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="14"/>
-    </row>
-    <row r="27" ht="51.75" spans="3:3">
-      <c r="C27" s="37" t="s">
+      <c r="E26" s="34"/>
+    </row>
+    <row r="27" spans="3:5" ht="52.2">
+      <c r="C27" s="32" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C19:E19"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
   </mergeCells>
-  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
+  <phoneticPr fontId="20" type="noConversion"/>
+  <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.51041666666666696" footer="0.51041666666666696"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="5" max="5" width="16.6666666666667" customWidth="1"/>
-    <col min="6" max="6" width="46.7481481481481" customWidth="1"/>
-    <col min="7" max="7" width="15.2518518518519" customWidth="1"/>
-    <col min="11" max="11" width="16.7481481481481" customWidth="1"/>
-    <col min="15" max="15" width="29.6666666666667" customWidth="1"/>
-    <col min="16" max="16" width="45.8518518518519" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="6" max="6" width="46.75" customWidth="1"/>
+    <col min="7" max="7" width="15.25" customWidth="1"/>
+    <col min="11" max="11" width="16.75" customWidth="1"/>
+    <col min="15" max="15" width="29.6640625" customWidth="1"/>
+    <col min="16" max="16" width="45.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -4476,7 +3984,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:25">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -4564,632 +4072,634 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="5:24">
-      <c r="E8" t="s">
+    <row r="8" spans="1:25">
+      <c r="E8" s="38" t="s">
+        <v>385</v>
+      </c>
+      <c r="F8" t="s">
+        <v>382</v>
+      </c>
+      <c r="G8" t="s">
+        <v>383</v>
+      </c>
+      <c r="H8" t="s">
+        <v>383</v>
+      </c>
+      <c r="I8" t="s">
+        <v>384</v>
+      </c>
+      <c r="J8" t="s">
         <v>75</v>
       </c>
-      <c r="F8" t="s">
-        <v>76</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="K8" t="s">
+        <v>76</v>
+      </c>
+      <c r="L8" t="s">
         <v>77</v>
       </c>
-      <c r="H8" t="s">
-        <v>77</v>
-      </c>
-      <c r="J8" t="s">
-        <v>78</v>
-      </c>
-      <c r="K8" t="s">
+      <c r="M8" t="s">
+        <v>76</v>
+      </c>
+      <c r="N8" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>76</v>
+      </c>
+      <c r="R8" t="s">
+        <v>76</v>
+      </c>
+      <c r="S8" t="s">
+        <v>382</v>
+      </c>
+      <c r="T8" t="s">
+        <v>76</v>
+      </c>
+      <c r="V8" t="s">
         <v>79</v>
       </c>
-      <c r="L8" t="s">
+      <c r="X8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25">
+      <c r="E9" t="s">
         <v>80</v>
       </c>
-      <c r="M8" t="s">
+      <c r="F9" t="s">
         <v>81</v>
       </c>
-      <c r="N8" t="s">
+      <c r="G9" t="s">
         <v>82</v>
       </c>
-      <c r="Q8" t="s">
-        <v>79</v>
-      </c>
-      <c r="R8" t="s">
-        <v>79</v>
-      </c>
-      <c r="S8" t="s">
-        <v>76</v>
-      </c>
-      <c r="T8" t="s">
-        <v>79</v>
-      </c>
-      <c r="V8" t="s">
-        <v>83</v>
-      </c>
-      <c r="X8" t="s">
+      <c r="H9" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="9" spans="5:24">
-      <c r="E9" t="s">
-        <v>84</v>
-      </c>
-      <c r="F9" t="s">
-        <v>85</v>
-      </c>
-      <c r="G9" t="s">
-        <v>86</v>
-      </c>
-      <c r="H9" t="s">
-        <v>86</v>
-      </c>
       <c r="J9" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="K9" t="str">
         <f>菜单SAAS版!$E$8</f>
         <v>iam_menu-8</v>
       </c>
       <c r="L9" t="s">
+        <v>83</v>
+      </c>
+      <c r="M9">
+        <v>80</v>
+      </c>
+      <c r="N9" t="s">
+        <v>78</v>
+      </c>
+      <c r="O9" t="s">
+        <v>85</v>
+      </c>
+      <c r="P9" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>76</v>
+      </c>
+      <c r="R9" t="s">
+        <v>76</v>
+      </c>
+      <c r="S9" t="s">
         <v>87</v>
       </c>
-      <c r="M9" t="s">
+      <c r="T9" t="s">
+        <v>76</v>
+      </c>
+      <c r="V9" t="s">
+        <v>79</v>
+      </c>
+      <c r="X9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25">
+      <c r="E10" t="s">
         <v>88</v>
       </c>
-      <c r="N9" t="s">
-        <v>82</v>
-      </c>
-      <c r="O9" t="s">
+      <c r="F10" t="s">
         <v>89</v>
       </c>
-      <c r="P9" t="s">
+      <c r="G10" t="s">
         <v>90</v>
       </c>
-      <c r="Q9" t="s">
-        <v>79</v>
-      </c>
-      <c r="R9" t="s">
-        <v>79</v>
-      </c>
-      <c r="S9" t="s">
-        <v>91</v>
-      </c>
-      <c r="T9" t="s">
-        <v>79</v>
-      </c>
-      <c r="V9" t="s">
-        <v>83</v>
-      </c>
-      <c r="X9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="10" spans="5:24">
-      <c r="E10" t="s">
-        <v>92</v>
-      </c>
-      <c r="F10" t="s">
-        <v>93</v>
-      </c>
-      <c r="G10" t="s">
-        <v>94</v>
-      </c>
       <c r="H10" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="J10" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="K10" t="str">
         <f>菜单SAAS版!$E$9</f>
         <v>iam_menu-9</v>
       </c>
       <c r="L10" t="s">
+        <v>91</v>
+      </c>
+      <c r="M10" t="s">
+        <v>84</v>
+      </c>
+      <c r="N10" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>76</v>
+      </c>
+      <c r="R10" t="s">
+        <v>76</v>
+      </c>
+      <c r="S10" t="s">
+        <v>92</v>
+      </c>
+      <c r="T10" t="s">
+        <v>76</v>
+      </c>
+      <c r="U10" t="s">
+        <v>93</v>
+      </c>
+      <c r="V10" t="s">
+        <v>79</v>
+      </c>
+      <c r="X10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25">
+      <c r="E11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F11" t="s">
         <v>95</v>
       </c>
-      <c r="M10" t="s">
-        <v>88</v>
-      </c>
-      <c r="N10" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>79</v>
-      </c>
-      <c r="R10" t="s">
-        <v>79</v>
-      </c>
-      <c r="S10" t="s">
+      <c r="G11" t="s">
         <v>96</v>
       </c>
-      <c r="T10" t="s">
-        <v>79</v>
-      </c>
-      <c r="U10" t="s">
-        <v>97</v>
-      </c>
-      <c r="V10" t="s">
-        <v>83</v>
-      </c>
-      <c r="X10" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="11" spans="5:24">
-      <c r="E11" t="s">
-        <v>98</v>
-      </c>
-      <c r="F11" t="s">
-        <v>99</v>
-      </c>
-      <c r="G11" t="s">
-        <v>100</v>
-      </c>
       <c r="H11" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="J11" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="K11" t="str">
         <f>菜单SAAS版!$E$9</f>
         <v>iam_menu-9</v>
       </c>
       <c r="L11" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="N11" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="O11" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>76</v>
+      </c>
+      <c r="R11" t="s">
+        <v>76</v>
+      </c>
+      <c r="S11" t="s">
+        <v>98</v>
+      </c>
+      <c r="T11" t="s">
+        <v>76</v>
+      </c>
+      <c r="V11" t="s">
+        <v>79</v>
+      </c>
+      <c r="X11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25">
+      <c r="E12" t="s">
+        <v>99</v>
+      </c>
+      <c r="F12" t="s">
+        <v>100</v>
+      </c>
+      <c r="G12" t="s">
         <v>101</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="H12" t="s">
+        <v>101</v>
+      </c>
+      <c r="J12" t="s">
+        <v>75</v>
+      </c>
+      <c r="K12" t="s">
+        <v>76</v>
+      </c>
+      <c r="L12" t="s">
+        <v>77</v>
+      </c>
+      <c r="M12" t="s">
+        <v>76</v>
+      </c>
+      <c r="N12" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>76</v>
+      </c>
+      <c r="R12" t="s">
+        <v>76</v>
+      </c>
+      <c r="S12" t="s">
+        <v>100</v>
+      </c>
+      <c r="T12" t="s">
+        <v>76</v>
+      </c>
+      <c r="V12" t="s">
         <v>79</v>
       </c>
-      <c r="R11" t="s">
-        <v>79</v>
-      </c>
-      <c r="S11" t="s">
+      <c r="X12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25">
+      <c r="E13" t="s">
         <v>102</v>
       </c>
-      <c r="T11" t="s">
-        <v>79</v>
-      </c>
-      <c r="V11" t="s">
-        <v>83</v>
-      </c>
-      <c r="X11" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="12" spans="5:24">
-      <c r="E12" t="s">
+      <c r="F13" t="s">
         <v>103</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G13" t="s">
         <v>104</v>
       </c>
-      <c r="G12" t="s">
-        <v>105</v>
-      </c>
-      <c r="H12" t="s">
-        <v>105</v>
-      </c>
-      <c r="J12" t="s">
-        <v>78</v>
-      </c>
-      <c r="K12" t="s">
-        <v>79</v>
-      </c>
-      <c r="L12" t="s">
-        <v>80</v>
-      </c>
-      <c r="M12" t="s">
-        <v>79</v>
-      </c>
-      <c r="N12" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>79</v>
-      </c>
-      <c r="R12" t="s">
-        <v>79</v>
-      </c>
-      <c r="S12" t="s">
+      <c r="H13" t="s">
         <v>104</v>
       </c>
-      <c r="T12" t="s">
-        <v>79</v>
-      </c>
-      <c r="V12" t="s">
-        <v>83</v>
-      </c>
-      <c r="X12" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="13" spans="5:24">
-      <c r="E13" t="s">
-        <v>106</v>
-      </c>
-      <c r="F13" t="s">
-        <v>107</v>
-      </c>
-      <c r="G13" t="s">
-        <v>108</v>
-      </c>
-      <c r="H13" t="s">
-        <v>108</v>
-      </c>
       <c r="J13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="K13" t="str">
         <f>菜单SAAS版!$E$12</f>
         <v>iam_menu-12</v>
       </c>
       <c r="L13" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="M13" t="s">
+        <v>105</v>
+      </c>
+      <c r="N13" t="s">
+        <v>78</v>
+      </c>
+      <c r="O13" t="s">
+        <v>106</v>
+      </c>
+      <c r="P13" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>76</v>
+      </c>
+      <c r="R13" t="s">
+        <v>76</v>
+      </c>
+      <c r="S13" t="s">
+        <v>108</v>
+      </c>
+      <c r="T13" t="s">
+        <v>76</v>
+      </c>
+      <c r="V13" t="s">
+        <v>79</v>
+      </c>
+      <c r="X13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25">
+      <c r="E14" t="s">
         <v>109</v>
       </c>
-      <c r="N13" t="s">
-        <v>82</v>
-      </c>
-      <c r="O13" t="s">
+      <c r="F14" t="s">
         <v>110</v>
       </c>
-      <c r="P13" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>79</v>
-      </c>
-      <c r="R13" t="s">
-        <v>79</v>
-      </c>
-      <c r="S13" t="s">
-        <v>112</v>
-      </c>
-      <c r="T13" t="s">
-        <v>79</v>
-      </c>
-      <c r="V13" t="s">
-        <v>83</v>
-      </c>
-      <c r="X13" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="14" spans="5:24">
-      <c r="E14" t="s">
-        <v>113</v>
-      </c>
-      <c r="F14" t="s">
-        <v>114</v>
-      </c>
       <c r="G14" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="H14" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="J14" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="K14" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-13</v>
       </c>
       <c r="L14" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="M14" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="N14" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>76</v>
+      </c>
+      <c r="R14" t="s">
+        <v>76</v>
+      </c>
+      <c r="S14" t="s">
+        <v>111</v>
+      </c>
+      <c r="T14" t="s">
+        <v>76</v>
+      </c>
+      <c r="U14" t="s">
+        <v>93</v>
+      </c>
+      <c r="V14" t="s">
+        <v>79</v>
+      </c>
+      <c r="X14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25">
+      <c r="E15" t="s">
+        <v>112</v>
+      </c>
+      <c r="F15" t="s">
+        <v>113</v>
+      </c>
+      <c r="G15" t="s">
         <v>82</v>
       </c>
-      <c r="Q14" t="s">
-        <v>79</v>
-      </c>
-      <c r="R14" t="s">
-        <v>79</v>
-      </c>
-      <c r="S14" t="s">
-        <v>115</v>
-      </c>
-      <c r="T14" t="s">
-        <v>79</v>
-      </c>
-      <c r="U14" t="s">
-        <v>97</v>
-      </c>
-      <c r="V14" t="s">
-        <v>83</v>
-      </c>
-      <c r="X14" t="s">
+      <c r="H15" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="15" spans="5:24">
-      <c r="E15" t="s">
-        <v>116</v>
-      </c>
-      <c r="F15" t="s">
-        <v>117</v>
-      </c>
-      <c r="G15" t="s">
-        <v>86</v>
-      </c>
-      <c r="H15" t="s">
-        <v>86</v>
-      </c>
       <c r="J15" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="K15" t="str">
         <f>E19</f>
         <v>iam_menu-20</v>
       </c>
       <c r="L15" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="M15">
         <v>50</v>
       </c>
       <c r="N15" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="O15" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="P15" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="Q15" t="s">
+        <v>76</v>
+      </c>
+      <c r="R15" t="s">
+        <v>76</v>
+      </c>
+      <c r="S15" t="s">
+        <v>115</v>
+      </c>
+      <c r="T15" t="s">
+        <v>76</v>
+      </c>
+      <c r="V15" t="s">
         <v>79</v>
       </c>
-      <c r="R15" t="s">
-        <v>79</v>
-      </c>
-      <c r="S15" t="s">
-        <v>119</v>
-      </c>
-      <c r="T15" t="s">
-        <v>79</v>
-      </c>
-      <c r="V15" t="s">
-        <v>83</v>
-      </c>
       <c r="X15" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="16" spans="5:24">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25">
       <c r="E16" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F16" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G16" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="H16" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="J16" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="K16" t="str">
         <f>菜单SAAS版!$E$15</f>
         <v>iam_menu-16</v>
       </c>
       <c r="L16" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="M16" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="N16" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="Q16" t="s">
+        <v>76</v>
+      </c>
+      <c r="R16" t="s">
+        <v>76</v>
+      </c>
+      <c r="S16" t="s">
+        <v>118</v>
+      </c>
+      <c r="T16" t="s">
+        <v>76</v>
+      </c>
+      <c r="U16" t="s">
+        <v>93</v>
+      </c>
+      <c r="V16" t="s">
         <v>79</v>
       </c>
-      <c r="R16" t="s">
-        <v>79</v>
-      </c>
-      <c r="S16" t="s">
-        <v>122</v>
-      </c>
-      <c r="T16" t="s">
-        <v>79</v>
-      </c>
-      <c r="U16" t="s">
-        <v>97</v>
-      </c>
-      <c r="V16" t="s">
-        <v>83</v>
-      </c>
       <c r="X16" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="5:24">
       <c r="E17" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F17" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G17" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="H17" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="J17" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="K17" t="str">
         <f>菜单SAAS版!$E$15</f>
         <v>iam_menu-16</v>
       </c>
       <c r="L17" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="N17" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="O17" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="Q17" t="s">
+        <v>76</v>
+      </c>
+      <c r="R17" t="s">
+        <v>76</v>
+      </c>
+      <c r="S17" t="s">
+        <v>122</v>
+      </c>
+      <c r="T17" t="s">
+        <v>76</v>
+      </c>
+      <c r="V17" t="s">
         <v>79</v>
       </c>
-      <c r="R17" t="s">
-        <v>79</v>
-      </c>
-      <c r="S17" t="s">
-        <v>126</v>
-      </c>
-      <c r="T17" t="s">
-        <v>79</v>
-      </c>
-      <c r="V17" t="s">
-        <v>83</v>
-      </c>
       <c r="X17" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="5:24">
       <c r="E18" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F18" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G18" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="H18" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="J18" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="K18" t="str">
         <f>菜单SAAS版!$E$15</f>
         <v>iam_menu-16</v>
       </c>
       <c r="L18" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="N18" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="O18" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="Q18" t="s">
+        <v>76</v>
+      </c>
+      <c r="R18" t="s">
+        <v>76</v>
+      </c>
+      <c r="S18" t="s">
+        <v>126</v>
+      </c>
+      <c r="T18" t="s">
+        <v>76</v>
+      </c>
+      <c r="V18" t="s">
         <v>79</v>
       </c>
-      <c r="R18" t="s">
-        <v>79</v>
-      </c>
-      <c r="S18" t="s">
-        <v>130</v>
-      </c>
-      <c r="T18" t="s">
-        <v>79</v>
-      </c>
-      <c r="V18" t="s">
-        <v>83</v>
-      </c>
       <c r="X18" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="5:24">
       <c r="E19" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F19" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G19" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="H19" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="I19" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="J19" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="K19" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="L19" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="M19" s="7">
         <v>30</v>
       </c>
       <c r="N19" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="Q19" t="s">
+        <v>76</v>
+      </c>
+      <c r="R19" t="s">
+        <v>76</v>
+      </c>
+      <c r="S19" t="s">
+        <v>128</v>
+      </c>
+      <c r="T19" t="s">
+        <v>76</v>
+      </c>
+      <c r="V19" t="s">
         <v>79</v>
       </c>
-      <c r="R19" t="s">
-        <v>79</v>
-      </c>
-      <c r="S19" t="s">
-        <v>132</v>
-      </c>
-      <c r="T19" t="s">
-        <v>79</v>
-      </c>
-      <c r="V19" t="s">
-        <v>83</v>
-      </c>
       <c r="X19" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="20" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView topLeftCell="B43" workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="5" max="5" width="21.2814814814815" customWidth="1"/>
-    <col min="6" max="6" width="17.5703703703704" customWidth="1"/>
-    <col min="7" max="7" width="30.3555555555556" customWidth="1"/>
+    <col min="5" max="5" width="21.25" customWidth="1"/>
+    <col min="6" max="6" width="17.58203125" customWidth="1"/>
+    <col min="7" max="7" width="30.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -5203,7 +4713,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:7">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -5222,588 +4732,587 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="8" spans="5:7">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="E8" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F8" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="9" spans="5:7">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="E9" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F9" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G9" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="10" spans="5:7">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="E10" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F10" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G10" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="11" spans="5:7">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="E11" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F11" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G11" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="12" spans="5:7">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="E12" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F12" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G12" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="13" spans="5:7">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="E13" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F13" t="str">
         <f>菜单SAAS版!$E$17</f>
         <v>iam_menu-18</v>
       </c>
       <c r="G13" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="14" spans="5:7">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="E14" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F14" t="str">
         <f>菜单SAAS版!$E$17</f>
         <v>iam_menu-18</v>
       </c>
       <c r="G14" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="15" spans="5:7">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="E15" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F15" t="str">
         <f>菜单SAAS版!$E$17</f>
         <v>iam_menu-18</v>
       </c>
       <c r="G15" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="16" spans="5:7">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="E16" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F16" t="str">
         <f>菜单SAAS版!$E$17</f>
         <v>iam_menu-18</v>
       </c>
       <c r="G16" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="5:7">
       <c r="E17" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F17" t="str">
         <f>菜单SAAS版!$E$17</f>
         <v>iam_menu-18</v>
       </c>
       <c r="G17" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18" spans="5:7">
       <c r="E18" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F18" t="str">
         <f>菜单SAAS版!$E$17</f>
         <v>iam_menu-18</v>
       </c>
       <c r="G18" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="19" spans="5:7">
       <c r="E19" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F19" t="str">
         <f>菜单SAAS版!$E$17</f>
         <v>iam_menu-18</v>
       </c>
       <c r="G19" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="20" spans="5:7">
       <c r="E20" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F20" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G20" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="21" spans="5:7">
       <c r="E21" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F21" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G21" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="22" spans="5:7">
       <c r="E22" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F22" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G22" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="23" spans="5:7">
       <c r="E23" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="F23" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G23" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="24" spans="5:7">
       <c r="E24" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F24" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G24" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="25" spans="5:7">
       <c r="E25" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F25" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G25" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="26" spans="5:7">
       <c r="E26" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="F26" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G26" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="27" spans="5:7">
       <c r="E27" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F27" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G27" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="28" spans="5:7">
       <c r="E28" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F28" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G28" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="29" spans="5:7">
       <c r="E29" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F29" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G29" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="30" spans="5:7">
       <c r="E30" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F30" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G30" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="31" spans="5:7">
       <c r="E31" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F31" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G31" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="32" spans="5:7">
       <c r="E32" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F32" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G32" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="33" spans="5:7">
       <c r="E33" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="F33" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G33" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="34" spans="5:7">
       <c r="E34" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F34" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G34" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="35" spans="5:7">
       <c r="E35" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F35" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G35" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="36" spans="5:7">
       <c r="E36" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="F36" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G36" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="37" spans="5:7">
       <c r="E37" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F37" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G37" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="38" spans="5:7">
       <c r="E38" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F38" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G38" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="39" spans="5:7">
       <c r="E39" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="F39" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G39" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="40" spans="5:7">
       <c r="E40" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F40" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G40" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="41" spans="5:7">
       <c r="E41" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F41" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G41" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="42" spans="5:7">
       <c r="E42" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="F42" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G42" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="43" spans="5:7">
       <c r="E43" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F43" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G43" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="44" spans="5:7">
       <c r="E44" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F44" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G44" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="45" spans="5:7">
       <c r="E45" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="F45" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G45" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="46" spans="5:7">
       <c r="E46" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F46" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G46" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="47" spans="5:7">
       <c r="E47" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F47" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G47" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="48" spans="5:7">
       <c r="E48" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F48" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G48" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="49" spans="5:7">
       <c r="E49" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F49" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G49" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="50" spans="5:7">
       <c r="E50" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F50" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G50" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="51" spans="5:7">
       <c r="E51" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="F51" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G51" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="52" spans="5:7">
       <c r="E52" s="6" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F52" s="6" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="20" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="5" max="5" width="26.5851851851852" customWidth="1"/>
-    <col min="6" max="6" width="25.5037037037037" customWidth="1"/>
-    <col min="7" max="7" width="17.4148148148148" customWidth="1"/>
-    <col min="8" max="8" width="21.9185185185185" customWidth="1"/>
-    <col min="11" max="11" width="19.0814814814815" customWidth="1"/>
-    <col min="13" max="13" width="12.7481481481481" customWidth="1"/>
-    <col min="14" max="14" width="15.5037037037037" customWidth="1"/>
+    <col min="5" max="5" width="26.58203125" customWidth="1"/>
+    <col min="6" max="6" width="25.5" customWidth="1"/>
+    <col min="7" max="7" width="17.4140625" customWidth="1"/>
+    <col min="8" max="8" width="21.9140625" customWidth="1"/>
+    <col min="11" max="11" width="19.08203125" customWidth="1"/>
+    <col min="13" max="13" width="12.75" customWidth="1"/>
+    <col min="14" max="14" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -5817,7 +5326,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:15">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -5836,182 +5345,182 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="H7" t="s">
+        <v>223</v>
+      </c>
+      <c r="I7" t="s">
+        <v>224</v>
+      </c>
+      <c r="J7" t="s">
         <v>225</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="K7" t="s">
         <v>226</v>
       </c>
-      <c r="H7" t="s">
+      <c r="L7" t="s">
         <v>227</v>
       </c>
-      <c r="I7" t="s">
+      <c r="M7" t="s">
         <v>228</v>
       </c>
-      <c r="J7" t="s">
+      <c r="N7" t="s">
         <v>229</v>
       </c>
-      <c r="K7" t="s">
+      <c r="O7" t="s">
         <v>230</v>
       </c>
-      <c r="L7" t="s">
+    </row>
+    <row r="8" spans="1:15">
+      <c r="E8" t="s">
         <v>231</v>
       </c>
-      <c r="M7" t="s">
+      <c r="F8" t="s">
         <v>232</v>
       </c>
-      <c r="N7" t="s">
+      <c r="G8" t="s">
         <v>233</v>
       </c>
-      <c r="O7" t="s">
+      <c r="H8" t="s">
+        <v>78</v>
+      </c>
+      <c r="I8" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="8" spans="5:15">
-      <c r="E8" t="s">
+      <c r="J8" t="s">
         <v>235</v>
       </c>
-      <c r="F8" t="s">
+      <c r="K8" t="s">
+        <v>232</v>
+      </c>
+      <c r="M8" t="s">
+        <v>78</v>
+      </c>
+      <c r="N8" t="s">
+        <v>78</v>
+      </c>
+      <c r="O8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="E9" t="s">
         <v>236</v>
       </c>
-      <c r="G8" t="s">
+      <c r="F9" t="s">
         <v>237</v>
       </c>
-      <c r="H8" t="s">
-        <v>82</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="G9" t="s">
+        <v>233</v>
+      </c>
+      <c r="H9" t="s">
+        <v>78</v>
+      </c>
+      <c r="I9" t="s">
+        <v>234</v>
+      </c>
+      <c r="M9" t="s">
+        <v>76</v>
+      </c>
+      <c r="N9" t="s">
+        <v>76</v>
+      </c>
+      <c r="O9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="E10" t="s">
         <v>238</v>
       </c>
-      <c r="J8" t="s">
+      <c r="F10" t="s">
         <v>239</v>
       </c>
-      <c r="K8" t="s">
-        <v>236</v>
-      </c>
-      <c r="M8" t="s">
-        <v>82</v>
-      </c>
-      <c r="N8" t="s">
-        <v>82</v>
-      </c>
-      <c r="O8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="9" spans="5:15">
-      <c r="E9" t="s">
+      <c r="G10" t="s">
+        <v>233</v>
+      </c>
+      <c r="H10" t="s">
+        <v>78</v>
+      </c>
+      <c r="I10" t="s">
         <v>240</v>
       </c>
-      <c r="F9" t="s">
+      <c r="J10" t="s">
         <v>241</v>
       </c>
-      <c r="G9" t="s">
-        <v>237</v>
-      </c>
-      <c r="H9" t="s">
-        <v>82</v>
-      </c>
-      <c r="I9" t="s">
-        <v>238</v>
-      </c>
-      <c r="M9" t="s">
-        <v>79</v>
-      </c>
-      <c r="N9" t="s">
-        <v>79</v>
-      </c>
-      <c r="O9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="10" spans="5:15">
-      <c r="E10" t="s">
+      <c r="K10" t="s">
+        <v>241</v>
+      </c>
+      <c r="M10" t="s">
+        <v>78</v>
+      </c>
+      <c r="N10" t="s">
+        <v>78</v>
+      </c>
+      <c r="O10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="E11" t="s">
         <v>242</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F11" t="s">
         <v>243</v>
       </c>
-      <c r="G10" t="s">
-        <v>237</v>
-      </c>
-      <c r="H10" t="s">
-        <v>82</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="G11" t="s">
+        <v>233</v>
+      </c>
+      <c r="H11" t="s">
+        <v>78</v>
+      </c>
+      <c r="I11" t="s">
+        <v>240</v>
+      </c>
+      <c r="M11" t="s">
+        <v>78</v>
+      </c>
+      <c r="N11" t="s">
+        <v>76</v>
+      </c>
+      <c r="O11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="E12" t="s">
         <v>244</v>
       </c>
-      <c r="J10" t="s">
+      <c r="F12" t="s">
         <v>245</v>
       </c>
-      <c r="K10" t="s">
-        <v>245</v>
-      </c>
-      <c r="M10" t="s">
-        <v>82</v>
-      </c>
-      <c r="N10" t="s">
-        <v>82</v>
-      </c>
-      <c r="O10" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="11" spans="5:15">
-      <c r="E11" t="s">
-        <v>246</v>
-      </c>
-      <c r="F11" t="s">
-        <v>247</v>
-      </c>
-      <c r="G11" t="s">
-        <v>237</v>
-      </c>
-      <c r="H11" t="s">
-        <v>82</v>
-      </c>
-      <c r="I11" t="s">
-        <v>244</v>
-      </c>
-      <c r="M11" t="s">
-        <v>82</v>
-      </c>
-      <c r="N11" t="s">
-        <v>79</v>
-      </c>
-      <c r="O11" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="12" spans="5:15">
-      <c r="E12" t="s">
-        <v>248</v>
-      </c>
-      <c r="F12" t="s">
-        <v>249</v>
-      </c>
       <c r="G12" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="H12">
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="J12" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="K12" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -6023,7 +5532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:15">
       <c r="A14" t="s">
         <v>50</v>
       </c>
@@ -6031,33 +5540,33 @@
         <v>51</v>
       </c>
       <c r="C14" t="s">
+        <v>247</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="H14" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="I14" t="s">
         <v>253</v>
       </c>
-      <c r="F14" s="3" t="s">
+    </row>
+    <row r="15" spans="1:15">
+      <c r="E15" t="s">
         <v>254</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="I14" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="15" spans="5:9">
-      <c r="E15" t="s">
-        <v>258</v>
-      </c>
       <c r="F15" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="G15" t="str">
         <f>菜单SAAS版!$E$12</f>
@@ -6068,34 +5577,34 @@
         <v>iam_label-11</v>
       </c>
       <c r="I15" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="16" spans="5:9">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="E16" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F16" t="s">
-        <v>237</v>
-      </c>
-      <c r="G16" t="str">
-        <f>菜单SAAS版!$E$8</f>
-        <v>iam_menu-8</v>
+        <v>233</v>
+      </c>
+      <c r="G16" t="e">
+        <f>菜单SAAS版!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="H16" t="str">
         <f>菜单标签数据!$E$8</f>
         <v>iam_label-8</v>
       </c>
       <c r="I16" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="17" spans="5:9">
       <c r="E17" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F17" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="G17" t="str">
         <f>菜单SAAS版!$E$9</f>
@@ -6106,15 +5615,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I17" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="18" spans="5:9">
       <c r="E18" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F18" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="G18" t="str">
         <f>菜单SAAS版!$E$10</f>
@@ -6125,15 +5634,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I18" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="19" spans="5:9">
       <c r="E19" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F19" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="G19" t="str">
         <f>菜单SAAS版!$E$11</f>
@@ -6144,15 +5653,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I19" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="20" spans="5:9">
       <c r="E20" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F20" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="G20" t="str">
         <f>菜单SAAS版!$E$13</f>
@@ -6163,15 +5672,15 @@
         <v>iam_label-11</v>
       </c>
       <c r="I20" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="21" customFormat="1" spans="5:9">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="21" spans="5:9">
       <c r="E21" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F21" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="G21" t="str">
         <f>菜单SAAS版!E19</f>
@@ -6182,15 +5691,15 @@
         <v>iam_label-21</v>
       </c>
       <c r="I21" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="22" customFormat="1" spans="5:9">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="22" spans="5:9">
       <c r="E22" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F22" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="G22" t="str">
         <f>菜单SAAS版!E15</f>
@@ -6201,32 +5710,29 @@
         <v>iam_label-21</v>
       </c>
       <c r="I22" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="20" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y30"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView topLeftCell="A13" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="5" max="5" width="17.837037037037" customWidth="1"/>
-    <col min="6" max="6" width="22.5037037037037" customWidth="1"/>
-    <col min="7" max="7" width="39.3555555555556" customWidth="1"/>
+    <col min="5" max="5" width="17.83203125" customWidth="1"/>
+    <col min="6" max="6" width="22.5" customWidth="1"/>
+    <col min="7" max="7" width="39.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -6240,7 +5746,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:25">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -6259,10 +5765,10 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
@@ -6277,485 +5783,485 @@
         <v>55</v>
       </c>
       <c r="I7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="J7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>67</v>
       </c>
       <c r="L7" t="s">
+        <v>260</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="O7" t="s">
+        <v>263</v>
+      </c>
+      <c r="P7" t="s">
         <v>264</v>
       </c>
-      <c r="M7" s="3" t="s">
+      <c r="Q7" t="s">
         <v>265</v>
       </c>
-      <c r="N7" s="3" t="s">
+      <c r="R7" t="s">
         <v>266</v>
       </c>
-      <c r="O7" t="s">
+      <c r="S7" t="s">
         <v>267</v>
       </c>
-      <c r="P7" t="s">
+      <c r="T7" t="s">
         <v>268</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>269</v>
-      </c>
-      <c r="R7" t="s">
-        <v>270</v>
-      </c>
-      <c r="S7" t="s">
-        <v>271</v>
-      </c>
-      <c r="T7" t="s">
-        <v>272</v>
       </c>
       <c r="U7" t="s">
         <v>68</v>
       </c>
       <c r="V7" t="s">
+        <v>269</v>
+      </c>
+      <c r="W7" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="X7" t="s">
+        <v>271</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25">
+      <c r="E8" t="s">
         <v>273</v>
       </c>
-      <c r="W7" s="3" t="s">
+      <c r="F8" t="s">
         <v>274</v>
       </c>
-      <c r="X7" t="s">
+      <c r="G8" t="s">
         <v>275</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="H8" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="8" spans="5:23">
-      <c r="E8" t="s">
+      <c r="I8" t="s">
         <v>277</v>
       </c>
-      <c r="F8" t="s">
+      <c r="J8" t="s">
         <v>278</v>
       </c>
-      <c r="G8" t="s">
+      <c r="K8" t="s">
+        <v>76</v>
+      </c>
+      <c r="L8" t="s">
+        <v>76</v>
+      </c>
+      <c r="M8" t="s">
+        <v>76</v>
+      </c>
+      <c r="N8" t="s">
+        <v>75</v>
+      </c>
+      <c r="O8" t="s">
+        <v>76</v>
+      </c>
+      <c r="P8" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>76</v>
+      </c>
+      <c r="R8" t="s">
+        <v>78</v>
+      </c>
+      <c r="S8" t="s">
+        <v>78</v>
+      </c>
+      <c r="T8" t="s">
+        <v>76</v>
+      </c>
+      <c r="U8" t="s">
+        <v>276</v>
+      </c>
+      <c r="V8" t="s">
+        <v>276</v>
+      </c>
+      <c r="W8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25">
+      <c r="E9" t="s">
         <v>279</v>
       </c>
-      <c r="H8" t="s">
+      <c r="F9" t="s">
         <v>280</v>
       </c>
-      <c r="I8" t="s">
+      <c r="G9" t="s">
         <v>281</v>
       </c>
-      <c r="J8" t="s">
+      <c r="H9" t="s">
         <v>282</v>
       </c>
-      <c r="K8" t="s">
-        <v>79</v>
-      </c>
-      <c r="L8" t="s">
-        <v>79</v>
-      </c>
-      <c r="M8" t="s">
-        <v>79</v>
-      </c>
-      <c r="N8" t="s">
-        <v>78</v>
-      </c>
-      <c r="O8" t="s">
-        <v>79</v>
-      </c>
-      <c r="P8" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>79</v>
-      </c>
-      <c r="R8" t="s">
-        <v>82</v>
-      </c>
-      <c r="S8" t="s">
-        <v>82</v>
-      </c>
-      <c r="T8" t="s">
-        <v>79</v>
-      </c>
-      <c r="U8" t="s">
-        <v>280</v>
-      </c>
-      <c r="V8" t="s">
-        <v>280</v>
-      </c>
-      <c r="W8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="9" spans="5:23">
-      <c r="E9" t="s">
+      <c r="I9" t="s">
         <v>283</v>
       </c>
-      <c r="F9" t="s">
+      <c r="J9" t="s">
+        <v>75</v>
+      </c>
+      <c r="K9" t="s">
+        <v>76</v>
+      </c>
+      <c r="L9" t="s">
+        <v>76</v>
+      </c>
+      <c r="M9" t="s">
+        <v>76</v>
+      </c>
+      <c r="N9" t="s">
+        <v>75</v>
+      </c>
+      <c r="O9" t="s">
+        <v>76</v>
+      </c>
+      <c r="P9" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>76</v>
+      </c>
+      <c r="R9" t="s">
+        <v>78</v>
+      </c>
+      <c r="S9" t="s">
+        <v>78</v>
+      </c>
+      <c r="T9" t="s">
+        <v>76</v>
+      </c>
+      <c r="U9" t="s">
+        <v>282</v>
+      </c>
+      <c r="V9" t="s">
+        <v>282</v>
+      </c>
+      <c r="W9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25">
+      <c r="E10" t="s">
         <v>284</v>
       </c>
-      <c r="G9" t="s">
+      <c r="F10" t="s">
         <v>285</v>
       </c>
-      <c r="H9" t="s">
+      <c r="G10" t="s">
         <v>286</v>
       </c>
-      <c r="I9" t="s">
+      <c r="H10" t="s">
         <v>287</v>
       </c>
-      <c r="J9" t="s">
-        <v>78</v>
-      </c>
-      <c r="K9" t="s">
-        <v>79</v>
-      </c>
-      <c r="L9" t="s">
-        <v>79</v>
-      </c>
-      <c r="M9" t="s">
-        <v>79</v>
-      </c>
-      <c r="N9" t="s">
-        <v>78</v>
-      </c>
-      <c r="O9" t="s">
-        <v>79</v>
-      </c>
-      <c r="P9" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>79</v>
-      </c>
-      <c r="R9" t="s">
-        <v>82</v>
-      </c>
-      <c r="S9" t="s">
-        <v>82</v>
-      </c>
-      <c r="T9" t="s">
-        <v>79</v>
-      </c>
-      <c r="U9" t="s">
-        <v>286</v>
-      </c>
-      <c r="V9" t="s">
-        <v>286</v>
-      </c>
-      <c r="W9" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="10" spans="5:25">
-      <c r="E10" t="s">
-        <v>288</v>
-      </c>
-      <c r="F10" t="s">
-        <v>289</v>
-      </c>
-      <c r="G10" t="s">
-        <v>290</v>
-      </c>
-      <c r="H10" t="s">
-        <v>291</v>
-      </c>
       <c r="J10" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="K10" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="L10" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="M10" t="str">
         <f>角色!$E$9</f>
         <v>iam_role-9</v>
       </c>
       <c r="N10" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="O10" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="P10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="Q10" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="R10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="S10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="T10" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="U10" t="s">
+        <v>288</v>
+      </c>
+      <c r="V10" t="s">
+        <v>289</v>
+      </c>
+      <c r="W10" t="s">
+        <v>76</v>
+      </c>
+      <c r="X10" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25">
+      <c r="E11" t="s">
+        <v>291</v>
+      </c>
+      <c r="F11" t="s">
         <v>292</v>
       </c>
-      <c r="V10" t="s">
+      <c r="G11" t="s">
         <v>293</v>
       </c>
-      <c r="W10" t="s">
-        <v>79</v>
-      </c>
-      <c r="X10" t="s">
-        <v>100</v>
-      </c>
-      <c r="Y10" t="s">
+      <c r="H11" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="11" spans="5:25">
-      <c r="E11" t="s">
-        <v>295</v>
-      </c>
-      <c r="F11" t="s">
-        <v>296</v>
-      </c>
-      <c r="G11" t="s">
-        <v>297</v>
-      </c>
-      <c r="H11" t="s">
-        <v>298</v>
-      </c>
       <c r="J11" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="K11" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="L11" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="M11" t="str">
         <f>角色!$E$9</f>
         <v>iam_role-9</v>
       </c>
       <c r="N11" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="O11" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="P11" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="Q11" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="R11" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="S11" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="T11" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="U11" t="s">
+        <v>295</v>
+      </c>
+      <c r="V11" t="s">
+        <v>296</v>
+      </c>
+      <c r="W11" t="s">
+        <v>76</v>
+      </c>
+      <c r="X11" t="s">
+        <v>297</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25">
+      <c r="E12" t="s">
         <v>299</v>
       </c>
-      <c r="V11" t="s">
+      <c r="F12" t="s">
         <v>300</v>
       </c>
-      <c r="W11" t="s">
-        <v>79</v>
-      </c>
-      <c r="X11" t="s">
+      <c r="G12" t="s">
         <v>301</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="H12" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="12" spans="5:25">
-      <c r="E12" t="s">
-        <v>303</v>
-      </c>
-      <c r="F12" t="s">
-        <v>304</v>
-      </c>
-      <c r="G12" t="s">
-        <v>305</v>
-      </c>
-      <c r="H12" t="s">
-        <v>306</v>
-      </c>
       <c r="J12" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="K12" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="L12" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="M12" t="str">
         <f>角色!$E$9</f>
         <v>iam_role-9</v>
       </c>
       <c r="N12" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="O12" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="P12" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="Q12" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="R12" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="S12" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="T12" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="U12" t="s">
+        <v>303</v>
+      </c>
+      <c r="V12" t="s">
+        <v>304</v>
+      </c>
+      <c r="W12" t="s">
+        <v>76</v>
+      </c>
+      <c r="X12" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25">
+      <c r="E13" t="s">
+        <v>306</v>
+      </c>
+      <c r="F13" t="s">
         <v>307</v>
       </c>
-      <c r="V12" t="s">
+      <c r="G13" t="s">
         <v>308</v>
       </c>
-      <c r="W12" t="s">
-        <v>79</v>
-      </c>
-      <c r="X12" t="s">
-        <v>129</v>
-      </c>
-      <c r="Y12" t="s">
+      <c r="H13" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="13" spans="5:25">
-      <c r="E13" t="s">
-        <v>310</v>
-      </c>
-      <c r="F13" t="s">
-        <v>311</v>
-      </c>
-      <c r="G13" t="s">
-        <v>312</v>
-      </c>
-      <c r="H13" t="s">
-        <v>313</v>
-      </c>
       <c r="J13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="K13" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="L13" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="M13" t="str">
         <f>角色!$E$9</f>
         <v>iam_role-9</v>
       </c>
       <c r="N13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="O13" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="P13" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="Q13" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="R13" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="S13" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="T13" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="U13" t="s">
+        <v>310</v>
+      </c>
+      <c r="V13" t="s">
+        <v>311</v>
+      </c>
+      <c r="W13" t="s">
+        <v>76</v>
+      </c>
+      <c r="X13" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25">
+      <c r="E14" t="s">
+        <v>313</v>
+      </c>
+      <c r="F14" t="s">
         <v>314</v>
       </c>
-      <c r="V13" t="s">
+      <c r="G14" t="s">
+        <v>314</v>
+      </c>
+      <c r="H14" t="s">
         <v>315</v>
       </c>
-      <c r="W13" t="s">
-        <v>79</v>
-      </c>
-      <c r="X13" t="s">
-        <v>125</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="14" spans="5:23">
-      <c r="E14" t="s">
-        <v>317</v>
-      </c>
-      <c r="F14" t="s">
-        <v>318</v>
-      </c>
-      <c r="G14" t="s">
-        <v>318</v>
-      </c>
-      <c r="H14" t="s">
-        <v>319</v>
-      </c>
       <c r="J14" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="K14" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="L14" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="M14" t="str">
         <f>角色!$E$8</f>
         <v>iam_role-8</v>
       </c>
       <c r="N14" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="O14" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="P14" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="Q14" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="R14" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="S14" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="T14" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="U14" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="V14" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="W14" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -6763,33 +6269,33 @@
         <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="H16" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="I16" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="17" spans="5:10">
       <c r="E17" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="F17" t="str">
         <f>角色!$E$10</f>
@@ -6800,18 +6306,18 @@
         <v>iam_menu-10</v>
       </c>
       <c r="H17" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="I17" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="J17" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="18" spans="5:10">
       <c r="E18" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="F18" t="str">
         <f>角色!$E$10</f>
@@ -6822,18 +6328,18 @@
         <v>iam_menu-11</v>
       </c>
       <c r="H18" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="I18" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="J18" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="19" spans="5:10">
       <c r="E19" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="F19" t="str">
         <f>角色!$E$10</f>
@@ -6844,18 +6350,18 @@
         <v>iam_menu-17</v>
       </c>
       <c r="H19" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="I19" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="J19" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="20" spans="5:10">
       <c r="E20" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="F20" t="str">
         <f>角色!$E$10</f>
@@ -6866,18 +6372,18 @@
         <v>iam_menu-18</v>
       </c>
       <c r="H20" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="I20" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="J20" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="21" spans="5:10">
       <c r="E21" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="F21" t="str">
         <f>角色!$E$10</f>
@@ -6888,18 +6394,18 @@
         <v>iam_menu-19</v>
       </c>
       <c r="H21" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="I21" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="J21" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="22" spans="5:10">
       <c r="E22" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="F22" t="str">
         <f>角色!$E$10</f>
@@ -6910,18 +6416,18 @@
         <v>iam_menu-14</v>
       </c>
       <c r="H22" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="I22" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="J22" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="23" spans="5:10">
       <c r="E23" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F23" t="str">
         <f>角色!$E$11</f>
@@ -6932,18 +6438,18 @@
         <v>iam_menu-14</v>
       </c>
       <c r="H23" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="I23" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="J23" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="24" spans="5:10">
       <c r="E24" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="F24" t="str">
         <f>角色!$E$12</f>
@@ -6954,18 +6460,18 @@
         <v>iam_menu-17</v>
       </c>
       <c r="H24" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="I24" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="J24" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="25" spans="5:10">
       <c r="E25" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="F25" t="str">
         <f>角色!$E$12</f>
@@ -6976,18 +6482,18 @@
         <v>iam_menu-19</v>
       </c>
       <c r="H25" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="I25" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="J25" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="26" spans="5:10">
       <c r="E26" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="F26" t="str">
         <f>角色!$E$12</f>
@@ -6998,18 +6504,18 @@
         <v>iam_menu-14</v>
       </c>
       <c r="H26" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="I26" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="J26" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="27" spans="5:10">
       <c r="E27" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F27" t="str">
         <f>角色!$E$13</f>
@@ -7020,18 +6526,18 @@
         <v>iam_menu-17</v>
       </c>
       <c r="H27" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="I27" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="J27" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="28" spans="5:10">
       <c r="E28" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="F28" t="str">
         <f>角色!$E$13</f>
@@ -7042,18 +6548,18 @@
         <v>iam_menu-18</v>
       </c>
       <c r="H28" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="I28" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="J28" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="29" spans="5:10">
       <c r="E29" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="F29" t="str">
         <f>角色!$E$13</f>
@@ -7064,18 +6570,18 @@
         <v>iam_menu-19</v>
       </c>
       <c r="H29" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="I29" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="J29" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="30" spans="5:10">
       <c r="E30" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="F30" t="str">
         <f>角色!$E$13</f>
@@ -7086,36 +6592,35 @@
         <v>iam_menu-14</v>
       </c>
       <c r="H30" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="I30" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="J30" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="20" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="5" max="5" width="17.5037037037037" customWidth="1"/>
+    <col min="5" max="5" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -7129,7 +6634,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:15">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -7148,429 +6653,429 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="H7" t="s">
+        <v>223</v>
+      </c>
+      <c r="I7" t="s">
+        <v>224</v>
+      </c>
+      <c r="J7" t="s">
         <v>225</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="K7" t="s">
         <v>226</v>
       </c>
-      <c r="H7" t="s">
+      <c r="L7" t="s">
         <v>227</v>
       </c>
-      <c r="I7" t="s">
+      <c r="M7" t="s">
         <v>228</v>
       </c>
-      <c r="J7" t="s">
+      <c r="N7" t="s">
         <v>229</v>
       </c>
-      <c r="K7" t="s">
+      <c r="O7" t="s">
         <v>230</v>
       </c>
-      <c r="L7" t="s">
+    </row>
+    <row r="8" spans="1:15">
+      <c r="E8" t="s">
         <v>231</v>
       </c>
-      <c r="M7" t="s">
-        <v>232</v>
-      </c>
-      <c r="N7" t="s">
-        <v>233</v>
-      </c>
-      <c r="O7" t="s">
+      <c r="F8" t="s">
+        <v>342</v>
+      </c>
+      <c r="G8" t="s">
+        <v>343</v>
+      </c>
+      <c r="H8" t="s">
+        <v>78</v>
+      </c>
+      <c r="I8" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="8" spans="5:15">
-      <c r="E8" t="s">
-        <v>235</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="J8" t="s">
+        <v>344</v>
+      </c>
+      <c r="K8" t="s">
+        <v>345</v>
+      </c>
+      <c r="M8" t="s">
+        <v>76</v>
+      </c>
+      <c r="N8" t="s">
+        <v>78</v>
+      </c>
+      <c r="O8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="E9" t="s">
         <v>346</v>
       </c>
-      <c r="G8" t="s">
+      <c r="F9" t="s">
         <v>347</v>
       </c>
-      <c r="H8" t="s">
-        <v>82</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="G9" t="s">
+        <v>343</v>
+      </c>
+      <c r="H9" t="s">
+        <v>78</v>
+      </c>
+      <c r="I9" t="s">
+        <v>240</v>
+      </c>
+      <c r="J9" t="s">
+        <v>348</v>
+      </c>
+      <c r="M9" t="s">
+        <v>76</v>
+      </c>
+      <c r="N9" t="s">
+        <v>78</v>
+      </c>
+      <c r="O9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="E10" t="s">
+        <v>349</v>
+      </c>
+      <c r="F10" t="s">
+        <v>350</v>
+      </c>
+      <c r="G10" t="s">
+        <v>343</v>
+      </c>
+      <c r="H10" t="s">
+        <v>78</v>
+      </c>
+      <c r="I10" t="s">
+        <v>234</v>
+      </c>
+      <c r="J10" t="s">
+        <v>351</v>
+      </c>
+      <c r="K10" t="s">
+        <v>351</v>
+      </c>
+      <c r="M10" t="s">
+        <v>76</v>
+      </c>
+      <c r="N10" t="s">
+        <v>78</v>
+      </c>
+      <c r="O10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="E11" t="s">
+        <v>236</v>
+      </c>
+      <c r="F11" t="s">
+        <v>352</v>
+      </c>
+      <c r="G11" t="s">
+        <v>343</v>
+      </c>
+      <c r="H11" t="s">
+        <v>78</v>
+      </c>
+      <c r="I11" t="s">
+        <v>234</v>
+      </c>
+      <c r="J11" t="s">
+        <v>353</v>
+      </c>
+      <c r="K11" t="s">
+        <v>354</v>
+      </c>
+      <c r="M11" t="s">
+        <v>76</v>
+      </c>
+      <c r="N11" t="s">
+        <v>78</v>
+      </c>
+      <c r="O11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="E12" t="s">
         <v>238</v>
       </c>
-      <c r="J8" t="s">
-        <v>348</v>
-      </c>
-      <c r="K8" t="s">
-        <v>349</v>
-      </c>
-      <c r="M8" t="s">
-        <v>79</v>
-      </c>
-      <c r="N8" t="s">
-        <v>82</v>
-      </c>
-      <c r="O8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="9" spans="5:15">
-      <c r="E9" t="s">
-        <v>350</v>
-      </c>
-      <c r="F9" t="s">
-        <v>351</v>
-      </c>
-      <c r="G9" t="s">
-        <v>347</v>
-      </c>
-      <c r="H9" t="s">
-        <v>82</v>
-      </c>
-      <c r="I9" t="s">
-        <v>244</v>
-      </c>
-      <c r="J9" t="s">
-        <v>352</v>
-      </c>
-      <c r="M9" t="s">
-        <v>79</v>
-      </c>
-      <c r="N9" t="s">
-        <v>82</v>
-      </c>
-      <c r="O9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="10" spans="5:15">
-      <c r="E10" t="s">
-        <v>353</v>
-      </c>
-      <c r="F10" t="s">
-        <v>354</v>
-      </c>
-      <c r="G10" t="s">
-        <v>347</v>
-      </c>
-      <c r="H10" t="s">
-        <v>82</v>
-      </c>
-      <c r="I10" t="s">
-        <v>238</v>
-      </c>
-      <c r="J10" t="s">
+      <c r="F12" t="s">
         <v>355</v>
       </c>
-      <c r="K10" t="s">
-        <v>355</v>
-      </c>
-      <c r="M10" t="s">
-        <v>79</v>
-      </c>
-      <c r="N10" t="s">
-        <v>82</v>
-      </c>
-      <c r="O10" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="11" spans="5:15">
-      <c r="E11" t="s">
-        <v>240</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="G12" t="s">
+        <v>343</v>
+      </c>
+      <c r="H12" t="s">
+        <v>78</v>
+      </c>
+      <c r="I12" t="s">
+        <v>234</v>
+      </c>
+      <c r="J12" t="s">
         <v>356</v>
       </c>
-      <c r="G11" t="s">
-        <v>347</v>
-      </c>
-      <c r="H11" t="s">
-        <v>82</v>
-      </c>
-      <c r="I11" t="s">
-        <v>238</v>
-      </c>
-      <c r="J11" t="s">
+      <c r="K12" t="s">
+        <v>356</v>
+      </c>
+      <c r="M12" t="s">
+        <v>76</v>
+      </c>
+      <c r="N12" t="s">
+        <v>78</v>
+      </c>
+      <c r="O12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="E13" t="s">
         <v>357</v>
       </c>
-      <c r="K11" t="s">
+      <c r="F13" t="s">
         <v>358</v>
       </c>
-      <c r="M11" t="s">
-        <v>79</v>
-      </c>
-      <c r="N11" t="s">
-        <v>82</v>
-      </c>
-      <c r="O11" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="12" spans="5:15">
-      <c r="E12" t="s">
-        <v>242</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="G13" t="s">
+        <v>343</v>
+      </c>
+      <c r="H13" t="s">
+        <v>78</v>
+      </c>
+      <c r="I13" t="s">
+        <v>234</v>
+      </c>
+      <c r="J13" t="s">
         <v>359</v>
       </c>
-      <c r="G12" t="s">
-        <v>347</v>
-      </c>
-      <c r="H12" t="s">
-        <v>82</v>
-      </c>
-      <c r="I12" t="s">
-        <v>238</v>
-      </c>
-      <c r="J12" t="s">
+      <c r="K13" t="s">
         <v>360</v>
       </c>
-      <c r="K12" t="s">
-        <v>360</v>
-      </c>
-      <c r="M12" t="s">
-        <v>79</v>
-      </c>
-      <c r="N12" t="s">
-        <v>82</v>
-      </c>
-      <c r="O12" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="13" spans="5:15">
-      <c r="E13" t="s">
+      <c r="M13" t="s">
+        <v>76</v>
+      </c>
+      <c r="N13" t="s">
+        <v>78</v>
+      </c>
+      <c r="O13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="E14" t="s">
         <v>361</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F14" t="s">
         <v>362</v>
       </c>
-      <c r="G13" t="s">
-        <v>347</v>
-      </c>
-      <c r="H13" t="s">
-        <v>82</v>
-      </c>
-      <c r="I13" t="s">
-        <v>238</v>
-      </c>
-      <c r="J13" t="s">
+      <c r="G14" t="s">
+        <v>343</v>
+      </c>
+      <c r="H14" t="s">
+        <v>78</v>
+      </c>
+      <c r="I14" t="s">
+        <v>234</v>
+      </c>
+      <c r="J14" t="s">
         <v>363</v>
       </c>
-      <c r="K13" t="s">
+      <c r="K14" t="s">
+        <v>305</v>
+      </c>
+      <c r="M14" t="s">
+        <v>76</v>
+      </c>
+      <c r="N14" t="s">
+        <v>78</v>
+      </c>
+      <c r="O14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="E15" t="s">
         <v>364</v>
       </c>
-      <c r="M13" t="s">
-        <v>79</v>
-      </c>
-      <c r="N13" t="s">
-        <v>82</v>
-      </c>
-      <c r="O13" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="14" spans="5:15">
-      <c r="E14" t="s">
+      <c r="F15" t="s">
         <v>365</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G15" t="s">
+        <v>343</v>
+      </c>
+      <c r="H15" t="s">
+        <v>78</v>
+      </c>
+      <c r="I15" t="s">
+        <v>234</v>
+      </c>
+      <c r="J15" t="s">
         <v>366</v>
       </c>
-      <c r="G14" t="s">
-        <v>347</v>
-      </c>
-      <c r="H14" t="s">
-        <v>82</v>
-      </c>
-      <c r="I14" t="s">
-        <v>238</v>
-      </c>
-      <c r="J14" t="s">
+      <c r="K15" t="s">
         <v>367</v>
       </c>
-      <c r="K14" t="s">
-        <v>309</v>
-      </c>
-      <c r="M14" t="s">
-        <v>79</v>
-      </c>
-      <c r="N14" t="s">
-        <v>82</v>
-      </c>
-      <c r="O14" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="15" spans="5:15">
-      <c r="E15" t="s">
+      <c r="M15" t="s">
+        <v>76</v>
+      </c>
+      <c r="N15" t="s">
+        <v>78</v>
+      </c>
+      <c r="O15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="E16" t="s">
         <v>368</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F16" t="s">
         <v>369</v>
       </c>
-      <c r="G15" t="s">
-        <v>347</v>
-      </c>
-      <c r="H15" t="s">
-        <v>82</v>
-      </c>
-      <c r="I15" t="s">
-        <v>238</v>
-      </c>
-      <c r="J15" t="s">
+      <c r="G16" t="s">
+        <v>343</v>
+      </c>
+      <c r="H16" t="s">
+        <v>78</v>
+      </c>
+      <c r="I16" t="s">
+        <v>234</v>
+      </c>
+      <c r="J16" t="s">
         <v>370</v>
       </c>
-      <c r="K15" t="s">
+      <c r="K16" t="s">
         <v>371</v>
       </c>
-      <c r="M15" t="s">
-        <v>79</v>
-      </c>
-      <c r="N15" t="s">
-        <v>82</v>
-      </c>
-      <c r="O15" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="16" spans="5:15">
-      <c r="E16" t="s">
-        <v>372</v>
-      </c>
-      <c r="F16" t="s">
-        <v>373</v>
-      </c>
-      <c r="G16" t="s">
-        <v>347</v>
-      </c>
-      <c r="H16" t="s">
-        <v>82</v>
-      </c>
-      <c r="I16" t="s">
-        <v>238</v>
-      </c>
-      <c r="J16" t="s">
-        <v>374</v>
-      </c>
-      <c r="K16" t="s">
-        <v>375</v>
-      </c>
       <c r="M16" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="N16" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="O16" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="5:15">
       <c r="E17" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="F17" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="G17" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="H17" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I17" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="J17" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="K17" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="M17" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="N17" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="O17" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="5:15">
       <c r="E18" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="F18" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="G18" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="H18" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I18" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="J18" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="K18" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="M18" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="N18" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="O18" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="5:15">
       <c r="E19" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F19" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="G19" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="H19" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I19" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="J19" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="K19" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="M19" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="N19" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="O19" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="20" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/src/main/resources/script/db/init-data/hrds_code_repo/hzero_platform/hzero-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/hrds_code_repo/hzero_platform/hzero-menu-user-role-label.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19488" windowHeight="8460" tabRatio="597" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19488" windowHeight="8460" tabRatio="597" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="386">
   <si>
     <r>
       <rPr>
@@ -3351,11 +3351,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3365,9 +3368,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3737,11 +3737,11 @@
   <sheetData>
     <row r="1" spans="1:8" ht="64.5" customHeight="1">
       <c r="A1" s="10"/>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
       <c r="F1" s="11"/>
       <c r="G1" s="11"/>
       <c r="H1" s="11"/>
@@ -3754,17 +3754,17 @@
         <v>1</v>
       </c>
       <c r="D3" s="34"/>
-      <c r="E3" s="35" t="s">
+      <c r="E3" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="36"/>
+      <c r="D4" s="37"/>
       <c r="E4" s="13" t="s">
         <v>4</v>
       </c>
@@ -3875,11 +3875,11 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="37" t="s">
+      <c r="C19" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
     </row>
     <row r="20" spans="3:5">
       <c r="C20" s="30" t="s">
@@ -3956,8 +3956,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
@@ -4073,7 +4073,7 @@
       </c>
     </row>
     <row r="8" spans="1:25">
-      <c r="E8" s="38" t="s">
+      <c r="E8" s="33" t="s">
         <v>385</v>
       </c>
       <c r="F8" t="s">
@@ -4688,7 +4688,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView topLeftCell="B43" workbookViewId="0">
+    <sheetView topLeftCell="B13" workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
@@ -5295,10 +5295,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O22"/>
+  <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
@@ -5587,16 +5587,16 @@
       <c r="F16" t="s">
         <v>233</v>
       </c>
-      <c r="G16" t="e">
-        <f>菜单SAAS版!#REF!</f>
-        <v>#REF!</v>
+      <c r="G16" t="str">
+        <f>菜单SAAS版!$E$9</f>
+        <v>iam_menu-9</v>
       </c>
       <c r="H16" t="str">
         <f>菜单标签数据!$E$8</f>
         <v>iam_label-8</v>
       </c>
       <c r="I16" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="17" spans="5:9">
@@ -5607,8 +5607,8 @@
         <v>233</v>
       </c>
       <c r="G17" t="str">
-        <f>菜单SAAS版!$E$9</f>
-        <v>iam_menu-9</v>
+        <f>菜单SAAS版!$E$10</f>
+        <v>iam_menu-10</v>
       </c>
       <c r="H17" t="str">
         <f>菜单标签数据!$E$8</f>
@@ -5626,8 +5626,8 @@
         <v>233</v>
       </c>
       <c r="G18" t="str">
-        <f>菜单SAAS版!$E$10</f>
-        <v>iam_menu-10</v>
+        <f>菜单SAAS版!$E$11</f>
+        <v>iam_menu-11</v>
       </c>
       <c r="H18" t="str">
         <f>菜单标签数据!$E$8</f>
@@ -5645,15 +5645,15 @@
         <v>233</v>
       </c>
       <c r="G19" t="str">
-        <f>菜单SAAS版!$E$11</f>
-        <v>iam_menu-11</v>
+        <f>菜单SAAS版!$E$13</f>
+        <v>iam_menu-13</v>
       </c>
       <c r="H19" t="str">
-        <f>菜单标签数据!$E$8</f>
-        <v>iam_label-8</v>
+        <f>菜单标签数据!$E$9</f>
+        <v>iam_label-11</v>
       </c>
       <c r="I19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="20" spans="5:9">
@@ -5664,12 +5664,12 @@
         <v>233</v>
       </c>
       <c r="G20" t="str">
-        <f>菜单SAAS版!$E$13</f>
-        <v>iam_menu-13</v>
+        <f>菜单SAAS版!E19</f>
+        <v>iam_menu-20</v>
       </c>
       <c r="H20" t="str">
-        <f>菜单标签数据!$E$9</f>
-        <v>iam_label-11</v>
+        <f>E12</f>
+        <v>iam_label-21</v>
       </c>
       <c r="I20" t="s">
         <v>255</v>
@@ -5683,33 +5683,14 @@
         <v>233</v>
       </c>
       <c r="G21" t="str">
-        <f>菜单SAAS版!E19</f>
-        <v>iam_menu-20</v>
+        <f>菜单SAAS版!E15</f>
+        <v>iam_menu-16</v>
       </c>
       <c r="H21" t="str">
         <f>E12</f>
         <v>iam_label-21</v>
       </c>
       <c r="I21" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="22" spans="5:9">
-      <c r="E22" t="s">
-        <v>254</v>
-      </c>
-      <c r="F22" t="s">
-        <v>233</v>
-      </c>
-      <c r="G22" t="str">
-        <f>菜单SAAS版!E15</f>
-        <v>iam_menu-16</v>
-      </c>
-      <c r="H22" t="str">
-        <f>E12</f>
-        <v>iam_label-21</v>
-      </c>
-      <c r="I22" t="s">
         <v>255</v>
       </c>
     </row>
@@ -7076,6 +7057,6 @@
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/script/db/init-data/hrds_code_repo/hzero_platform/hzero-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/hrds_code_repo/hzero_platform/hzero-menu-user-role-label.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19488" windowHeight="8460" tabRatio="597" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19488" windowHeight="8460" tabRatio="597" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -3956,8 +3956,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y19"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
@@ -4654,7 +4654,7 @@
         <v>77</v>
       </c>
       <c r="M19" s="7">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N19" t="s">
         <v>78</v>
@@ -5297,7 +5297,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>

--- a/src/main/resources/script/db/init-data/hrds_code_repo/hzero_platform/hzero-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/hrds_code_repo/hzero_platform/hzero-menu-user-role-label.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19488" windowHeight="8460" tabRatio="597" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19488" windowHeight="8460" tabRatio="597" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="380">
   <si>
     <r>
       <rPr>
@@ -2875,25 +2875,7 @@
     <t>iam_role_permission-30</t>
   </si>
   <si>
-    <t>TENANT_MGR</t>
-  </si>
-  <si>
     <t>ROLE</t>
-  </si>
-  <si>
-    <t>租户管理员标签</t>
-  </si>
-  <si>
-    <t>Tenant Manager Label</t>
-  </si>
-  <si>
-    <t>iam_label-9</t>
-  </si>
-  <si>
-    <t>SITE_MGR</t>
-  </si>
-  <si>
-    <t>平台管理员标签</t>
   </si>
   <si>
     <t>iam_label-10</t>
@@ -3956,7 +3938,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
@@ -4074,19 +4056,19 @@
     </row>
     <row r="8" spans="1:25">
       <c r="E8" s="33" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="F8" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="G8" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="H8" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="I8" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="J8" t="s">
         <v>75</v>
@@ -4110,7 +4092,7 @@
         <v>76</v>
       </c>
       <c r="S8" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="T8" t="s">
         <v>76</v>
@@ -5704,7 +5686,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y30"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
@@ -6590,15 +6572,16 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O19"/>
+  <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="5" max="5" width="17.5" customWidth="1"/>
+    <col min="6" max="6" width="28.4140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -6675,13 +6658,13 @@
     </row>
     <row r="8" spans="1:15">
       <c r="E8" t="s">
-        <v>231</v>
+        <v>343</v>
       </c>
       <c r="F8" t="s">
+        <v>344</v>
+      </c>
+      <c r="G8" t="s">
         <v>342</v>
-      </c>
-      <c r="G8" t="s">
-        <v>343</v>
       </c>
       <c r="H8" t="s">
         <v>78</v>
@@ -6690,7 +6673,7 @@
         <v>234</v>
       </c>
       <c r="J8" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K8" t="s">
         <v>345</v>
@@ -6702,26 +6685,29 @@
         <v>78</v>
       </c>
       <c r="O8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="E9" t="s">
+        <v>236</v>
+      </c>
+      <c r="F9" t="s">
         <v>346</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
+        <v>342</v>
+      </c>
+      <c r="H9" t="s">
+        <v>78</v>
+      </c>
+      <c r="I9" t="s">
+        <v>234</v>
+      </c>
+      <c r="J9" t="s">
         <v>347</v>
       </c>
-      <c r="G9" t="s">
-        <v>343</v>
-      </c>
-      <c r="H9" t="s">
-        <v>78</v>
-      </c>
-      <c r="I9" t="s">
-        <v>240</v>
-      </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>348</v>
       </c>
       <c r="M9" t="s">
@@ -6730,19 +6716,19 @@
       <c r="N9" t="s">
         <v>78</v>
       </c>
-      <c r="O9" t="s">
-        <v>78</v>
+      <c r="O9">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="E10" t="s">
+        <v>238</v>
+      </c>
+      <c r="F10" t="s">
         <v>349</v>
       </c>
-      <c r="F10" t="s">
-        <v>350</v>
-      </c>
       <c r="G10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H10" t="s">
         <v>78</v>
@@ -6751,10 +6737,10 @@
         <v>234</v>
       </c>
       <c r="J10" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="K10" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="M10" t="s">
         <v>76</v>
@@ -6768,13 +6754,13 @@
     </row>
     <row r="11" spans="1:15">
       <c r="E11" t="s">
-        <v>236</v>
+        <v>351</v>
       </c>
       <c r="F11" t="s">
         <v>352</v>
       </c>
       <c r="G11" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H11" t="s">
         <v>78</v>
@@ -6794,19 +6780,19 @@
       <c r="N11" t="s">
         <v>78</v>
       </c>
-      <c r="O11" t="s">
-        <v>76</v>
+      <c r="O11">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="E12" t="s">
-        <v>238</v>
+        <v>355</v>
       </c>
       <c r="F12" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="G12" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H12" t="s">
         <v>78</v>
@@ -6815,10 +6801,10 @@
         <v>234</v>
       </c>
       <c r="J12" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="K12" t="s">
-        <v>356</v>
+        <v>305</v>
       </c>
       <c r="M12" t="s">
         <v>76</v>
@@ -6832,13 +6818,13 @@
     </row>
     <row r="13" spans="1:15">
       <c r="E13" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F13" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="G13" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H13" t="s">
         <v>78</v>
@@ -6847,10 +6833,10 @@
         <v>234</v>
       </c>
       <c r="J13" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="K13" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="M13" t="s">
         <v>76</v>
@@ -6864,13 +6850,13 @@
     </row>
     <row r="14" spans="1:15">
       <c r="E14" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F14" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="G14" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H14" t="s">
         <v>78</v>
@@ -6879,10 +6865,10 @@
         <v>234</v>
       </c>
       <c r="J14" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="K14" t="s">
-        <v>305</v>
+        <v>365</v>
       </c>
       <c r="M14" t="s">
         <v>76</v>
@@ -6896,13 +6882,13 @@
     </row>
     <row r="15" spans="1:15">
       <c r="E15" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="F15" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="G15" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H15" t="s">
         <v>78</v>
@@ -6911,10 +6897,10 @@
         <v>234</v>
       </c>
       <c r="J15" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="K15" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="M15" t="s">
         <v>76</v>
@@ -6922,19 +6908,19 @@
       <c r="N15" t="s">
         <v>78</v>
       </c>
-      <c r="O15" t="s">
-        <v>76</v>
+      <c r="O15">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="E16" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="F16" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="G16" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H16" t="s">
         <v>78</v>
@@ -6943,7 +6929,7 @@
         <v>234</v>
       </c>
       <c r="J16" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="K16" t="s">
         <v>371</v>
@@ -6955,18 +6941,18 @@
         <v>78</v>
       </c>
       <c r="O16" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="5:15">
       <c r="E17" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F17" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="G17" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H17" t="s">
         <v>78</v>
@@ -6975,11 +6961,11 @@
         <v>234</v>
       </c>
       <c r="J17" t="s">
+        <v>375</v>
+      </c>
+      <c r="K17" t="s">
         <v>374</v>
       </c>
-      <c r="K17" t="s">
-        <v>375</v>
-      </c>
       <c r="M17" t="s">
         <v>76</v>
       </c>
@@ -6987,70 +6973,6 @@
         <v>78</v>
       </c>
       <c r="O17" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="18" spans="5:15">
-      <c r="E18" t="s">
-        <v>376</v>
-      </c>
-      <c r="F18" t="s">
-        <v>377</v>
-      </c>
-      <c r="G18" t="s">
-        <v>343</v>
-      </c>
-      <c r="H18" t="s">
-        <v>78</v>
-      </c>
-      <c r="I18" t="s">
-        <v>234</v>
-      </c>
-      <c r="J18" t="s">
-        <v>378</v>
-      </c>
-      <c r="K18" t="s">
-        <v>377</v>
-      </c>
-      <c r="M18" t="s">
-        <v>76</v>
-      </c>
-      <c r="N18" t="s">
-        <v>78</v>
-      </c>
-      <c r="O18" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="19" spans="5:15">
-      <c r="E19" t="s">
-        <v>379</v>
-      </c>
-      <c r="F19" t="s">
-        <v>380</v>
-      </c>
-      <c r="G19" t="s">
-        <v>343</v>
-      </c>
-      <c r="H19" t="s">
-        <v>78</v>
-      </c>
-      <c r="I19" t="s">
-        <v>234</v>
-      </c>
-      <c r="J19" t="s">
-        <v>381</v>
-      </c>
-      <c r="K19" t="s">
-        <v>380</v>
-      </c>
-      <c r="M19" t="s">
-        <v>76</v>
-      </c>
-      <c r="N19" t="s">
-        <v>78</v>
-      </c>
-      <c r="O19" t="s">
         <v>78</v>
       </c>
     </row>

--- a/src/main/resources/script/db/init-data/hrds_code_repo/hzero_platform/hzero-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/hrds_code_repo/hzero_platform/hzero-menu-user-role-label.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\14589\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB58F945-4499-40BB-9796-88458750D59D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="597" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="19485" windowHeight="8460" tabRatio="597" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -26,19 +20,18 @@
     <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
     <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="390">
   <si>
     <r>
       <rPr>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">注意这个文档不能 </t>
@@ -57,7 +50,6 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>！！
@@ -70,7 +62,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">正式的数据从第二个 </t>
@@ -89,7 +80,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页开始</t>
@@ -108,7 +98,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">每页 从 </t>
@@ -127,7 +116,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格开始有效
@@ -159,7 +147,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>颜色示例</t>
@@ -178,7 +165,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非必须</t>
@@ -197,7 +183,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非强制</t>
@@ -219,7 +204,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>请给特殊单元格</t>
@@ -240,7 +224,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列名添加颜色</t>
@@ -261,7 +244,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>提高数据可读性</t>
@@ -282,7 +264,6 @@
         <sz val="12"/>
         <color rgb="FFC55A11"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动生成</t>
@@ -303,7 +284,6 @@
         <sz val="12"/>
         <color rgb="FF2E75B6"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>唯一性检查</t>
@@ -315,7 +295,6 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -334,7 +313,6 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -346,7 +324,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>理论上</t>
@@ -365,7 +342,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表的前后顺序</t>
@@ -384,7 +360,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页的顺序没有严格要求</t>
@@ -403,7 +378,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但请尽量按照先插 后引用的顺序排列</t>
@@ -422,7 +396,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>减少迭代次数</t>
@@ -470,7 +443,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -489,7 +461,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>该列的值自动生成</t>
@@ -508,7 +479,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当数据库存在等价记录时</t>
@@ -527,7 +497,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>这个值会被替换为数据库中已存在的值</t>
@@ -539,7 +508,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自增长</t>
@@ -558,7 +526,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>或序列</t>
@@ -577,7 +544,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>主键列</t>
@@ -597,7 +563,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当不作为外键引用时</t>
@@ -616,7 +581,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般写</t>
@@ -636,7 +600,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>作为外键时</t>
@@ -655,7 +618,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>写可读的值</t>
@@ -667,7 +629,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">目前 </t>
@@ -686,7 +647,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>是序列</t>
@@ -705,7 +665,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他自增涨</t>
@@ -729,7 +688,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -748,7 +706,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表中所有带有</t>
@@ -767,7 +724,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>的列组成一个唯一性校验</t>
@@ -786,7 +742,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>在执行插入之前</t>
@@ -805,7 +760,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会首先按照唯一键来检查数据库是否存在等价记录</t>
@@ -817,7 +771,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>可以有多列</t>
@@ -836,7 +789,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>仅支持</t>
@@ -847,7 +799,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>数字</t>
@@ -868,7 +819,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">字符串
@@ -879,7 +829,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当</t>
@@ -898,7 +847,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列涉及到公式时</t>
@@ -917,7 +865,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会先确定公式的值</t>
@@ -941,7 +888,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定这一列的类型</t>
@@ -960,7 +906,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>默认会自动检测</t>
@@ -980,7 +925,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为数字</t>
@@ -1000,7 +944,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为日期</t>
@@ -1020,7 +963,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他默认为</t>
@@ -1041,7 +983,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般不需要指定</t>
@@ -1061,7 +1002,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>日期格式仅支持</t>
@@ -1096,7 +1036,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定语言环境</t>
@@ -1117,7 +1056,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表数据不需要专门写</t>
@@ -1129,7 +1067,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -1148,7 +1085,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -1169,7 +1105,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>用于引用外键</t>
@@ -1188,7 +1123,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>也可用于普通值
@@ -1201,7 +1135,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动增长列</t>
@@ -1220,7 +1153,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>如果被公式引用</t>
@@ -1239,7 +1171,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>最好写一个人可以读懂的值</t>
@@ -1258,7 +1189,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>增强公式可读性</t>
@@ -1273,7 +1203,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般用于引用自动生成的外键</t>
@@ -1292,7 +1221,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">所有公式均为 </t>
@@ -1311,7 +1239,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>支持的标准公式</t>
@@ -1330,7 +1257,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但不支持特别复杂的计算公式</t>
@@ -1349,7 +1275,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>比如范围计算</t>
@@ -1365,7 +1290,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1375,7 +1299,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1394,7 +1317,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1410,7 +1332,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1420,7 +1341,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1439,7 +1359,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1454,7 +1373,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1473,7 +1391,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1492,7 +1409,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1512,7 +1428,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1536,7 +1451,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1555,7 +1469,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1574,7 +1487,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1594,7 +1506,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1615,7 +1526,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1626,7 +1536,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1636,7 +1545,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1648,7 +1556,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>举例</t>
@@ -1667,7 +1574,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">当 </t>
@@ -1686,7 +1592,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格引用 </t>
@@ -1705,7 +1610,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">时
@@ -1725,7 +1629,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1744,7 +1647,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格时</t>
@@ -1763,7 +1665,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用的是 </t>
@@ -1783,7 +1684,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">将 </t>
@@ -1802,7 +1702,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1821,7 +1720,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>时</t>
@@ -1840,7 +1738,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">实际引用的是 </t>
@@ -1860,7 +1757,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>以上情况适用于拖拽填充</t>
@@ -1872,7 +1768,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1883,7 +1778,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1893,7 +1787,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1905,7 +1798,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>复制公式单元格时</t>
@@ -1924,7 +1816,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>保持公式不变</t>
@@ -1936,7 +1827,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对引用</t>
@@ -1955,7 +1845,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对引用各有用途</t>
@@ -1975,7 +1864,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>直接拖拽填充就可以避免大量重复工作</t>
@@ -2519,6 +2407,52 @@
     <t>code-repo-service.rdm-member-org.export</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>am_menu_permission-53</t>
+    </r>
+  </si>
+  <si>
+    <t>code-repo-service.rdm-member-proj.batchRemoveMember</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>am_menu_permission-54</t>
+    </r>
+  </si>
+  <si>
+    <t>code-repo-service.project.listNonProjectMembers</t>
+  </si>
+  <si>
     <t>标签表</t>
   </si>
   <si>
@@ -3006,49 +2940,19 @@
   </si>
   <si>
     <t>标识gitlab_developer</t>
-  </si>
-  <si>
-    <r>
-      <t>i</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>am_menu_permission-53</t>
-    </r>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>i</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>am_menu-19</t>
-    </r>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>code-repo-service.rdm-member-proj.batchRemoveMember</t>
-    <phoneticPr fontId="23" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="43">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -3059,25 +2963,31 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="53"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="48"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="42"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="8"/>
@@ -3123,6 +3033,163 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="DengXian"/>
@@ -3144,6 +3211,13 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="DengXian"/>
       <charset val="134"/>
     </font>
@@ -3151,14 +3225,18 @@
       <sz val="12"/>
       <color rgb="FFC55A11"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF548235"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3167,43 +3245,8 @@
       <name val="DengXian"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF548235"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="7">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3240,8 +3283,194 @@
         <bgColor rgb="FFE7E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -3342,10 +3571,252 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="30" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="30" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3356,6 +3827,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3363,32 +3835,44 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3398,35 +3882,69 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
@@ -3499,9 +4017,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3759,253 +4274,256 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" style="8" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" style="9" customWidth="1"/>
-    <col min="3" max="3" width="28.109375" customWidth="1"/>
-    <col min="4" max="4" width="35.33203125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="38.5546875" customWidth="1"/>
-    <col min="6" max="6" width="23.44140625" customWidth="1"/>
-    <col min="7" max="7" width="21.5546875" customWidth="1"/>
+    <col min="1" max="1" width="15.5555555555556" style="9" customWidth="1"/>
+    <col min="2" max="2" width="10.3333333333333" style="10" customWidth="1"/>
+    <col min="3" max="3" width="28.1111111111111" customWidth="1"/>
+    <col min="4" max="4" width="35.3333333333333" style="5" customWidth="1"/>
+    <col min="5" max="5" width="38.5555555555556" customWidth="1"/>
+    <col min="6" max="6" width="23.4444444444444" customWidth="1"/>
+    <col min="7" max="7" width="21.5555555555556" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5546875" customWidth="1"/>
+    <col min="9" max="9" width="24.5555555555556" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.109375" customWidth="1"/>
-    <col min="12" max="12" width="18.5546875" customWidth="1"/>
-    <col min="13" max="13" width="13.109375" customWidth="1"/>
-    <col min="14" max="1025" width="10.33203125" customWidth="1"/>
+    <col min="11" max="11" width="19.1111111111111" customWidth="1"/>
+    <col min="12" max="12" width="18.5555555555556" customWidth="1"/>
+    <col min="13" max="13" width="13.1111111111111" customWidth="1"/>
+    <col min="14" max="1025" width="10.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="64.5" customHeight="1">
-      <c r="A1" s="10"/>
-      <c r="C1" s="35" t="s">
+    <row r="1" ht="64.5" customHeight="1" spans="1:8">
+      <c r="A1" s="11"/>
+      <c r="C1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-    </row>
-    <row r="2" spans="1:8" ht="18">
-      <c r="E2" s="12"/>
-    </row>
-    <row r="3" spans="1:8" ht="49.5" customHeight="1">
-      <c r="C3" s="34" t="s">
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+    </row>
+    <row r="2" ht="18" spans="5:5">
+      <c r="E2" s="14"/>
+    </row>
+    <row r="3" ht="49.5" customHeight="1" spans="3:7">
+      <c r="C3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="34"/>
-      <c r="E3" s="36" t="s">
+      <c r="D3" s="15"/>
+      <c r="E3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-    </row>
-    <row r="4" spans="1:8" ht="18">
-      <c r="C4" s="37" t="s">
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+    </row>
+    <row r="4" ht="18" spans="3:7">
+      <c r="C4" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="37"/>
-      <c r="E4" s="13" t="s">
+      <c r="D4" s="17"/>
+      <c r="E4" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="20" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="10"/>
+    <row r="5" spans="1:3">
+      <c r="A5" s="11"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18">
-      <c r="C7" s="16" t="s">
+    <row r="7" ht="18" spans="3:5">
+      <c r="C7" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="23" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
-      <c r="C8" s="19" t="s">
+    <row r="8" spans="3:5">
+      <c r="C8" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="21"/>
-    </row>
-    <row r="9" spans="1:8" ht="51.75">
-      <c r="C9" s="22" t="s">
+      <c r="E8" s="26"/>
+    </row>
+    <row r="9" ht="51.75" spans="3:6">
+      <c r="C9" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="24" t="s">
+      <c r="E9" s="29" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="51.75">
-      <c r="C10" s="25" t="s">
+    <row r="10" ht="51.75" spans="3:5">
+      <c r="C10" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="24" t="s">
+      <c r="E10" s="29" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="69">
-      <c r="C11" s="19" t="s">
+    <row r="11" ht="69" spans="3:5">
+      <c r="C11" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="24" t="s">
+      <c r="E11" s="29" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
-      <c r="C12" s="19" t="s">
+    <row r="12" spans="3:5">
+      <c r="C12" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="D12" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="26" t="s">
+      <c r="E12" s="31" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
-      <c r="C13" s="19"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="21"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="C14" s="19"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="21"/>
-    </row>
-    <row r="15" spans="1:8" ht="34.5">
-      <c r="C15" s="27" t="s">
+    <row r="13" spans="3:5">
+      <c r="C13" s="24"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="26"/>
+    </row>
+    <row r="14" spans="3:5">
+      <c r="C14" s="24"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="26"/>
+    </row>
+    <row r="15" ht="34.5" spans="3:5">
+      <c r="C15" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="28" t="s">
+      <c r="D15" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="29" t="s">
+      <c r="E15" s="34" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="3:5">
+    <row r="18" spans="3:3">
       <c r="C18" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="38" t="s">
+      <c r="C19" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-    </row>
-    <row r="20" spans="3:5" ht="18">
-      <c r="C20" s="30" t="s">
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+    </row>
+    <row r="20" ht="18" spans="3:4">
+      <c r="C20" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="14" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="3:5" ht="18">
-      <c r="C21" s="30" t="s">
+    <row r="21" ht="18" spans="3:4">
+      <c r="C21" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="14" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="3:5" ht="18">
-      <c r="C22" s="30" t="s">
+    <row r="22" ht="18" spans="3:4">
+      <c r="C22" s="36" t="s">
         <v>35</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="3:5" ht="18">
-      <c r="C23" s="30" t="s">
+    <row r="23" ht="18" spans="3:4">
+      <c r="C23" s="36" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="3:5" ht="69" customHeight="1">
-      <c r="C25" s="31" t="s">
+    <row r="25" ht="69" customHeight="1" spans="3:5">
+      <c r="C25" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="34" t="s">
+      <c r="D25" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="34"/>
-    </row>
-    <row r="26" spans="3:5" ht="14.25" customHeight="1">
-      <c r="C26" s="20" t="s">
+      <c r="E25" s="15"/>
+    </row>
+    <row r="26" ht="14.25" customHeight="1" spans="3:5">
+      <c r="C26" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="34" t="s">
+      <c r="D26" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="34"/>
-    </row>
-    <row r="27" spans="3:5" ht="51.75">
-      <c r="C27" s="32" t="s">
+      <c r="E26" s="15"/>
+    </row>
+    <row r="27" ht="51.75" spans="3:3">
+      <c r="C27" s="38" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C19:E19"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
   </mergeCells>
-  <phoneticPr fontId="23" type="noConversion"/>
-  <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.51041666666666696" footer="0.51041666666666696"/>
+  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:Y19"/>
   <sheetViews>
     <sheetView topLeftCell="B4" workbookViewId="0">
@@ -4014,15 +4532,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="5" max="5" width="16.6640625" customWidth="1"/>
-    <col min="6" max="6" width="63.21875" customWidth="1"/>
-    <col min="7" max="7" width="15.21875" customWidth="1"/>
-    <col min="10" max="10" width="16.5546875" customWidth="1"/>
-    <col min="11" max="11" width="16.77734375" customWidth="1"/>
-    <col min="16" max="16" width="45.88671875" customWidth="1"/>
+    <col min="5" max="5" width="16.6666666666667" customWidth="1"/>
+    <col min="6" max="6" width="63.2222222222222" customWidth="1"/>
+    <col min="7" max="7" width="15.2222222222222" customWidth="1"/>
+    <col min="10" max="10" width="16.5555555555556" customWidth="1"/>
+    <col min="11" max="11" width="16.7777777777778" customWidth="1"/>
+    <col min="16" max="16" width="45.8888888888889" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -4036,7 +4554,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="5:7">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -4124,7 +4642,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="5:24">
       <c r="E8" t="s">
         <v>75</v>
       </c>
@@ -4171,7 +4689,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="5:24">
       <c r="E9" t="s">
         <v>84</v>
       </c>
@@ -4225,7 +4743,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="5:24">
       <c r="E10" t="s">
         <v>92</v>
       </c>
@@ -4276,7 +4794,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11" spans="5:24">
       <c r="E11" t="s">
         <v>98</v>
       </c>
@@ -4324,7 +4842,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="1:25">
+    <row r="12" spans="5:24">
       <c r="E12" t="s">
         <v>103</v>
       </c>
@@ -4371,7 +4889,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:25">
+    <row r="13" spans="5:24">
       <c r="E13" t="s">
         <v>106</v>
       </c>
@@ -4425,7 +4943,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="1:25">
+    <row r="14" spans="5:24">
       <c r="E14" t="s">
         <v>113</v>
       </c>
@@ -4476,7 +4994,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="5:24">
       <c r="E15" t="s">
         <v>116</v>
       </c>
@@ -4530,7 +5048,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="1:25">
+    <row r="16" spans="5:24">
       <c r="E16" t="s">
         <v>120</v>
       </c>
@@ -4702,7 +5220,7 @@
       <c r="L19" t="s">
         <v>80</v>
       </c>
-      <c r="M19" s="7">
+      <c r="M19" s="8">
         <v>30</v>
       </c>
       <c r="N19" t="s">
@@ -4728,27 +5246,28 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="23" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G53"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B41" workbookViewId="0">
-      <selection activeCell="E53" sqref="E53"/>
+      <selection activeCell="G55" sqref="G55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="6"/>
   <cols>
-    <col min="5" max="5" width="32.21875" customWidth="1"/>
-    <col min="6" max="6" width="17.5546875" customWidth="1"/>
-    <col min="7" max="7" width="30.33203125" customWidth="1"/>
+    <col min="5" max="5" width="32.2222222222222" customWidth="1"/>
+    <col min="6" max="6" width="17.5555555555556" customWidth="1"/>
+    <col min="7" max="7" width="30.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -4762,7 +5281,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="5:7">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -4796,7 +5315,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="5:7">
       <c r="E8" t="s">
         <v>139</v>
       </c>
@@ -4808,7 +5327,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="5:7">
       <c r="E9" t="s">
         <v>141</v>
       </c>
@@ -4820,7 +5339,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="5:7">
       <c r="E10" t="s">
         <v>143</v>
       </c>
@@ -4832,7 +5351,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="5:7">
       <c r="E11" t="s">
         <v>145</v>
       </c>
@@ -4844,7 +5363,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="5:7">
       <c r="E12" t="s">
         <v>147</v>
       </c>
@@ -4856,7 +5375,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="5:7">
       <c r="E13" t="s">
         <v>149</v>
       </c>
@@ -4868,7 +5387,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="5:7">
       <c r="E14" t="s">
         <v>151</v>
       </c>
@@ -4880,7 +5399,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="5:7">
       <c r="E15" t="s">
         <v>153</v>
       </c>
@@ -4892,7 +5411,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="5:7">
       <c r="E16" t="s">
         <v>155</v>
       </c>
@@ -5337,24 +5856,36 @@
       </c>
     </row>
     <row r="53" spans="5:7">
-      <c r="E53" s="33" t="s">
-        <v>386</v>
-      </c>
-      <c r="F53" s="33" t="s">
-        <v>387</v>
-      </c>
-      <c r="G53" s="33" t="s">
-        <v>388</v>
+      <c r="E53" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="54" spans="5:7">
+      <c r="E54" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F54" t="s">
+        <v>127</v>
+      </c>
+      <c r="G54" t="s">
+        <v>226</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="23" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView topLeftCell="C13" workbookViewId="0">
@@ -5363,16 +5894,16 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="5" max="5" width="26.5546875" customWidth="1"/>
-    <col min="6" max="6" width="25.44140625" customWidth="1"/>
-    <col min="7" max="7" width="17.44140625" customWidth="1"/>
-    <col min="8" max="8" width="21.88671875" customWidth="1"/>
-    <col min="11" max="11" width="19.109375" customWidth="1"/>
-    <col min="13" max="13" width="12.77734375" customWidth="1"/>
-    <col min="14" max="14" width="15.44140625" customWidth="1"/>
+    <col min="5" max="5" width="26.5555555555556" customWidth="1"/>
+    <col min="6" max="6" width="25.4444444444444" customWidth="1"/>
+    <col min="7" max="7" width="17.4444444444444" customWidth="1"/>
+    <col min="8" max="8" width="21.8888888888889" customWidth="1"/>
+    <col min="11" max="11" width="19.1111111111111" customWidth="1"/>
+    <col min="13" max="13" width="12.7777777777778" customWidth="1"/>
+    <col min="14" max="14" width="15.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -5386,7 +5917,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="5:7">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -5405,66 +5936,66 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="H7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="I7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="J7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="K7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="L7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="M7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="N7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="O7" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="8" spans="5:15">
       <c r="E8" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="F8" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="G8" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="H8" t="s">
         <v>82</v>
       </c>
       <c r="I8" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="J8" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="K8" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="M8" t="s">
         <v>82</v>
@@ -5476,21 +6007,21 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="5:15">
       <c r="E9" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="F9" t="s">
+        <v>245</v>
+      </c>
+      <c r="G9" t="s">
         <v>241</v>
       </c>
-      <c r="G9" t="s">
-        <v>237</v>
-      </c>
       <c r="H9" t="s">
         <v>82</v>
       </c>
       <c r="I9" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="M9" t="s">
         <v>79</v>
@@ -5502,27 +6033,27 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="5:15">
       <c r="E10" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="F10" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="G10" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="H10" t="s">
         <v>82</v>
       </c>
       <c r="I10" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="J10" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="K10" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="M10" t="s">
         <v>82</v>
@@ -5534,21 +6065,21 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="5:15">
       <c r="E11" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="F11" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="G11" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="H11" t="s">
         <v>82</v>
       </c>
       <c r="I11" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="M11" t="s">
         <v>82</v>
@@ -5560,27 +6091,27 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="5:15">
       <c r="E12" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="F12" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="G12" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="H12">
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="J12" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="K12" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -5592,7 +6123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>50</v>
       </c>
@@ -5600,33 +6131,33 @@
         <v>51</v>
       </c>
       <c r="C14" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="I14" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="15" spans="5:9">
       <c r="E15" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="F15" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="G15" t="str">
         <f>菜单SAAS版!$E$12</f>
@@ -5637,15 +6168,15 @@
         <v>iam_label-11</v>
       </c>
       <c r="I15" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="16" spans="5:9">
       <c r="E16" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="F16" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="G16" t="str">
         <f>菜单SAAS版!$E$8</f>
@@ -5656,15 +6187,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I16" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="17" spans="5:9">
       <c r="E17" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="F17" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="G17" t="str">
         <f>菜单SAAS版!$E$9</f>
@@ -5675,15 +6206,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I17" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
     </row>
     <row r="18" spans="5:9">
       <c r="E18" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="F18" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="G18" t="str">
         <f>菜单SAAS版!$E$10</f>
@@ -5694,15 +6225,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I18" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
     </row>
     <row r="19" spans="5:9">
       <c r="E19" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="F19" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="G19" t="str">
         <f>菜单SAAS版!$E$11</f>
@@ -5713,15 +6244,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I19" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
     </row>
     <row r="20" spans="5:9">
       <c r="E20" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="F20" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="G20" t="str">
         <f>菜单SAAS版!$E$13</f>
@@ -5732,15 +6263,15 @@
         <v>iam_label-11</v>
       </c>
       <c r="I20" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="21" spans="5:9">
       <c r="E21" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="F21" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="G21" t="str">
         <f>菜单SAAS版!E19</f>
@@ -5751,15 +6282,15 @@
         <v>iam_label-21</v>
       </c>
       <c r="I21" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="22" spans="5:9">
       <c r="E22" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="F22" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="G22" t="str">
         <f>菜单SAAS版!E15</f>
@@ -5770,17 +6301,18 @@
         <v>iam_label-21</v>
       </c>
       <c r="I22" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="23" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:Y30"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
@@ -5789,14 +6321,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="5" max="5" width="28.6640625" customWidth="1"/>
-    <col min="6" max="6" width="22.44140625" customWidth="1"/>
-    <col min="7" max="7" width="39.33203125" customWidth="1"/>
-    <col min="8" max="8" width="13.88671875" customWidth="1"/>
-    <col min="9" max="9" width="15.77734375" customWidth="1"/>
+    <col min="5" max="5" width="28.6666666666667" customWidth="1"/>
+    <col min="6" max="6" width="22.4444444444444" customWidth="1"/>
+    <col min="7" max="7" width="39.3333333333333" customWidth="1"/>
+    <col min="8" max="8" width="13.8888888888889" customWidth="1"/>
+    <col min="9" max="9" width="15.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -5810,7 +6342,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="5:7">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -5829,10 +6361,10 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
@@ -5847,75 +6379,75 @@
         <v>55</v>
       </c>
       <c r="I7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="J7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>67</v>
       </c>
       <c r="L7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="O7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="P7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="Q7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="R7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="S7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="T7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="U7" t="s">
         <v>68</v>
       </c>
       <c r="V7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="W7" s="3" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="X7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="Y7" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="8" spans="5:23">
       <c r="E8" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="F8" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="G8" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="H8" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="I8" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="J8" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="K8" t="s">
         <v>79</v>
@@ -5948,30 +6480,30 @@
         <v>79</v>
       </c>
       <c r="U8" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="V8" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="W8" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="5:23">
       <c r="E9" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="F9" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="G9" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="H9" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="I9" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="J9" t="s">
         <v>78</v>
@@ -6007,27 +6539,27 @@
         <v>79</v>
       </c>
       <c r="U9" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="V9" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="W9" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="5:25">
       <c r="E10" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="F10" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="G10" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="H10" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="J10" t="s">
         <v>78</v>
@@ -6064,10 +6596,10 @@
         <v>79</v>
       </c>
       <c r="U10" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="V10" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="W10" t="s">
         <v>79</v>
@@ -6076,21 +6608,21 @@
         <v>100</v>
       </c>
       <c r="Y10" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="11" spans="5:25">
       <c r="E11" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="F11" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="G11" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="H11" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="J11" t="s">
         <v>78</v>
@@ -6127,33 +6659,33 @@
         <v>79</v>
       </c>
       <c r="U11" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="V11" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="W11" t="s">
         <v>79</v>
       </c>
       <c r="X11" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="Y11" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="12" spans="5:25">
       <c r="E12" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="F12" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="G12" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="H12" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="J12" t="s">
         <v>78</v>
@@ -6190,10 +6722,10 @@
         <v>79</v>
       </c>
       <c r="U12" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="V12" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="W12" t="s">
         <v>79</v>
@@ -6202,21 +6734,21 @@
         <v>129</v>
       </c>
       <c r="Y12" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="13" spans="5:25">
       <c r="E13" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="F13" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="G13" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="H13" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="J13" t="s">
         <v>78</v>
@@ -6253,10 +6785,10 @@
         <v>79</v>
       </c>
       <c r="U13" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="V13" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="W13" t="s">
         <v>79</v>
@@ -6265,24 +6797,24 @@
         <v>125</v>
       </c>
       <c r="Y13" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="14" spans="5:23">
       <c r="E14" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="F14" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="G14" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="H14" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="J14" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="K14" t="s">
         <v>79</v>
@@ -6316,16 +6848,16 @@
         <v>79</v>
       </c>
       <c r="U14" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="V14" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="W14" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:25">
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -6333,33 +6865,33 @@
         <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="H16" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="I16" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
     </row>
     <row r="17" spans="5:10">
       <c r="E17" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="F17" t="str">
         <f>角色!$E$10</f>
@@ -6370,18 +6902,18 @@
         <v>iam_menu-10</v>
       </c>
       <c r="H17" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="I17" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="J17" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
     </row>
     <row r="18" spans="5:10">
       <c r="E18" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="F18" t="str">
         <f>角色!$E$10</f>
@@ -6392,18 +6924,18 @@
         <v>iam_menu-11</v>
       </c>
       <c r="H18" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="I18" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="J18" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
     </row>
     <row r="19" spans="5:10">
       <c r="E19" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="F19" t="str">
         <f>角色!$E$10</f>
@@ -6414,18 +6946,18 @@
         <v>iam_menu-17</v>
       </c>
       <c r="H19" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="I19" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="J19" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
     </row>
     <row r="20" spans="5:10">
       <c r="E20" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="F20" t="str">
         <f>角色!$E$10</f>
@@ -6436,18 +6968,18 @@
         <v>iam_menu-18</v>
       </c>
       <c r="H20" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="I20" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="J20" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
     </row>
     <row r="21" spans="5:10">
       <c r="E21" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="F21" t="str">
         <f>角色!$E$10</f>
@@ -6458,18 +6990,18 @@
         <v>iam_menu-19</v>
       </c>
       <c r="H21" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="I21" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="J21" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
     </row>
     <row r="22" spans="5:10">
       <c r="E22" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="F22" t="str">
         <f>角色!$E$10</f>
@@ -6480,18 +7012,18 @@
         <v>iam_menu-14</v>
       </c>
       <c r="H22" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="I22" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="J22" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
     </row>
     <row r="23" spans="5:10">
       <c r="E23" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="F23" t="str">
         <f>角色!$E$11</f>
@@ -6502,18 +7034,18 @@
         <v>iam_menu-14</v>
       </c>
       <c r="H23" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="I23" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="J23" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
     </row>
     <row r="24" spans="5:10">
       <c r="E24" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="F24" t="str">
         <f>角色!$E$12</f>
@@ -6524,18 +7056,18 @@
         <v>iam_menu-17</v>
       </c>
       <c r="H24" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="I24" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="J24" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
     </row>
     <row r="25" spans="5:10">
       <c r="E25" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="F25" t="str">
         <f>角色!$E$12</f>
@@ -6546,18 +7078,18 @@
         <v>iam_menu-19</v>
       </c>
       <c r="H25" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="I25" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="J25" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
     </row>
     <row r="26" spans="5:10">
       <c r="E26" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="F26" t="str">
         <f>角色!$E$12</f>
@@ -6568,18 +7100,18 @@
         <v>iam_menu-14</v>
       </c>
       <c r="H26" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="I26" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="J26" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
     </row>
     <row r="27" spans="5:10">
       <c r="E27" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="F27" t="str">
         <f>角色!$E$13</f>
@@ -6590,18 +7122,18 @@
         <v>iam_menu-17</v>
       </c>
       <c r="H27" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="I27" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="J27" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
     </row>
     <row r="28" spans="5:10">
       <c r="E28" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="F28" t="str">
         <f>角色!$E$13</f>
@@ -6612,18 +7144,18 @@
         <v>iam_menu-18</v>
       </c>
       <c r="H28" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="I28" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="J28" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
     </row>
     <row r="29" spans="5:10">
       <c r="E29" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="F29" t="str">
         <f>角色!$E$13</f>
@@ -6634,18 +7166,18 @@
         <v>iam_menu-19</v>
       </c>
       <c r="H29" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="I29" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="J29" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
     </row>
     <row r="30" spans="5:10">
       <c r="E30" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="F30" t="str">
         <f>角色!$E$13</f>
@@ -6656,23 +7188,24 @@
         <v>iam_menu-14</v>
       </c>
       <c r="H30" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="I30" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="J30" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="23" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
@@ -6681,10 +7214,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="5" max="5" width="17.44140625" customWidth="1"/>
+    <col min="5" max="5" width="17.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -6698,7 +7231,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="5:7">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -6717,66 +7250,66 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="H7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="I7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="J7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="K7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="L7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="M7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="N7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="O7" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="8" spans="5:15">
       <c r="E8" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="F8" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="G8" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="H8" t="s">
         <v>82</v>
       </c>
       <c r="I8" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="J8" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="K8" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="M8" t="s">
         <v>79</v>
@@ -6788,88 +7321,88 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="5:15">
       <c r="E9" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F9" t="s">
+        <v>355</v>
+      </c>
+      <c r="G9" t="s">
         <v>351</v>
       </c>
-      <c r="G9" t="s">
-        <v>347</v>
-      </c>
       <c r="H9" t="s">
         <v>82</v>
       </c>
       <c r="I9" t="s">
+        <v>248</v>
+      </c>
+      <c r="J9" t="s">
+        <v>356</v>
+      </c>
+      <c r="M9" t="s">
+        <v>79</v>
+      </c>
+      <c r="N9" t="s">
+        <v>82</v>
+      </c>
+      <c r="O9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="5:15">
+      <c r="E10" t="s">
+        <v>357</v>
+      </c>
+      <c r="F10" t="s">
+        <v>358</v>
+      </c>
+      <c r="G10" t="s">
+        <v>351</v>
+      </c>
+      <c r="H10" t="s">
+        <v>82</v>
+      </c>
+      <c r="I10" t="s">
+        <v>242</v>
+      </c>
+      <c r="J10" t="s">
+        <v>359</v>
+      </c>
+      <c r="K10" t="s">
+        <v>359</v>
+      </c>
+      <c r="M10" t="s">
+        <v>79</v>
+      </c>
+      <c r="N10" t="s">
+        <v>82</v>
+      </c>
+      <c r="O10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="5:15">
+      <c r="E11" t="s">
         <v>244</v>
       </c>
-      <c r="J9" t="s">
-        <v>352</v>
-      </c>
-      <c r="M9" t="s">
-        <v>79</v>
-      </c>
-      <c r="N9" t="s">
-        <v>82</v>
-      </c>
-      <c r="O9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="E10" t="s">
-        <v>353</v>
-      </c>
-      <c r="F10" t="s">
-        <v>354</v>
-      </c>
-      <c r="G10" t="s">
-        <v>347</v>
-      </c>
-      <c r="H10" t="s">
-        <v>82</v>
-      </c>
-      <c r="I10" t="s">
-        <v>238</v>
-      </c>
-      <c r="J10" t="s">
-        <v>355</v>
-      </c>
-      <c r="K10" t="s">
-        <v>355</v>
-      </c>
-      <c r="M10" t="s">
-        <v>79</v>
-      </c>
-      <c r="N10" t="s">
-        <v>82</v>
-      </c>
-      <c r="O10" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="E11" t="s">
-        <v>240</v>
-      </c>
       <c r="F11" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="G11" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="H11" t="s">
         <v>82</v>
       </c>
       <c r="I11" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="J11" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="K11" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="M11" t="s">
         <v>79</v>
@@ -6881,27 +7414,27 @@
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="5:15">
       <c r="E12" t="s">
+        <v>246</v>
+      </c>
+      <c r="F12" t="s">
+        <v>363</v>
+      </c>
+      <c r="G12" t="s">
+        <v>351</v>
+      </c>
+      <c r="H12" t="s">
+        <v>82</v>
+      </c>
+      <c r="I12" t="s">
         <v>242</v>
       </c>
-      <c r="F12" t="s">
-        <v>359</v>
-      </c>
-      <c r="G12" t="s">
-        <v>347</v>
-      </c>
-      <c r="H12" t="s">
-        <v>82</v>
-      </c>
-      <c r="I12" t="s">
-        <v>238</v>
-      </c>
       <c r="J12" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="K12" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="M12" t="s">
         <v>79</v>
@@ -6913,27 +7446,27 @@
         <v>79</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="5:15">
       <c r="E13" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="F13" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="G13" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="H13" t="s">
         <v>82</v>
       </c>
       <c r="I13" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="J13" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="K13" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="M13" t="s">
         <v>79</v>
@@ -6945,27 +7478,27 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="5:15">
       <c r="E14" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="F14" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="G14" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="H14" t="s">
         <v>82</v>
       </c>
       <c r="I14" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="J14" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="K14" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="M14" t="s">
         <v>79</v>
@@ -6977,27 +7510,27 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="5:15">
       <c r="E15" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="F15" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="G15" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="H15" t="s">
         <v>82</v>
       </c>
       <c r="I15" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="J15" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="K15" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="M15" t="s">
         <v>79</v>
@@ -7009,27 +7542,27 @@
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="5:15">
       <c r="E16" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="F16" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="G16" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="H16" t="s">
         <v>82</v>
       </c>
       <c r="I16" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="J16" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="K16" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="M16" t="s">
         <v>79</v>
@@ -7043,25 +7576,25 @@
     </row>
     <row r="17" spans="5:15">
       <c r="E17" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="F17" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="G17" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="H17" t="s">
         <v>82</v>
       </c>
       <c r="I17" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="J17" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="K17" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="M17" t="s">
         <v>79</v>
@@ -7075,25 +7608,25 @@
     </row>
     <row r="18" spans="5:15">
       <c r="E18" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="F18" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="G18" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="H18" t="s">
         <v>82</v>
       </c>
       <c r="I18" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="J18" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="K18" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="M18" t="s">
         <v>79</v>
@@ -7107,25 +7640,25 @@
     </row>
     <row r="19" spans="5:15">
       <c r="E19" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="F19" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="G19" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="H19" t="s">
         <v>82</v>
       </c>
       <c r="I19" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="J19" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="K19" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="M19" t="s">
         <v>79</v>
@@ -7138,8 +7671,8 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="23" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/src/main/resources/script/db/init-data/hrds_code_repo/hzero_platform/hzero-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/hrds_code_repo/hzero_platform/hzero-menu-user-role-label.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="390">
   <si>
     <r>
       <rPr>
@@ -2947,12 +2947,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="43">
+  <fonts count="39">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2981,12 +2981,6 @@
       <sz val="11"/>
       <color indexed="42"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3033,8 +3027,30 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3047,11 +3063,80 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3070,36 +3155,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -3115,79 +3172,10 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -3205,13 +3193,6 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="DengXian (正文)"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3236,17 +3217,11 @@
     <font>
       <sz val="12"/>
       <color rgb="FF548235"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF548235"/>
       <name val="DengXian"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3285,25 +3260,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3315,13 +3272,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3339,97 +3308,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3447,7 +3338,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3459,13 +3368,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3572,16 +3541,51 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -3592,15 +3596,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3629,196 +3624,170 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="34" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="30" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="30" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3827,7 +3796,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3835,44 +3803,44 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3885,7 +3853,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -4288,8 +4256,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.5555555555556" style="9" customWidth="1"/>
-    <col min="2" max="2" width="10.3333333333333" style="10" customWidth="1"/>
+    <col min="1" max="1" width="15.5555555555556" style="8" customWidth="1"/>
+    <col min="2" max="2" width="10.3333333333333" style="9" customWidth="1"/>
     <col min="3" max="3" width="28.1111111111111" customWidth="1"/>
     <col min="4" max="4" width="35.3333333333333" style="5" customWidth="1"/>
     <col min="5" max="5" width="38.5555555555556" customWidth="1"/>
@@ -4305,79 +4273,79 @@
   </cols>
   <sheetData>
     <row r="1" ht="64.5" customHeight="1" spans="1:8">
-      <c r="A1" s="11"/>
-      <c r="C1" s="12" t="s">
+      <c r="A1" s="10"/>
+      <c r="C1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
     </row>
     <row r="2" ht="18" spans="5:5">
-      <c r="E2" s="14"/>
+      <c r="E2" s="13"/>
     </row>
     <row r="3" ht="49.5" customHeight="1" spans="3:7">
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="16" t="s">
+      <c r="D3" s="14"/>
+      <c r="E3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
     </row>
     <row r="4" ht="18" spans="3:7">
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="18" t="s">
+      <c r="D4" s="16"/>
+      <c r="E4" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="19" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="11"/>
+      <c r="A5" s="10"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" ht="18" spans="3:5">
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="22" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="3:5">
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="26"/>
+      <c r="E8" s="25"/>
     </row>
     <row r="9" ht="51.75" spans="3:6">
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="D9" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="29" t="s">
+      <c r="E9" s="28" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
@@ -4385,56 +4353,56 @@
       </c>
     </row>
     <row r="10" ht="51.75" spans="3:5">
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="28" t="s">
+      <c r="D10" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="29" t="s">
+      <c r="E10" s="28" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" ht="69" spans="3:5">
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="28" t="s">
+      <c r="D11" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="29" t="s">
+      <c r="E11" s="28" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="3:5">
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="28" t="s">
+      <c r="D12" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="31" t="s">
+      <c r="E12" s="30" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="3:5">
-      <c r="C13" s="24"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="26"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="25"/>
     </row>
     <row r="14" spans="3:5">
-      <c r="C14" s="24"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="26"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="25"/>
     </row>
     <row r="15" ht="34.5" spans="3:5">
-      <c r="C15" s="32" t="s">
+      <c r="C15" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="33" t="s">
+      <c r="D15" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="34" t="s">
+      <c r="E15" s="33" t="s">
         <v>28</v>
       </c>
     </row>
@@ -4444,30 +4412,30 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="35" t="s">
+      <c r="C19" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
     </row>
     <row r="20" ht="18" spans="3:4">
-      <c r="C20" s="36" t="s">
+      <c r="C20" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="D20" s="13" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="21" ht="18" spans="3:4">
-      <c r="C21" s="36" t="s">
+      <c r="C21" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="D21" s="13" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="22" ht="18" spans="3:4">
-      <c r="C22" s="36" t="s">
+      <c r="C22" s="35" t="s">
         <v>35</v>
       </c>
       <c r="D22" s="5" t="s">
@@ -4475,7 +4443,7 @@
       </c>
     </row>
     <row r="23" ht="18" spans="3:4">
-      <c r="C23" s="36" t="s">
+      <c r="C23" s="35" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="5" t="s">
@@ -4483,25 +4451,25 @@
       </c>
     </row>
     <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="37" t="s">
+      <c r="C25" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="15" t="s">
+      <c r="D25" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="15"/>
+      <c r="E25" s="14"/>
     </row>
     <row r="26" ht="14.25" customHeight="1" spans="3:5">
-      <c r="C26" s="25" t="s">
+      <c r="C26" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="15" t="s">
+      <c r="D26" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="15"/>
+      <c r="E26" s="14"/>
     </row>
     <row r="27" ht="51.75" spans="3:3">
-      <c r="C27" s="38" t="s">
+      <c r="C27" s="37" t="s">
         <v>43</v>
       </c>
     </row>
@@ -5220,7 +5188,7 @@
       <c r="L19" t="s">
         <v>80</v>
       </c>
-      <c r="M19" s="8">
+      <c r="M19" s="7">
         <v>30</v>
       </c>
       <c r="N19" t="s">
@@ -5254,10 +5222,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G54"/>
+  <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B41" workbookViewId="0">
-      <selection activeCell="G55" sqref="G55"/>
+    <sheetView tabSelected="1" topLeftCell="B43" workbookViewId="0">
+      <selection activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="6"/>
@@ -5856,26 +5824,31 @@
       </c>
     </row>
     <row r="53" spans="5:7">
-      <c r="E53" s="7" t="s">
+      <c r="E53" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="F53" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="G53" s="7" t="s">
+      <c r="F53" s="5" t="str">
+        <f>菜单SAAS版!$E$18</f>
+        <v>iam_menu-19</v>
+      </c>
+      <c r="G53" s="5" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="54" spans="5:7">
-      <c r="E54" s="7" t="s">
+      <c r="E54" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="F54" t="s">
-        <v>127</v>
+      <c r="F54" t="str">
+        <f>菜单SAAS版!$E$18</f>
+        <v>iam_menu-19</v>
       </c>
       <c r="G54" t="s">
         <v>226</v>
       </c>
+    </row>
+    <row r="55" spans="5:5">
+      <c r="E55" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/script/db/init-data/hrds_code_repo/hzero_platform/hzero-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/hrds_code_repo/hzero_platform/hzero-menu-user-role-label.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\choerodon\code-repo-service\src\main\resources\script\db\init-data\hrds_code_repo\hzero_platform\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19488" windowHeight="8460" tabRatio="597" activeTab="5"/>
+    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="597" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -25,19 +20,18 @@
     <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
     <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="384">
   <si>
     <r>
       <rPr>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">注意这个文档不能 </t>
@@ -56,7 +50,6 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>！！
@@ -69,7 +62,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">正式的数据从第二个 </t>
@@ -88,7 +80,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页开始</t>
@@ -107,7 +98,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">每页 从 </t>
@@ -126,7 +116,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格开始有效
@@ -158,7 +147,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>颜色示例</t>
@@ -177,7 +165,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非必须</t>
@@ -196,7 +183,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非强制</t>
@@ -218,7 +204,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>请给特殊单元格</t>
@@ -239,7 +224,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列名添加颜色</t>
@@ -260,7 +244,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>提高数据可读性</t>
@@ -281,7 +264,6 @@
         <sz val="12"/>
         <color rgb="FFC55A11"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动生成</t>
@@ -302,7 +284,6 @@
         <sz val="12"/>
         <color rgb="FF2E75B6"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>唯一性检查</t>
@@ -314,7 +295,6 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -333,7 +313,6 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -345,7 +324,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>理论上</t>
@@ -364,7 +342,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表的前后顺序</t>
@@ -383,7 +360,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页的顺序没有严格要求</t>
@@ -402,7 +378,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但请尽量按照先插 后引用的顺序排列</t>
@@ -421,7 +396,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>减少迭代次数</t>
@@ -469,7 +443,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -488,7 +461,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>该列的值自动生成</t>
@@ -507,7 +479,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当数据库存在等价记录时</t>
@@ -526,7 +497,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>这个值会被替换为数据库中已存在的值</t>
@@ -538,7 +508,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自增长</t>
@@ -557,7 +526,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>或序列</t>
@@ -576,7 +544,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>主键列</t>
@@ -596,7 +563,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当不作为外键引用时</t>
@@ -615,7 +581,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般写</t>
@@ -635,7 +600,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>作为外键时</t>
@@ -654,7 +618,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>写可读的值</t>
@@ -666,7 +629,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">目前 </t>
@@ -685,7 +647,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>是序列</t>
@@ -704,7 +665,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他自增涨</t>
@@ -728,7 +688,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -747,7 +706,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表中所有带有</t>
@@ -766,7 +724,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>的列组成一个唯一性校验</t>
@@ -785,7 +742,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>在执行插入之前</t>
@@ -804,7 +760,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会首先按照唯一键来检查数据库是否存在等价记录</t>
@@ -816,7 +771,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>可以有多列</t>
@@ -835,7 +789,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>仅支持</t>
@@ -846,7 +799,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>数字</t>
@@ -867,7 +819,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">字符串
@@ -878,7 +829,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当</t>
@@ -897,7 +847,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列涉及到公式时</t>
@@ -916,7 +865,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会先确定公式的值</t>
@@ -940,7 +888,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定这一列的类型</t>
@@ -959,7 +906,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>默认会自动检测</t>
@@ -979,7 +925,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为数字</t>
@@ -999,7 +944,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为日期</t>
@@ -1019,7 +963,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他默认为</t>
@@ -1040,7 +983,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般不需要指定</t>
@@ -1060,7 +1002,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>日期格式仅支持</t>
@@ -1095,7 +1036,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定语言环境</t>
@@ -1116,7 +1056,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表数据不需要专门写</t>
@@ -1128,7 +1067,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -1147,7 +1085,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -1168,7 +1105,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>用于引用外键</t>
@@ -1187,7 +1123,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>也可用于普通值
@@ -1200,7 +1135,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动增长列</t>
@@ -1219,7 +1153,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>如果被公式引用</t>
@@ -1238,7 +1171,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>最好写一个人可以读懂的值</t>
@@ -1257,7 +1189,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>增强公式可读性</t>
@@ -1272,7 +1203,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般用于引用自动生成的外键</t>
@@ -1291,7 +1221,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">所有公式均为 </t>
@@ -1310,7 +1239,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>支持的标准公式</t>
@@ -1329,7 +1257,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但不支持特别复杂的计算公式</t>
@@ -1348,7 +1275,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>比如范围计算</t>
@@ -1364,7 +1290,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1374,7 +1299,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1393,7 +1317,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1409,7 +1332,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1419,7 +1341,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1438,7 +1359,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1453,7 +1373,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1472,7 +1391,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1491,7 +1409,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1511,7 +1428,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1535,7 +1451,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1554,7 +1469,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1573,7 +1487,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1593,7 +1506,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1614,7 +1526,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1625,7 +1536,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1635,7 +1545,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1647,7 +1556,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>举例</t>
@@ -1666,7 +1574,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">当 </t>
@@ -1685,7 +1592,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格引用 </t>
@@ -1704,7 +1610,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">时
@@ -1724,7 +1629,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1743,7 +1647,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格时</t>
@@ -1762,7 +1665,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用的是 </t>
@@ -1782,7 +1684,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">将 </t>
@@ -1801,7 +1702,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1820,7 +1720,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>时</t>
@@ -1839,7 +1738,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">实际引用的是 </t>
@@ -1859,7 +1757,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>以上情况适用于拖拽填充</t>
@@ -1871,7 +1768,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1882,7 +1778,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1892,7 +1787,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1904,7 +1798,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>复制公式单元格时</t>
@@ -1923,7 +1816,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>保持公式不变</t>
@@ -1935,7 +1827,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对引用</t>
@@ -1954,7 +1845,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对引用各有用途</t>
@@ -1974,7 +1864,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>直接拖拽填充就可以避免大量重复工作</t>
@@ -2074,6 +1963,18 @@
     <t>category</t>
   </si>
   <si>
+    <t>iam_menu-8</t>
+  </si>
+  <si>
+    <t>choerodon.code.organization.manager</t>
+  </si>
+  <si>
+    <t>管理</t>
+  </si>
+  <si>
+    <t>GL</t>
+  </si>
+  <si>
     <t>organization</t>
   </si>
   <si>
@@ -2101,30 +2002,30 @@
     <t>menu</t>
   </si>
   <si>
+    <t>settings_ethernet</t>
+  </si>
+  <si>
+    <t>/rducm/code-lib-org</t>
+  </si>
+  <si>
+    <t>choerodon.code.organization.infra|choerodon.code.organization.infra.code-lib-management</t>
+  </si>
+  <si>
+    <t>iam_menu-10</t>
+  </si>
+  <si>
+    <t>choerodon.code.organization.infra.code-lib-management.ps.default</t>
+  </si>
+  <si>
+    <t>默认权限集</t>
+  </si>
+  <si>
+    <t>ps</t>
+  </si>
+  <si>
     <t>10</t>
   </si>
   <si>
-    <t>settings_ethernet</t>
-  </si>
-  <si>
-    <t>/rducm/code-lib-org</t>
-  </si>
-  <si>
-    <t>choerodon.code.organization.infra|choerodon.code.organization.infra.code-lib-management</t>
-  </si>
-  <si>
-    <t>iam_menu-10</t>
-  </si>
-  <si>
-    <t>choerodon.code.organization.infra.code-lib-management.ps.default</t>
-  </si>
-  <si>
-    <t>默认权限集</t>
-  </si>
-  <si>
-    <t>ps</t>
-  </si>
-  <si>
     <t>choerodon.code.organization.infra|choerodon.code.organization.infra.code-lib-management|choerodon.code.organization.infra.code-lib-management.ps.default</t>
   </si>
   <si>
@@ -2506,6 +2407,18 @@
     <t>code-repo-service.rdm-member-org.export</t>
   </si>
   <si>
+    <t>iam_menu_permission-53</t>
+  </si>
+  <si>
+    <t>code-repo-service.rdm-member-proj.batchRemoveMember</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-54</t>
+  </si>
+  <si>
+    <t>code-repo-service.project.listNonProjectMembers</t>
+  </si>
+  <si>
     <t>标签表</t>
   </si>
   <si>
@@ -2875,15 +2788,15 @@
     <t>iam_role_permission-30</t>
   </si>
   <si>
+    <t>iam_label-10</t>
+  </si>
+  <si>
+    <t>TENANT_ROLE_TPL</t>
+  </si>
+  <si>
     <t>ROLE</t>
   </si>
   <si>
-    <t>iam_label-10</t>
-  </si>
-  <si>
-    <t>TENANT_ROLE_TPL</t>
-  </si>
-  <si>
     <t>标识内置模板角色</t>
   </si>
   <si>
@@ -2975,26 +2888,19 @@
   </si>
   <si>
     <t>标识gitlab_developer</t>
-  </si>
-  <si>
-    <t>choerodon.code.organization.manager</t>
-  </si>
-  <si>
-    <t>管理</t>
-  </si>
-  <si>
-    <t>GL</t>
-  </si>
-  <si>
-    <t>iam_menu-8</t>
-    <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="40">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -3005,38 +2911,42 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="53"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="48"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="42"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="8"/>
       <color rgb="FF24292E"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3044,7 +2954,6 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3063,7 +2972,6 @@
       <sz val="12"/>
       <color rgb="FF548235"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3071,6 +2979,157 @@
       <color rgb="FF000000"/>
       <name val="DengXian"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -3101,14 +3160,12 @@
       <sz val="12"/>
       <color rgb="FFC55A11"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3117,21 +3174,8 @@
       <name val="DengXian"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="7">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3168,8 +3212,194 @@
         <bgColor rgb="FFE7E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -3270,10 +3500,252 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="26" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3283,7 +3755,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3291,32 +3766,44 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3326,37 +3813,69 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
@@ -3429,9 +3948,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3689,270 +4205,273 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.58203125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" style="9" customWidth="1"/>
-    <col min="3" max="3" width="28.1640625" customWidth="1"/>
-    <col min="4" max="4" width="35.33203125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="38.58203125" customWidth="1"/>
-    <col min="6" max="6" width="23.4140625" customWidth="1"/>
-    <col min="7" max="7" width="21.58203125" customWidth="1"/>
+    <col min="1" max="1" width="15.5833333333333" style="9" customWidth="1"/>
+    <col min="2" max="2" width="10.3333333333333" style="10" customWidth="1"/>
+    <col min="3" max="3" width="28.1666666666667" customWidth="1"/>
+    <col min="4" max="4" width="35.3333333333333" style="5" customWidth="1"/>
+    <col min="5" max="5" width="38.5833333333333" customWidth="1"/>
+    <col min="6" max="6" width="23.4166666666667" customWidth="1"/>
+    <col min="7" max="7" width="21.5833333333333" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.58203125" customWidth="1"/>
+    <col min="9" max="9" width="24.5833333333333" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.1640625" customWidth="1"/>
-    <col min="12" max="12" width="18.58203125" customWidth="1"/>
-    <col min="13" max="13" width="13.1640625" customWidth="1"/>
-    <col min="14" max="1025" width="10.33203125" customWidth="1"/>
+    <col min="11" max="11" width="19.1666666666667" customWidth="1"/>
+    <col min="12" max="12" width="18.5833333333333" customWidth="1"/>
+    <col min="13" max="13" width="13.1666666666667" customWidth="1"/>
+    <col min="14" max="1025" width="10.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="64.5" customHeight="1">
-      <c r="A1" s="10"/>
-      <c r="C1" s="35" t="s">
+    <row r="1" ht="64.5" customHeight="1" spans="1:8">
+      <c r="A1" s="11"/>
+      <c r="C1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="E2" s="12"/>
-    </row>
-    <row r="3" spans="1:8" ht="49.5" customHeight="1">
-      <c r="C3" s="34" t="s">
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+    </row>
+    <row r="2" spans="5:5">
+      <c r="E2" s="14"/>
+    </row>
+    <row r="3" ht="49.5" customHeight="1" spans="3:7">
+      <c r="C3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="34"/>
-      <c r="E3" s="36" t="s">
+      <c r="D3" s="15"/>
+      <c r="E3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="C4" s="37" t="s">
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+    </row>
+    <row r="4" spans="3:7">
+      <c r="C4" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="37"/>
-      <c r="E4" s="13" t="s">
+      <c r="D4" s="17"/>
+      <c r="E4" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="20" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="10"/>
+    <row r="5" spans="1:3">
+      <c r="A5" s="11"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
-      <c r="C7" s="16" t="s">
+    <row r="7" spans="3:5">
+      <c r="C7" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="23" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
-      <c r="C8" s="19" t="s">
+    <row r="8" spans="3:5">
+      <c r="C8" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="21"/>
-    </row>
-    <row r="9" spans="1:8" ht="52.2">
-      <c r="C9" s="22" t="s">
+      <c r="E8" s="26"/>
+    </row>
+    <row r="9" ht="52.2" spans="3:6">
+      <c r="C9" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="24" t="s">
+      <c r="E9" s="29" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="52.2">
-      <c r="C10" s="25" t="s">
+    <row r="10" ht="52.2" spans="3:5">
+      <c r="C10" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="24" t="s">
+      <c r="E10" s="29" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="69.599999999999994">
-      <c r="C11" s="19" t="s">
+    <row r="11" ht="69.6" spans="3:5">
+      <c r="C11" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="24" t="s">
+      <c r="E11" s="29" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
-      <c r="C12" s="19" t="s">
+    <row r="12" spans="3:5">
+      <c r="C12" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="D12" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="26" t="s">
+      <c r="E12" s="31" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
-      <c r="C13" s="19"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="21"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="C14" s="19"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="21"/>
-    </row>
-    <row r="15" spans="1:8" ht="34.799999999999997">
-      <c r="C15" s="27" t="s">
+    <row r="13" spans="3:5">
+      <c r="C13" s="24"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="26"/>
+    </row>
+    <row r="14" spans="3:5">
+      <c r="C14" s="24"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="26"/>
+    </row>
+    <row r="15" ht="34.8" spans="3:5">
+      <c r="C15" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="28" t="s">
+      <c r="D15" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="29" t="s">
+      <c r="E15" s="34" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="3:5">
+    <row r="18" spans="3:3">
       <c r="C18" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="38" t="s">
+      <c r="C19" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-    </row>
-    <row r="20" spans="3:5">
-      <c r="C20" s="30" t="s">
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+    </row>
+    <row r="20" spans="3:4">
+      <c r="C20" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="14" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="3:5">
-      <c r="C21" s="30" t="s">
+    <row r="21" spans="3:4">
+      <c r="C21" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="14" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="3:5">
-      <c r="C22" s="30" t="s">
+    <row r="22" spans="3:4">
+      <c r="C22" s="36" t="s">
         <v>35</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="3:5">
-      <c r="C23" s="30" t="s">
+    <row r="23" spans="3:4">
+      <c r="C23" s="36" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="3:5" ht="69" customHeight="1">
-      <c r="C25" s="31" t="s">
+    <row r="25" ht="69" customHeight="1" spans="3:5">
+      <c r="C25" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="34" t="s">
+      <c r="D25" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="34"/>
-    </row>
-    <row r="26" spans="3:5" ht="14.25" customHeight="1">
-      <c r="C26" s="20" t="s">
+      <c r="E25" s="15"/>
+    </row>
+    <row r="26" ht="14.25" customHeight="1" spans="3:5">
+      <c r="C26" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="34" t="s">
+      <c r="D26" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="34"/>
-    </row>
-    <row r="27" spans="3:5" ht="52.2">
-      <c r="C27" s="32" t="s">
+      <c r="E26" s="15"/>
+    </row>
+    <row r="27" ht="52.2" spans="3:3">
+      <c r="C27" s="38" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C19:E19"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
   </mergeCells>
-  <phoneticPr fontId="20" type="noConversion"/>
-  <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.51041666666666696" footer="0.51041666666666696"/>
+  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:Y19"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
   <cols>
-    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="5" max="5" width="16.6666666666667" customWidth="1"/>
     <col min="6" max="6" width="46.75" customWidth="1"/>
     <col min="7" max="7" width="15.25" customWidth="1"/>
     <col min="11" max="11" width="16.75" customWidth="1"/>
-    <col min="15" max="15" width="29.6640625" customWidth="1"/>
-    <col min="16" max="16" width="45.83203125" customWidth="1"/>
+    <col min="15" max="15" width="29.6666666666667" customWidth="1"/>
+    <col min="16" max="16" width="45.8333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -3966,7 +4485,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="5:7">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -4054,634 +4573,635 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
-      <c r="E8" s="33" t="s">
-        <v>379</v>
+    <row r="8" spans="5:24">
+      <c r="E8" s="7" t="s">
+        <v>75</v>
       </c>
       <c r="F8" t="s">
-        <v>376</v>
+        <v>76</v>
       </c>
       <c r="G8" t="s">
-        <v>377</v>
+        <v>77</v>
       </c>
       <c r="H8" t="s">
-        <v>377</v>
+        <v>77</v>
       </c>
       <c r="I8" t="s">
-        <v>378</v>
+        <v>78</v>
       </c>
       <c r="J8" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="K8" t="s">
+        <v>80</v>
+      </c>
+      <c r="L8" t="s">
+        <v>81</v>
+      </c>
+      <c r="M8" t="s">
+        <v>80</v>
+      </c>
+      <c r="N8" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>80</v>
+      </c>
+      <c r="R8" t="s">
+        <v>80</v>
+      </c>
+      <c r="S8" t="s">
         <v>76</v>
       </c>
-      <c r="L8" t="s">
-        <v>77</v>
-      </c>
-      <c r="M8" t="s">
-        <v>76</v>
-      </c>
-      <c r="N8" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>76</v>
-      </c>
-      <c r="R8" t="s">
-        <v>76</v>
-      </c>
-      <c r="S8" t="s">
-        <v>376</v>
-      </c>
       <c r="T8" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="V8" t="s">
+        <v>83</v>
+      </c>
+      <c r="X8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="5:24">
+      <c r="E9" t="s">
+        <v>84</v>
+      </c>
+      <c r="F9" t="s">
+        <v>85</v>
+      </c>
+      <c r="G9" t="s">
+        <v>86</v>
+      </c>
+      <c r="H9" t="s">
+        <v>86</v>
+      </c>
+      <c r="J9" t="s">
         <v>79</v>
-      </c>
-      <c r="X8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25">
-      <c r="E9" t="s">
-        <v>80</v>
-      </c>
-      <c r="F9" t="s">
-        <v>81</v>
-      </c>
-      <c r="G9" t="s">
-        <v>82</v>
-      </c>
-      <c r="H9" t="s">
-        <v>82</v>
-      </c>
-      <c r="J9" t="s">
-        <v>75</v>
       </c>
       <c r="K9" t="str">
         <f>菜单SAAS版!$E$8</f>
         <v>iam_menu-8</v>
       </c>
       <c r="L9" t="s">
+        <v>87</v>
+      </c>
+      <c r="M9">
+        <v>80</v>
+      </c>
+      <c r="N9" t="s">
+        <v>82</v>
+      </c>
+      <c r="O9" t="s">
+        <v>88</v>
+      </c>
+      <c r="P9" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>80</v>
+      </c>
+      <c r="R9" t="s">
+        <v>80</v>
+      </c>
+      <c r="S9" t="s">
+        <v>90</v>
+      </c>
+      <c r="T9" t="s">
+        <v>80</v>
+      </c>
+      <c r="V9" t="s">
         <v>83</v>
       </c>
-      <c r="M9">
-        <v>80</v>
-      </c>
-      <c r="N9" t="s">
-        <v>78</v>
-      </c>
-      <c r="O9" t="s">
-        <v>85</v>
-      </c>
-      <c r="P9" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>76</v>
-      </c>
-      <c r="R9" t="s">
-        <v>76</v>
-      </c>
-      <c r="S9" t="s">
-        <v>87</v>
-      </c>
-      <c r="T9" t="s">
-        <v>76</v>
-      </c>
-      <c r="V9" t="s">
+      <c r="X9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="5:24">
+      <c r="E10" t="s">
+        <v>91</v>
+      </c>
+      <c r="F10" t="s">
+        <v>92</v>
+      </c>
+      <c r="G10" t="s">
+        <v>93</v>
+      </c>
+      <c r="H10" t="s">
+        <v>93</v>
+      </c>
+      <c r="J10" t="s">
         <v>79</v>
-      </c>
-      <c r="X9" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25">
-      <c r="E10" t="s">
-        <v>88</v>
-      </c>
-      <c r="F10" t="s">
-        <v>89</v>
-      </c>
-      <c r="G10" t="s">
-        <v>90</v>
-      </c>
-      <c r="H10" t="s">
-        <v>90</v>
-      </c>
-      <c r="J10" t="s">
-        <v>75</v>
       </c>
       <c r="K10" t="str">
         <f>菜单SAAS版!$E$9</f>
         <v>iam_menu-9</v>
       </c>
       <c r="L10" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="M10" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="N10" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="Q10" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="R10" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="S10" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="T10" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="U10" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="V10" t="s">
+        <v>83</v>
+      </c>
+      <c r="X10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="5:24">
+      <c r="E11" t="s">
+        <v>98</v>
+      </c>
+      <c r="F11" t="s">
+        <v>99</v>
+      </c>
+      <c r="G11" t="s">
+        <v>100</v>
+      </c>
+      <c r="H11" t="s">
+        <v>100</v>
+      </c>
+      <c r="J11" t="s">
         <v>79</v>
-      </c>
-      <c r="X10" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25">
-      <c r="E11" t="s">
-        <v>94</v>
-      </c>
-      <c r="F11" t="s">
-        <v>95</v>
-      </c>
-      <c r="G11" t="s">
-        <v>96</v>
-      </c>
-      <c r="H11" t="s">
-        <v>96</v>
-      </c>
-      <c r="J11" t="s">
-        <v>75</v>
       </c>
       <c r="K11" t="str">
         <f>菜单SAAS版!$E$9</f>
         <v>iam_menu-9</v>
       </c>
       <c r="L11" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="N11" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="O11" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="Q11" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="R11" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="S11" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="T11" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="V11" t="s">
+        <v>83</v>
+      </c>
+      <c r="X11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="5:24">
+      <c r="E12" t="s">
+        <v>103</v>
+      </c>
+      <c r="F12" t="s">
+        <v>104</v>
+      </c>
+      <c r="G12" t="s">
+        <v>105</v>
+      </c>
+      <c r="H12" t="s">
+        <v>105</v>
+      </c>
+      <c r="J12" t="s">
         <v>79</v>
       </c>
-      <c r="X11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25">
-      <c r="E12" t="s">
-        <v>99</v>
-      </c>
-      <c r="F12" t="s">
-        <v>100</v>
-      </c>
-      <c r="G12" t="s">
-        <v>101</v>
-      </c>
-      <c r="H12" t="s">
-        <v>101</v>
-      </c>
-      <c r="J12" t="s">
-        <v>75</v>
-      </c>
       <c r="K12" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="L12" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="M12" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="N12" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="Q12" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="R12" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="S12" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="T12" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="V12" t="s">
+        <v>83</v>
+      </c>
+      <c r="X12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="5:24">
+      <c r="E13" t="s">
+        <v>106</v>
+      </c>
+      <c r="F13" t="s">
+        <v>107</v>
+      </c>
+      <c r="G13" t="s">
+        <v>108</v>
+      </c>
+      <c r="H13" t="s">
+        <v>108</v>
+      </c>
+      <c r="J13" t="s">
         <v>79</v>
-      </c>
-      <c r="X12" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25">
-      <c r="E13" t="s">
-        <v>102</v>
-      </c>
-      <c r="F13" t="s">
-        <v>103</v>
-      </c>
-      <c r="G13" t="s">
-        <v>104</v>
-      </c>
-      <c r="H13" t="s">
-        <v>104</v>
-      </c>
-      <c r="J13" t="s">
-        <v>75</v>
       </c>
       <c r="K13" t="str">
         <f>菜单SAAS版!$E$12</f>
         <v>iam_menu-12</v>
       </c>
       <c r="L13" t="s">
+        <v>87</v>
+      </c>
+      <c r="M13" t="s">
+        <v>109</v>
+      </c>
+      <c r="N13" t="s">
+        <v>82</v>
+      </c>
+      <c r="O13" t="s">
+        <v>110</v>
+      </c>
+      <c r="P13" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>80</v>
+      </c>
+      <c r="R13" t="s">
+        <v>80</v>
+      </c>
+      <c r="S13" t="s">
+        <v>112</v>
+      </c>
+      <c r="T13" t="s">
+        <v>80</v>
+      </c>
+      <c r="V13" t="s">
         <v>83</v>
       </c>
-      <c r="M13" t="s">
-        <v>105</v>
-      </c>
-      <c r="N13" t="s">
-        <v>78</v>
-      </c>
-      <c r="O13" t="s">
-        <v>106</v>
-      </c>
-      <c r="P13" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>76</v>
-      </c>
-      <c r="R13" t="s">
-        <v>76</v>
-      </c>
-      <c r="S13" t="s">
-        <v>108</v>
-      </c>
-      <c r="T13" t="s">
-        <v>76</v>
-      </c>
-      <c r="V13" t="s">
+      <c r="X13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="5:24">
+      <c r="E14" t="s">
+        <v>113</v>
+      </c>
+      <c r="F14" t="s">
+        <v>114</v>
+      </c>
+      <c r="G14" t="s">
+        <v>93</v>
+      </c>
+      <c r="H14" t="s">
+        <v>93</v>
+      </c>
+      <c r="J14" t="s">
         <v>79</v>
-      </c>
-      <c r="X13" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25">
-      <c r="E14" t="s">
-        <v>109</v>
-      </c>
-      <c r="F14" t="s">
-        <v>110</v>
-      </c>
-      <c r="G14" t="s">
-        <v>90</v>
-      </c>
-      <c r="H14" t="s">
-        <v>90</v>
-      </c>
-      <c r="J14" t="s">
-        <v>75</v>
       </c>
       <c r="K14" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-13</v>
       </c>
       <c r="L14" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="M14" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="N14" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="Q14" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="R14" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="S14" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="T14" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="U14" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="V14" t="s">
+        <v>83</v>
+      </c>
+      <c r="X14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="5:24">
+      <c r="E15" t="s">
+        <v>116</v>
+      </c>
+      <c r="F15" t="s">
+        <v>117</v>
+      </c>
+      <c r="G15" t="s">
+        <v>86</v>
+      </c>
+      <c r="H15" t="s">
+        <v>86</v>
+      </c>
+      <c r="J15" t="s">
         <v>79</v>
-      </c>
-      <c r="X14" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25">
-      <c r="E15" t="s">
-        <v>112</v>
-      </c>
-      <c r="F15" t="s">
-        <v>113</v>
-      </c>
-      <c r="G15" t="s">
-        <v>82</v>
-      </c>
-      <c r="H15" t="s">
-        <v>82</v>
-      </c>
-      <c r="J15" t="s">
-        <v>75</v>
       </c>
       <c r="K15" t="str">
         <f>E19</f>
         <v>iam_menu-20</v>
       </c>
       <c r="L15" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="M15">
         <v>50</v>
       </c>
       <c r="N15" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="O15" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="P15" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="Q15" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="R15" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="S15" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="T15" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="V15" t="s">
+        <v>83</v>
+      </c>
+      <c r="X15" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="5:24">
+      <c r="E16" t="s">
+        <v>120</v>
+      </c>
+      <c r="F16" t="s">
+        <v>121</v>
+      </c>
+      <c r="G16" t="s">
+        <v>93</v>
+      </c>
+      <c r="H16" t="s">
+        <v>93</v>
+      </c>
+      <c r="J16" t="s">
         <v>79</v>
-      </c>
-      <c r="X15" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25">
-      <c r="E16" t="s">
-        <v>116</v>
-      </c>
-      <c r="F16" t="s">
-        <v>117</v>
-      </c>
-      <c r="G16" t="s">
-        <v>90</v>
-      </c>
-      <c r="H16" t="s">
-        <v>90</v>
-      </c>
-      <c r="J16" t="s">
-        <v>75</v>
       </c>
       <c r="K16" t="str">
         <f>菜单SAAS版!$E$15</f>
         <v>iam_menu-16</v>
       </c>
       <c r="L16" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="M16" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="N16" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="Q16" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="R16" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="S16" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="T16" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="U16" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="V16" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="X16" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="5:24">
       <c r="E17" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F17" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G17" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="H17" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="J17" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="K17" t="str">
         <f>菜单SAAS版!$E$15</f>
         <v>iam_menu-16</v>
       </c>
       <c r="L17" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="N17" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="O17" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="Q17" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="R17" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="S17" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="T17" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="V17" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="X17" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="5:24">
       <c r="E18" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="F18" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="G18" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="H18" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="J18" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="K18" t="str">
         <f>菜单SAAS版!$E$15</f>
         <v>iam_menu-16</v>
       </c>
       <c r="L18" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="N18" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="O18" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="Q18" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="R18" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="S18" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="T18" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="V18" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="X18" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="5:24">
       <c r="E19" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="F19" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="G19" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="H19" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="I19" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="J19" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="K19" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="L19" t="s">
-        <v>77</v>
-      </c>
-      <c r="M19" s="7">
+        <v>81</v>
+      </c>
+      <c r="M19" s="8">
         <v>20</v>
       </c>
       <c r="N19" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="Q19" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="R19" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="S19" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="T19" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="V19" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="X19" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="20" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G52"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="C54" workbookViewId="0">
+      <selection activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="6"/>
   <cols>
     <col min="5" max="5" width="21.25" customWidth="1"/>
-    <col min="6" max="6" width="17.58203125" customWidth="1"/>
-    <col min="7" max="7" width="30.33203125" customWidth="1"/>
+    <col min="6" max="6" width="17.5833333333333" customWidth="1"/>
+    <col min="7" max="7" width="30.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -4695,7 +5215,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="5:7">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -4714,587 +5234,612 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" spans="5:7">
       <c r="E8" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="F8" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9" spans="5:7">
       <c r="E9" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="F9" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G9" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="10" spans="5:7">
       <c r="E10" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F10" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G10" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="11" spans="5:7">
       <c r="E11" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="F11" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G11" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="12" spans="5:7">
       <c r="E12" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="F12" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G12" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="13" spans="5:7">
       <c r="E13" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="F13" t="str">
         <f>菜单SAAS版!$E$17</f>
         <v>iam_menu-18</v>
       </c>
       <c r="G13" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="5:7">
       <c r="E14" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="F14" t="str">
         <f>菜单SAAS版!$E$17</f>
         <v>iam_menu-18</v>
       </c>
       <c r="G14" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="15" spans="5:7">
       <c r="E15" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="F15" t="str">
         <f>菜单SAAS版!$E$17</f>
         <v>iam_menu-18</v>
       </c>
       <c r="G15" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="16" spans="5:7">
       <c r="E16" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="F16" t="str">
         <f>菜单SAAS版!$E$17</f>
         <v>iam_menu-18</v>
       </c>
       <c r="G16" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="5:7">
       <c r="E17" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="F17" t="str">
         <f>菜单SAAS版!$E$17</f>
         <v>iam_menu-18</v>
       </c>
       <c r="G17" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="18" spans="5:7">
       <c r="E18" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="F18" t="str">
         <f>菜单SAAS版!$E$17</f>
         <v>iam_menu-18</v>
       </c>
       <c r="G18" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19" spans="5:7">
       <c r="E19" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="F19" t="str">
         <f>菜单SAAS版!$E$17</f>
         <v>iam_menu-18</v>
       </c>
       <c r="G19" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="20" spans="5:7">
       <c r="E20" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="F20" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G20" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="5:7">
       <c r="E21" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="F21" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G21" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22" spans="5:7">
       <c r="E22" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="F22" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G22" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="23" spans="5:7">
       <c r="E23" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="F23" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G23" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="24" spans="5:7">
       <c r="E24" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="F24" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G24" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="25" spans="5:7">
       <c r="E25" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="F25" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G25" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="26" spans="5:7">
       <c r="E26" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="F26" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G26" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="27" spans="5:7">
       <c r="E27" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="F27" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G27" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="28" spans="5:7">
       <c r="E28" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="F28" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G28" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="29" spans="5:7">
       <c r="E29" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="F29" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G29" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="30" spans="5:7">
       <c r="E30" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="F30" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G30" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="31" spans="5:7">
       <c r="E31" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="F31" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G31" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="32" spans="5:7">
       <c r="E32" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="F32" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G32" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="33" spans="5:7">
       <c r="E33" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="F33" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G33" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="34" spans="5:7">
       <c r="E34" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="F34" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G34" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="35" spans="5:7">
       <c r="E35" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="F35" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G35" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="36" spans="5:7">
       <c r="E36" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="F36" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G36" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="37" spans="5:7">
       <c r="E37" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="F37" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G37" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="38" spans="5:7">
       <c r="E38" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="F38" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G38" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="39" spans="5:7">
       <c r="E39" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="F39" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G39" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="40" spans="5:7">
       <c r="E40" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="F40" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G40" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="41" spans="5:7">
       <c r="E41" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="F41" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G41" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="42" spans="5:7">
       <c r="E42" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="F42" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G42" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="43" spans="5:7">
       <c r="E43" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="F43" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G43" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="44" spans="5:7">
       <c r="E44" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="F44" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G44" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="45" spans="5:7">
       <c r="E45" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="F45" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G45" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="46" spans="5:7">
       <c r="E46" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="F46" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G46" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="47" spans="5:7">
       <c r="E47" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="F47" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G47" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="48" spans="5:7">
       <c r="E48" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="F48" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G48" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="49" spans="5:7">
       <c r="E49" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="F49" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G49" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="50" spans="5:7">
       <c r="E50" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="F50" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G50" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="51" spans="5:7">
       <c r="E51" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="F51" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G51" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="52" spans="5:7">
       <c r="E52" s="6" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="F52" s="6" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>218</v>
+        <v>222</v>
+      </c>
+    </row>
+    <row r="53" spans="5:7">
+      <c r="E53" t="s">
+        <v>223</v>
+      </c>
+      <c r="F53" t="str">
+        <f>菜单SAAS版!E18</f>
+        <v>iam_menu-19</v>
+      </c>
+      <c r="G53" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="54" spans="5:7">
+      <c r="E54" t="s">
+        <v>225</v>
+      </c>
+      <c r="F54" t="str">
+        <f>菜单SAAS版!E18</f>
+        <v>iam_menu-19</v>
+      </c>
+      <c r="G54" t="s">
+        <v>226</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="20" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
   <cols>
-    <col min="5" max="5" width="26.58203125" customWidth="1"/>
+    <col min="5" max="5" width="26.5833333333333" customWidth="1"/>
     <col min="6" max="6" width="25.5" customWidth="1"/>
-    <col min="7" max="7" width="17.4140625" customWidth="1"/>
-    <col min="8" max="8" width="21.9140625" customWidth="1"/>
-    <col min="11" max="11" width="19.08203125" customWidth="1"/>
+    <col min="7" max="7" width="17.4166666666667" customWidth="1"/>
+    <col min="8" max="8" width="21.9166666666667" customWidth="1"/>
+    <col min="11" max="11" width="19.0833333333333" customWidth="1"/>
     <col min="13" max="13" width="12.75" customWidth="1"/>
     <col min="14" max="14" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -5308,7 +5853,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="5:7">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -5327,182 +5872,182 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="H7" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="I7" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="J7" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="K7" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="L7" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="M7" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="N7" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="O7" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="8" spans="5:15">
       <c r="E8" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="F8" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="G8" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="H8" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="I8" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="J8" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="K8" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="M8" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="N8" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="O8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="5:15">
       <c r="E9" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="F9" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="G9" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="H9" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="I9" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="M9" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="N9" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="O9" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="5:15">
       <c r="E10" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="F10" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="G10" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="H10" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="I10" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="J10" t="s">
+        <v>249</v>
+      </c>
+      <c r="K10" t="s">
+        <v>249</v>
+      </c>
+      <c r="M10" t="s">
+        <v>82</v>
+      </c>
+      <c r="N10" t="s">
+        <v>82</v>
+      </c>
+      <c r="O10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="5:15">
+      <c r="E11" t="s">
+        <v>250</v>
+      </c>
+      <c r="F11" t="s">
+        <v>251</v>
+      </c>
+      <c r="G11" t="s">
         <v>241</v>
       </c>
-      <c r="K10" t="s">
+      <c r="H11" t="s">
+        <v>82</v>
+      </c>
+      <c r="I11" t="s">
+        <v>248</v>
+      </c>
+      <c r="M11" t="s">
+        <v>82</v>
+      </c>
+      <c r="N11" t="s">
+        <v>80</v>
+      </c>
+      <c r="O11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="5:15">
+      <c r="E12" t="s">
+        <v>252</v>
+      </c>
+      <c r="F12" t="s">
+        <v>253</v>
+      </c>
+      <c r="G12" t="s">
         <v>241</v>
-      </c>
-      <c r="M10" t="s">
-        <v>78</v>
-      </c>
-      <c r="N10" t="s">
-        <v>78</v>
-      </c>
-      <c r="O10" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="E11" t="s">
-        <v>242</v>
-      </c>
-      <c r="F11" t="s">
-        <v>243</v>
-      </c>
-      <c r="G11" t="s">
-        <v>233</v>
-      </c>
-      <c r="H11" t="s">
-        <v>78</v>
-      </c>
-      <c r="I11" t="s">
-        <v>240</v>
-      </c>
-      <c r="M11" t="s">
-        <v>78</v>
-      </c>
-      <c r="N11" t="s">
-        <v>76</v>
-      </c>
-      <c r="O11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="E12" t="s">
-        <v>244</v>
-      </c>
-      <c r="F12" t="s">
-        <v>245</v>
-      </c>
-      <c r="G12" t="s">
-        <v>233</v>
       </c>
       <c r="H12">
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="J12" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="K12" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -5514,7 +6059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>50</v>
       </c>
@@ -5522,33 +6067,33 @@
         <v>51</v>
       </c>
       <c r="C14" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="I14" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="15" spans="5:9">
       <c r="E15" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="F15" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="G15" t="str">
         <f>菜单SAAS版!$E$12</f>
@@ -5559,15 +6104,15 @@
         <v>iam_label-11</v>
       </c>
       <c r="I15" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="16" spans="5:9">
       <c r="E16" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="F16" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="G16" t="str">
         <f>菜单SAAS版!$E$9</f>
@@ -5578,15 +6123,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I16" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
     </row>
     <row r="17" spans="5:9">
       <c r="E17" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="F17" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="G17" t="str">
         <f>菜单SAAS版!$E$10</f>
@@ -5597,15 +6142,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I17" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
     </row>
     <row r="18" spans="5:9">
       <c r="E18" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="F18" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="G18" t="str">
         <f>菜单SAAS版!$E$11</f>
@@ -5616,15 +6161,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I18" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
     </row>
     <row r="19" spans="5:9">
       <c r="E19" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="F19" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="G19" t="str">
         <f>菜单SAAS版!$E$13</f>
@@ -5635,15 +6180,15 @@
         <v>iam_label-11</v>
       </c>
       <c r="I19" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
     </row>
     <row r="20" spans="5:9">
       <c r="E20" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="F20" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="G20" t="str">
         <f>菜单SAAS版!E19</f>
@@ -5654,15 +6199,15 @@
         <v>iam_label-21</v>
       </c>
       <c r="I20" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
     </row>
     <row r="21" spans="5:9">
       <c r="E21" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="F21" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="G21" t="str">
         <f>菜单SAAS版!E15</f>
@@ -5673,29 +6218,32 @@
         <v>iam_label-21</v>
       </c>
       <c r="I21" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="20" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:Y30"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
   <cols>
-    <col min="5" max="5" width="17.83203125" customWidth="1"/>
+    <col min="5" max="5" width="17.8333333333333" customWidth="1"/>
     <col min="6" max="6" width="22.5" customWidth="1"/>
-    <col min="7" max="7" width="39.33203125" customWidth="1"/>
+    <col min="7" max="7" width="39.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -5709,7 +6257,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="5:7">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -5728,10 +6276,10 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
@@ -5746,485 +6294,485 @@
         <v>55</v>
       </c>
       <c r="I7" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="J7" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>67</v>
       </c>
       <c r="L7" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="O7" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="P7" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="Q7" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="R7" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="S7" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="T7" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="U7" t="s">
         <v>68</v>
       </c>
       <c r="V7" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="W7" s="3" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="X7" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="Y7" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="8" spans="5:23">
       <c r="E8" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="F8" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="G8" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="H8" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="I8" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="J8" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="K8" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="L8" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="M8" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="N8" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="O8" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P8" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="Q8" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="R8" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="S8" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="T8" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="U8" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="V8" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="W8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="5:23">
       <c r="E9" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="F9" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="G9" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="H9" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="I9" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="J9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="K9" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="L9" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="M9" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="N9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="O9" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P9" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="Q9" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="R9" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="S9" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="T9" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="U9" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="V9" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="W9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="5:25">
       <c r="E10" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="F10" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="G10" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="H10" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="J10" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="K10" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="L10" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="M10" t="str">
         <f>角色!$E$9</f>
         <v>iam_role-9</v>
       </c>
       <c r="N10" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="O10" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P10" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="Q10" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="R10" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="S10" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="T10" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="U10" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="V10" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="W10" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="X10" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="Y10" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="11" spans="5:25">
       <c r="E11" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="F11" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="G11" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="H11" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="J11" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="K11" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="L11" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="M11" t="str">
         <f>角色!$E$9</f>
         <v>iam_role-9</v>
       </c>
       <c r="N11" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="O11" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P11" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="Q11" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="R11" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="S11" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="T11" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="U11" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="V11" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="W11" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="X11" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="Y11" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="12" spans="5:25">
       <c r="E12" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="F12" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="G12" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="H12" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="J12" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="K12" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="L12" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="M12" t="str">
         <f>角色!$E$9</f>
         <v>iam_role-9</v>
       </c>
       <c r="N12" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="O12" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P12" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="Q12" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="R12" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="S12" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="T12" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="U12" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="V12" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="W12" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="X12" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="Y12" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="13" spans="5:25">
       <c r="E13" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="F13" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="G13" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="H13" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="J13" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="K13" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="L13" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="M13" t="str">
         <f>角色!$E$9</f>
         <v>iam_role-9</v>
       </c>
       <c r="N13" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="O13" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P13" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="Q13" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="R13" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="S13" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="T13" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="U13" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="V13" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="W13" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="X13" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="Y13" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="14" spans="5:23">
       <c r="E14" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="F14" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="G14" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="H14" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="J14" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="K14" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="L14" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="M14" t="str">
         <f>角色!$E$8</f>
         <v>iam_role-8</v>
       </c>
       <c r="N14" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="O14" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P14" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="Q14" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="R14" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="S14" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="T14" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="U14" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="V14" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="W14" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -6232,33 +6780,33 @@
         <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="H16" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="I16" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
     </row>
     <row r="17" spans="5:10">
       <c r="E17" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="F17" t="str">
         <f>角色!$E$10</f>
@@ -6269,18 +6817,18 @@
         <v>iam_menu-10</v>
       </c>
       <c r="H17" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="I17" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="J17" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
     </row>
     <row r="18" spans="5:10">
       <c r="E18" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="F18" t="str">
         <f>角色!$E$10</f>
@@ -6291,18 +6839,18 @@
         <v>iam_menu-11</v>
       </c>
       <c r="H18" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="I18" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="J18" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
     </row>
     <row r="19" spans="5:10">
       <c r="E19" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="F19" t="str">
         <f>角色!$E$10</f>
@@ -6313,18 +6861,18 @@
         <v>iam_menu-17</v>
       </c>
       <c r="H19" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="I19" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="J19" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
     </row>
     <row r="20" spans="5:10">
       <c r="E20" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="F20" t="str">
         <f>角色!$E$10</f>
@@ -6335,18 +6883,18 @@
         <v>iam_menu-18</v>
       </c>
       <c r="H20" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="I20" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="J20" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
     </row>
     <row r="21" spans="5:10">
       <c r="E21" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="F21" t="str">
         <f>角色!$E$10</f>
@@ -6357,18 +6905,18 @@
         <v>iam_menu-19</v>
       </c>
       <c r="H21" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="I21" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="J21" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
     </row>
     <row r="22" spans="5:10">
       <c r="E22" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="F22" t="str">
         <f>角色!$E$10</f>
@@ -6379,18 +6927,18 @@
         <v>iam_menu-14</v>
       </c>
       <c r="H22" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="I22" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="J22" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
     </row>
     <row r="23" spans="5:10">
       <c r="E23" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="F23" t="str">
         <f>角色!$E$11</f>
@@ -6401,18 +6949,18 @@
         <v>iam_menu-14</v>
       </c>
       <c r="H23" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="I23" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="J23" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
     </row>
     <row r="24" spans="5:10">
       <c r="E24" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="F24" t="str">
         <f>角色!$E$12</f>
@@ -6423,18 +6971,18 @@
         <v>iam_menu-17</v>
       </c>
       <c r="H24" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="I24" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="J24" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
     </row>
     <row r="25" spans="5:10">
       <c r="E25" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="F25" t="str">
         <f>角色!$E$12</f>
@@ -6445,18 +6993,18 @@
         <v>iam_menu-19</v>
       </c>
       <c r="H25" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="I25" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="J25" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
     </row>
     <row r="26" spans="5:10">
       <c r="E26" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="F26" t="str">
         <f>角色!$E$12</f>
@@ -6467,18 +7015,18 @@
         <v>iam_menu-14</v>
       </c>
       <c r="H26" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="I26" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="J26" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
     </row>
     <row r="27" spans="5:10">
       <c r="E27" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="F27" t="str">
         <f>角色!$E$13</f>
@@ -6489,18 +7037,18 @@
         <v>iam_menu-17</v>
       </c>
       <c r="H27" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="I27" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="J27" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
     </row>
     <row r="28" spans="5:10">
       <c r="E28" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="F28" t="str">
         <f>角色!$E$13</f>
@@ -6511,18 +7059,18 @@
         <v>iam_menu-18</v>
       </c>
       <c r="H28" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="I28" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="J28" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
     </row>
     <row r="29" spans="5:10">
       <c r="E29" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="F29" t="str">
         <f>角色!$E$13</f>
@@ -6533,18 +7081,18 @@
         <v>iam_menu-19</v>
       </c>
       <c r="H29" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="I29" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="J29" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
     </row>
     <row r="30" spans="5:10">
       <c r="E30" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="F30" t="str">
         <f>角色!$E$13</f>
@@ -6555,36 +7103,37 @@
         <v>iam_menu-14</v>
       </c>
       <c r="H30" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="I30" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="J30" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="20" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
   <cols>
     <col min="5" max="5" width="17.5" customWidth="1"/>
-    <col min="6" max="6" width="28.4140625" customWidth="1"/>
+    <col min="6" max="6" width="28.4166666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -6598,7 +7147,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="5:7">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -6617,368 +7166,368 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="H7" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="I7" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="J7" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="K7" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="L7" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="M7" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="N7" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="O7" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="8" spans="5:15">
       <c r="E8" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="F8" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="G8" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="H8" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="I8" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="J8" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="K8" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="M8" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="N8" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="O8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="5:15">
       <c r="E9" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="F9" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="G9" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="H9" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="I9" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="J9" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="K9" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="M9" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="N9" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="O9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="5:15">
       <c r="E10" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="F10" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="G10" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="H10" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="I10" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="J10" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="K10" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="M10" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="N10" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="O10" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="5:15">
       <c r="E11" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="F11" t="s">
+        <v>360</v>
+      </c>
+      <c r="G11" t="s">
         <v>352</v>
       </c>
-      <c r="G11" t="s">
-        <v>342</v>
-      </c>
       <c r="H11" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="I11" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="J11" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="K11" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="M11" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="N11" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="O11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="5:15">
       <c r="E12" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="F12" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="G12" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="H12" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="I12" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="J12" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="K12" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="M12" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="N12" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="O12" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="5:15">
       <c r="E13" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="F13" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="G13" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="H13" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="I13" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="J13" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="K13" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="M13" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="N13" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="O13" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="5:15">
       <c r="E14" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="F14" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="G14" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="H14" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="I14" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="J14" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="K14" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="M14" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="N14" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="O14" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="5:15">
       <c r="E15" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="F15" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="G15" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="H15" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="I15" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="J15" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="K15" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="M15" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="N15" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="5:15">
       <c r="E16" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="F16" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="G16" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="H16" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="I16" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="J16" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="K16" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="M16" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="N16" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="O16" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="5:15">
       <c r="E17" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="F17" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="G17" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="H17" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="I17" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="J17" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="K17" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="M17" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="N17" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="O17" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="20" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/src/main/resources/script/db/init-data/hrds_code_repo/hzero_platform/hzero-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/hrds_code_repo/hzero_platform/hzero-menu-user-role-label.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\choerodon\code-repo-service\src\main\resources\script\db\init-data\hrds_code_repo\hzero_platform\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19488" windowHeight="8460" tabRatio="597" activeTab="5"/>
+    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="597" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -25,19 +20,18 @@
     <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
     <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="384">
   <si>
     <r>
       <rPr>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">注意这个文档不能 </t>
@@ -56,7 +50,6 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>！！
@@ -69,7 +62,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">正式的数据从第二个 </t>
@@ -88,7 +80,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页开始</t>
@@ -107,7 +98,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">每页 从 </t>
@@ -126,7 +116,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格开始有效
@@ -158,7 +147,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>颜色示例</t>
@@ -177,7 +165,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非必须</t>
@@ -196,7 +183,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非强制</t>
@@ -218,7 +204,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>请给特殊单元格</t>
@@ -239,7 +224,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列名添加颜色</t>
@@ -260,7 +244,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>提高数据可读性</t>
@@ -281,7 +264,6 @@
         <sz val="12"/>
         <color rgb="FFC55A11"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动生成</t>
@@ -302,7 +284,6 @@
         <sz val="12"/>
         <color rgb="FF2E75B6"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>唯一性检查</t>
@@ -314,7 +295,6 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -333,7 +313,6 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -345,7 +324,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>理论上</t>
@@ -364,7 +342,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表的前后顺序</t>
@@ -383,7 +360,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页的顺序没有严格要求</t>
@@ -402,7 +378,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但请尽量按照先插 后引用的顺序排列</t>
@@ -421,7 +396,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>减少迭代次数</t>
@@ -469,7 +443,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -488,7 +461,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>该列的值自动生成</t>
@@ -507,7 +479,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当数据库存在等价记录时</t>
@@ -526,7 +497,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>这个值会被替换为数据库中已存在的值</t>
@@ -538,7 +508,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自增长</t>
@@ -557,7 +526,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>或序列</t>
@@ -576,7 +544,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>主键列</t>
@@ -596,7 +563,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当不作为外键引用时</t>
@@ -615,7 +581,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般写</t>
@@ -635,7 +600,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>作为外键时</t>
@@ -654,7 +618,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>写可读的值</t>
@@ -666,7 +629,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">目前 </t>
@@ -685,7 +647,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>是序列</t>
@@ -704,7 +665,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他自增涨</t>
@@ -728,7 +688,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -747,7 +706,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表中所有带有</t>
@@ -766,7 +724,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>的列组成一个唯一性校验</t>
@@ -785,7 +742,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>在执行插入之前</t>
@@ -804,7 +760,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会首先按照唯一键来检查数据库是否存在等价记录</t>
@@ -816,7 +771,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>可以有多列</t>
@@ -835,7 +789,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>仅支持</t>
@@ -846,7 +799,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>数字</t>
@@ -867,7 +819,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">字符串
@@ -878,7 +829,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当</t>
@@ -897,7 +847,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列涉及到公式时</t>
@@ -916,7 +865,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会先确定公式的值</t>
@@ -940,7 +888,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定这一列的类型</t>
@@ -959,7 +906,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>默认会自动检测</t>
@@ -979,7 +925,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为数字</t>
@@ -999,7 +944,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为日期</t>
@@ -1019,7 +963,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他默认为</t>
@@ -1040,7 +983,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般不需要指定</t>
@@ -1060,7 +1002,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>日期格式仅支持</t>
@@ -1095,7 +1036,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定语言环境</t>
@@ -1116,7 +1056,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表数据不需要专门写</t>
@@ -1128,7 +1067,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -1147,7 +1085,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -1168,7 +1105,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>用于引用外键</t>
@@ -1187,7 +1123,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>也可用于普通值
@@ -1200,7 +1135,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动增长列</t>
@@ -1219,7 +1153,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>如果被公式引用</t>
@@ -1238,7 +1171,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>最好写一个人可以读懂的值</t>
@@ -1257,7 +1189,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>增强公式可读性</t>
@@ -1272,7 +1203,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般用于引用自动生成的外键</t>
@@ -1291,7 +1221,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">所有公式均为 </t>
@@ -1310,7 +1239,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>支持的标准公式</t>
@@ -1329,7 +1257,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但不支持特别复杂的计算公式</t>
@@ -1348,7 +1275,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>比如范围计算</t>
@@ -1364,7 +1290,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1374,7 +1299,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1393,7 +1317,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1409,7 +1332,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1419,7 +1341,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1438,7 +1359,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1453,7 +1373,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1472,7 +1391,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1491,7 +1409,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1511,7 +1428,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1535,7 +1451,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1554,7 +1469,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1573,7 +1487,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1593,7 +1506,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1614,7 +1526,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1625,7 +1536,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1635,7 +1545,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1647,7 +1556,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>举例</t>
@@ -1666,7 +1574,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">当 </t>
@@ -1685,7 +1592,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格引用 </t>
@@ -1704,7 +1610,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">时
@@ -1724,7 +1629,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1743,7 +1647,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格时</t>
@@ -1762,7 +1665,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用的是 </t>
@@ -1782,7 +1684,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">将 </t>
@@ -1801,7 +1702,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1820,7 +1720,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>时</t>
@@ -1839,7 +1738,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">实际引用的是 </t>
@@ -1859,7 +1757,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>以上情况适用于拖拽填充</t>
@@ -1871,7 +1768,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1882,7 +1778,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1892,7 +1787,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1904,7 +1798,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>复制公式单元格时</t>
@@ -1923,7 +1816,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>保持公式不变</t>
@@ -1935,7 +1827,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对引用</t>
@@ -1954,7 +1845,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对引用各有用途</t>
@@ -1974,7 +1864,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>直接拖拽填充就可以避免大量重复工作</t>
@@ -2074,6 +1963,18 @@
     <t>category</t>
   </si>
   <si>
+    <t>iam_menu-8</t>
+  </si>
+  <si>
+    <t>choerodon.code.organization.manager</t>
+  </si>
+  <si>
+    <t>管理</t>
+  </si>
+  <si>
+    <t>GL</t>
+  </si>
+  <si>
     <t>organization</t>
   </si>
   <si>
@@ -2101,30 +2002,30 @@
     <t>menu</t>
   </si>
   <si>
+    <t>settings_ethernet</t>
+  </si>
+  <si>
+    <t>/rducm/code-lib-org</t>
+  </si>
+  <si>
+    <t>choerodon.code.organization.infra|choerodon.code.organization.infra.code-lib-management</t>
+  </si>
+  <si>
+    <t>iam_menu-10</t>
+  </si>
+  <si>
+    <t>choerodon.code.organization.infra.code-lib-management.ps.default</t>
+  </si>
+  <si>
+    <t>默认权限集</t>
+  </si>
+  <si>
+    <t>ps</t>
+  </si>
+  <si>
     <t>10</t>
   </si>
   <si>
-    <t>settings_ethernet</t>
-  </si>
-  <si>
-    <t>/rducm/code-lib-org</t>
-  </si>
-  <si>
-    <t>choerodon.code.organization.infra|choerodon.code.organization.infra.code-lib-management</t>
-  </si>
-  <si>
-    <t>iam_menu-10</t>
-  </si>
-  <si>
-    <t>choerodon.code.organization.infra.code-lib-management.ps.default</t>
-  </si>
-  <si>
-    <t>默认权限集</t>
-  </si>
-  <si>
-    <t>ps</t>
-  </si>
-  <si>
     <t>choerodon.code.organization.infra|choerodon.code.organization.infra.code-lib-management|choerodon.code.organization.infra.code-lib-management.ps.default</t>
   </si>
   <si>
@@ -2506,6 +2407,18 @@
     <t>code-repo-service.rdm-member-org.export</t>
   </si>
   <si>
+    <t>iam_menu_permission-53</t>
+  </si>
+  <si>
+    <t>code-repo-service.rdm-member-proj.batchRemoveMember</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-54</t>
+  </si>
+  <si>
+    <t>code-repo-service.project.listNonProjectMembers</t>
+  </si>
+  <si>
     <t>标签表</t>
   </si>
   <si>
@@ -2875,15 +2788,15 @@
     <t>iam_role_permission-30</t>
   </si>
   <si>
+    <t>iam_label-10</t>
+  </si>
+  <si>
+    <t>TENANT_ROLE_TPL</t>
+  </si>
+  <si>
     <t>ROLE</t>
   </si>
   <si>
-    <t>iam_label-10</t>
-  </si>
-  <si>
-    <t>TENANT_ROLE_TPL</t>
-  </si>
-  <si>
     <t>标识内置模板角色</t>
   </si>
   <si>
@@ -2975,26 +2888,19 @@
   </si>
   <si>
     <t>标识gitlab_developer</t>
-  </si>
-  <si>
-    <t>choerodon.code.organization.manager</t>
-  </si>
-  <si>
-    <t>管理</t>
-  </si>
-  <si>
-    <t>GL</t>
-  </si>
-  <si>
-    <t>iam_menu-8</t>
-    <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="39">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -3005,38 +2911,36 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="53"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="48"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="42"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="8"/>
       <color rgb="FF24292E"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3044,7 +2948,6 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3063,7 +2966,6 @@
       <sz val="12"/>
       <color rgb="FF548235"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3071,6 +2973,157 @@
       <color rgb="FF000000"/>
       <name val="DengXian"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -3101,14 +3154,12 @@
       <sz val="12"/>
       <color rgb="FFC55A11"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3117,21 +3168,8 @@
       <name val="DengXian"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="7">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3168,8 +3206,188 @@
         <bgColor rgb="FFE7E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -3270,10 +3488,252 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3283,6 +3743,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3291,8 +3754,20 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3326,6 +3801,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3333,30 +3811,59 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
@@ -3429,9 +3936,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3689,270 +4193,273 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.58203125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" style="9" customWidth="1"/>
-    <col min="3" max="3" width="28.1640625" customWidth="1"/>
-    <col min="4" max="4" width="35.33203125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="38.58203125" customWidth="1"/>
-    <col min="6" max="6" width="23.4140625" customWidth="1"/>
-    <col min="7" max="7" width="21.58203125" customWidth="1"/>
+    <col min="1" max="1" width="15.5833333333333" style="9" customWidth="1"/>
+    <col min="2" max="2" width="10.3333333333333" style="10" customWidth="1"/>
+    <col min="3" max="3" width="28.1666666666667" customWidth="1"/>
+    <col min="4" max="4" width="35.3333333333333" style="5" customWidth="1"/>
+    <col min="5" max="5" width="38.5833333333333" customWidth="1"/>
+    <col min="6" max="6" width="23.4166666666667" customWidth="1"/>
+    <col min="7" max="7" width="21.5833333333333" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.58203125" customWidth="1"/>
+    <col min="9" max="9" width="24.5833333333333" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.1640625" customWidth="1"/>
-    <col min="12" max="12" width="18.58203125" customWidth="1"/>
-    <col min="13" max="13" width="13.1640625" customWidth="1"/>
-    <col min="14" max="1025" width="10.33203125" customWidth="1"/>
+    <col min="11" max="11" width="19.1666666666667" customWidth="1"/>
+    <col min="12" max="12" width="18.5833333333333" customWidth="1"/>
+    <col min="13" max="13" width="13.1666666666667" customWidth="1"/>
+    <col min="14" max="1025" width="10.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="64.5" customHeight="1">
-      <c r="A1" s="10"/>
-      <c r="C1" s="35" t="s">
+    <row r="1" ht="64.5" customHeight="1" spans="1:8">
+      <c r="A1" s="11"/>
+      <c r="C1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="E2" s="12"/>
-    </row>
-    <row r="3" spans="1:8" ht="49.5" customHeight="1">
-      <c r="C3" s="34" t="s">
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+    </row>
+    <row r="2" spans="5:5">
+      <c r="E2" s="14"/>
+    </row>
+    <row r="3" ht="49.5" customHeight="1" spans="3:7">
+      <c r="C3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="34"/>
-      <c r="E3" s="36" t="s">
+      <c r="D3" s="15"/>
+      <c r="E3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="C4" s="37" t="s">
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+    </row>
+    <row r="4" spans="3:7">
+      <c r="C4" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="37"/>
-      <c r="E4" s="13" t="s">
+      <c r="D4" s="17"/>
+      <c r="E4" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="20" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="10"/>
+    <row r="5" spans="1:3">
+      <c r="A5" s="11"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
-      <c r="C7" s="16" t="s">
+    <row r="7" spans="3:5">
+      <c r="C7" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="23" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
-      <c r="C8" s="19" t="s">
+    <row r="8" spans="3:5">
+      <c r="C8" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="21"/>
-    </row>
-    <row r="9" spans="1:8" ht="52.2">
-      <c r="C9" s="22" t="s">
+      <c r="E8" s="26"/>
+    </row>
+    <row r="9" ht="52.2" spans="3:6">
+      <c r="C9" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="24" t="s">
+      <c r="E9" s="29" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="52.2">
-      <c r="C10" s="25" t="s">
+    <row r="10" ht="52.2" spans="3:5">
+      <c r="C10" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="24" t="s">
+      <c r="E10" s="29" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="69.599999999999994">
-      <c r="C11" s="19" t="s">
+    <row r="11" ht="69.6" spans="3:5">
+      <c r="C11" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="24" t="s">
+      <c r="E11" s="29" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
-      <c r="C12" s="19" t="s">
+    <row r="12" spans="3:5">
+      <c r="C12" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="D12" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="26" t="s">
+      <c r="E12" s="31" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
-      <c r="C13" s="19"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="21"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="C14" s="19"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="21"/>
-    </row>
-    <row r="15" spans="1:8" ht="34.799999999999997">
-      <c r="C15" s="27" t="s">
+    <row r="13" spans="3:5">
+      <c r="C13" s="24"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="26"/>
+    </row>
+    <row r="14" spans="3:5">
+      <c r="C14" s="24"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="26"/>
+    </row>
+    <row r="15" ht="34.8" spans="3:5">
+      <c r="C15" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="28" t="s">
+      <c r="D15" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="29" t="s">
+      <c r="E15" s="34" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="3:5">
+    <row r="18" spans="3:3">
       <c r="C18" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="38" t="s">
+      <c r="C19" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-    </row>
-    <row r="20" spans="3:5">
-      <c r="C20" s="30" t="s">
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+    </row>
+    <row r="20" spans="3:4">
+      <c r="C20" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="14" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="3:5">
-      <c r="C21" s="30" t="s">
+    <row r="21" spans="3:4">
+      <c r="C21" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="14" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="3:5">
-      <c r="C22" s="30" t="s">
+    <row r="22" spans="3:4">
+      <c r="C22" s="36" t="s">
         <v>35</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="3:5">
-      <c r="C23" s="30" t="s">
+    <row r="23" spans="3:4">
+      <c r="C23" s="36" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="3:5" ht="69" customHeight="1">
-      <c r="C25" s="31" t="s">
+    <row r="25" ht="69" customHeight="1" spans="3:5">
+      <c r="C25" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="34" t="s">
+      <c r="D25" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="34"/>
-    </row>
-    <row r="26" spans="3:5" ht="14.25" customHeight="1">
-      <c r="C26" s="20" t="s">
+      <c r="E25" s="15"/>
+    </row>
+    <row r="26" ht="14.25" customHeight="1" spans="3:5">
+      <c r="C26" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="34" t="s">
+      <c r="D26" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="34"/>
-    </row>
-    <row r="27" spans="3:5" ht="52.2">
-      <c r="C27" s="32" t="s">
+      <c r="E26" s="15"/>
+    </row>
+    <row r="27" ht="52.2" spans="3:3">
+      <c r="C27" s="38" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C19:E19"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
   </mergeCells>
-  <phoneticPr fontId="20" type="noConversion"/>
-  <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.51041666666666696" footer="0.51041666666666696"/>
+  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:Y19"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
   <cols>
-    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="5" max="5" width="16.6666666666667" customWidth="1"/>
     <col min="6" max="6" width="46.75" customWidth="1"/>
     <col min="7" max="7" width="15.25" customWidth="1"/>
     <col min="11" max="11" width="16.75" customWidth="1"/>
-    <col min="15" max="15" width="29.6640625" customWidth="1"/>
-    <col min="16" max="16" width="45.83203125" customWidth="1"/>
+    <col min="15" max="15" width="29.6666666666667" customWidth="1"/>
+    <col min="16" max="16" width="45.8333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -3966,7 +4473,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="5:7">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -4054,634 +4561,635 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
-      <c r="E8" s="33" t="s">
-        <v>379</v>
+    <row r="8" spans="5:24">
+      <c r="E8" s="7" t="s">
+        <v>75</v>
       </c>
       <c r="F8" t="s">
-        <v>376</v>
+        <v>76</v>
       </c>
       <c r="G8" t="s">
-        <v>377</v>
+        <v>77</v>
       </c>
       <c r="H8" t="s">
-        <v>377</v>
+        <v>77</v>
       </c>
       <c r="I8" t="s">
-        <v>378</v>
+        <v>78</v>
       </c>
       <c r="J8" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="K8" t="s">
+        <v>80</v>
+      </c>
+      <c r="L8" t="s">
+        <v>81</v>
+      </c>
+      <c r="M8" t="s">
+        <v>80</v>
+      </c>
+      <c r="N8" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>80</v>
+      </c>
+      <c r="R8" t="s">
+        <v>80</v>
+      </c>
+      <c r="S8" t="s">
         <v>76</v>
       </c>
-      <c r="L8" t="s">
-        <v>77</v>
-      </c>
-      <c r="M8" t="s">
-        <v>76</v>
-      </c>
-      <c r="N8" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>76</v>
-      </c>
-      <c r="R8" t="s">
-        <v>76</v>
-      </c>
-      <c r="S8" t="s">
-        <v>376</v>
-      </c>
       <c r="T8" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="V8" t="s">
+        <v>83</v>
+      </c>
+      <c r="X8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="5:24">
+      <c r="E9" t="s">
+        <v>84</v>
+      </c>
+      <c r="F9" t="s">
+        <v>85</v>
+      </c>
+      <c r="G9" t="s">
+        <v>86</v>
+      </c>
+      <c r="H9" t="s">
+        <v>86</v>
+      </c>
+      <c r="J9" t="s">
         <v>79</v>
-      </c>
-      <c r="X8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25">
-      <c r="E9" t="s">
-        <v>80</v>
-      </c>
-      <c r="F9" t="s">
-        <v>81</v>
-      </c>
-      <c r="G9" t="s">
-        <v>82</v>
-      </c>
-      <c r="H9" t="s">
-        <v>82</v>
-      </c>
-      <c r="J9" t="s">
-        <v>75</v>
       </c>
       <c r="K9" t="str">
         <f>菜单SAAS版!$E$8</f>
         <v>iam_menu-8</v>
       </c>
       <c r="L9" t="s">
+        <v>87</v>
+      </c>
+      <c r="M9">
+        <v>80</v>
+      </c>
+      <c r="N9" t="s">
+        <v>82</v>
+      </c>
+      <c r="O9" t="s">
+        <v>88</v>
+      </c>
+      <c r="P9" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>80</v>
+      </c>
+      <c r="R9" t="s">
+        <v>80</v>
+      </c>
+      <c r="S9" t="s">
+        <v>90</v>
+      </c>
+      <c r="T9" t="s">
+        <v>80</v>
+      </c>
+      <c r="V9" t="s">
         <v>83</v>
       </c>
-      <c r="M9">
-        <v>80</v>
-      </c>
-      <c r="N9" t="s">
-        <v>78</v>
-      </c>
-      <c r="O9" t="s">
-        <v>85</v>
-      </c>
-      <c r="P9" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>76</v>
-      </c>
-      <c r="R9" t="s">
-        <v>76</v>
-      </c>
-      <c r="S9" t="s">
-        <v>87</v>
-      </c>
-      <c r="T9" t="s">
-        <v>76</v>
-      </c>
-      <c r="V9" t="s">
+      <c r="X9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="5:24">
+      <c r="E10" t="s">
+        <v>91</v>
+      </c>
+      <c r="F10" t="s">
+        <v>92</v>
+      </c>
+      <c r="G10" t="s">
+        <v>93</v>
+      </c>
+      <c r="H10" t="s">
+        <v>93</v>
+      </c>
+      <c r="J10" t="s">
         <v>79</v>
-      </c>
-      <c r="X9" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25">
-      <c r="E10" t="s">
-        <v>88</v>
-      </c>
-      <c r="F10" t="s">
-        <v>89</v>
-      </c>
-      <c r="G10" t="s">
-        <v>90</v>
-      </c>
-      <c r="H10" t="s">
-        <v>90</v>
-      </c>
-      <c r="J10" t="s">
-        <v>75</v>
       </c>
       <c r="K10" t="str">
         <f>菜单SAAS版!$E$9</f>
         <v>iam_menu-9</v>
       </c>
       <c r="L10" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="M10" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="N10" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="Q10" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="R10" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="S10" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="T10" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="U10" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="V10" t="s">
+        <v>83</v>
+      </c>
+      <c r="X10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="5:24">
+      <c r="E11" t="s">
+        <v>98</v>
+      </c>
+      <c r="F11" t="s">
+        <v>99</v>
+      </c>
+      <c r="G11" t="s">
+        <v>100</v>
+      </c>
+      <c r="H11" t="s">
+        <v>100</v>
+      </c>
+      <c r="J11" t="s">
         <v>79</v>
-      </c>
-      <c r="X10" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25">
-      <c r="E11" t="s">
-        <v>94</v>
-      </c>
-      <c r="F11" t="s">
-        <v>95</v>
-      </c>
-      <c r="G11" t="s">
-        <v>96</v>
-      </c>
-      <c r="H11" t="s">
-        <v>96</v>
-      </c>
-      <c r="J11" t="s">
-        <v>75</v>
       </c>
       <c r="K11" t="str">
         <f>菜单SAAS版!$E$9</f>
         <v>iam_menu-9</v>
       </c>
       <c r="L11" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="N11" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="O11" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="Q11" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="R11" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="S11" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="T11" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="V11" t="s">
+        <v>83</v>
+      </c>
+      <c r="X11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="5:24">
+      <c r="E12" t="s">
+        <v>103</v>
+      </c>
+      <c r="F12" t="s">
+        <v>104</v>
+      </c>
+      <c r="G12" t="s">
+        <v>105</v>
+      </c>
+      <c r="H12" t="s">
+        <v>105</v>
+      </c>
+      <c r="J12" t="s">
         <v>79</v>
       </c>
-      <c r="X11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25">
-      <c r="E12" t="s">
-        <v>99</v>
-      </c>
-      <c r="F12" t="s">
-        <v>100</v>
-      </c>
-      <c r="G12" t="s">
-        <v>101</v>
-      </c>
-      <c r="H12" t="s">
-        <v>101</v>
-      </c>
-      <c r="J12" t="s">
-        <v>75</v>
-      </c>
       <c r="K12" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="L12" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="M12" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="N12" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="Q12" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="R12" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="S12" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="T12" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="V12" t="s">
+        <v>83</v>
+      </c>
+      <c r="X12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="5:24">
+      <c r="E13" t="s">
+        <v>106</v>
+      </c>
+      <c r="F13" t="s">
+        <v>107</v>
+      </c>
+      <c r="G13" t="s">
+        <v>108</v>
+      </c>
+      <c r="H13" t="s">
+        <v>108</v>
+      </c>
+      <c r="J13" t="s">
         <v>79</v>
-      </c>
-      <c r="X12" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25">
-      <c r="E13" t="s">
-        <v>102</v>
-      </c>
-      <c r="F13" t="s">
-        <v>103</v>
-      </c>
-      <c r="G13" t="s">
-        <v>104</v>
-      </c>
-      <c r="H13" t="s">
-        <v>104</v>
-      </c>
-      <c r="J13" t="s">
-        <v>75</v>
       </c>
       <c r="K13" t="str">
         <f>菜单SAAS版!$E$12</f>
         <v>iam_menu-12</v>
       </c>
       <c r="L13" t="s">
+        <v>87</v>
+      </c>
+      <c r="M13" t="s">
+        <v>109</v>
+      </c>
+      <c r="N13" t="s">
+        <v>82</v>
+      </c>
+      <c r="O13" t="s">
+        <v>110</v>
+      </c>
+      <c r="P13" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>80</v>
+      </c>
+      <c r="R13" t="s">
+        <v>80</v>
+      </c>
+      <c r="S13" t="s">
+        <v>112</v>
+      </c>
+      <c r="T13" t="s">
+        <v>80</v>
+      </c>
+      <c r="V13" t="s">
         <v>83</v>
       </c>
-      <c r="M13" t="s">
-        <v>105</v>
-      </c>
-      <c r="N13" t="s">
-        <v>78</v>
-      </c>
-      <c r="O13" t="s">
-        <v>106</v>
-      </c>
-      <c r="P13" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>76</v>
-      </c>
-      <c r="R13" t="s">
-        <v>76</v>
-      </c>
-      <c r="S13" t="s">
-        <v>108</v>
-      </c>
-      <c r="T13" t="s">
-        <v>76</v>
-      </c>
-      <c r="V13" t="s">
+      <c r="X13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="5:24">
+      <c r="E14" t="s">
+        <v>113</v>
+      </c>
+      <c r="F14" t="s">
+        <v>114</v>
+      </c>
+      <c r="G14" t="s">
+        <v>93</v>
+      </c>
+      <c r="H14" t="s">
+        <v>93</v>
+      </c>
+      <c r="J14" t="s">
         <v>79</v>
-      </c>
-      <c r="X13" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25">
-      <c r="E14" t="s">
-        <v>109</v>
-      </c>
-      <c r="F14" t="s">
-        <v>110</v>
-      </c>
-      <c r="G14" t="s">
-        <v>90</v>
-      </c>
-      <c r="H14" t="s">
-        <v>90</v>
-      </c>
-      <c r="J14" t="s">
-        <v>75</v>
       </c>
       <c r="K14" t="str">
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-13</v>
       </c>
       <c r="L14" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="M14" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="N14" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="Q14" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="R14" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="S14" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="T14" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="U14" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="V14" t="s">
+        <v>83</v>
+      </c>
+      <c r="X14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="5:24">
+      <c r="E15" t="s">
+        <v>116</v>
+      </c>
+      <c r="F15" t="s">
+        <v>117</v>
+      </c>
+      <c r="G15" t="s">
+        <v>86</v>
+      </c>
+      <c r="H15" t="s">
+        <v>86</v>
+      </c>
+      <c r="J15" t="s">
         <v>79</v>
-      </c>
-      <c r="X14" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25">
-      <c r="E15" t="s">
-        <v>112</v>
-      </c>
-      <c r="F15" t="s">
-        <v>113</v>
-      </c>
-      <c r="G15" t="s">
-        <v>82</v>
-      </c>
-      <c r="H15" t="s">
-        <v>82</v>
-      </c>
-      <c r="J15" t="s">
-        <v>75</v>
       </c>
       <c r="K15" t="str">
         <f>E19</f>
         <v>iam_menu-20</v>
       </c>
       <c r="L15" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="M15">
         <v>50</v>
       </c>
       <c r="N15" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="O15" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="P15" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="Q15" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="R15" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="S15" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="T15" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="V15" t="s">
+        <v>83</v>
+      </c>
+      <c r="X15" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="5:24">
+      <c r="E16" t="s">
+        <v>120</v>
+      </c>
+      <c r="F16" t="s">
+        <v>121</v>
+      </c>
+      <c r="G16" t="s">
+        <v>93</v>
+      </c>
+      <c r="H16" t="s">
+        <v>93</v>
+      </c>
+      <c r="J16" t="s">
         <v>79</v>
-      </c>
-      <c r="X15" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25">
-      <c r="E16" t="s">
-        <v>116</v>
-      </c>
-      <c r="F16" t="s">
-        <v>117</v>
-      </c>
-      <c r="G16" t="s">
-        <v>90</v>
-      </c>
-      <c r="H16" t="s">
-        <v>90</v>
-      </c>
-      <c r="J16" t="s">
-        <v>75</v>
       </c>
       <c r="K16" t="str">
         <f>菜单SAAS版!$E$15</f>
         <v>iam_menu-16</v>
       </c>
       <c r="L16" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="M16" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="N16" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="Q16" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="R16" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="S16" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="T16" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="U16" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="V16" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="X16" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="5:24">
       <c r="E17" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F17" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G17" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="H17" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="J17" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="K17" t="str">
         <f>菜单SAAS版!$E$15</f>
         <v>iam_menu-16</v>
       </c>
       <c r="L17" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="N17" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="O17" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="Q17" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="R17" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="S17" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="T17" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="V17" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="X17" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="5:24">
       <c r="E18" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="F18" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="G18" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="H18" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="J18" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="K18" t="str">
         <f>菜单SAAS版!$E$15</f>
         <v>iam_menu-16</v>
       </c>
       <c r="L18" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="N18" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="O18" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="Q18" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="R18" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="S18" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="T18" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="V18" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="X18" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="5:24">
       <c r="E19" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="F19" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="G19" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="H19" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="I19" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="J19" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="K19" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="L19" t="s">
-        <v>77</v>
-      </c>
-      <c r="M19" s="7">
+        <v>81</v>
+      </c>
+      <c r="M19" s="8">
         <v>20</v>
       </c>
       <c r="N19" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="Q19" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="R19" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="S19" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="T19" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="V19" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="X19" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="20" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G52"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="6"/>
   <cols>
     <col min="5" max="5" width="21.25" customWidth="1"/>
-    <col min="6" max="6" width="17.58203125" customWidth="1"/>
-    <col min="7" max="7" width="30.33203125" customWidth="1"/>
+    <col min="6" max="6" width="17.5833333333333" customWidth="1"/>
+    <col min="7" max="7" width="30.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -4695,7 +5203,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="5:7">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -4714,587 +5222,612 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" spans="5:7">
       <c r="E8" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="F8" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9" spans="5:7">
       <c r="E9" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="F9" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G9" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="10" spans="5:7">
       <c r="E10" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F10" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G10" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="11" spans="5:7">
       <c r="E11" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="F11" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G11" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="12" spans="5:7">
       <c r="E12" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="F12" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G12" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="13" spans="5:7">
       <c r="E13" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="F13" t="str">
         <f>菜单SAAS版!$E$17</f>
         <v>iam_menu-18</v>
       </c>
       <c r="G13" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="5:7">
       <c r="E14" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="F14" t="str">
         <f>菜单SAAS版!$E$17</f>
         <v>iam_menu-18</v>
       </c>
       <c r="G14" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="15" spans="5:7">
       <c r="E15" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="F15" t="str">
         <f>菜单SAAS版!$E$17</f>
         <v>iam_menu-18</v>
       </c>
       <c r="G15" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="16" spans="5:7">
       <c r="E16" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="F16" t="str">
         <f>菜单SAAS版!$E$17</f>
         <v>iam_menu-18</v>
       </c>
       <c r="G16" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="5:7">
       <c r="E17" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="F17" t="str">
         <f>菜单SAAS版!$E$17</f>
         <v>iam_menu-18</v>
       </c>
       <c r="G17" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="18" spans="5:7">
       <c r="E18" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="F18" t="str">
         <f>菜单SAAS版!$E$17</f>
         <v>iam_menu-18</v>
       </c>
       <c r="G18" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19" spans="5:7">
       <c r="E19" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="F19" t="str">
         <f>菜单SAAS版!$E$17</f>
         <v>iam_menu-18</v>
       </c>
       <c r="G19" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="20" spans="5:7">
       <c r="E20" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="F20" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G20" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="5:7">
       <c r="E21" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="F21" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G21" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22" spans="5:7">
       <c r="E22" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="F22" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G22" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="23" spans="5:7">
       <c r="E23" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="F23" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G23" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="24" spans="5:7">
       <c r="E24" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="F24" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G24" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="25" spans="5:7">
       <c r="E25" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="F25" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G25" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="26" spans="5:7">
       <c r="E26" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="F26" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G26" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="27" spans="5:7">
       <c r="E27" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="F27" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G27" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="28" spans="5:7">
       <c r="E28" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="F28" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G28" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="29" spans="5:7">
       <c r="E29" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="F29" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G29" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="30" spans="5:7">
       <c r="E30" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="F30" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G30" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="31" spans="5:7">
       <c r="E31" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="F31" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G31" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="32" spans="5:7">
       <c r="E32" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="F32" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G32" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="33" spans="5:7">
       <c r="E33" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="F33" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G33" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="34" spans="5:7">
       <c r="E34" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="F34" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G34" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="35" spans="5:7">
       <c r="E35" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="F35" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G35" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="36" spans="5:7">
       <c r="E36" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="F36" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G36" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="37" spans="5:7">
       <c r="E37" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="F37" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G37" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="38" spans="5:7">
       <c r="E38" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="F38" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G38" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="39" spans="5:7">
       <c r="E39" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="F39" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G39" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="40" spans="5:7">
       <c r="E40" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="F40" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G40" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="41" spans="5:7">
       <c r="E41" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="F41" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G41" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="42" spans="5:7">
       <c r="E42" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="F42" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G42" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="43" spans="5:7">
       <c r="E43" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="F43" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G43" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="44" spans="5:7">
       <c r="E44" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="F44" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G44" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="45" spans="5:7">
       <c r="E45" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="F45" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G45" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="46" spans="5:7">
       <c r="E46" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="F46" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G46" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="47" spans="5:7">
       <c r="E47" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="F47" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G47" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="48" spans="5:7">
       <c r="E48" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="F48" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G48" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="49" spans="5:7">
       <c r="E49" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="F49" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G49" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="50" spans="5:7">
       <c r="E50" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="F50" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G50" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="51" spans="5:7">
       <c r="E51" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="F51" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G51" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="52" spans="5:7">
       <c r="E52" s="6" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="F52" s="6" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>218</v>
+        <v>222</v>
+      </c>
+    </row>
+    <row r="53" spans="5:7">
+      <c r="E53" t="s">
+        <v>223</v>
+      </c>
+      <c r="F53" t="str">
+        <f>菜单SAAS版!E18</f>
+        <v>iam_menu-19</v>
+      </c>
+      <c r="G53" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="54" spans="5:7">
+      <c r="E54" t="s">
+        <v>225</v>
+      </c>
+      <c r="F54" t="str">
+        <f>菜单SAAS版!E18</f>
+        <v>iam_menu-19</v>
+      </c>
+      <c r="G54" t="s">
+        <v>226</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="20" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
   <cols>
-    <col min="5" max="5" width="26.58203125" customWidth="1"/>
+    <col min="5" max="5" width="26.5833333333333" customWidth="1"/>
     <col min="6" max="6" width="25.5" customWidth="1"/>
-    <col min="7" max="7" width="17.4140625" customWidth="1"/>
-    <col min="8" max="8" width="21.9140625" customWidth="1"/>
-    <col min="11" max="11" width="19.08203125" customWidth="1"/>
+    <col min="7" max="7" width="17.4166666666667" customWidth="1"/>
+    <col min="8" max="8" width="21.9166666666667" customWidth="1"/>
+    <col min="11" max="11" width="19.0833333333333" customWidth="1"/>
     <col min="13" max="13" width="12.75" customWidth="1"/>
     <col min="14" max="14" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -5308,7 +5841,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="5:7">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -5327,182 +5860,182 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="H7" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="I7" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="J7" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="K7" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="L7" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="M7" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="N7" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="O7" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="8" spans="5:15">
       <c r="E8" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="F8" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="G8" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="H8" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="I8" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="J8" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="K8" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="M8" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="N8" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="O8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="5:15">
       <c r="E9" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="F9" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="G9" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="H9" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="I9" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="M9" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="N9" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="O9" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="5:15">
       <c r="E10" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="F10" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="G10" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="H10" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="I10" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="J10" t="s">
+        <v>249</v>
+      </c>
+      <c r="K10" t="s">
+        <v>249</v>
+      </c>
+      <c r="M10" t="s">
+        <v>82</v>
+      </c>
+      <c r="N10" t="s">
+        <v>82</v>
+      </c>
+      <c r="O10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="5:15">
+      <c r="E11" t="s">
+        <v>250</v>
+      </c>
+      <c r="F11" t="s">
+        <v>251</v>
+      </c>
+      <c r="G11" t="s">
         <v>241</v>
       </c>
-      <c r="K10" t="s">
+      <c r="H11" t="s">
+        <v>82</v>
+      </c>
+      <c r="I11" t="s">
+        <v>248</v>
+      </c>
+      <c r="M11" t="s">
+        <v>82</v>
+      </c>
+      <c r="N11" t="s">
+        <v>80</v>
+      </c>
+      <c r="O11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="5:15">
+      <c r="E12" t="s">
+        <v>252</v>
+      </c>
+      <c r="F12" t="s">
+        <v>253</v>
+      </c>
+      <c r="G12" t="s">
         <v>241</v>
-      </c>
-      <c r="M10" t="s">
-        <v>78</v>
-      </c>
-      <c r="N10" t="s">
-        <v>78</v>
-      </c>
-      <c r="O10" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="E11" t="s">
-        <v>242</v>
-      </c>
-      <c r="F11" t="s">
-        <v>243</v>
-      </c>
-      <c r="G11" t="s">
-        <v>233</v>
-      </c>
-      <c r="H11" t="s">
-        <v>78</v>
-      </c>
-      <c r="I11" t="s">
-        <v>240</v>
-      </c>
-      <c r="M11" t="s">
-        <v>78</v>
-      </c>
-      <c r="N11" t="s">
-        <v>76</v>
-      </c>
-      <c r="O11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="E12" t="s">
-        <v>244</v>
-      </c>
-      <c r="F12" t="s">
-        <v>245</v>
-      </c>
-      <c r="G12" t="s">
-        <v>233</v>
       </c>
       <c r="H12">
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="J12" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="K12" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -5514,7 +6047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>50</v>
       </c>
@@ -5522,33 +6055,33 @@
         <v>51</v>
       </c>
       <c r="C14" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="I14" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="15" spans="5:9">
       <c r="E15" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="F15" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="G15" t="str">
         <f>菜单SAAS版!$E$12</f>
@@ -5559,15 +6092,15 @@
         <v>iam_label-11</v>
       </c>
       <c r="I15" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="16" spans="5:9">
       <c r="E16" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="F16" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="G16" t="str">
         <f>菜单SAAS版!$E$9</f>
@@ -5578,15 +6111,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I16" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
     </row>
     <row r="17" spans="5:9">
       <c r="E17" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="F17" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="G17" t="str">
         <f>菜单SAAS版!$E$10</f>
@@ -5597,15 +6130,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I17" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
     </row>
     <row r="18" spans="5:9">
       <c r="E18" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="F18" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="G18" t="str">
         <f>菜单SAAS版!$E$11</f>
@@ -5616,15 +6149,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I18" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
     </row>
     <row r="19" spans="5:9">
       <c r="E19" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="F19" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="G19" t="str">
         <f>菜单SAAS版!$E$13</f>
@@ -5635,15 +6168,15 @@
         <v>iam_label-11</v>
       </c>
       <c r="I19" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
     </row>
     <row r="20" spans="5:9">
       <c r="E20" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="F20" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="G20" t="str">
         <f>菜单SAAS版!E19</f>
@@ -5654,15 +6187,15 @@
         <v>iam_label-21</v>
       </c>
       <c r="I20" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
     </row>
     <row r="21" spans="5:9">
       <c r="E21" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="F21" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="G21" t="str">
         <f>菜单SAAS版!E15</f>
@@ -5673,29 +6206,51 @@
         <v>iam_label-21</v>
       </c>
       <c r="I21" t="s">
-        <v>255</v>
+        <v>263</v>
+      </c>
+    </row>
+    <row r="22" customFormat="1" spans="5:9">
+      <c r="E22" t="s">
+        <v>262</v>
+      </c>
+      <c r="F22" t="s">
+        <v>241</v>
+      </c>
+      <c r="G22" t="str">
+        <f>菜单SAAS版!E8</f>
+        <v>iam_menu-8</v>
+      </c>
+      <c r="H22" t="str">
+        <f>E8</f>
+        <v>iam_label-8</v>
+      </c>
+      <c r="I22" t="s">
+        <v>263</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="20" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:Y30"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
   <cols>
-    <col min="5" max="5" width="17.83203125" customWidth="1"/>
+    <col min="5" max="5" width="17.8333333333333" customWidth="1"/>
     <col min="6" max="6" width="22.5" customWidth="1"/>
-    <col min="7" max="7" width="39.33203125" customWidth="1"/>
+    <col min="7" max="7" width="39.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -5709,7 +6264,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="5:7">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -5728,10 +6283,10 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
@@ -5746,485 +6301,485 @@
         <v>55</v>
       </c>
       <c r="I7" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="J7" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>67</v>
       </c>
       <c r="L7" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="O7" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="P7" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="Q7" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="R7" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="S7" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="T7" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="U7" t="s">
         <v>68</v>
       </c>
       <c r="V7" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="W7" s="3" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="X7" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="Y7" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="8" spans="5:23">
       <c r="E8" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="F8" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="G8" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="H8" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="I8" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="J8" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="K8" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="L8" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="M8" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="N8" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="O8" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P8" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="Q8" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="R8" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="S8" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="T8" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="U8" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="V8" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="W8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="5:23">
       <c r="E9" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="F9" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="G9" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="H9" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="I9" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="J9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="K9" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="L9" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="M9" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="N9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="O9" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P9" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="Q9" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="R9" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="S9" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="T9" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="U9" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="V9" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="W9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="5:25">
       <c r="E10" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="F10" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="G10" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="H10" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="J10" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="K10" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="L10" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="M10" t="str">
         <f>角色!$E$9</f>
         <v>iam_role-9</v>
       </c>
       <c r="N10" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="O10" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P10" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="Q10" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="R10" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="S10" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="T10" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="U10" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="V10" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="W10" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="X10" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="Y10" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="11" spans="5:25">
       <c r="E11" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="F11" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="G11" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="H11" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="J11" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="K11" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="L11" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="M11" t="str">
         <f>角色!$E$9</f>
         <v>iam_role-9</v>
       </c>
       <c r="N11" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="O11" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P11" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="Q11" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="R11" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="S11" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="T11" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="U11" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="V11" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="W11" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="X11" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="Y11" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="12" spans="5:25">
       <c r="E12" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="F12" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="G12" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="H12" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="J12" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="K12" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="L12" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="M12" t="str">
         <f>角色!$E$9</f>
         <v>iam_role-9</v>
       </c>
       <c r="N12" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="O12" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P12" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="Q12" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="R12" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="S12" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="T12" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="U12" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="V12" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="W12" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="X12" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="Y12" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="13" spans="5:25">
       <c r="E13" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="F13" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="G13" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="H13" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="J13" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="K13" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="L13" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="M13" t="str">
         <f>角色!$E$9</f>
         <v>iam_role-9</v>
       </c>
       <c r="N13" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="O13" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P13" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="Q13" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="R13" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="S13" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="T13" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="U13" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="V13" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="W13" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="X13" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="Y13" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="14" spans="5:23">
       <c r="E14" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="F14" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="G14" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="H14" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="J14" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="K14" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="L14" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="M14" t="str">
         <f>角色!$E$8</f>
         <v>iam_role-8</v>
       </c>
       <c r="N14" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="O14" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P14" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="Q14" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="R14" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="S14" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="T14" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="U14" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="V14" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="W14" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -6232,33 +6787,33 @@
         <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="H16" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="I16" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
     </row>
     <row r="17" spans="5:10">
       <c r="E17" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="F17" t="str">
         <f>角色!$E$10</f>
@@ -6269,18 +6824,18 @@
         <v>iam_menu-10</v>
       </c>
       <c r="H17" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="I17" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="J17" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
     </row>
     <row r="18" spans="5:10">
       <c r="E18" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="F18" t="str">
         <f>角色!$E$10</f>
@@ -6291,18 +6846,18 @@
         <v>iam_menu-11</v>
       </c>
       <c r="H18" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="I18" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="J18" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
     </row>
     <row r="19" spans="5:10">
       <c r="E19" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="F19" t="str">
         <f>角色!$E$10</f>
@@ -6313,18 +6868,18 @@
         <v>iam_menu-17</v>
       </c>
       <c r="H19" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="I19" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="J19" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
     </row>
     <row r="20" spans="5:10">
       <c r="E20" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="F20" t="str">
         <f>角色!$E$10</f>
@@ -6335,18 +6890,18 @@
         <v>iam_menu-18</v>
       </c>
       <c r="H20" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="I20" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="J20" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
     </row>
     <row r="21" spans="5:10">
       <c r="E21" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="F21" t="str">
         <f>角色!$E$10</f>
@@ -6357,18 +6912,18 @@
         <v>iam_menu-19</v>
       </c>
       <c r="H21" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="I21" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="J21" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
     </row>
     <row r="22" spans="5:10">
       <c r="E22" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="F22" t="str">
         <f>角色!$E$10</f>
@@ -6379,18 +6934,18 @@
         <v>iam_menu-14</v>
       </c>
       <c r="H22" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="I22" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="J22" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
     </row>
     <row r="23" spans="5:10">
       <c r="E23" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="F23" t="str">
         <f>角色!$E$11</f>
@@ -6401,18 +6956,18 @@
         <v>iam_menu-14</v>
       </c>
       <c r="H23" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="I23" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="J23" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
     </row>
     <row r="24" spans="5:10">
       <c r="E24" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="F24" t="str">
         <f>角色!$E$12</f>
@@ -6423,18 +6978,18 @@
         <v>iam_menu-17</v>
       </c>
       <c r="H24" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="I24" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="J24" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
     </row>
     <row r="25" spans="5:10">
       <c r="E25" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="F25" t="str">
         <f>角色!$E$12</f>
@@ -6445,18 +7000,18 @@
         <v>iam_menu-19</v>
       </c>
       <c r="H25" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="I25" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="J25" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
     </row>
     <row r="26" spans="5:10">
       <c r="E26" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="F26" t="str">
         <f>角色!$E$12</f>
@@ -6467,18 +7022,18 @@
         <v>iam_menu-14</v>
       </c>
       <c r="H26" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="I26" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="J26" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
     </row>
     <row r="27" spans="5:10">
       <c r="E27" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="F27" t="str">
         <f>角色!$E$13</f>
@@ -6489,18 +7044,18 @@
         <v>iam_menu-17</v>
       </c>
       <c r="H27" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="I27" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="J27" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
     </row>
     <row r="28" spans="5:10">
       <c r="E28" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="F28" t="str">
         <f>角色!$E$13</f>
@@ -6511,18 +7066,18 @@
         <v>iam_menu-18</v>
       </c>
       <c r="H28" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="I28" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="J28" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
     </row>
     <row r="29" spans="5:10">
       <c r="E29" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="F29" t="str">
         <f>角色!$E$13</f>
@@ -6533,18 +7088,18 @@
         <v>iam_menu-19</v>
       </c>
       <c r="H29" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="I29" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="J29" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
     </row>
     <row r="30" spans="5:10">
       <c r="E30" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="F30" t="str">
         <f>角色!$E$13</f>
@@ -6555,36 +7110,38 @@
         <v>iam_menu-14</v>
       </c>
       <c r="H30" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="I30" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="J30" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="20" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D19" sqref="$A18:$XFD18 $A19:$XFD19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
   <cols>
     <col min="5" max="5" width="17.5" customWidth="1"/>
-    <col min="6" max="6" width="28.4140625" customWidth="1"/>
+    <col min="6" max="6" width="28.4166666666667" customWidth="1"/>
+    <col min="10" max="10" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -6598,7 +7155,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="5:7">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -6617,368 +7174,368 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="H7" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="I7" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="J7" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="K7" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="L7" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="M7" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="N7" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="O7" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="8" spans="5:15">
       <c r="E8" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="F8" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="G8" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="H8" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="I8" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="J8" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="K8" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="M8" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="N8" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="O8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="5:15">
       <c r="E9" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="F9" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="G9" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="H9" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="I9" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="J9" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="K9" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="M9" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="N9" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="O9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="5:15">
       <c r="E10" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="F10" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="G10" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="H10" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="I10" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="J10" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="K10" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="M10" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="N10" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="O10" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="5:15">
       <c r="E11" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="F11" t="s">
+        <v>360</v>
+      </c>
+      <c r="G11" t="s">
         <v>352</v>
       </c>
-      <c r="G11" t="s">
-        <v>342</v>
-      </c>
       <c r="H11" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="I11" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="J11" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="K11" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="M11" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="N11" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="O11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="5:15">
       <c r="E12" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="F12" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="G12" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="H12" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="I12" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="J12" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="K12" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="M12" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="N12" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="O12" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="5:15">
       <c r="E13" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="F13" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="G13" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="H13" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="I13" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="J13" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="K13" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="M13" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="N13" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="O13" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="5:15">
       <c r="E14" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="F14" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="G14" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="H14" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="I14" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="J14" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="K14" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="M14" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="N14" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="O14" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="5:15">
       <c r="E15" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="F15" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="G15" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="H15" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="I15" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="J15" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="K15" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="M15" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="N15" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="5:15">
       <c r="E16" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="F16" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="G16" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="H16" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="I16" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="J16" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="K16" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="M16" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="N16" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="O16" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="5:15">
       <c r="E17" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="F17" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="G17" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="H17" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="I17" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="J17" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="K17" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="M17" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="N17" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="O17" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="20" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/src/main/resources/script/db/init-data/hrds_code_repo/hzero_platform/hzero-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/hrds_code_repo/hzero_platform/hzero-menu-user-role-label.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\choerodon\code-repo-service\src\main\resources\script\db\init-data\hrds_code_repo\hzero_platform\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="597" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9420" tabRatio="597" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -20,7 +25,7 @@
     <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
     <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -32,6 +37,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">注意这个文档不能 </t>
@@ -50,6 +56,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>！！
@@ -62,6 +69,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">正式的数据从第二个 </t>
@@ -80,6 +88,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页开始</t>
@@ -98,6 +107,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">每页 从 </t>
@@ -116,6 +126,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格开始有效
@@ -147,6 +158,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>颜色示例</t>
@@ -165,6 +177,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非必须</t>
@@ -183,6 +196,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非强制</t>
@@ -204,6 +218,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>请给特殊单元格</t>
@@ -224,6 +239,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列名添加颜色</t>
@@ -244,6 +260,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>提高数据可读性</t>
@@ -264,6 +281,7 @@
         <sz val="12"/>
         <color rgb="FFC55A11"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动生成</t>
@@ -284,6 +302,7 @@
         <sz val="12"/>
         <color rgb="FF2E75B6"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>唯一性检查</t>
@@ -295,6 +314,7 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -313,6 +333,7 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -324,6 +345,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>理论上</t>
@@ -342,6 +364,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表的前后顺序</t>
@@ -360,6 +383,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页的顺序没有严格要求</t>
@@ -378,6 +402,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但请尽量按照先插 后引用的顺序排列</t>
@@ -396,6 +421,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>减少迭代次数</t>
@@ -443,6 +469,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -461,6 +488,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>该列的值自动生成</t>
@@ -479,6 +507,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当数据库存在等价记录时</t>
@@ -497,6 +526,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>这个值会被替换为数据库中已存在的值</t>
@@ -508,6 +538,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自增长</t>
@@ -526,6 +557,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>或序列</t>
@@ -544,6 +576,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>主键列</t>
@@ -563,6 +596,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当不作为外键引用时</t>
@@ -581,6 +615,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般写</t>
@@ -600,6 +635,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>作为外键时</t>
@@ -618,6 +654,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>写可读的值</t>
@@ -629,6 +666,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">目前 </t>
@@ -647,6 +685,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>是序列</t>
@@ -665,6 +704,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他自增涨</t>
@@ -688,6 +728,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -706,6 +747,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表中所有带有</t>
@@ -724,6 +766,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>的列组成一个唯一性校验</t>
@@ -742,6 +785,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>在执行插入之前</t>
@@ -760,6 +804,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会首先按照唯一键来检查数据库是否存在等价记录</t>
@@ -771,6 +816,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>可以有多列</t>
@@ -789,6 +835,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>仅支持</t>
@@ -799,6 +846,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>数字</t>
@@ -819,6 +867,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">字符串
@@ -829,6 +878,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当</t>
@@ -847,6 +897,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列涉及到公式时</t>
@@ -865,6 +916,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会先确定公式的值</t>
@@ -888,6 +940,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定这一列的类型</t>
@@ -906,6 +959,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>默认会自动检测</t>
@@ -925,6 +979,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为数字</t>
@@ -944,6 +999,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为日期</t>
@@ -963,6 +1019,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他默认为</t>
@@ -983,6 +1040,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般不需要指定</t>
@@ -1002,6 +1060,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>日期格式仅支持</t>
@@ -1036,6 +1095,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定语言环境</t>
@@ -1056,6 +1116,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表数据不需要专门写</t>
@@ -1067,6 +1128,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -1085,6 +1147,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -1105,6 +1168,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>用于引用外键</t>
@@ -1123,6 +1187,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>也可用于普通值
@@ -1135,6 +1200,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动增长列</t>
@@ -1153,6 +1219,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>如果被公式引用</t>
@@ -1171,6 +1238,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>最好写一个人可以读懂的值</t>
@@ -1189,6 +1257,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>增强公式可读性</t>
@@ -1203,6 +1272,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般用于引用自动生成的外键</t>
@@ -1221,6 +1291,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">所有公式均为 </t>
@@ -1239,6 +1310,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>支持的标准公式</t>
@@ -1257,6 +1329,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但不支持特别复杂的计算公式</t>
@@ -1275,6 +1348,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>比如范围计算</t>
@@ -1290,6 +1364,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1299,6 +1374,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1317,6 +1393,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1332,6 +1409,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1341,6 +1419,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1359,6 +1438,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1373,6 +1453,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1391,6 +1472,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1409,6 +1491,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1428,6 +1511,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1451,6 +1535,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1469,6 +1554,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1487,6 +1573,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1506,6 +1593,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1526,6 +1614,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1536,6 +1625,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1545,6 +1635,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1556,6 +1647,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>举例</t>
@@ -1574,6 +1666,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">当 </t>
@@ -1592,6 +1685,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格引用 </t>
@@ -1610,6 +1704,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">时
@@ -1629,6 +1724,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1647,6 +1743,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格时</t>
@@ -1665,6 +1762,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用的是 </t>
@@ -1684,6 +1782,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">将 </t>
@@ -1702,6 +1801,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1720,6 +1820,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>时</t>
@@ -1738,6 +1839,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">实际引用的是 </t>
@@ -1757,6 +1859,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>以上情况适用于拖拽填充</t>
@@ -1768,6 +1871,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1778,6 +1882,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1787,6 +1892,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1798,6 +1904,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>复制公式单元格时</t>
@@ -1816,6 +1923,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>保持公式不变</t>
@@ -1827,6 +1935,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对引用</t>
@@ -1845,6 +1954,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对引用各有用途</t>
@@ -1864,6 +1974,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>直接拖拽填充就可以避免大量重复工作</t>
@@ -2053,9 +2164,6 @@
     <t>choerodon.code.person.setting</t>
   </si>
   <si>
-    <t>个人信息</t>
-  </si>
-  <si>
     <t>iam_menu-13</t>
   </si>
   <si>
@@ -2888,19 +2996,17 @@
   </si>
   <si>
     <t>标识gitlab_developer</t>
+  </si>
+  <si>
+    <t>个人</t>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="39">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="24">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2911,25 +3017,25 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="53"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="48"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="42"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -2975,157 +3081,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="DengXian"/>
@@ -3154,12 +3109,14 @@
       <sz val="12"/>
       <color rgb="FFC55A11"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3168,8 +3125,43 @@
       <name val="DengXian"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF548235"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="37">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3206,188 +3198,8 @@
         <bgColor rgb="FFE7E6E6"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="18">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -3488,254 +3300,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3754,20 +3324,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3801,9 +3359,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3811,59 +3366,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
@@ -3936,6 +3460,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -4193,273 +3720,270 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="15.5833333333333" style="9" customWidth="1"/>
-    <col min="2" max="2" width="10.3333333333333" style="10" customWidth="1"/>
-    <col min="3" max="3" width="28.1666666666667" customWidth="1"/>
-    <col min="4" max="4" width="35.3333333333333" style="5" customWidth="1"/>
-    <col min="5" max="5" width="38.5833333333333" customWidth="1"/>
-    <col min="6" max="6" width="23.4166666666667" customWidth="1"/>
-    <col min="7" max="7" width="21.5833333333333" customWidth="1"/>
+    <col min="1" max="1" width="15.58203125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="28.1640625" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="38.58203125" customWidth="1"/>
+    <col min="6" max="6" width="23.4140625" customWidth="1"/>
+    <col min="7" max="7" width="21.58203125" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5833333333333" customWidth="1"/>
+    <col min="9" max="9" width="24.58203125" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.1666666666667" customWidth="1"/>
-    <col min="12" max="12" width="18.5833333333333" customWidth="1"/>
-    <col min="13" max="13" width="13.1666666666667" customWidth="1"/>
-    <col min="14" max="1025" width="10.3333333333333" customWidth="1"/>
+    <col min="11" max="11" width="19.1640625" customWidth="1"/>
+    <col min="12" max="12" width="18.58203125" customWidth="1"/>
+    <col min="13" max="13" width="13.1640625" customWidth="1"/>
+    <col min="14" max="1025" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="64.5" customHeight="1" spans="1:8">
+    <row r="1" spans="1:8" ht="64.5" customHeight="1">
       <c r="A1" s="11"/>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-    </row>
-    <row r="2" spans="5:5">
-      <c r="E2" s="14"/>
-    </row>
-    <row r="3" ht="49.5" customHeight="1" spans="3:7">
-      <c r="C3" s="15" t="s">
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="E2" s="13"/>
+    </row>
+    <row r="3" spans="1:8" ht="49.5" customHeight="1">
+      <c r="C3" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="16" t="s">
+      <c r="D3" s="35"/>
+      <c r="E3" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-    </row>
-    <row r="4" spans="3:7">
-      <c r="C4" s="17" t="s">
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="C4" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="18" t="s">
+      <c r="D4" s="37"/>
+      <c r="E4" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="16" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:8">
       <c r="A5" s="11"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="3:5">
-      <c r="C7" s="21" t="s">
+    <row r="7" spans="1:8">
+      <c r="C7" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="19" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="3:5">
-      <c r="C8" s="24" t="s">
+    <row r="8" spans="1:8">
+      <c r="C8" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="26"/>
-    </row>
-    <row r="9" ht="52.2" spans="3:6">
-      <c r="C9" s="27" t="s">
+      <c r="E8" s="22"/>
+    </row>
+    <row r="9" spans="1:8" ht="52.2">
+      <c r="C9" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="D9" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="29" t="s">
+      <c r="E9" s="25" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" ht="52.2" spans="3:5">
-      <c r="C10" s="30" t="s">
+    <row r="10" spans="1:8" ht="52.2">
+      <c r="C10" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="28" t="s">
+      <c r="D10" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="29" t="s">
+      <c r="E10" s="25" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" ht="69.6" spans="3:5">
-      <c r="C11" s="24" t="s">
+    <row r="11" spans="1:8" ht="69.599999999999994">
+      <c r="C11" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="28" t="s">
+      <c r="D11" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="29" t="s">
+      <c r="E11" s="25" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="3:5">
-      <c r="C12" s="24" t="s">
+    <row r="12" spans="1:8">
+      <c r="C12" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="28" t="s">
+      <c r="D12" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="31" t="s">
+      <c r="E12" s="27" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="3:5">
-      <c r="C13" s="24"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="26"/>
-    </row>
-    <row r="14" spans="3:5">
-      <c r="C14" s="24"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="26"/>
-    </row>
-    <row r="15" ht="34.8" spans="3:5">
-      <c r="C15" s="32" t="s">
+    <row r="13" spans="1:8">
+      <c r="C13" s="20"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="22"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="C14" s="20"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="22"/>
+    </row>
+    <row r="15" spans="1:8" ht="34.799999999999997">
+      <c r="C15" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="33" t="s">
+      <c r="D15" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="34" t="s">
+      <c r="E15" s="30" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="3:3">
+    <row r="18" spans="3:5">
       <c r="C18" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="35" t="s">
+      <c r="C19" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-    </row>
-    <row r="20" spans="3:4">
-      <c r="C20" s="36" t="s">
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+    </row>
+    <row r="20" spans="3:5">
+      <c r="C20" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="D20" s="13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="3:4">
-      <c r="C21" s="36" t="s">
+    <row r="21" spans="3:5">
+      <c r="C21" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="D21" s="13" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="3:4">
-      <c r="C22" s="36" t="s">
+    <row r="22" spans="3:5">
+      <c r="C22" s="31" t="s">
         <v>35</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="3:4">
-      <c r="C23" s="36" t="s">
+    <row r="23" spans="3:5">
+      <c r="C23" s="31" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="37" t="s">
+    <row r="25" spans="3:5" ht="69" customHeight="1">
+      <c r="C25" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="15" t="s">
+      <c r="D25" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="15"/>
-    </row>
-    <row r="26" ht="14.25" customHeight="1" spans="3:5">
-      <c r="C26" s="25" t="s">
+      <c r="E25" s="35"/>
+    </row>
+    <row r="26" spans="3:5" ht="14.25" customHeight="1">
+      <c r="C26" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="15" t="s">
+      <c r="D26" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="15"/>
-    </row>
-    <row r="27" ht="52.2" spans="3:3">
-      <c r="C27" s="38" t="s">
+      <c r="E26" s="35"/>
+    </row>
+    <row r="27" spans="3:5" ht="52.2">
+      <c r="C27" s="33" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C19:E19"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
   </mergeCells>
-  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
+  <phoneticPr fontId="23" type="noConversion"/>
+  <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.51041666666666696" footer="0.51041666666666696"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="5" max="5" width="16.6666666666667" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1"/>
     <col min="6" max="6" width="46.75" customWidth="1"/>
     <col min="7" max="7" width="15.25" customWidth="1"/>
     <col min="11" max="11" width="16.75" customWidth="1"/>
-    <col min="15" max="15" width="29.6666666666667" customWidth="1"/>
-    <col min="16" max="16" width="45.8333333333333" customWidth="1"/>
+    <col min="15" max="15" width="29.6640625" customWidth="1"/>
+    <col min="16" max="16" width="45.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -4473,7 +3997,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:25">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -4561,7 +4085,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="5:24">
+    <row r="8" spans="1:25">
       <c r="E8" s="7" t="s">
         <v>75</v>
       </c>
@@ -4611,7 +4135,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="5:24">
+    <row r="9" spans="1:25">
       <c r="E9" t="s">
         <v>84</v>
       </c>
@@ -4665,7 +4189,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="5:24">
+    <row r="10" spans="1:25">
       <c r="E10" t="s">
         <v>91</v>
       </c>
@@ -4716,7 +4240,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="5:24">
+    <row r="11" spans="1:25">
       <c r="E11" t="s">
         <v>98</v>
       </c>
@@ -4764,18 +4288,18 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="5:24">
+    <row r="12" spans="1:25">
       <c r="E12" t="s">
         <v>103</v>
       </c>
       <c r="F12" t="s">
         <v>104</v>
       </c>
-      <c r="G12" t="s">
-        <v>105</v>
-      </c>
-      <c r="H12" t="s">
-        <v>105</v>
+      <c r="G12" s="39" t="s">
+        <v>383</v>
+      </c>
+      <c r="H12" s="39" t="s">
+        <v>383</v>
       </c>
       <c r="J12" t="s">
         <v>79</v>
@@ -4811,18 +4335,18 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="5:24">
+    <row r="13" spans="1:25">
       <c r="E13" t="s">
+        <v>105</v>
+      </c>
+      <c r="F13" t="s">
         <v>106</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>107</v>
       </c>
-      <c r="G13" t="s">
-        <v>108</v>
-      </c>
       <c r="H13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J13" t="s">
         <v>79</v>
@@ -4835,25 +4359,25 @@
         <v>87</v>
       </c>
       <c r="M13" t="s">
+        <v>108</v>
+      </c>
+      <c r="N13" t="s">
+        <v>82</v>
+      </c>
+      <c r="O13" t="s">
         <v>109</v>
       </c>
-      <c r="N13" t="s">
-        <v>82</v>
-      </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>110</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
+        <v>80</v>
+      </c>
+      <c r="R13" t="s">
+        <v>80</v>
+      </c>
+      <c r="S13" t="s">
         <v>111</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>80</v>
-      </c>
-      <c r="R13" t="s">
-        <v>80</v>
-      </c>
-      <c r="S13" t="s">
-        <v>112</v>
       </c>
       <c r="T13" t="s">
         <v>80</v>
@@ -4865,12 +4389,12 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="5:24">
+    <row r="14" spans="1:25">
       <c r="E14" t="s">
+        <v>112</v>
+      </c>
+      <c r="F14" t="s">
         <v>113</v>
-      </c>
-      <c r="F14" t="s">
-        <v>114</v>
       </c>
       <c r="G14" t="s">
         <v>93</v>
@@ -4901,7 +4425,7 @@
         <v>80</v>
       </c>
       <c r="S14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T14" t="s">
         <v>80</v>
@@ -4916,12 +4440,12 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="5:24">
+    <row r="15" spans="1:25">
       <c r="E15" t="s">
+        <v>115</v>
+      </c>
+      <c r="F15" t="s">
         <v>116</v>
-      </c>
-      <c r="F15" t="s">
-        <v>117</v>
       </c>
       <c r="G15" t="s">
         <v>86</v>
@@ -4949,16 +4473,16 @@
         <v>88</v>
       </c>
       <c r="P15" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>80</v>
+      </c>
+      <c r="R15" t="s">
+        <v>80</v>
+      </c>
+      <c r="S15" t="s">
         <v>118</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>80</v>
-      </c>
-      <c r="R15" t="s">
-        <v>80</v>
-      </c>
-      <c r="S15" t="s">
-        <v>119</v>
       </c>
       <c r="T15" t="s">
         <v>80</v>
@@ -4970,12 +4494,12 @@
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="5:24">
+    <row r="16" spans="1:25">
       <c r="E16" t="s">
+        <v>119</v>
+      </c>
+      <c r="F16" t="s">
         <v>120</v>
-      </c>
-      <c r="F16" t="s">
-        <v>121</v>
       </c>
       <c r="G16" t="s">
         <v>93</v>
@@ -5006,7 +4530,7 @@
         <v>80</v>
       </c>
       <c r="S16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="T16" t="s">
         <v>80</v>
@@ -5023,16 +4547,16 @@
     </row>
     <row r="17" spans="5:24">
       <c r="E17" t="s">
+        <v>122</v>
+      </c>
+      <c r="F17" t="s">
         <v>123</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>124</v>
       </c>
-      <c r="G17" t="s">
-        <v>125</v>
-      </c>
       <c r="H17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J17" t="s">
         <v>79</v>
@@ -5057,7 +4581,7 @@
         <v>80</v>
       </c>
       <c r="S17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="T17" t="s">
         <v>80</v>
@@ -5071,16 +4595,16 @@
     </row>
     <row r="18" spans="5:24">
       <c r="E18" t="s">
+        <v>126</v>
+      </c>
+      <c r="F18" t="s">
         <v>127</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>128</v>
       </c>
-      <c r="G18" t="s">
-        <v>129</v>
-      </c>
       <c r="H18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J18" t="s">
         <v>79</v>
@@ -5105,7 +4629,7 @@
         <v>80</v>
       </c>
       <c r="S18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="T18" t="s">
         <v>80</v>
@@ -5119,19 +4643,19 @@
     </row>
     <row r="19" spans="5:24">
       <c r="E19" t="s">
+        <v>130</v>
+      </c>
+      <c r="F19" t="s">
         <v>131</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>132</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
+        <v>132</v>
+      </c>
+      <c r="I19" t="s">
         <v>133</v>
-      </c>
-      <c r="H19" t="s">
-        <v>133</v>
-      </c>
-      <c r="I19" t="s">
-        <v>134</v>
       </c>
       <c r="J19" t="s">
         <v>79</v>
@@ -5155,7 +4679,7 @@
         <v>80</v>
       </c>
       <c r="S19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="T19" t="s">
         <v>80</v>
@@ -5168,28 +4692,27 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="23" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G54"/>
   <sheetViews>
     <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="5" max="5" width="21.25" customWidth="1"/>
-    <col min="6" max="6" width="17.5833333333333" customWidth="1"/>
-    <col min="7" max="7" width="30.3333333333333" customWidth="1"/>
+    <col min="6" max="6" width="17.58203125" customWidth="1"/>
+    <col min="7" max="7" width="30.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -5203,7 +4726,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:7">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -5222,612 +4745,611 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>136</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="G7" s="3" t="s">
+    </row>
+    <row r="8" spans="1:7">
+      <c r="E8" t="s">
         <v>138</v>
-      </c>
-    </row>
-    <row r="8" spans="5:7">
-      <c r="E8" t="s">
-        <v>139</v>
       </c>
       <c r="F8" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G8" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="E9" t="s">
         <v>140</v>
-      </c>
-    </row>
-    <row r="9" spans="5:7">
-      <c r="E9" t="s">
-        <v>141</v>
       </c>
       <c r="F9" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G9" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="E10" t="s">
         <v>142</v>
-      </c>
-    </row>
-    <row r="10" spans="5:7">
-      <c r="E10" t="s">
-        <v>143</v>
       </c>
       <c r="F10" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G10" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="E11" t="s">
         <v>144</v>
-      </c>
-    </row>
-    <row r="11" spans="5:7">
-      <c r="E11" t="s">
-        <v>145</v>
       </c>
       <c r="F11" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="E12" t="s">
         <v>146</v>
-      </c>
-    </row>
-    <row r="12" spans="5:7">
-      <c r="E12" t="s">
-        <v>147</v>
       </c>
       <c r="F12" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G12" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="E13" t="s">
         <v>148</v>
-      </c>
-    </row>
-    <row r="13" spans="5:7">
-      <c r="E13" t="s">
-        <v>149</v>
       </c>
       <c r="F13" t="str">
         <f>菜单SAAS版!$E$17</f>
         <v>iam_menu-18</v>
       </c>
       <c r="G13" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="E14" t="s">
         <v>150</v>
-      </c>
-    </row>
-    <row r="14" spans="5:7">
-      <c r="E14" t="s">
-        <v>151</v>
       </c>
       <c r="F14" t="str">
         <f>菜单SAAS版!$E$17</f>
         <v>iam_menu-18</v>
       </c>
       <c r="G14" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="E15" t="s">
         <v>152</v>
-      </c>
-    </row>
-    <row r="15" spans="5:7">
-      <c r="E15" t="s">
-        <v>153</v>
       </c>
       <c r="F15" t="str">
         <f>菜单SAAS版!$E$17</f>
         <v>iam_menu-18</v>
       </c>
       <c r="G15" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="E16" t="s">
         <v>154</v>
-      </c>
-    </row>
-    <row r="16" spans="5:7">
-      <c r="E16" t="s">
-        <v>155</v>
       </c>
       <c r="F16" t="str">
         <f>菜单SAAS版!$E$17</f>
         <v>iam_menu-18</v>
       </c>
       <c r="G16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="17" spans="5:7">
       <c r="E17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F17" t="str">
         <f>菜单SAAS版!$E$17</f>
         <v>iam_menu-18</v>
       </c>
       <c r="G17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="18" spans="5:7">
       <c r="E18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F18" t="str">
         <f>菜单SAAS版!$E$17</f>
         <v>iam_menu-18</v>
       </c>
       <c r="G18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19" spans="5:7">
       <c r="E19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F19" t="str">
         <f>菜单SAAS版!$E$17</f>
         <v>iam_menu-18</v>
       </c>
       <c r="G19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="20" spans="5:7">
       <c r="E20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F20" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G20" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="21" spans="5:7">
       <c r="E21" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F21" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G21" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="22" spans="5:7">
       <c r="E22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F22" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23" spans="5:7">
       <c r="E23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F23" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="24" spans="5:7">
       <c r="E24" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F24" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G24" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="25" spans="5:7">
       <c r="E25" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F25" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G25" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="26" spans="5:7">
       <c r="E26" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F26" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G26" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="27" spans="5:7">
       <c r="E27" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F27" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G27" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="28" spans="5:7">
       <c r="E28" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F28" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G28" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="29" spans="5:7">
       <c r="E29" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F29" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G29" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="30" spans="5:7">
       <c r="E30" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F30" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G30" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="31" spans="5:7">
       <c r="E31" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F31" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G31" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="32" spans="5:7">
       <c r="E32" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F32" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G32" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="33" spans="5:7">
       <c r="E33" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F33" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G33" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="34" spans="5:7">
       <c r="E34" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F34" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G34" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="35" spans="5:7">
       <c r="E35" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F35" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G35" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="36" spans="5:7">
       <c r="E36" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F36" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G36" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="37" spans="5:7">
       <c r="E37" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F37" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G37" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="38" spans="5:7">
       <c r="E38" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F38" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G38" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="39" spans="5:7">
       <c r="E39" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F39" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G39" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="40" spans="5:7">
       <c r="E40" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F40" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G40" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="41" spans="5:7">
       <c r="E41" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F41" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G41" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="42" spans="5:7">
       <c r="E42" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F42" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G42" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="43" spans="5:7">
       <c r="E43" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F43" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G43" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="44" spans="5:7">
       <c r="E44" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F44" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G44" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="45" spans="5:7">
       <c r="E45" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F45" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G45" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="46" spans="5:7">
       <c r="E46" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F46" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G46" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="47" spans="5:7">
       <c r="E47" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F47" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G47" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="48" spans="5:7">
       <c r="E48" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F48" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G48" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="49" spans="5:7">
       <c r="E49" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F49" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G49" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="50" spans="5:7">
       <c r="E50" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F50" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G50" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="51" spans="5:7">
       <c r="E51" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F51" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G51" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="52" spans="5:7">
       <c r="E52" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F52" s="6" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="53" spans="5:7">
       <c r="E53" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F53" t="str">
         <f>菜单SAAS版!E18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G53" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="54" spans="5:7">
       <c r="E54" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F54" t="str">
         <f>菜单SAAS版!E18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G54" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="23" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
+    <sheetView topLeftCell="D4" workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="5" max="5" width="26.5833333333333" customWidth="1"/>
+    <col min="5" max="5" width="26.58203125" customWidth="1"/>
     <col min="6" max="6" width="25.5" customWidth="1"/>
-    <col min="7" max="7" width="17.4166666666667" customWidth="1"/>
-    <col min="8" max="8" width="21.9166666666667" customWidth="1"/>
-    <col min="11" max="11" width="19.0833333333333" customWidth="1"/>
+    <col min="7" max="7" width="17.4140625" customWidth="1"/>
+    <col min="8" max="8" width="21.9140625" customWidth="1"/>
+    <col min="11" max="11" width="19.08203125" customWidth="1"/>
     <col min="13" max="13" width="12.75" customWidth="1"/>
     <col min="14" max="14" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -5841,7 +5363,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:15">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -5860,182 +5382,182 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
+        <v>226</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>227</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>228</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="H7" t="s">
         <v>230</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>231</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>232</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>233</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>234</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>235</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>236</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>237</v>
       </c>
-      <c r="O7" t="s">
+    </row>
+    <row r="8" spans="1:15">
+      <c r="E8" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="8" spans="5:15">
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>239</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>240</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
+        <v>82</v>
+      </c>
+      <c r="I8" t="s">
         <v>241</v>
       </c>
-      <c r="H8" t="s">
-        <v>82</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>242</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
+        <v>239</v>
+      </c>
+      <c r="M8" t="s">
+        <v>82</v>
+      </c>
+      <c r="N8" t="s">
+        <v>82</v>
+      </c>
+      <c r="O8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="E9" t="s">
         <v>243</v>
       </c>
-      <c r="K8" t="s">
+      <c r="F9" t="s">
+        <v>244</v>
+      </c>
+      <c r="G9" t="s">
         <v>240</v>
       </c>
-      <c r="M8" t="s">
-        <v>82</v>
-      </c>
-      <c r="N8" t="s">
-        <v>82</v>
-      </c>
-      <c r="O8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="9" spans="5:15">
-      <c r="E9" t="s">
-        <v>244</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="H9" t="s">
+        <v>82</v>
+      </c>
+      <c r="I9" t="s">
+        <v>241</v>
+      </c>
+      <c r="M9" t="s">
+        <v>80</v>
+      </c>
+      <c r="N9" t="s">
+        <v>80</v>
+      </c>
+      <c r="O9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="E10" t="s">
         <v>245</v>
       </c>
-      <c r="G9" t="s">
-        <v>241</v>
-      </c>
-      <c r="H9" t="s">
-        <v>82</v>
-      </c>
-      <c r="I9" t="s">
-        <v>242</v>
-      </c>
-      <c r="M9" t="s">
-        <v>80</v>
-      </c>
-      <c r="N9" t="s">
-        <v>80</v>
-      </c>
-      <c r="O9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="10" spans="5:15">
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>246</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
+        <v>240</v>
+      </c>
+      <c r="H10" t="s">
+        <v>82</v>
+      </c>
+      <c r="I10" t="s">
         <v>247</v>
       </c>
-      <c r="G10" t="s">
-        <v>241</v>
-      </c>
-      <c r="H10" t="s">
-        <v>82</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>248</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
+        <v>248</v>
+      </c>
+      <c r="M10" t="s">
+        <v>82</v>
+      </c>
+      <c r="N10" t="s">
+        <v>82</v>
+      </c>
+      <c r="O10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="E11" t="s">
         <v>249</v>
       </c>
-      <c r="K10" t="s">
-        <v>249</v>
-      </c>
-      <c r="M10" t="s">
-        <v>82</v>
-      </c>
-      <c r="N10" t="s">
-        <v>82</v>
-      </c>
-      <c r="O10" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="11" spans="5:15">
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>250</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
+        <v>240</v>
+      </c>
+      <c r="H11" t="s">
+        <v>82</v>
+      </c>
+      <c r="I11" t="s">
+        <v>247</v>
+      </c>
+      <c r="M11" t="s">
+        <v>82</v>
+      </c>
+      <c r="N11" t="s">
+        <v>80</v>
+      </c>
+      <c r="O11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="E12" t="s">
         <v>251</v>
       </c>
-      <c r="G11" t="s">
-        <v>241</v>
-      </c>
-      <c r="H11" t="s">
-        <v>82</v>
-      </c>
-      <c r="I11" t="s">
-        <v>248</v>
-      </c>
-      <c r="M11" t="s">
-        <v>82</v>
-      </c>
-      <c r="N11" t="s">
-        <v>80</v>
-      </c>
-      <c r="O11" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="12" spans="5:15">
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>252</v>
       </c>
-      <c r="F12" t="s">
-        <v>253</v>
-      </c>
       <c r="G12" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H12">
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -6047,7 +5569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:15">
       <c r="A14" t="s">
         <v>50</v>
       </c>
@@ -6055,33 +5577,33 @@
         <v>51</v>
       </c>
       <c r="C14" t="s">
+        <v>254</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="F14" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="H14" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="I14" t="s">
         <v>260</v>
       </c>
-      <c r="I14" t="s">
+    </row>
+    <row r="15" spans="1:15">
+      <c r="E15" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="15" spans="5:9">
-      <c r="E15" t="s">
-        <v>262</v>
-      </c>
       <c r="F15" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G15" t="str">
         <f>菜单SAAS版!$E$12</f>
@@ -6092,15 +5614,15 @@
         <v>iam_label-11</v>
       </c>
       <c r="I15" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="16" spans="5:9">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="E16" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G16" t="str">
         <f>菜单SAAS版!$E$9</f>
@@ -6111,15 +5633,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I16" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="17" spans="5:9">
       <c r="E17" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F17" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G17" t="str">
         <f>菜单SAAS版!$E$10</f>
@@ -6130,15 +5652,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I17" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="18" spans="5:9">
       <c r="E18" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F18" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G18" t="str">
         <f>菜单SAAS版!$E$11</f>
@@ -6149,15 +5671,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I18" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="19" spans="5:9">
       <c r="E19" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F19" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G19" t="str">
         <f>菜单SAAS版!$E$13</f>
@@ -6168,15 +5690,15 @@
         <v>iam_label-11</v>
       </c>
       <c r="I19" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="20" spans="5:9">
       <c r="E20" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F20" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G20" t="str">
         <f>菜单SAAS版!E19</f>
@@ -6187,15 +5709,15 @@
         <v>iam_label-21</v>
       </c>
       <c r="I20" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="21" spans="5:9">
       <c r="E21" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F21" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G21" t="str">
         <f>菜单SAAS版!E15</f>
@@ -6206,15 +5728,15 @@
         <v>iam_label-21</v>
       </c>
       <c r="I21" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="22" customFormat="1" spans="5:9">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="22" spans="5:9">
       <c r="E22" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G22" t="str">
         <f>菜单SAAS版!E8</f>
@@ -6225,32 +5747,29 @@
         <v>iam_label-8</v>
       </c>
       <c r="I22" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="23" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y30"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView topLeftCell="A10" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="5" max="5" width="17.8333333333333" customWidth="1"/>
+    <col min="5" max="5" width="17.83203125" customWidth="1"/>
     <col min="6" max="6" width="22.5" customWidth="1"/>
-    <col min="7" max="7" width="39.3333333333333" customWidth="1"/>
+    <col min="7" max="7" width="39.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -6264,7 +5783,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:25">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -6283,10 +5802,10 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
+        <v>264</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>265</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>266</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
@@ -6301,75 +5820,75 @@
         <v>55</v>
       </c>
       <c r="I7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="J7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>67</v>
       </c>
       <c r="L7" t="s">
+        <v>267</v>
+      </c>
+      <c r="M7" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="M7" s="3" t="s">
+      <c r="N7" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="N7" s="3" t="s">
+      <c r="O7" t="s">
         <v>270</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>271</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>272</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>273</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>274</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>275</v>
-      </c>
-      <c r="T7" t="s">
-        <v>276</v>
       </c>
       <c r="U7" t="s">
         <v>68</v>
       </c>
       <c r="V7" t="s">
+        <v>276</v>
+      </c>
+      <c r="W7" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="W7" s="3" t="s">
+      <c r="X7" t="s">
         <v>278</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>279</v>
       </c>
-      <c r="Y7" t="s">
+    </row>
+    <row r="8" spans="1:25">
+      <c r="E8" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="8" spans="5:23">
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>281</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>282</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>283</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>284</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>285</v>
-      </c>
-      <c r="J8" t="s">
-        <v>286</v>
       </c>
       <c r="K8" t="s">
         <v>80</v>
@@ -6402,30 +5921,30 @@
         <v>80</v>
       </c>
       <c r="U8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="V8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="W8" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="5:23">
+    <row r="9" spans="1:25">
       <c r="E9" t="s">
+        <v>286</v>
+      </c>
+      <c r="F9" t="s">
         <v>287</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>288</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>289</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>290</v>
-      </c>
-      <c r="I9" t="s">
-        <v>291</v>
       </c>
       <c r="J9" t="s">
         <v>79</v>
@@ -6461,27 +5980,27 @@
         <v>80</v>
       </c>
       <c r="U9" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="V9" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="W9" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="5:25">
+    <row r="10" spans="1:25">
       <c r="E10" t="s">
+        <v>291</v>
+      </c>
+      <c r="F10" t="s">
         <v>292</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>293</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>294</v>
-      </c>
-      <c r="H10" t="s">
-        <v>295</v>
       </c>
       <c r="J10" t="s">
         <v>79</v>
@@ -6518,10 +6037,10 @@
         <v>80</v>
       </c>
       <c r="U10" t="s">
+        <v>295</v>
+      </c>
+      <c r="V10" t="s">
         <v>296</v>
-      </c>
-      <c r="V10" t="s">
-        <v>297</v>
       </c>
       <c r="W10" t="s">
         <v>80</v>
@@ -6530,21 +6049,21 @@
         <v>100</v>
       </c>
       <c r="Y10" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25">
+      <c r="E11" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="11" spans="5:25">
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>299</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>300</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>301</v>
-      </c>
-      <c r="H11" t="s">
-        <v>302</v>
       </c>
       <c r="J11" t="s">
         <v>79</v>
@@ -6581,33 +6100,33 @@
         <v>80</v>
       </c>
       <c r="U11" t="s">
+        <v>302</v>
+      </c>
+      <c r="V11" t="s">
         <v>303</v>
       </c>
-      <c r="V11" t="s">
+      <c r="W11" t="s">
+        <v>80</v>
+      </c>
+      <c r="X11" t="s">
         <v>304</v>
       </c>
-      <c r="W11" t="s">
-        <v>80</v>
-      </c>
-      <c r="X11" t="s">
+      <c r="Y11" t="s">
         <v>305</v>
       </c>
-      <c r="Y11" t="s">
+    </row>
+    <row r="12" spans="1:25">
+      <c r="E12" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="12" spans="5:25">
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>307</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>308</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>309</v>
-      </c>
-      <c r="H12" t="s">
-        <v>310</v>
       </c>
       <c r="J12" t="s">
         <v>79</v>
@@ -6644,33 +6163,33 @@
         <v>80</v>
       </c>
       <c r="U12" t="s">
+        <v>310</v>
+      </c>
+      <c r="V12" t="s">
         <v>311</v>
       </c>
-      <c r="V12" t="s">
+      <c r="W12" t="s">
+        <v>80</v>
+      </c>
+      <c r="X12" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y12" t="s">
         <v>312</v>
       </c>
-      <c r="W12" t="s">
-        <v>80</v>
-      </c>
-      <c r="X12" t="s">
-        <v>129</v>
-      </c>
-      <c r="Y12" t="s">
+    </row>
+    <row r="13" spans="1:25">
+      <c r="E13" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="13" spans="5:25">
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>314</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>315</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>316</v>
-      </c>
-      <c r="H13" t="s">
-        <v>317</v>
       </c>
       <c r="J13" t="s">
         <v>79</v>
@@ -6707,36 +6226,36 @@
         <v>80</v>
       </c>
       <c r="U13" t="s">
+        <v>317</v>
+      </c>
+      <c r="V13" t="s">
         <v>318</v>
       </c>
-      <c r="V13" t="s">
+      <c r="W13" t="s">
+        <v>80</v>
+      </c>
+      <c r="X13" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y13" t="s">
         <v>319</v>
       </c>
-      <c r="W13" t="s">
-        <v>80</v>
-      </c>
-      <c r="X13" t="s">
-        <v>125</v>
-      </c>
-      <c r="Y13" t="s">
+    </row>
+    <row r="14" spans="1:25">
+      <c r="E14" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="14" spans="5:23">
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>321</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
+        <v>321</v>
+      </c>
+      <c r="H14" t="s">
         <v>322</v>
       </c>
-      <c r="G14" t="s">
-        <v>322</v>
-      </c>
-      <c r="H14" t="s">
-        <v>323</v>
-      </c>
       <c r="J14" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="K14" t="s">
         <v>80</v>
@@ -6770,16 +6289,16 @@
         <v>80</v>
       </c>
       <c r="U14" t="s">
+        <v>323</v>
+      </c>
+      <c r="V14" t="s">
         <v>324</v>
       </c>
-      <c r="V14" t="s">
-        <v>325</v>
-      </c>
       <c r="W14" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:25">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -6787,33 +6306,33 @@
         <v>51</v>
       </c>
       <c r="C16" t="s">
+        <v>325</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>326</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>327</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F16" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="G16" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="H16" t="s">
         <v>329</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>330</v>
       </c>
-      <c r="I16" t="s">
-        <v>331</v>
-      </c>
       <c r="J16" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="17" spans="5:10">
       <c r="E17" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F17" t="str">
         <f>角色!$E$10</f>
@@ -6824,18 +6343,18 @@
         <v>iam_menu-10</v>
       </c>
       <c r="H17" t="s">
+        <v>332</v>
+      </c>
+      <c r="I17" t="s">
         <v>333</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>334</v>
-      </c>
-      <c r="J17" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="18" spans="5:10">
       <c r="E18" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F18" t="str">
         <f>角色!$E$10</f>
@@ -6846,18 +6365,18 @@
         <v>iam_menu-11</v>
       </c>
       <c r="H18" t="s">
+        <v>332</v>
+      </c>
+      <c r="I18" t="s">
         <v>333</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>334</v>
-      </c>
-      <c r="J18" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="19" spans="5:10">
       <c r="E19" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F19" t="str">
         <f>角色!$E$10</f>
@@ -6868,18 +6387,18 @@
         <v>iam_menu-17</v>
       </c>
       <c r="H19" t="s">
+        <v>332</v>
+      </c>
+      <c r="I19" t="s">
         <v>333</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>334</v>
-      </c>
-      <c r="J19" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="20" spans="5:10">
       <c r="E20" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F20" t="str">
         <f>角色!$E$10</f>
@@ -6890,18 +6409,18 @@
         <v>iam_menu-18</v>
       </c>
       <c r="H20" t="s">
+        <v>332</v>
+      </c>
+      <c r="I20" t="s">
         <v>333</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>334</v>
-      </c>
-      <c r="J20" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="21" spans="5:10">
       <c r="E21" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F21" t="str">
         <f>角色!$E$10</f>
@@ -6912,18 +6431,18 @@
         <v>iam_menu-19</v>
       </c>
       <c r="H21" t="s">
+        <v>332</v>
+      </c>
+      <c r="I21" t="s">
         <v>333</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>334</v>
-      </c>
-      <c r="J21" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="22" spans="5:10">
       <c r="E22" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F22" t="str">
         <f>角色!$E$10</f>
@@ -6934,18 +6453,18 @@
         <v>iam_menu-14</v>
       </c>
       <c r="H22" t="s">
+        <v>332</v>
+      </c>
+      <c r="I22" t="s">
         <v>333</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>334</v>
-      </c>
-      <c r="J22" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="23" spans="5:10">
       <c r="E23" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F23" t="str">
         <f>角色!$E$11</f>
@@ -6956,18 +6475,18 @@
         <v>iam_menu-14</v>
       </c>
       <c r="H23" t="s">
+        <v>332</v>
+      </c>
+      <c r="I23" t="s">
         <v>333</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>334</v>
-      </c>
-      <c r="J23" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="24" spans="5:10">
       <c r="E24" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F24" t="str">
         <f>角色!$E$12</f>
@@ -6978,18 +6497,18 @@
         <v>iam_menu-17</v>
       </c>
       <c r="H24" t="s">
+        <v>332</v>
+      </c>
+      <c r="I24" t="s">
         <v>333</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>334</v>
-      </c>
-      <c r="J24" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="25" spans="5:10">
       <c r="E25" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F25" t="str">
         <f>角色!$E$12</f>
@@ -7000,18 +6519,18 @@
         <v>iam_menu-19</v>
       </c>
       <c r="H25" t="s">
+        <v>332</v>
+      </c>
+      <c r="I25" t="s">
         <v>333</v>
       </c>
-      <c r="I25" t="s">
+      <c r="J25" t="s">
         <v>334</v>
-      </c>
-      <c r="J25" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="26" spans="5:10">
       <c r="E26" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F26" t="str">
         <f>角色!$E$12</f>
@@ -7022,18 +6541,18 @@
         <v>iam_menu-14</v>
       </c>
       <c r="H26" t="s">
+        <v>332</v>
+      </c>
+      <c r="I26" t="s">
         <v>333</v>
       </c>
-      <c r="I26" t="s">
+      <c r="J26" t="s">
         <v>334</v>
-      </c>
-      <c r="J26" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="27" spans="5:10">
       <c r="E27" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F27" t="str">
         <f>角色!$E$13</f>
@@ -7044,18 +6563,18 @@
         <v>iam_menu-17</v>
       </c>
       <c r="H27" t="s">
+        <v>332</v>
+      </c>
+      <c r="I27" t="s">
         <v>333</v>
       </c>
-      <c r="I27" t="s">
+      <c r="J27" t="s">
         <v>334</v>
-      </c>
-      <c r="J27" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="28" spans="5:10">
       <c r="E28" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F28" t="str">
         <f>角色!$E$13</f>
@@ -7066,18 +6585,18 @@
         <v>iam_menu-18</v>
       </c>
       <c r="H28" t="s">
+        <v>332</v>
+      </c>
+      <c r="I28" t="s">
         <v>333</v>
       </c>
-      <c r="I28" t="s">
+      <c r="J28" t="s">
         <v>334</v>
-      </c>
-      <c r="J28" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="29" spans="5:10">
       <c r="E29" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F29" t="str">
         <f>角色!$E$13</f>
@@ -7088,18 +6607,18 @@
         <v>iam_menu-19</v>
       </c>
       <c r="H29" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I29" t="s">
+        <v>333</v>
+      </c>
+      <c r="J29" t="s">
         <v>334</v>
-      </c>
-      <c r="J29" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="30" spans="5:10">
       <c r="E30" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F30" t="str">
         <f>角色!$E$13</f>
@@ -7110,38 +6629,37 @@
         <v>iam_menu-14</v>
       </c>
       <c r="H30" t="s">
+        <v>332</v>
+      </c>
+      <c r="I30" t="s">
         <v>333</v>
       </c>
-      <c r="I30" t="s">
+      <c r="J30" t="s">
         <v>334</v>
       </c>
-      <c r="J30" t="s">
-        <v>335</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="23" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D19" sqref="$A18:$XFD18 $A19:$XFD19"/>
+      <selection activeCell="D19" sqref="A18:XFD18 A19:XFD19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="5" max="5" width="17.5" customWidth="1"/>
-    <col min="6" max="6" width="28.4166666666667" customWidth="1"/>
+    <col min="6" max="6" width="28.4140625" customWidth="1"/>
     <col min="10" max="10" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -7155,7 +6673,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:15">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -7174,98 +6692,98 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
+        <v>226</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>227</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>228</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="H7" t="s">
         <v>230</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>231</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>232</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>233</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>234</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>235</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>236</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>237</v>
       </c>
-      <c r="O7" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="8" spans="5:15">
+    </row>
+    <row r="8" spans="1:15">
       <c r="E8" t="s">
+        <v>349</v>
+      </c>
+      <c r="F8" t="s">
         <v>350</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>351</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
+        <v>82</v>
+      </c>
+      <c r="I8" t="s">
+        <v>241</v>
+      </c>
+      <c r="J8" t="s">
         <v>352</v>
       </c>
-      <c r="H8" t="s">
-        <v>82</v>
-      </c>
-      <c r="I8" t="s">
-        <v>242</v>
-      </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
+        <v>352</v>
+      </c>
+      <c r="M8" t="s">
+        <v>80</v>
+      </c>
+      <c r="N8" t="s">
+        <v>82</v>
+      </c>
+      <c r="O8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="E9" t="s">
+        <v>243</v>
+      </c>
+      <c r="F9" t="s">
         <v>353</v>
       </c>
-      <c r="K8" t="s">
-        <v>353</v>
-      </c>
-      <c r="M8" t="s">
-        <v>80</v>
-      </c>
-      <c r="N8" t="s">
-        <v>82</v>
-      </c>
-      <c r="O8" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="5:15">
-      <c r="E9" t="s">
-        <v>244</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
+        <v>351</v>
+      </c>
+      <c r="H9" t="s">
+        <v>82</v>
+      </c>
+      <c r="I9" t="s">
+        <v>241</v>
+      </c>
+      <c r="J9" t="s">
         <v>354</v>
       </c>
-      <c r="G9" t="s">
-        <v>352</v>
-      </c>
-      <c r="H9" t="s">
-        <v>82</v>
-      </c>
-      <c r="I9" t="s">
-        <v>242</v>
-      </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>355</v>
-      </c>
-      <c r="K9" t="s">
-        <v>356</v>
       </c>
       <c r="M9" t="s">
         <v>80</v>
@@ -7277,59 +6795,59 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="5:15">
+    <row r="10" spans="1:15">
       <c r="E10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F10" t="s">
+        <v>356</v>
+      </c>
+      <c r="G10" t="s">
+        <v>351</v>
+      </c>
+      <c r="H10" t="s">
+        <v>82</v>
+      </c>
+      <c r="I10" t="s">
+        <v>241</v>
+      </c>
+      <c r="J10" t="s">
         <v>357</v>
       </c>
-      <c r="G10" t="s">
-        <v>352</v>
-      </c>
-      <c r="H10" t="s">
-        <v>82</v>
-      </c>
-      <c r="I10" t="s">
-        <v>242</v>
-      </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
+        <v>357</v>
+      </c>
+      <c r="M10" t="s">
+        <v>80</v>
+      </c>
+      <c r="N10" t="s">
+        <v>82</v>
+      </c>
+      <c r="O10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="E11" t="s">
         <v>358</v>
       </c>
-      <c r="K10" t="s">
-        <v>358</v>
-      </c>
-      <c r="M10" t="s">
-        <v>80</v>
-      </c>
-      <c r="N10" t="s">
-        <v>82</v>
-      </c>
-      <c r="O10" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="5:15">
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>359</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
+        <v>351</v>
+      </c>
+      <c r="H11" t="s">
+        <v>82</v>
+      </c>
+      <c r="I11" t="s">
+        <v>241</v>
+      </c>
+      <c r="J11" t="s">
         <v>360</v>
       </c>
-      <c r="G11" t="s">
-        <v>352</v>
-      </c>
-      <c r="H11" t="s">
-        <v>82</v>
-      </c>
-      <c r="I11" t="s">
-        <v>242</v>
-      </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>361</v>
-      </c>
-      <c r="K11" t="s">
-        <v>362</v>
       </c>
       <c r="M11" t="s">
         <v>80</v>
@@ -7341,123 +6859,123 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="5:15">
+    <row r="12" spans="1:15">
       <c r="E12" t="s">
+        <v>362</v>
+      </c>
+      <c r="F12" t="s">
         <v>363</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
+        <v>351</v>
+      </c>
+      <c r="H12" t="s">
+        <v>82</v>
+      </c>
+      <c r="I12" t="s">
+        <v>241</v>
+      </c>
+      <c r="J12" t="s">
         <v>364</v>
       </c>
-      <c r="G12" t="s">
-        <v>352</v>
-      </c>
-      <c r="H12" t="s">
-        <v>82</v>
-      </c>
-      <c r="I12" t="s">
-        <v>242</v>
-      </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
+        <v>312</v>
+      </c>
+      <c r="M12" t="s">
+        <v>80</v>
+      </c>
+      <c r="N12" t="s">
+        <v>82</v>
+      </c>
+      <c r="O12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="E13" t="s">
         <v>365</v>
       </c>
-      <c r="K12" t="s">
-        <v>313</v>
-      </c>
-      <c r="M12" t="s">
-        <v>80</v>
-      </c>
-      <c r="N12" t="s">
-        <v>82</v>
-      </c>
-      <c r="O12" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="13" spans="5:15">
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>366</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
+        <v>351</v>
+      </c>
+      <c r="H13" t="s">
+        <v>82</v>
+      </c>
+      <c r="I13" t="s">
+        <v>241</v>
+      </c>
+      <c r="J13" t="s">
         <v>367</v>
       </c>
-      <c r="G13" t="s">
-        <v>352</v>
-      </c>
-      <c r="H13" t="s">
-        <v>82</v>
-      </c>
-      <c r="I13" t="s">
-        <v>242</v>
-      </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>368</v>
       </c>
-      <c r="K13" t="s">
+      <c r="M13" t="s">
+        <v>80</v>
+      </c>
+      <c r="N13" t="s">
+        <v>82</v>
+      </c>
+      <c r="O13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="E14" t="s">
         <v>369</v>
       </c>
-      <c r="M13" t="s">
-        <v>80</v>
-      </c>
-      <c r="N13" t="s">
-        <v>82</v>
-      </c>
-      <c r="O13" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" spans="5:15">
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>370</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
+        <v>351</v>
+      </c>
+      <c r="H14" t="s">
+        <v>82</v>
+      </c>
+      <c r="I14" t="s">
+        <v>241</v>
+      </c>
+      <c r="J14" t="s">
         <v>371</v>
       </c>
-      <c r="G14" t="s">
-        <v>352</v>
-      </c>
-      <c r="H14" t="s">
-        <v>82</v>
-      </c>
-      <c r="I14" t="s">
-        <v>242</v>
-      </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>372</v>
       </c>
-      <c r="K14" t="s">
+      <c r="M14" t="s">
+        <v>80</v>
+      </c>
+      <c r="N14" t="s">
+        <v>82</v>
+      </c>
+      <c r="O14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="E15" t="s">
         <v>373</v>
       </c>
-      <c r="M14" t="s">
-        <v>80</v>
-      </c>
-      <c r="N14" t="s">
-        <v>82</v>
-      </c>
-      <c r="O14" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="15" spans="5:15">
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>374</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
+        <v>351</v>
+      </c>
+      <c r="H15" t="s">
+        <v>82</v>
+      </c>
+      <c r="I15" t="s">
+        <v>241</v>
+      </c>
+      <c r="J15" t="s">
         <v>375</v>
       </c>
-      <c r="G15" t="s">
-        <v>352</v>
-      </c>
-      <c r="H15" t="s">
-        <v>82</v>
-      </c>
-      <c r="I15" t="s">
-        <v>242</v>
-      </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>376</v>
-      </c>
-      <c r="K15" t="s">
-        <v>377</v>
       </c>
       <c r="M15" t="s">
         <v>80</v>
@@ -7469,27 +6987,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="5:15">
+    <row r="16" spans="1:15">
       <c r="E16" t="s">
+        <v>377</v>
+      </c>
+      <c r="F16" t="s">
         <v>378</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
+        <v>351</v>
+      </c>
+      <c r="H16" t="s">
+        <v>82</v>
+      </c>
+      <c r="I16" t="s">
+        <v>241</v>
+      </c>
+      <c r="J16" t="s">
         <v>379</v>
       </c>
-      <c r="G16" t="s">
-        <v>352</v>
-      </c>
-      <c r="H16" t="s">
-        <v>82</v>
-      </c>
-      <c r="I16" t="s">
-        <v>242</v>
-      </c>
-      <c r="J16" t="s">
-        <v>380</v>
-      </c>
       <c r="K16" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="M16" t="s">
         <v>80</v>
@@ -7503,25 +7021,25 @@
     </row>
     <row r="17" spans="5:15">
       <c r="E17" t="s">
+        <v>380</v>
+      </c>
+      <c r="F17" t="s">
         <v>381</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
+        <v>351</v>
+      </c>
+      <c r="H17" t="s">
+        <v>82</v>
+      </c>
+      <c r="I17" t="s">
+        <v>241</v>
+      </c>
+      <c r="J17" t="s">
         <v>382</v>
       </c>
-      <c r="G17" t="s">
-        <v>352</v>
-      </c>
-      <c r="H17" t="s">
-        <v>82</v>
-      </c>
-      <c r="I17" t="s">
-        <v>242</v>
-      </c>
-      <c r="J17" t="s">
-        <v>383</v>
-      </c>
       <c r="K17" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="M17" t="s">
         <v>80</v>
@@ -7534,8 +7052,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <phoneticPr fontId="23" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/script/db/init-data/hrds_code_repo/hzero_platform/hzero-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/hrds_code_repo/hzero_platform/hzero-menu-user-role-label.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\choerodon\code-repo-service\src\main\resources\script\db\init-data\hrds_code_repo\hzero_platform\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9420" tabRatio="597" activeTab="1"/>
+    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="597" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -25,19 +20,18 @@
     <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
     <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="388">
   <si>
     <r>
       <rPr>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">注意这个文档不能 </t>
@@ -56,7 +50,6 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>！！
@@ -69,7 +62,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">正式的数据从第二个 </t>
@@ -88,7 +80,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页开始</t>
@@ -107,7 +98,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">每页 从 </t>
@@ -126,7 +116,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格开始有效
@@ -158,7 +147,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>颜色示例</t>
@@ -177,7 +165,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非必须</t>
@@ -196,7 +183,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非强制</t>
@@ -218,7 +204,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>请给特殊单元格</t>
@@ -239,7 +224,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列名添加颜色</t>
@@ -260,7 +244,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>提高数据可读性</t>
@@ -281,7 +264,6 @@
         <sz val="12"/>
         <color rgb="FFC55A11"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动生成</t>
@@ -302,7 +284,6 @@
         <sz val="12"/>
         <color rgb="FF2E75B6"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>唯一性检查</t>
@@ -314,7 +295,6 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -333,7 +313,6 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -345,7 +324,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>理论上</t>
@@ -364,7 +342,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表的前后顺序</t>
@@ -383,7 +360,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页的顺序没有严格要求</t>
@@ -402,7 +378,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但请尽量按照先插 后引用的顺序排列</t>
@@ -421,7 +396,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>减少迭代次数</t>
@@ -469,7 +443,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -488,7 +461,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>该列的值自动生成</t>
@@ -507,7 +479,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当数据库存在等价记录时</t>
@@ -526,7 +497,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>这个值会被替换为数据库中已存在的值</t>
@@ -538,7 +508,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自增长</t>
@@ -557,7 +526,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>或序列</t>
@@ -576,7 +544,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>主键列</t>
@@ -596,7 +563,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当不作为外键引用时</t>
@@ -615,7 +581,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般写</t>
@@ -635,7 +600,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>作为外键时</t>
@@ -654,7 +618,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>写可读的值</t>
@@ -666,7 +629,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">目前 </t>
@@ -685,7 +647,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>是序列</t>
@@ -704,7 +665,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他自增涨</t>
@@ -728,7 +688,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -747,7 +706,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表中所有带有</t>
@@ -766,7 +724,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>的列组成一个唯一性校验</t>
@@ -785,7 +742,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>在执行插入之前</t>
@@ -804,7 +760,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会首先按照唯一键来检查数据库是否存在等价记录</t>
@@ -816,7 +771,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>可以有多列</t>
@@ -835,7 +789,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>仅支持</t>
@@ -846,7 +799,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>数字</t>
@@ -867,7 +819,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">字符串
@@ -878,7 +829,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当</t>
@@ -897,7 +847,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列涉及到公式时</t>
@@ -916,7 +865,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会先确定公式的值</t>
@@ -940,7 +888,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定这一列的类型</t>
@@ -959,7 +906,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>默认会自动检测</t>
@@ -979,7 +925,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为数字</t>
@@ -999,7 +944,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为日期</t>
@@ -1019,7 +963,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他默认为</t>
@@ -1040,7 +983,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般不需要指定</t>
@@ -1060,7 +1002,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>日期格式仅支持</t>
@@ -1095,7 +1036,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定语言环境</t>
@@ -1116,7 +1056,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表数据不需要专门写</t>
@@ -1128,7 +1067,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -1147,7 +1085,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -1168,7 +1105,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>用于引用外键</t>
@@ -1187,7 +1123,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>也可用于普通值
@@ -1200,7 +1135,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动增长列</t>
@@ -1219,7 +1153,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>如果被公式引用</t>
@@ -1238,7 +1171,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>最好写一个人可以读懂的值</t>
@@ -1257,7 +1189,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>增强公式可读性</t>
@@ -1272,7 +1203,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般用于引用自动生成的外键</t>
@@ -1291,7 +1221,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">所有公式均为 </t>
@@ -1310,7 +1239,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>支持的标准公式</t>
@@ -1329,7 +1257,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但不支持特别复杂的计算公式</t>
@@ -1348,7 +1275,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>比如范围计算</t>
@@ -1364,7 +1290,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1374,7 +1299,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1393,7 +1317,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1409,7 +1332,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1419,7 +1341,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1438,7 +1359,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1453,7 +1373,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1472,7 +1391,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1491,7 +1409,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1511,7 +1428,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1535,7 +1451,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1554,7 +1469,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1573,7 +1487,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1593,7 +1506,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1614,7 +1526,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1625,7 +1536,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1635,7 +1545,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1647,7 +1556,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>举例</t>
@@ -1666,7 +1574,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">当 </t>
@@ -1685,7 +1592,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格引用 </t>
@@ -1704,7 +1610,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">时
@@ -1724,7 +1629,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1743,7 +1647,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格时</t>
@@ -1762,7 +1665,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用的是 </t>
@@ -1782,7 +1684,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">将 </t>
@@ -1801,7 +1702,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1820,7 +1720,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>时</t>
@@ -1839,7 +1738,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">实际引用的是 </t>
@@ -1859,7 +1757,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>以上情况适用于拖拽填充</t>
@@ -1871,7 +1768,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1882,7 +1778,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1892,7 +1787,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1904,7 +1798,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>复制公式单元格时</t>
@@ -1923,7 +1816,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>保持公式不变</t>
@@ -1935,7 +1827,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对引用</t>
@@ -1954,7 +1845,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对引用各有用途</t>
@@ -1974,7 +1864,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>直接拖拽填充就可以避免大量重复工作</t>
@@ -2164,6 +2053,9 @@
     <t>choerodon.code.person.setting</t>
   </si>
   <si>
+    <t>个人</t>
+  </si>
+  <si>
     <t>iam_menu-13</t>
   </si>
   <si>
@@ -2527,6 +2419,18 @@
     <t>code-repo-service.project.listNonProjectMembers</t>
   </si>
   <si>
+    <t>iam_menu_permission-55</t>
+  </si>
+  <si>
+    <t>code-repo-service.rdm-member-applicant-proj.batchPassAndHandleMember</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-56</t>
+  </si>
+  <si>
+    <t>code-repo-service.rdm-member-applicant-proj.batchRefuse</t>
+  </si>
+  <si>
     <t>标签表</t>
   </si>
   <si>
@@ -2996,17 +2900,19 @@
   </si>
   <si>
     <t>标识gitlab_developer</t>
-  </si>
-  <si>
-    <t>个人</t>
-    <phoneticPr fontId="23" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="43">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -3017,25 +2923,31 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="53"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="48"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="42"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="8"/>
@@ -3081,6 +2993,163 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="DengXian"/>
@@ -3102,6 +3171,13 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="DengXian"/>
       <charset val="134"/>
     </font>
@@ -3109,14 +3185,18 @@
       <sz val="12"/>
       <color rgb="FFC55A11"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF548235"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3125,43 +3205,8 @@
       <name val="DengXian"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF548235"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="7">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3198,8 +3243,194 @@
         <bgColor rgb="FFE7E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -3300,10 +3531,252 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="37" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3317,6 +3790,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3324,32 +3798,44 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3359,35 +3845,69 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
@@ -3460,9 +3980,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3720,270 +4237,273 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.58203125" style="9" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" style="10" customWidth="1"/>
-    <col min="3" max="3" width="28.1640625" customWidth="1"/>
-    <col min="4" max="4" width="35.33203125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="38.58203125" customWidth="1"/>
-    <col min="6" max="6" width="23.4140625" customWidth="1"/>
-    <col min="7" max="7" width="21.58203125" customWidth="1"/>
+    <col min="1" max="1" width="15.5833333333333" style="10" customWidth="1"/>
+    <col min="2" max="2" width="10.3333333333333" style="11" customWidth="1"/>
+    <col min="3" max="3" width="28.1666666666667" customWidth="1"/>
+    <col min="4" max="4" width="35.3333333333333" style="5" customWidth="1"/>
+    <col min="5" max="5" width="38.5833333333333" customWidth="1"/>
+    <col min="6" max="6" width="23.4166666666667" customWidth="1"/>
+    <col min="7" max="7" width="21.5833333333333" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.58203125" customWidth="1"/>
+    <col min="9" max="9" width="24.5833333333333" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.1640625" customWidth="1"/>
-    <col min="12" max="12" width="18.58203125" customWidth="1"/>
-    <col min="13" max="13" width="13.1640625" customWidth="1"/>
-    <col min="14" max="1025" width="10.33203125" customWidth="1"/>
+    <col min="11" max="11" width="19.1666666666667" customWidth="1"/>
+    <col min="12" max="12" width="18.5833333333333" customWidth="1"/>
+    <col min="13" max="13" width="13.1666666666667" customWidth="1"/>
+    <col min="14" max="1025" width="10.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="64.5" customHeight="1">
-      <c r="A1" s="11"/>
-      <c r="C1" s="34" t="s">
+    <row r="1" ht="64.5" customHeight="1" spans="1:8">
+      <c r="A1" s="12"/>
+      <c r="C1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="E2" s="13"/>
-    </row>
-    <row r="3" spans="1:8" ht="49.5" customHeight="1">
-      <c r="C3" s="35" t="s">
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+    </row>
+    <row r="2" spans="5:5">
+      <c r="E2" s="15"/>
+    </row>
+    <row r="3" ht="49.5" customHeight="1" spans="3:7">
+      <c r="C3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="36" t="s">
+      <c r="D3" s="16"/>
+      <c r="E3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="C4" s="37" t="s">
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+    </row>
+    <row r="4" spans="3:7">
+      <c r="C4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="37"/>
-      <c r="E4" s="14" t="s">
+      <c r="D4" s="18"/>
+      <c r="E4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="21" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="11"/>
+    <row r="5" spans="1:3">
+      <c r="A5" s="12"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
-      <c r="C7" s="17" t="s">
+    <row r="7" spans="3:5">
+      <c r="C7" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="24" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
-      <c r="C8" s="20" t="s">
+    <row r="8" spans="3:5">
+      <c r="C8" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="22"/>
-    </row>
-    <row r="9" spans="1:8" ht="52.2">
-      <c r="C9" s="23" t="s">
+      <c r="E8" s="27"/>
+    </row>
+    <row r="9" ht="52.2" spans="3:6">
+      <c r="C9" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="25" t="s">
+      <c r="E9" s="30" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="52.2">
-      <c r="C10" s="26" t="s">
+    <row r="10" ht="52.2" spans="3:5">
+      <c r="C10" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="25" t="s">
+      <c r="E10" s="30" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="69.599999999999994">
-      <c r="C11" s="20" t="s">
+    <row r="11" ht="69.6" spans="3:5">
+      <c r="C11" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="25" t="s">
+      <c r="E11" s="30" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
-      <c r="C12" s="20" t="s">
+    <row r="12" spans="3:5">
+      <c r="C12" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="24" t="s">
+      <c r="D12" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="27" t="s">
+      <c r="E12" s="32" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
-      <c r="C13" s="20"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="22"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="C14" s="20"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="22"/>
-    </row>
-    <row r="15" spans="1:8" ht="34.799999999999997">
-      <c r="C15" s="28" t="s">
+    <row r="13" spans="3:5">
+      <c r="C13" s="25"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="27"/>
+    </row>
+    <row r="14" spans="3:5">
+      <c r="C14" s="25"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="27"/>
+    </row>
+    <row r="15" ht="34.8" spans="3:5">
+      <c r="C15" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="29" t="s">
+      <c r="D15" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="30" t="s">
+      <c r="E15" s="35" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="3:5">
+    <row r="18" spans="3:3">
       <c r="C18" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="38" t="s">
+      <c r="C19" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-    </row>
-    <row r="20" spans="3:5">
-      <c r="C20" s="31" t="s">
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+    </row>
+    <row r="20" spans="3:4">
+      <c r="C20" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="15" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="3:5">
-      <c r="C21" s="31" t="s">
+    <row r="21" spans="3:4">
+      <c r="C21" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="15" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="3:5">
-      <c r="C22" s="31" t="s">
+    <row r="22" spans="3:4">
+      <c r="C22" s="37" t="s">
         <v>35</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="3:5">
-      <c r="C23" s="31" t="s">
+    <row r="23" spans="3:4">
+      <c r="C23" s="37" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="3:5" ht="69" customHeight="1">
-      <c r="C25" s="32" t="s">
+    <row r="25" ht="69" customHeight="1" spans="3:5">
+      <c r="C25" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="35" t="s">
+      <c r="D25" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="35"/>
-    </row>
-    <row r="26" spans="3:5" ht="14.25" customHeight="1">
-      <c r="C26" s="21" t="s">
+      <c r="E25" s="16"/>
+    </row>
+    <row r="26" ht="14.25" customHeight="1" spans="3:5">
+      <c r="C26" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="35" t="s">
+      <c r="D26" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="35"/>
-    </row>
-    <row r="27" spans="3:5" ht="52.2">
-      <c r="C27" s="33" t="s">
+      <c r="E26" s="16"/>
+    </row>
+    <row r="27" ht="52.2" spans="3:3">
+      <c r="C27" s="39" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C19:E19"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
   </mergeCells>
-  <phoneticPr fontId="23" type="noConversion"/>
-  <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.51041666666666696" footer="0.51041666666666696"/>
+  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:Y19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
   <cols>
-    <col min="5" max="5" width="16.6640625" customWidth="1"/>
-    <col min="6" max="6" width="46.75" customWidth="1"/>
+    <col min="5" max="5" width="16.6666666666667" customWidth="1"/>
+    <col min="6" max="6" width="54.75" customWidth="1"/>
     <col min="7" max="7" width="15.25" customWidth="1"/>
     <col min="11" max="11" width="16.75" customWidth="1"/>
-    <col min="15" max="15" width="29.6640625" customWidth="1"/>
-    <col min="16" max="16" width="45.83203125" customWidth="1"/>
+    <col min="15" max="15" width="29.6666666666667" customWidth="1"/>
+    <col min="16" max="16" width="45.8333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -3997,7 +4517,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="5:7">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -4085,7 +4605,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="5:24">
       <c r="E8" s="7" t="s">
         <v>75</v>
       </c>
@@ -4135,7 +4655,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="5:24">
       <c r="E9" t="s">
         <v>84</v>
       </c>
@@ -4189,7 +4709,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="5:24">
       <c r="E10" t="s">
         <v>91</v>
       </c>
@@ -4240,7 +4760,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11" spans="5:24">
       <c r="E11" t="s">
         <v>98</v>
       </c>
@@ -4288,18 +4808,18 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="1:25">
+    <row r="12" spans="5:24">
       <c r="E12" t="s">
         <v>103</v>
       </c>
       <c r="F12" t="s">
         <v>104</v>
       </c>
-      <c r="G12" s="39" t="s">
-        <v>383</v>
-      </c>
-      <c r="H12" s="39" t="s">
-        <v>383</v>
+      <c r="G12" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>105</v>
       </c>
       <c r="J12" t="s">
         <v>79</v>
@@ -4335,18 +4855,18 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:25">
+    <row r="13" spans="5:24">
       <c r="E13" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F13" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G13" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H13" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J13" t="s">
         <v>79</v>
@@ -4359,16 +4879,16 @@
         <v>87</v>
       </c>
       <c r="M13" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N13" t="s">
         <v>82</v>
       </c>
       <c r="O13" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P13" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q13" t="s">
         <v>80</v>
@@ -4377,7 +4897,7 @@
         <v>80</v>
       </c>
       <c r="S13" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="T13" t="s">
         <v>80</v>
@@ -4389,12 +4909,12 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="1:25">
+    <row r="14" spans="5:24">
       <c r="E14" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F14" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G14" t="s">
         <v>93</v>
@@ -4425,7 +4945,7 @@
         <v>80</v>
       </c>
       <c r="S14" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="T14" t="s">
         <v>80</v>
@@ -4440,12 +4960,12 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="5:24">
       <c r="E15" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F15" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G15" t="s">
         <v>86</v>
@@ -4473,7 +4993,7 @@
         <v>88</v>
       </c>
       <c r="P15" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q15" t="s">
         <v>80</v>
@@ -4482,7 +5002,7 @@
         <v>80</v>
       </c>
       <c r="S15" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="T15" t="s">
         <v>80</v>
@@ -4494,12 +5014,12 @@
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="1:25">
+    <row r="16" spans="5:24">
       <c r="E16" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F16" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G16" t="s">
         <v>93</v>
@@ -4530,7 +5050,7 @@
         <v>80</v>
       </c>
       <c r="S16" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="T16" t="s">
         <v>80</v>
@@ -4547,16 +5067,16 @@
     </row>
     <row r="17" spans="5:24">
       <c r="E17" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F17" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G17" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H17" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="J17" t="s">
         <v>79</v>
@@ -4581,7 +5101,7 @@
         <v>80</v>
       </c>
       <c r="S17" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="T17" t="s">
         <v>80</v>
@@ -4595,16 +5115,16 @@
     </row>
     <row r="18" spans="5:24">
       <c r="E18" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F18" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G18" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H18" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="J18" t="s">
         <v>79</v>
@@ -4629,7 +5149,7 @@
         <v>80</v>
       </c>
       <c r="S18" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="T18" t="s">
         <v>80</v>
@@ -4643,19 +5163,19 @@
     </row>
     <row r="19" spans="5:24">
       <c r="E19" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F19" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G19" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H19" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I19" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="J19" t="s">
         <v>79</v>
@@ -4666,7 +5186,7 @@
       <c r="L19" t="s">
         <v>81</v>
       </c>
-      <c r="M19" s="8">
+      <c r="M19" s="9">
         <v>20</v>
       </c>
       <c r="N19" t="s">
@@ -4679,7 +5199,7 @@
         <v>80</v>
       </c>
       <c r="S19" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="T19" t="s">
         <v>80</v>
@@ -4692,27 +5212,28 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="23" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G54"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G56"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B39" workbookViewId="0">
       <selection activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="6"/>
   <cols>
     <col min="5" max="5" width="21.25" customWidth="1"/>
-    <col min="6" max="6" width="17.58203125" customWidth="1"/>
-    <col min="7" max="7" width="30.33203125" customWidth="1"/>
+    <col min="6" max="6" width="17.5833333333333" customWidth="1"/>
+    <col min="7" max="7" width="58.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -4726,7 +5247,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="5:7">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -4745,611 +5266,636 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" spans="5:7">
       <c r="E8" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F8" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9" spans="5:7">
       <c r="E9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F9" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G9" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="10" spans="5:7">
       <c r="E10" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F10" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G10" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="11" spans="5:7">
       <c r="E11" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F11" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G11" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="12" spans="5:7">
       <c r="E12" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F12" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G12" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="13" spans="5:7">
       <c r="E13" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F13" t="str">
         <f>菜单SAAS版!$E$17</f>
         <v>iam_menu-18</v>
       </c>
       <c r="G13" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="5:7">
       <c r="E14" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F14" t="str">
         <f>菜单SAAS版!$E$17</f>
         <v>iam_menu-18</v>
       </c>
       <c r="G14" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="15" spans="5:7">
       <c r="E15" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F15" t="str">
         <f>菜单SAAS版!$E$17</f>
         <v>iam_menu-18</v>
       </c>
       <c r="G15" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="16" spans="5:7">
       <c r="E16" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F16" t="str">
         <f>菜单SAAS版!$E$17</f>
         <v>iam_menu-18</v>
       </c>
       <c r="G16" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="5:7">
       <c r="E17" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F17" t="str">
         <f>菜单SAAS版!$E$17</f>
         <v>iam_menu-18</v>
       </c>
       <c r="G17" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="18" spans="5:7">
       <c r="E18" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F18" t="str">
         <f>菜单SAAS版!$E$17</f>
         <v>iam_menu-18</v>
       </c>
       <c r="G18" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19" spans="5:7">
       <c r="E19" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F19" t="str">
         <f>菜单SAAS版!$E$17</f>
         <v>iam_menu-18</v>
       </c>
       <c r="G19" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="20" spans="5:7">
       <c r="E20" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F20" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G20" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="5:7">
       <c r="E21" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F21" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G21" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22" spans="5:7">
       <c r="E22" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F22" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G22" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="23" spans="5:7">
       <c r="E23" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F23" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G23" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="24" spans="5:7">
       <c r="E24" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F24" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G24" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="25" spans="5:7">
       <c r="E25" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F25" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G25" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="26" spans="5:7">
       <c r="E26" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F26" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G26" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="27" spans="5:7">
       <c r="E27" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F27" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G27" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="28" spans="5:7">
       <c r="E28" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F28" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G28" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="29" spans="5:7">
       <c r="E29" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F29" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G29" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="30" spans="5:7">
       <c r="E30" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F30" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G30" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="31" spans="5:7">
       <c r="E31" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F31" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G31" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="32" spans="5:7">
       <c r="E32" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F32" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G32" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="33" spans="5:7">
       <c r="E33" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F33" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G33" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="34" spans="5:7">
       <c r="E34" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F34" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G34" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="35" spans="5:7">
       <c r="E35" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F35" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G35" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="36" spans="5:7">
       <c r="E36" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F36" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G36" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="37" spans="5:7">
       <c r="E37" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F37" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G37" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="38" spans="5:7">
       <c r="E38" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F38" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G38" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="39" spans="5:7">
       <c r="E39" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F39" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G39" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="40" spans="5:7">
       <c r="E40" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F40" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G40" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="41" spans="5:7">
       <c r="E41" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F41" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G41" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="42" spans="5:7">
       <c r="E42" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F42" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G42" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="43" spans="5:7">
       <c r="E43" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F43" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G43" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="44" spans="5:7">
       <c r="E44" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F44" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G44" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="45" spans="5:7">
       <c r="E45" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F45" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G45" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="46" spans="5:7">
       <c r="E46" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F46" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G46" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="47" spans="5:7">
       <c r="E47" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F47" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G47" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="48" spans="5:7">
       <c r="E48" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F48" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G48" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="49" spans="5:7">
       <c r="E49" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F49" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G49" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="50" spans="5:7">
       <c r="E50" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F50" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G50" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="51" spans="5:7">
       <c r="E51" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F51" t="str">
         <f>菜单SAAS版!$E$18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G51" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="52" spans="5:7">
       <c r="E52" s="6" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F52" s="6" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="53" spans="5:7">
       <c r="E53" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F53" t="str">
         <f>菜单SAAS版!E18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G53" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="54" spans="5:7">
       <c r="E54" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F54" t="str">
         <f>菜单SAAS版!E18</f>
         <v>iam_menu-19</v>
       </c>
       <c r="G54" t="s">
-        <v>225</v>
+        <v>226</v>
+      </c>
+    </row>
+    <row r="55" spans="5:7">
+      <c r="E55" t="s">
+        <v>227</v>
+      </c>
+      <c r="F55" t="str">
+        <f>菜单SAAS版!E18</f>
+        <v>iam_menu-19</v>
+      </c>
+      <c r="G55" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="56" spans="5:7">
+      <c r="E56" t="s">
+        <v>229</v>
+      </c>
+      <c r="F56" t="str">
+        <f>菜单SAAS版!E18</f>
+        <v>iam_menu-19</v>
+      </c>
+      <c r="G56" t="s">
+        <v>230</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="23" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView topLeftCell="D4" workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
   <cols>
-    <col min="5" max="5" width="26.58203125" customWidth="1"/>
+    <col min="5" max="5" width="26.5833333333333" customWidth="1"/>
     <col min="6" max="6" width="25.5" customWidth="1"/>
-    <col min="7" max="7" width="17.4140625" customWidth="1"/>
-    <col min="8" max="8" width="21.9140625" customWidth="1"/>
-    <col min="11" max="11" width="19.08203125" customWidth="1"/>
+    <col min="7" max="7" width="17.4166666666667" customWidth="1"/>
+    <col min="8" max="8" width="21.9166666666667" customWidth="1"/>
+    <col min="11" max="11" width="19.0833333333333" customWidth="1"/>
     <col min="13" max="13" width="12.75" customWidth="1"/>
     <col min="14" max="14" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -5363,7 +5909,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="5:7">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -5382,66 +5928,66 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="H7" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="I7" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="J7" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="K7" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="L7" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="M7" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="N7" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="O7" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="8" spans="5:15">
       <c r="E8" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="F8" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="G8" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="H8" t="s">
         <v>82</v>
       </c>
       <c r="I8" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="J8" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="K8" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="M8" t="s">
         <v>82</v>
@@ -5453,21 +5999,21 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="5:15">
       <c r="E9" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="F9" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="G9" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="H9" t="s">
         <v>82</v>
       </c>
       <c r="I9" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="M9" t="s">
         <v>80</v>
@@ -5479,27 +6025,27 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="5:15">
       <c r="E10" t="s">
+        <v>250</v>
+      </c>
+      <c r="F10" t="s">
+        <v>251</v>
+      </c>
+      <c r="G10" t="s">
         <v>245</v>
       </c>
-      <c r="F10" t="s">
-        <v>246</v>
-      </c>
-      <c r="G10" t="s">
-        <v>240</v>
-      </c>
       <c r="H10" t="s">
         <v>82</v>
       </c>
       <c r="I10" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="J10" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="K10" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="M10" t="s">
         <v>82</v>
@@ -5511,21 +6057,21 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="5:15">
       <c r="E11" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="F11" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="G11" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="H11" t="s">
         <v>82</v>
       </c>
       <c r="I11" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="M11" t="s">
         <v>82</v>
@@ -5537,27 +6083,27 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="5:15">
       <c r="E12" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="F12" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="G12" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="H12">
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="J12" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="K12" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -5569,7 +6115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>50</v>
       </c>
@@ -5577,33 +6123,33 @@
         <v>51</v>
       </c>
       <c r="C14" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="I14" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="15" spans="5:9">
       <c r="E15" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="F15" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="G15" t="str">
         <f>菜单SAAS版!$E$12</f>
@@ -5614,15 +6160,15 @@
         <v>iam_label-11</v>
       </c>
       <c r="I15" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="16" spans="5:9">
       <c r="E16" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="F16" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="G16" t="str">
         <f>菜单SAAS版!$E$9</f>
@@ -5633,15 +6179,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I16" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
     </row>
     <row r="17" spans="5:9">
       <c r="E17" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="F17" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="G17" t="str">
         <f>菜单SAAS版!$E$10</f>
@@ -5652,15 +6198,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I17" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
     </row>
     <row r="18" spans="5:9">
       <c r="E18" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="F18" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="G18" t="str">
         <f>菜单SAAS版!$E$11</f>
@@ -5671,15 +6217,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I18" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
     </row>
     <row r="19" spans="5:9">
       <c r="E19" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="F19" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="G19" t="str">
         <f>菜单SAAS版!$E$13</f>
@@ -5690,15 +6236,15 @@
         <v>iam_label-11</v>
       </c>
       <c r="I19" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
     </row>
     <row r="20" spans="5:9">
       <c r="E20" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="F20" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="G20" t="str">
         <f>菜单SAAS版!E19</f>
@@ -5709,15 +6255,15 @@
         <v>iam_label-21</v>
       </c>
       <c r="I20" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
     </row>
     <row r="21" spans="5:9">
       <c r="E21" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="F21" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="G21" t="str">
         <f>菜单SAAS版!E15</f>
@@ -5728,15 +6274,15 @@
         <v>iam_label-21</v>
       </c>
       <c r="I21" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
     </row>
     <row r="22" spans="5:9">
       <c r="E22" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="F22" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="G22" t="str">
         <f>菜单SAAS版!E8</f>
@@ -5747,29 +6293,32 @@
         <v>iam_label-8</v>
       </c>
       <c r="I22" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="23" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:Y30"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
   <cols>
-    <col min="5" max="5" width="17.83203125" customWidth="1"/>
+    <col min="5" max="5" width="17.8333333333333" customWidth="1"/>
     <col min="6" max="6" width="22.5" customWidth="1"/>
-    <col min="7" max="7" width="39.33203125" customWidth="1"/>
+    <col min="7" max="7" width="39.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -5783,7 +6332,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="5:7">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -5802,10 +6351,10 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
@@ -5820,75 +6369,75 @@
         <v>55</v>
       </c>
       <c r="I7" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="J7" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>67</v>
       </c>
       <c r="L7" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="O7" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="P7" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="Q7" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="R7" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="S7" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="T7" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="U7" t="s">
         <v>68</v>
       </c>
       <c r="V7" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="W7" s="3" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="X7" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="Y7" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="8" spans="5:23">
       <c r="E8" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="F8" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="G8" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="H8" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="I8" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="J8" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="K8" t="s">
         <v>80</v>
@@ -5921,30 +6470,30 @@
         <v>80</v>
       </c>
       <c r="U8" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="V8" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="W8" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="5:23">
       <c r="E9" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="F9" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="G9" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="H9" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="I9" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="J9" t="s">
         <v>79</v>
@@ -5980,27 +6529,27 @@
         <v>80</v>
       </c>
       <c r="U9" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="V9" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="W9" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="5:25">
       <c r="E10" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="F10" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="G10" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="H10" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="J10" t="s">
         <v>79</v>
@@ -6037,10 +6586,10 @@
         <v>80</v>
       </c>
       <c r="U10" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="V10" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="W10" t="s">
         <v>80</v>
@@ -6049,21 +6598,21 @@
         <v>100</v>
       </c>
       <c r="Y10" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="11" spans="5:25">
       <c r="E11" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="F11" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="G11" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="H11" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="J11" t="s">
         <v>79</v>
@@ -6100,33 +6649,33 @@
         <v>80</v>
       </c>
       <c r="U11" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="V11" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="W11" t="s">
         <v>80</v>
       </c>
       <c r="X11" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="Y11" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="12" spans="5:25">
       <c r="E12" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="F12" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="G12" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="H12" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="J12" t="s">
         <v>79</v>
@@ -6163,33 +6712,33 @@
         <v>80</v>
       </c>
       <c r="U12" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="V12" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="W12" t="s">
         <v>80</v>
       </c>
       <c r="X12" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Y12" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="13" spans="5:25">
       <c r="E13" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="F13" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="G13" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="H13" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="J13" t="s">
         <v>79</v>
@@ -6226,36 +6775,36 @@
         <v>80</v>
       </c>
       <c r="U13" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="V13" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="W13" t="s">
         <v>80</v>
       </c>
       <c r="X13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Y13" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="14" spans="5:23">
       <c r="E14" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="F14" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="G14" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="H14" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="J14" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="K14" t="s">
         <v>80</v>
@@ -6289,16 +6838,16 @@
         <v>80</v>
       </c>
       <c r="U14" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="V14" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="W14" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:25">
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -6306,33 +6855,33 @@
         <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="H16" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="I16" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
     </row>
     <row r="17" spans="5:10">
       <c r="E17" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="F17" t="str">
         <f>角色!$E$10</f>
@@ -6343,18 +6892,18 @@
         <v>iam_menu-10</v>
       </c>
       <c r="H17" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="I17" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="J17" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
     </row>
     <row r="18" spans="5:10">
       <c r="E18" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="F18" t="str">
         <f>角色!$E$10</f>
@@ -6365,18 +6914,18 @@
         <v>iam_menu-11</v>
       </c>
       <c r="H18" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="I18" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="J18" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
     </row>
     <row r="19" spans="5:10">
       <c r="E19" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="F19" t="str">
         <f>角色!$E$10</f>
@@ -6387,18 +6936,18 @@
         <v>iam_menu-17</v>
       </c>
       <c r="H19" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="I19" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="J19" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
     </row>
     <row r="20" spans="5:10">
       <c r="E20" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="F20" t="str">
         <f>角色!$E$10</f>
@@ -6409,18 +6958,18 @@
         <v>iam_menu-18</v>
       </c>
       <c r="H20" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="I20" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="J20" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
     </row>
     <row r="21" spans="5:10">
       <c r="E21" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="F21" t="str">
         <f>角色!$E$10</f>
@@ -6431,18 +6980,18 @@
         <v>iam_menu-19</v>
       </c>
       <c r="H21" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="I21" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="J21" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
     </row>
     <row r="22" spans="5:10">
       <c r="E22" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="F22" t="str">
         <f>角色!$E$10</f>
@@ -6453,18 +7002,18 @@
         <v>iam_menu-14</v>
       </c>
       <c r="H22" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="I22" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="J22" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
     </row>
     <row r="23" spans="5:10">
       <c r="E23" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="F23" t="str">
         <f>角色!$E$11</f>
@@ -6475,18 +7024,18 @@
         <v>iam_menu-14</v>
       </c>
       <c r="H23" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="I23" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="J23" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
     </row>
     <row r="24" spans="5:10">
       <c r="E24" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="F24" t="str">
         <f>角色!$E$12</f>
@@ -6497,18 +7046,18 @@
         <v>iam_menu-17</v>
       </c>
       <c r="H24" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="I24" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="J24" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
     </row>
     <row r="25" spans="5:10">
       <c r="E25" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="F25" t="str">
         <f>角色!$E$12</f>
@@ -6519,18 +7068,18 @@
         <v>iam_menu-19</v>
       </c>
       <c r="H25" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="I25" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="J25" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
     </row>
     <row r="26" spans="5:10">
       <c r="E26" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="F26" t="str">
         <f>角色!$E$12</f>
@@ -6541,18 +7090,18 @@
         <v>iam_menu-14</v>
       </c>
       <c r="H26" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="I26" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="J26" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
     </row>
     <row r="27" spans="5:10">
       <c r="E27" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="F27" t="str">
         <f>角色!$E$13</f>
@@ -6563,18 +7112,18 @@
         <v>iam_menu-17</v>
       </c>
       <c r="H27" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="I27" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="J27" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
     </row>
     <row r="28" spans="5:10">
       <c r="E28" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="F28" t="str">
         <f>角色!$E$13</f>
@@ -6585,18 +7134,18 @@
         <v>iam_menu-18</v>
       </c>
       <c r="H28" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="I28" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="J28" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
     </row>
     <row r="29" spans="5:10">
       <c r="E29" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="F29" t="str">
         <f>角色!$E$13</f>
@@ -6607,18 +7156,18 @@
         <v>iam_menu-19</v>
       </c>
       <c r="H29" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="I29" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="J29" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
     </row>
     <row r="30" spans="5:10">
       <c r="E30" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="F30" t="str">
         <f>角色!$E$13</f>
@@ -6629,37 +7178,38 @@
         <v>iam_menu-14</v>
       </c>
       <c r="H30" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="I30" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="J30" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="23" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D19" sqref="A18:XFD18 A19:XFD19"/>
+      <selection activeCell="D19" sqref="$A18:$XFD18 $A19:$XFD19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
   <cols>
     <col min="5" max="5" width="17.5" customWidth="1"/>
-    <col min="6" max="6" width="28.4140625" customWidth="1"/>
+    <col min="6" max="6" width="28.4166666666667" customWidth="1"/>
     <col min="10" max="10" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -6673,7 +7223,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="5:7">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -6692,66 +7242,66 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="H7" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="I7" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="J7" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="K7" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="L7" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="M7" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="N7" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="O7" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="8" spans="5:15">
       <c r="E8" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="F8" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="G8" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="H8" t="s">
         <v>82</v>
       </c>
       <c r="I8" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="J8" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="K8" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="M8" t="s">
         <v>80</v>
@@ -6763,27 +7313,27 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="5:15">
       <c r="E9" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="F9" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="G9" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="H9" t="s">
         <v>82</v>
       </c>
       <c r="I9" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="J9" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="K9" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="M9" t="s">
         <v>80</v>
@@ -6795,27 +7345,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="5:15">
       <c r="E10" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="F10" t="s">
+        <v>361</v>
+      </c>
+      <c r="G10" t="s">
         <v>356</v>
       </c>
-      <c r="G10" t="s">
-        <v>351</v>
-      </c>
       <c r="H10" t="s">
         <v>82</v>
       </c>
       <c r="I10" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="J10" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="K10" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="M10" t="s">
         <v>80</v>
@@ -6827,27 +7377,27 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="5:15">
       <c r="E11" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="F11" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="G11" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="H11" t="s">
         <v>82</v>
       </c>
       <c r="I11" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="J11" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="K11" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="M11" t="s">
         <v>80</v>
@@ -6859,27 +7409,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="5:15">
       <c r="E12" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="F12" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="G12" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="H12" t="s">
         <v>82</v>
       </c>
       <c r="I12" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="J12" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="K12" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="M12" t="s">
         <v>80</v>
@@ -6891,27 +7441,27 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="5:15">
       <c r="E13" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="F13" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="G13" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="H13" t="s">
         <v>82</v>
       </c>
       <c r="I13" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="J13" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="K13" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="M13" t="s">
         <v>80</v>
@@ -6923,27 +7473,27 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="5:15">
       <c r="E14" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="F14" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="G14" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="H14" t="s">
         <v>82</v>
       </c>
       <c r="I14" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="J14" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="K14" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="M14" t="s">
         <v>80</v>
@@ -6955,27 +7505,27 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="5:15">
       <c r="E15" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="F15" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="G15" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="H15" t="s">
         <v>82</v>
       </c>
       <c r="I15" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="J15" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="K15" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="M15" t="s">
         <v>80</v>
@@ -6987,27 +7537,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="5:15">
       <c r="E16" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="F16" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="G16" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="H16" t="s">
         <v>82</v>
       </c>
       <c r="I16" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="J16" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="K16" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="M16" t="s">
         <v>80</v>
@@ -7021,25 +7571,25 @@
     </row>
     <row r="17" spans="5:15">
       <c r="E17" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="F17" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="G17" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="H17" t="s">
         <v>82</v>
       </c>
       <c r="I17" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="J17" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="K17" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="M17" t="s">
         <v>80</v>
@@ -7052,8 +7602,8 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="23" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/src/main/resources/script/db/init-data/hrds_code_repo/hzero_platform/hzero-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/hrds_code_repo/hzero_platform/hzero-menu-user-role-label.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="597" activeTab="2"/>
+    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="597" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,11 @@
     <sheet name="菜单标签数据" sheetId="4" r:id="rId4"/>
     <sheet name="角色" sheetId="5" r:id="rId5"/>
     <sheet name="角色标签数据" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet2" sheetId="8" r:id="rId7"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId8"/>
+  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">README!$D$1:$D$4</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
@@ -25,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="427">
   <si>
     <r>
       <rPr>
@@ -2900,6 +2904,123 @@
   </si>
   <si>
     <t>标识gitlab_developer</t>
+  </si>
+  <si>
+    <t>2020-06-05</t>
+  </si>
+  <si>
+    <t>用户指引表</t>
+  </si>
+  <si>
+    <t>fd_user_guide</t>
+  </si>
+  <si>
+    <t>*ID</t>
+  </si>
+  <si>
+    <t>#CODE</t>
+  </si>
+  <si>
+    <t>TITLE</t>
+  </si>
+  <si>
+    <t>fd_user_guide-1</t>
+  </si>
+  <si>
+    <t>CODE-LIB-MANAGEMENT</t>
+  </si>
+  <si>
+    <t>如何进行代码管理？</t>
+  </si>
+  <si>
+    <t>用户指引菜单关系表</t>
+  </si>
+  <si>
+    <t>fd_user_guide_menu_rel</t>
+  </si>
+  <si>
+    <t>#MENU_ID</t>
+  </si>
+  <si>
+    <t>USER_GUIDE_ID</t>
+  </si>
+  <si>
+    <t>fd_user_guide_menu_rel-1</t>
+  </si>
+  <si>
+    <t>用户指引步骤表</t>
+  </si>
+  <si>
+    <t>fd_user_guide_step</t>
+  </si>
+  <si>
+    <t>#STEP_CODE</t>
+  </si>
+  <si>
+    <t>STEP_NAME</t>
+  </si>
+  <si>
+    <t>DESCRIPTION</t>
+  </si>
+  <si>
+    <t>DOC_URL</t>
+  </si>
+  <si>
+    <t>PAGE_URL</t>
+  </si>
+  <si>
+    <t>PERMISSION_ID</t>
+  </si>
+  <si>
+    <t>fd_user_guide_step-1</t>
+  </si>
+  <si>
+    <t>代码库权限管理</t>
+  </si>
+  <si>
+    <t>为某个应用服务配置特定的开发人员，以此来增加团队代码的安全性</t>
+  </si>
+  <si>
+    <t>/rducm</t>
+  </si>
+  <si>
+    <t>/rducm/code-lib-management?type=project&amp;id=${projectId}&amp;name=${projectName}&amp;category=AGILE&amp;organizationId=${organizationId}</t>
+  </si>
+  <si>
+    <t>fd_user_guide_step-2</t>
+  </si>
+  <si>
+    <t>CODE-LIB-LOG</t>
+  </si>
+  <si>
+    <t>代码库操作日志查看</t>
+  </si>
+  <si>
+    <t>用于记录和展示用户对权限的操作</t>
+  </si>
+  <si>
+    <t>/rducm/code-lib-management/log?type=project&amp;id=${projectId}&amp;name=${projectName}&amp;category=AGILE&amp;organizationId=${organizationId}</t>
+  </si>
+  <si>
+    <t>用户指引步骤关系表</t>
+  </si>
+  <si>
+    <t>fd_user_guide_step_rel</t>
+  </si>
+  <si>
+    <t>#USER_GUIDE_ID</t>
+  </si>
+  <si>
+    <t>#STEP_ID</t>
+  </si>
+  <si>
+    <t>STEP_ORDER</t>
+  </si>
+  <si>
+    <t>fd_user_guide_step_rel-1</t>
+  </si>
+  <si>
+    <t>fd_user_guide_step_rel-2</t>
   </si>
 </sst>
 </file>
@@ -2907,15 +3028,20 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="43">
+  <fonts count="45">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -2945,7 +3071,29 @@
     </font>
     <font>
       <sz val="12"/>
+      <color rgb="FF6A8759"/>
+      <name val="Courier New"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -3007,6 +3155,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -3016,7 +3172,67 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3038,45 +3254,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3085,14 +3273,6 @@
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3112,44 +3292,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="DengXian"/>
@@ -3165,13 +3307,6 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="DengXian (正文)"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3196,22 +3331,28 @@
     <font>
       <sz val="12"/>
       <color rgb="FF548235"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF548235"/>
       <name val="DengXian"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF37D9F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -3245,25 +3386,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3275,7 +3404,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3287,61 +3440,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3359,7 +3458,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3371,25 +3518,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3401,31 +3560,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3549,8 +3684,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -3571,21 +3708,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -3599,18 +3721,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3629,168 +3755,184 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="30" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="37" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3798,47 +3940,47 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3848,7 +3990,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3983,6 +4125,29 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="README"/>
+      <sheetName val="菜单"/>
+      <sheetName val="用户指引"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="8">
+          <cell r="E8" t="str">
+            <v>iam_menu-1</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4251,10 +4416,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.5833333333333" style="10" customWidth="1"/>
-    <col min="2" max="2" width="10.3333333333333" style="11" customWidth="1"/>
+    <col min="1" max="1" width="15.5833333333333" style="17" customWidth="1"/>
+    <col min="2" max="2" width="10.3333333333333" style="18" customWidth="1"/>
     <col min="3" max="3" width="28.1666666666667" customWidth="1"/>
-    <col min="4" max="4" width="35.3333333333333" style="5" customWidth="1"/>
+    <col min="4" max="4" width="35.3333333333333" style="13" customWidth="1"/>
     <col min="5" max="5" width="38.5833333333333" customWidth="1"/>
     <col min="6" max="6" width="23.4166666666667" customWidth="1"/>
     <col min="7" max="7" width="21.5833333333333" customWidth="1"/>
@@ -4268,79 +4433,79 @@
   </cols>
   <sheetData>
     <row r="1" ht="64.5" customHeight="1" spans="1:8">
-      <c r="A1" s="12"/>
-      <c r="C1" s="13" t="s">
+      <c r="A1" s="19"/>
+      <c r="C1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
     </row>
     <row r="2" spans="5:5">
-      <c r="E2" s="15"/>
+      <c r="E2" s="22"/>
     </row>
     <row r="3" ht="49.5" customHeight="1" spans="3:7">
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="17" t="s">
+      <c r="D3" s="23"/>
+      <c r="E3" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
     </row>
     <row r="4" spans="3:7">
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="19" t="s">
+      <c r="D4" s="25"/>
+      <c r="E4" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="28" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="12"/>
+      <c r="A5" s="19"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="3:5">
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="E7" s="31" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="3:5">
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="D8" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="27"/>
+      <c r="E8" s="34"/>
     </row>
     <row r="9" ht="52.2" spans="3:6">
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="29" t="s">
+      <c r="D9" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="30" t="s">
+      <c r="E9" s="37" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
@@ -4348,56 +4513,56 @@
       </c>
     </row>
     <row r="10" ht="52.2" spans="3:5">
-      <c r="C10" s="31" t="s">
+      <c r="C10" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="29" t="s">
+      <c r="D10" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="30" t="s">
+      <c r="E10" s="37" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" ht="69.6" spans="3:5">
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="29" t="s">
+      <c r="D11" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="30" t="s">
+      <c r="E11" s="37" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="3:5">
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="29" t="s">
+      <c r="D12" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="32" t="s">
+      <c r="E12" s="39" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="3:5">
-      <c r="C13" s="25"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="27"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="34"/>
     </row>
     <row r="14" spans="3:5">
-      <c r="C14" s="25"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="27"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="34"/>
     </row>
     <row r="15" ht="34.8" spans="3:5">
-      <c r="C15" s="33" t="s">
+      <c r="C15" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="34" t="s">
+      <c r="D15" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="35" t="s">
+      <c r="E15" s="42" t="s">
         <v>28</v>
       </c>
     </row>
@@ -4407,64 +4572,64 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="36" t="s">
+      <c r="C19" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
     </row>
     <row r="20" spans="3:4">
-      <c r="C20" s="37" t="s">
+      <c r="C20" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="22" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="21" spans="3:4">
-      <c r="C21" s="37" t="s">
+      <c r="C21" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="22" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="22" spans="3:4">
-      <c r="C22" s="37" t="s">
+      <c r="C22" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="13" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="23" spans="3:4">
-      <c r="C23" s="37" t="s">
+      <c r="C23" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="13" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="38" t="s">
+      <c r="C25" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="16" t="s">
+      <c r="D25" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="16"/>
+      <c r="E25" s="23"/>
     </row>
     <row r="26" ht="14.25" customHeight="1" spans="3:5">
-      <c r="C26" s="26" t="s">
+      <c r="C26" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="16" t="s">
+      <c r="D26" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="16"/>
+      <c r="E26" s="23"/>
     </row>
     <row r="27" ht="52.2" spans="3:3">
-      <c r="C27" s="39" t="s">
+      <c r="C27" s="46" t="s">
         <v>43</v>
       </c>
     </row>
@@ -4489,8 +4654,8 @@
   <sheetPr/>
   <dimension ref="A1:Y19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D21" sqref="$A20:$XFD20 $A21:$XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
@@ -4504,27 +4669,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="4" spans="5:7">
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="5" t="s">
         <v>49</v>
       </c>
     </row>
@@ -4538,13 +4703,13 @@
       <c r="C7" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="4" t="s">
         <v>55</v>
       </c>
       <c r="G7" t="s">
@@ -4556,10 +4721,10 @@
       <c r="I7" t="s">
         <v>58</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="J7" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="K7" s="5" t="s">
         <v>60</v>
       </c>
       <c r="L7" t="s">
@@ -4580,7 +4745,7 @@
       <c r="Q7" t="s">
         <v>66</v>
       </c>
-      <c r="R7" s="3" t="s">
+      <c r="R7" s="4" t="s">
         <v>67</v>
       </c>
       <c r="S7" t="s">
@@ -4606,7 +4771,7 @@
       </c>
     </row>
     <row r="8" spans="5:24">
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="15" t="s">
         <v>75</v>
       </c>
       <c r="F8" t="s">
@@ -4815,10 +4980,10 @@
       <c r="F12" t="s">
         <v>104</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="G12" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="H12" s="8" t="s">
+      <c r="H12" s="13" t="s">
         <v>105</v>
       </c>
       <c r="J12" t="s">
@@ -5186,7 +5351,7 @@
       <c r="L19" t="s">
         <v>81</v>
       </c>
-      <c r="M19" s="9">
+      <c r="M19" s="16">
         <v>20</v>
       </c>
       <c r="N19" t="s">
@@ -5222,8 +5387,8 @@
   <sheetPr/>
   <dimension ref="A1:G56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B39" workbookViewId="0">
-      <selection activeCell="G56" sqref="G56"/>
+    <sheetView topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="B1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="6"/>
@@ -5234,27 +5399,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="4" spans="5:7">
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="5" t="s">
         <v>49</v>
       </c>
     </row>
@@ -5268,16 +5433,16 @@
       <c r="C7" t="s">
         <v>135</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="4" t="s">
         <v>138</v>
       </c>
     </row>
@@ -5289,7 +5454,7 @@
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="13" t="s">
         <v>140</v>
       </c>
     </row>
@@ -5810,14 +5975,14 @@
       </c>
     </row>
     <row r="52" spans="5:7">
-      <c r="E52" s="6" t="s">
+      <c r="E52" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="F52" s="6" t="str">
+      <c r="F52" s="14" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
-      <c r="G52" s="6" t="s">
+      <c r="G52" s="14" t="s">
         <v>222</v>
       </c>
     </row>
@@ -5896,27 +6061,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="4" spans="5:7">
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="5" t="s">
         <v>49</v>
       </c>
     </row>
@@ -5930,16 +6095,16 @@
       <c r="C7" t="s">
         <v>231</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="4" t="s">
         <v>234</v>
       </c>
       <c r="H7" t="s">
@@ -6125,19 +6290,19 @@
       <c r="C14" t="s">
         <v>259</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="H14" s="4" t="s">
         <v>264</v>
       </c>
       <c r="I14" t="s">
@@ -6319,27 +6484,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="4" spans="5:7">
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="5" t="s">
         <v>49</v>
       </c>
     </row>
@@ -6353,10 +6518,10 @@
       <c r="C7" t="s">
         <v>269</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="3" t="s">
         <v>54</v>
       </c>
       <c r="F7" t="s">
@@ -6365,7 +6530,7 @@
       <c r="G7" t="s">
         <v>57</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="4" t="s">
         <v>55</v>
       </c>
       <c r="I7" t="s">
@@ -6374,16 +6539,16 @@
       <c r="J7" t="s">
         <v>236</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="K7" s="4" t="s">
         <v>67</v>
       </c>
       <c r="L7" t="s">
         <v>272</v>
       </c>
-      <c r="M7" s="3" t="s">
+      <c r="M7" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="N7" s="3" t="s">
+      <c r="N7" s="4" t="s">
         <v>274</v>
       </c>
       <c r="O7" t="s">
@@ -6410,7 +6575,7 @@
       <c r="V7" t="s">
         <v>281</v>
       </c>
-      <c r="W7" s="3" t="s">
+      <c r="W7" s="4" t="s">
         <v>282</v>
       </c>
       <c r="X7" t="s">
@@ -6857,16 +7022,16 @@
       <c r="C16" t="s">
         <v>330</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="4" t="s">
         <v>332</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G16" s="4" t="s">
         <v>333</v>
       </c>
       <c r="H16" t="s">
@@ -6875,7 +7040,7 @@
       <c r="I16" t="s">
         <v>335</v>
       </c>
-      <c r="J16" s="3" t="s">
+      <c r="J16" s="4" t="s">
         <v>234</v>
       </c>
     </row>
@@ -7198,8 +7363,8 @@
   <sheetPr/>
   <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D19" sqref="$A18:$XFD18 $A19:$XFD19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
@@ -7210,27 +7375,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="4" spans="5:7">
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="5" t="s">
         <v>49</v>
       </c>
     </row>
@@ -7244,16 +7409,16 @@
       <c r="C7" t="s">
         <v>231</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="4" t="s">
         <v>234</v>
       </c>
       <c r="H7" t="s">
@@ -7606,4 +7771,323 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:K27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
+  <cols>
+    <col min="3" max="3" width="18.0833333333333" customWidth="1"/>
+    <col min="4" max="4" width="19.3333333333333" customWidth="1"/>
+    <col min="5" max="5" width="23.4166666666667" customWidth="1"/>
+    <col min="6" max="6" width="29.9166666666667" customWidth="1"/>
+    <col min="7" max="7" width="20.4166666666667" customWidth="1"/>
+    <col min="8" max="8" width="33" customWidth="1"/>
+    <col min="9" max="9" width="23.75" customWidth="1"/>
+    <col min="10" max="10" width="41.7777777777778" customWidth="1"/>
+    <col min="11" max="11" width="26.4166666666667" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" customFormat="1"/>
+    <row r="3" customFormat="1"/>
+    <row r="4" customFormat="1" spans="5:7">
+      <c r="E4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1"/>
+    <row r="6" customFormat="1"/>
+    <row r="7" customFormat="1" spans="1:8">
+      <c r="A7" t="s">
+        <v>388</v>
+      </c>
+      <c r="B7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" t="s">
+        <v>389</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" customFormat="1" spans="4:7">
+      <c r="D8" s="2"/>
+      <c r="E8" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1" spans="4:7">
+      <c r="D9" s="2"/>
+      <c r="E9" s="7"/>
+      <c r="G9" s="10"/>
+    </row>
+    <row r="10" customFormat="1" spans="4:7">
+      <c r="D10" s="2"/>
+      <c r="E10" s="7"/>
+      <c r="G10" s="10"/>
+    </row>
+    <row r="11" customFormat="1" spans="4:7">
+      <c r="D11" s="2"/>
+      <c r="E11" s="7"/>
+      <c r="G11" s="10"/>
+    </row>
+    <row r="12" customFormat="1" spans="4:4">
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" customFormat="1" spans="1:7">
+      <c r="A13" t="s">
+        <v>388</v>
+      </c>
+      <c r="B13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" t="s">
+        <v>397</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="14" customFormat="1" spans="4:8">
+      <c r="D14" s="2"/>
+      <c r="E14" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="F14" s="6" t="str">
+        <f>[1]菜单!E8</f>
+        <v>iam_menu-1</v>
+      </c>
+      <c r="G14" s="6" t="str">
+        <f>E8</f>
+        <v>fd_user_guide-1</v>
+      </c>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" customFormat="1" spans="4:8">
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" customFormat="1" spans="4:8">
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" customFormat="1" spans="4:8">
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" customFormat="1"/>
+    <row r="19" customFormat="1" spans="1:11">
+      <c r="A19" t="s">
+        <v>388</v>
+      </c>
+      <c r="B19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" t="s">
+        <v>402</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="H19" t="s">
+        <v>406</v>
+      </c>
+      <c r="I19" t="s">
+        <v>407</v>
+      </c>
+      <c r="J19" t="s">
+        <v>408</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="20" s="1" customFormat="1" spans="5:11">
+      <c r="E20" s="11" t="s">
+        <v>410</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>411</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>412</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="K20" s="1" t="str">
+        <f>菜单SAAS版!E16</f>
+        <v>iam_menu-17</v>
+      </c>
+    </row>
+    <row r="21" s="1" customFormat="1" spans="5:11">
+      <c r="E21" s="11" t="s">
+        <v>415</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>417</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>418</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="K21" s="1" t="str">
+        <f>菜单SAAS版!E16</f>
+        <v>iam_menu-17</v>
+      </c>
+    </row>
+    <row r="22" customFormat="1" spans="7:7">
+      <c r="G22" s="10"/>
+    </row>
+    <row r="23" customFormat="1" spans="7:7">
+      <c r="G23" s="10"/>
+    </row>
+    <row r="24" customFormat="1"/>
+    <row r="25" customFormat="1" spans="1:8">
+      <c r="A25" t="s">
+        <v>388</v>
+      </c>
+      <c r="B25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" t="s">
+        <v>420</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="H25" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="26" customFormat="1" spans="5:8">
+      <c r="E26" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="F26" t="str">
+        <f>E8</f>
+        <v>fd_user_guide-1</v>
+      </c>
+      <c r="G26" t="str">
+        <f>E20</f>
+        <v>fd_user_guide_step-1</v>
+      </c>
+      <c r="H26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" customFormat="1" spans="5:8">
+      <c r="E27" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="F27" t="str">
+        <f>E8</f>
+        <v>fd_user_guide-1</v>
+      </c>
+      <c r="G27" t="str">
+        <f>E21</f>
+        <v>fd_user_guide_step-2</v>
+      </c>
+      <c r="H27">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/src/main/resources/script/db/init-data/hrds_code_repo/hzero_platform/hzero-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/hrds_code_repo/hzero_platform/hzero-menu-user-role-label.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="597" activeTab="6"/>
+    <workbookView windowWidth="23040" windowHeight="8975" tabRatio="597" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -15,9 +15,6 @@
     <sheet name="角色标签数据" sheetId="6" r:id="rId6"/>
     <sheet name="Sheet2" sheetId="8" r:id="rId7"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId8"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">README!$D$1:$D$4</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
@@ -3028,10 +3025,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="45">
     <font>
@@ -3155,26 +3152,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3185,54 +3166,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3261,18 +3197,48 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3284,11 +3250,42 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3386,31 +3383,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3422,19 +3407,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3452,7 +3437,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3464,103 +3557,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3667,32 +3664,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -3704,15 +3675,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3759,156 +3721,191 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="30" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="23" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -4125,29 +4122,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="README"/>
-      <sheetName val="菜单"/>
-      <sheetName val="用户指引"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="8">
-          <cell r="E8" t="str">
-            <v>iam_menu-1</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4654,7 +4628,7 @@
   <sheetPr/>
   <dimension ref="A1:Y19"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D4" workbookViewId="0">
       <selection activeCell="D21" sqref="$A20:$XFD20 $A21:$XFD21"/>
     </sheetView>
   </sheetViews>
@@ -7778,8 +7752,8 @@
   <sheetPr/>
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
@@ -7907,8 +7881,8 @@
         <v>401</v>
       </c>
       <c r="F14" s="6" t="str">
-        <f>[1]菜单!E8</f>
-        <v>iam_menu-1</v>
+        <f>菜单SAAS版!E15</f>
+        <v>iam_menu-16</v>
       </c>
       <c r="G14" s="6" t="str">
         <f>E8</f>

--- a/src/main/resources/script/db/init-data/hrds_code_repo/hzero_platform/hzero-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/hrds_code_repo/hzero_platform/hzero-menu-user-role-label.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="8975" tabRatio="597" activeTab="6"/>
+    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="597" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,8 @@
     <sheet name="菜单标签数据" sheetId="4" r:id="rId4"/>
     <sheet name="角色" sheetId="5" r:id="rId5"/>
     <sheet name="角色标签数据" sheetId="6" r:id="rId6"/>
-    <sheet name="Sheet2" sheetId="8" r:id="rId7"/>
+    <sheet name="用户指引" sheetId="8" r:id="rId7"/>
+    <sheet name="帮助文档" sheetId="9" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">README!$D$1:$D$4</definedName>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="433">
   <si>
     <r>
       <rPr>
@@ -3018,6 +3019,24 @@
   </si>
   <si>
     <t>fd_user_guide_step_rel-2</t>
+  </si>
+  <si>
+    <t>fd_help_doc</t>
+  </si>
+  <si>
+    <t>#MENU_CODE</t>
+  </si>
+  <si>
+    <t>#TAB_CODE</t>
+  </si>
+  <si>
+    <t>PATH</t>
+  </si>
+  <si>
+    <t>fd_help_doc-1</t>
+  </si>
+  <si>
+    <t>project-code-lib</t>
   </si>
 </sst>
 </file>
@@ -3026,13 +3045,54 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="45">
+  <fonts count="51">
     <font>
       <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="53"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="48"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="42"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF6A8759"/>
+      <name val="Courier New"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
@@ -3085,12 +3145,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -3139,46 +3193,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3196,26 +3213,63 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3234,11 +3288,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3250,17 +3311,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3271,21 +3340,6 @@
       <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3383,19 +3437,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3407,19 +3491,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3431,67 +3503,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3509,6 +3521,60 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -3521,25 +3587,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3551,13 +3605,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3665,30 +3719,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -3699,6 +3729,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3721,8 +3760,43 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3741,195 +3815,181 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="29" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3937,44 +3997,44 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3987,7 +4047,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -4390,10 +4450,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.5833333333333" style="17" customWidth="1"/>
-    <col min="2" max="2" width="10.3333333333333" style="18" customWidth="1"/>
+    <col min="1" max="1" width="15.5833333333333" style="23" customWidth="1"/>
+    <col min="2" max="2" width="10.3333333333333" style="24" customWidth="1"/>
     <col min="3" max="3" width="28.1666666666667" customWidth="1"/>
-    <col min="4" max="4" width="35.3333333333333" style="13" customWidth="1"/>
+    <col min="4" max="4" width="35.3333333333333" style="19" customWidth="1"/>
     <col min="5" max="5" width="38.5833333333333" customWidth="1"/>
     <col min="6" max="6" width="23.4166666666667" customWidth="1"/>
     <col min="7" max="7" width="21.5833333333333" customWidth="1"/>
@@ -4407,79 +4467,79 @@
   </cols>
   <sheetData>
     <row r="1" ht="64.5" customHeight="1" spans="1:8">
-      <c r="A1" s="19"/>
-      <c r="C1" s="20" t="s">
+      <c r="A1" s="25"/>
+      <c r="C1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
     </row>
     <row r="2" spans="5:5">
-      <c r="E2" s="22"/>
+      <c r="E2" s="28"/>
     </row>
     <row r="3" ht="49.5" customHeight="1" spans="3:7">
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="23"/>
-      <c r="E3" s="24" t="s">
+      <c r="D3" s="29"/>
+      <c r="E3" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
     </row>
     <row r="4" spans="3:7">
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="25"/>
-      <c r="E4" s="26" t="s">
+      <c r="D4" s="31"/>
+      <c r="E4" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="27" t="s">
+      <c r="F4" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="28" t="s">
+      <c r="G4" s="34" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="19"/>
+      <c r="A5" s="25"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="3:5">
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="D7" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="31" t="s">
+      <c r="E7" s="37" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="3:5">
-      <c r="C8" s="32" t="s">
+      <c r="C8" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="33" t="s">
+      <c r="D8" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="34"/>
+      <c r="E8" s="40"/>
     </row>
     <row r="9" ht="52.2" spans="3:6">
-      <c r="C9" s="35" t="s">
+      <c r="C9" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="36" t="s">
+      <c r="D9" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="37" t="s">
+      <c r="E9" s="43" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
@@ -4487,56 +4547,56 @@
       </c>
     </row>
     <row r="10" ht="52.2" spans="3:5">
-      <c r="C10" s="38" t="s">
+      <c r="C10" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="36" t="s">
+      <c r="D10" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="37" t="s">
+      <c r="E10" s="43" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" ht="69.6" spans="3:5">
-      <c r="C11" s="32" t="s">
+      <c r="C11" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="36" t="s">
+      <c r="D11" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="37" t="s">
+      <c r="E11" s="43" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="3:5">
-      <c r="C12" s="32" t="s">
+      <c r="C12" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="36" t="s">
+      <c r="D12" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="39" t="s">
+      <c r="E12" s="45" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="3:5">
-      <c r="C13" s="32"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="34"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="40"/>
     </row>
     <row r="14" spans="3:5">
-      <c r="C14" s="32"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="34"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="40"/>
     </row>
     <row r="15" ht="34.8" spans="3:5">
-      <c r="C15" s="40" t="s">
+      <c r="C15" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="41" t="s">
+      <c r="D15" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="42" t="s">
+      <c r="E15" s="48" t="s">
         <v>28</v>
       </c>
     </row>
@@ -4546,64 +4606,64 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="43" t="s">
+      <c r="C19" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="49"/>
     </row>
     <row r="20" spans="3:4">
-      <c r="C20" s="44" t="s">
+      <c r="C20" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="22" t="s">
+      <c r="D20" s="28" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="21" spans="3:4">
-      <c r="C21" s="44" t="s">
+      <c r="C21" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="22" t="s">
+      <c r="D21" s="28" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="22" spans="3:4">
-      <c r="C22" s="44" t="s">
+      <c r="C22" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="D22" s="19" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="23" spans="3:4">
-      <c r="C23" s="44" t="s">
+      <c r="C23" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="13" t="s">
+      <c r="D23" s="19" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="45" t="s">
+      <c r="C25" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="23" t="s">
+      <c r="D25" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="23"/>
+      <c r="E25" s="29"/>
     </row>
     <row r="26" ht="14.25" customHeight="1" spans="3:5">
-      <c r="C26" s="33" t="s">
+      <c r="C26" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="23" t="s">
+      <c r="D26" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="23"/>
+      <c r="E26" s="29"/>
     </row>
     <row r="27" ht="52.2" spans="3:3">
-      <c r="C27" s="46" t="s">
+      <c r="C27" s="52" t="s">
         <v>43</v>
       </c>
     </row>
@@ -4629,7 +4689,7 @@
   <dimension ref="A1:Y19"/>
   <sheetViews>
     <sheetView topLeftCell="D4" workbookViewId="0">
-      <selection activeCell="D21" sqref="$A20:$XFD20 $A21:$XFD21"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
@@ -4643,27 +4703,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="9" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="4" spans="5:7">
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="12" t="s">
         <v>49</v>
       </c>
     </row>
@@ -4677,13 +4737,13 @@
       <c r="C7" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="11" t="s">
         <v>55</v>
       </c>
       <c r="G7" t="s">
@@ -4695,10 +4755,10 @@
       <c r="I7" t="s">
         <v>58</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="J7" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="K7" s="12" t="s">
         <v>60</v>
       </c>
       <c r="L7" t="s">
@@ -4719,7 +4779,7 @@
       <c r="Q7" t="s">
         <v>66</v>
       </c>
-      <c r="R7" s="4" t="s">
+      <c r="R7" s="11" t="s">
         <v>67</v>
       </c>
       <c r="S7" t="s">
@@ -4745,7 +4805,7 @@
       </c>
     </row>
     <row r="8" spans="5:24">
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="21" t="s">
         <v>75</v>
       </c>
       <c r="F8" t="s">
@@ -4954,10 +5014,10 @@
       <c r="F12" t="s">
         <v>104</v>
       </c>
-      <c r="G12" s="13" t="s">
+      <c r="G12" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="H12" s="13" t="s">
+      <c r="H12" s="19" t="s">
         <v>105</v>
       </c>
       <c r="J12" t="s">
@@ -5325,7 +5385,7 @@
       <c r="L19" t="s">
         <v>81</v>
       </c>
-      <c r="M19" s="16">
+      <c r="M19" s="22">
         <v>20</v>
       </c>
       <c r="N19" t="s">
@@ -5373,27 +5433,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="9" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="4" spans="5:7">
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="12" t="s">
         <v>49</v>
       </c>
     </row>
@@ -5407,16 +5467,16 @@
       <c r="C7" t="s">
         <v>135</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="11" t="s">
         <v>138</v>
       </c>
     </row>
@@ -5428,7 +5488,7 @@
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="G8" s="19" t="s">
         <v>140</v>
       </c>
     </row>
@@ -5949,14 +6009,14 @@
       </c>
     </row>
     <row r="52" spans="5:7">
-      <c r="E52" s="14" t="s">
+      <c r="E52" s="20" t="s">
         <v>221</v>
       </c>
-      <c r="F52" s="14" t="str">
+      <c r="F52" s="20" t="str">
         <f>菜单SAAS版!$E$11</f>
         <v>iam_menu-11</v>
       </c>
-      <c r="G52" s="14" t="s">
+      <c r="G52" s="20" t="s">
         <v>222</v>
       </c>
     </row>
@@ -6035,27 +6095,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="9" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="4" spans="5:7">
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="12" t="s">
         <v>49</v>
       </c>
     </row>
@@ -6069,16 +6129,16 @@
       <c r="C7" t="s">
         <v>231</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="11" t="s">
         <v>234</v>
       </c>
       <c r="H7" t="s">
@@ -6264,19 +6324,19 @@
       <c r="C14" t="s">
         <v>259</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="G14" s="11" t="s">
         <v>263</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="H14" s="11" t="s">
         <v>264</v>
       </c>
       <c r="I14" t="s">
@@ -6458,27 +6518,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="9" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="4" spans="5:7">
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="12" t="s">
         <v>49</v>
       </c>
     </row>
@@ -6492,10 +6552,10 @@
       <c r="C7" t="s">
         <v>269</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F7" t="s">
@@ -6504,7 +6564,7 @@
       <c r="G7" t="s">
         <v>57</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="11" t="s">
         <v>55</v>
       </c>
       <c r="I7" t="s">
@@ -6513,16 +6573,16 @@
       <c r="J7" t="s">
         <v>236</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="K7" s="11" t="s">
         <v>67</v>
       </c>
       <c r="L7" t="s">
         <v>272</v>
       </c>
-      <c r="M7" s="4" t="s">
+      <c r="M7" s="11" t="s">
         <v>273</v>
       </c>
-      <c r="N7" s="4" t="s">
+      <c r="N7" s="11" t="s">
         <v>274</v>
       </c>
       <c r="O7" t="s">
@@ -6549,7 +6609,7 @@
       <c r="V7" t="s">
         <v>281</v>
       </c>
-      <c r="W7" s="4" t="s">
+      <c r="W7" s="11" t="s">
         <v>282</v>
       </c>
       <c r="X7" t="s">
@@ -6996,16 +7056,16 @@
       <c r="C16" t="s">
         <v>330</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="9" t="s">
         <v>331</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="11" t="s">
         <v>332</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="11" t="s">
         <v>333</v>
       </c>
       <c r="H16" t="s">
@@ -7014,7 +7074,7 @@
       <c r="I16" t="s">
         <v>335</v>
       </c>
-      <c r="J16" s="4" t="s">
+      <c r="J16" s="11" t="s">
         <v>234</v>
       </c>
     </row>
@@ -7349,27 +7409,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="9" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="4" spans="5:7">
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="12" t="s">
         <v>49</v>
       </c>
     </row>
@@ -7383,16 +7443,16 @@
       <c r="C7" t="s">
         <v>231</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="11" t="s">
         <v>234</v>
       </c>
       <c r="H7" t="s">
@@ -7752,7 +7812,7 @@
   <sheetPr/>
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+    <sheetView topLeftCell="B10" workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
@@ -7770,29 +7830,29 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:4">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="9" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="2" customFormat="1"/>
     <row r="3" customFormat="1"/>
     <row r="4" customFormat="1" spans="5:7">
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="12" t="s">
         <v>49</v>
       </c>
     </row>
@@ -7808,49 +7868,49 @@
       <c r="C7" t="s">
         <v>389</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="9" t="s">
         <v>390</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="10" t="s">
         <v>391</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="13" t="s">
         <v>392</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="13" t="s">
         <v>393</v>
       </c>
-      <c r="H7" s="6"/>
+      <c r="H7" s="13"/>
     </row>
     <row r="8" customFormat="1" spans="4:7">
-      <c r="D8" s="2"/>
-      <c r="E8" s="7" t="s">
+      <c r="D8" s="9"/>
+      <c r="E8" s="14" t="s">
         <v>394</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="15" t="s">
         <v>395</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="16" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="4:7">
-      <c r="D9" s="2"/>
-      <c r="E9" s="7"/>
-      <c r="G9" s="10"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="14"/>
+      <c r="G9" s="7"/>
     </row>
     <row r="10" customFormat="1" spans="4:7">
-      <c r="D10" s="2"/>
-      <c r="E10" s="7"/>
-      <c r="G10" s="10"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="14"/>
+      <c r="G10" s="7"/>
     </row>
     <row r="11" customFormat="1" spans="4:7">
-      <c r="D11" s="2"/>
-      <c r="E11" s="7"/>
-      <c r="G11" s="10"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="14"/>
+      <c r="G11" s="7"/>
     </row>
     <row r="12" customFormat="1" spans="4:4">
-      <c r="D12" s="2"/>
+      <c r="D12" s="9"/>
     </row>
     <row r="13" customFormat="1" spans="1:7">
       <c r="A13" t="s">
@@ -7862,54 +7922,54 @@
       <c r="C13" t="s">
         <v>397</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="9" t="s">
         <v>398</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="10" t="s">
         <v>391</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="13" t="s">
         <v>399</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G13" s="11" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="4:8">
-      <c r="D14" s="2"/>
-      <c r="E14" s="2" t="s">
+      <c r="D14" s="9"/>
+      <c r="E14" s="9" t="s">
         <v>401</v>
       </c>
-      <c r="F14" s="6" t="str">
+      <c r="F14" s="13" t="str">
         <f>菜单SAAS版!E15</f>
         <v>iam_menu-16</v>
       </c>
-      <c r="G14" s="6" t="str">
+      <c r="G14" s="13" t="str">
         <f>E8</f>
         <v>fd_user_guide-1</v>
       </c>
-      <c r="H14" s="6"/>
+      <c r="H14" s="13"/>
     </row>
     <row r="15" customFormat="1" spans="4:8">
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
     </row>
     <row r="16" customFormat="1" spans="4:8">
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
     </row>
     <row r="17" customFormat="1" spans="4:8">
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
     </row>
     <row r="18" customFormat="1"/>
     <row r="19" customFormat="1" spans="1:11">
@@ -7922,16 +7982,16 @@
       <c r="C19" t="s">
         <v>402</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="9" t="s">
         <v>403</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="F19" s="11" t="s">
         <v>404</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="G19" s="11" t="s">
         <v>405</v>
       </c>
       <c r="H